--- a/modified_chat_records.xlsx
+++ b/modified_chat_records.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AAA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FD427D-8B5D-4CCF-8411-2B588A3A36E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA79790-545B-41C1-A5CB-277222E435FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="990" yWindow="20" windowWidth="22210" windowHeight="15310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="1252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2466" uniqueCount="1281">
   <si>
     <t>Date</t>
   </si>
@@ -3845,13 +3845,103 @@
   <si>
     <t>28.9-29.15 29.3-29.45 27.5</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:22:43</t>
+  </si>
+  <si>
+    <t>21:22:44</t>
+  </si>
+  <si>
+    <t>21:22:45</t>
+  </si>
+  <si>
+    <t>21:22:46</t>
+  </si>
+  <si>
+    <t>21:22:47</t>
+  </si>
+  <si>
+    <t>21:22:48</t>
+  </si>
+  <si>
+    <t>21:22:49</t>
+  </si>
+  <si>
+    <t>21:22:50</t>
+  </si>
+  <si>
+    <t>21:22:51</t>
+  </si>
+  <si>
+    <t>21:22:52</t>
+  </si>
+  <si>
+    <t>21:22:53</t>
+  </si>
+  <si>
+    <t>21:22:54</t>
+  </si>
+  <si>
+    <t>21:22:55</t>
+  </si>
+  <si>
+    <t>21:22:56</t>
+  </si>
+  <si>
+    <t>21:22:57</t>
+  </si>
+  <si>
+    <t>21:22:58</t>
+  </si>
+  <si>
+    <t>21:22:59</t>
+  </si>
+  <si>
+    <t>21:22:60</t>
+  </si>
+  <si>
+    <t>21:22:61</t>
+  </si>
+  <si>
+    <t>21:22:62</t>
+  </si>
+  <si>
+    <t>21:22:63</t>
+  </si>
+  <si>
+    <t>21:22:64</t>
+  </si>
+  <si>
+    <t>21:22:65</t>
+  </si>
+  <si>
+    <t>21:22:66</t>
+  </si>
+  <si>
+    <t>21:22:67</t>
+  </si>
+  <si>
+    <t>21:22:68</t>
+  </si>
+  <si>
+    <t>21:22:69</t>
+  </si>
+  <si>
+    <t>21:22:70</t>
+  </si>
+  <si>
+    <t>21:22:71</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3878,13 +3968,6 @@
       <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF353535"/>
-      <name val="Microsoft YaHei UI"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -3923,7 +4006,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3934,11 +4017,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4241,24 +4334,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F512"/>
+  <dimension ref="A1:F508"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A475" workbookViewId="0">
-      <selection activeCell="F332" sqref="F332"/>
+    <sheetView tabSelected="1" topLeftCell="C474" workbookViewId="0">
+      <selection activeCell="F478" sqref="F478"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.26953125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="19.26953125" style="6" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="19.1796875" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
     <col min="5" max="5" width="104.6328125" customWidth="1"/>
-    <col min="6" max="6" width="19.81640625" customWidth="1"/>
+    <col min="6" max="6" width="19.81640625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -4273,12 +4366,12 @@
       <c r="E1" s="2" t="s">
         <v>1216</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="7" t="s">
         <v>1215</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
@@ -4290,12 +4383,12 @@
       <c r="D2">
         <v>3392911420</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
@@ -4310,12 +4403,12 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
@@ -4330,12 +4423,12 @@
       <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
@@ -4350,12 +4443,12 @@
       <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -4370,12 +4463,12 @@
       <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -4390,12 +4483,12 @@
       <c r="E7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
@@ -4410,12 +4503,12 @@
       <c r="E8" t="s">
         <v>22</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B9" t="s">
@@ -4430,12 +4523,12 @@
       <c r="E9" t="s">
         <v>25</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B10" t="s">
@@ -4450,12 +4543,12 @@
       <c r="E10" t="s">
         <v>1217</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B11" t="s">
@@ -4470,12 +4563,12 @@
       <c r="E11" t="s">
         <v>29</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B12" t="s">
@@ -4490,12 +4583,12 @@
       <c r="E12" t="s">
         <v>32</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B13" t="s">
@@ -4510,12 +4603,12 @@
       <c r="E13" t="s">
         <v>34</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B14" t="s">
@@ -4530,12 +4623,12 @@
       <c r="E14" t="s">
         <v>37</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B15" t="s">
@@ -4550,12 +4643,12 @@
       <c r="E15" t="s">
         <v>39</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B16" t="s">
@@ -4567,12 +4660,12 @@
       <c r="D16">
         <v>3392911420</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B17" t="s">
@@ -4584,12 +4677,12 @@
       <c r="D17">
         <v>3392911420</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B18" t="s">
@@ -4604,12 +4697,12 @@
       <c r="E18" t="s">
         <v>45</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="8" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B19" t="s">
@@ -4624,12 +4717,12 @@
       <c r="E19" t="s">
         <v>49</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B20" t="s">
@@ -4641,12 +4734,12 @@
       <c r="D20">
         <v>3490755</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B21" t="s">
@@ -4661,12 +4754,12 @@
       <c r="E21" t="s">
         <v>54</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B22" t="s">
@@ -4681,12 +4774,12 @@
       <c r="E22" t="s">
         <v>57</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="8" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B23" t="s">
@@ -4701,12 +4794,12 @@
       <c r="E23" t="s">
         <v>60</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="8" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B24" t="s">
@@ -4721,12 +4814,12 @@
       <c r="E24" t="s">
         <v>63</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B25" t="s">
@@ -4741,12 +4834,12 @@
       <c r="E25" t="s">
         <v>66</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B26" t="s">
@@ -4761,12 +4854,12 @@
       <c r="E26" t="s">
         <v>69</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B27" t="s">
@@ -4781,12 +4874,12 @@
       <c r="E27" t="s">
         <v>72</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B28" t="s">
@@ -4801,12 +4894,12 @@
       <c r="E28" t="s">
         <v>75</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B29" t="s">
@@ -4821,12 +4914,12 @@
       <c r="E29" t="s">
         <v>78</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B30" t="s">
@@ -4841,12 +4934,12 @@
       <c r="E30" t="s">
         <v>81</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B31" t="s">
@@ -4861,12 +4954,12 @@
       <c r="E31" t="s">
         <v>84</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="8" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B32" t="s">
@@ -4881,12 +4974,12 @@
       <c r="E32" t="s">
         <v>87</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="8" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B33" t="s">
@@ -4901,12 +4994,12 @@
       <c r="E33" t="s">
         <v>90</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="8" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B34" t="s">
@@ -4921,12 +5014,12 @@
       <c r="E34" t="s">
         <v>92</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B35" t="s">
@@ -4941,12 +5034,12 @@
       <c r="E35" t="s">
         <v>94</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="8" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B36" t="s">
@@ -4961,12 +5054,12 @@
       <c r="E36" t="s">
         <v>98</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="8" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B37" t="s">
@@ -4981,12 +5074,12 @@
       <c r="E37" t="s">
         <v>101</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="8" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B38" t="s">
@@ -5001,12 +5094,12 @@
       <c r="E38" t="s">
         <v>103</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="8" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="126" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B39" t="s">
@@ -5021,12 +5114,12 @@
       <c r="E39" t="s">
         <v>106</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="8" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B40" t="s">
@@ -5041,12 +5134,12 @@
       <c r="E40" t="s">
         <v>106</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="8" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B41" t="s">
@@ -5061,12 +5154,12 @@
       <c r="E41" t="s">
         <v>110</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B42" t="s">
@@ -5081,12 +5174,12 @@
       <c r="E42" t="s">
         <v>113</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="8" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B43" t="s">
@@ -5101,12 +5194,12 @@
       <c r="E43" t="s">
         <v>116</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="8" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B44" t="s">
@@ -5121,12 +5214,12 @@
       <c r="E44" t="s">
         <v>118</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="8" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B45" t="s">
@@ -5141,12 +5234,12 @@
       <c r="E45" t="s">
         <v>121</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="8" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B46" t="s">
@@ -5161,12 +5254,12 @@
       <c r="E46" t="s">
         <v>124</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="8" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B47" t="s">
@@ -5181,12 +5274,12 @@
       <c r="E47" t="s">
         <v>127</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="8" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B48" t="s">
@@ -5201,12 +5294,12 @@
       <c r="E48" t="s">
         <v>130</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="8" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B49" t="s">
@@ -5221,12 +5314,12 @@
       <c r="E49" t="s">
         <v>132</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="8" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B50" t="s">
@@ -5241,12 +5334,12 @@
       <c r="E50" t="s">
         <v>134</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="8" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B51" t="s">
@@ -5261,12 +5354,12 @@
       <c r="E51" t="s">
         <v>137</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="8" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B52" t="s">
@@ -5281,12 +5374,12 @@
       <c r="E52" t="s">
         <v>139</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="8" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B53" t="s">
@@ -5301,12 +5394,12 @@
       <c r="E53" t="s">
         <v>142</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="8" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B54" t="s">
@@ -5321,12 +5414,12 @@
       <c r="E54" t="s">
         <v>145</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B55" t="s">
@@ -5341,12 +5434,12 @@
       <c r="E55" t="s">
         <v>148</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="8" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B56" t="s">
@@ -5361,12 +5454,12 @@
       <c r="E56" t="s">
         <v>151</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B57" t="s">
@@ -5381,12 +5474,12 @@
       <c r="E57" t="s">
         <v>153</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B58" t="s">
@@ -5401,12 +5494,12 @@
       <c r="E58" t="s">
         <v>155</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B59" t="s">
@@ -5421,12 +5514,12 @@
       <c r="E59" t="s">
         <v>157</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B60" t="s">
@@ -5441,12 +5534,12 @@
       <c r="E60" t="s">
         <v>159</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="8" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="5" t="s">
         <v>161</v>
       </c>
       <c r="B61" t="s">
@@ -5461,12 +5554,12 @@
       <c r="E61" t="s">
         <v>163</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="8" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="5" t="s">
         <v>161</v>
       </c>
       <c r="B62" t="s">
@@ -5481,12 +5574,12 @@
       <c r="E62" t="s">
         <v>166</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="8" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="5" t="s">
         <v>161</v>
       </c>
       <c r="B63" t="s">
@@ -5501,12 +5594,12 @@
       <c r="E63" t="s">
         <v>168</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="8" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="5" t="s">
         <v>161</v>
       </c>
       <c r="B64" t="s">
@@ -5521,12 +5614,12 @@
       <c r="E64" t="s">
         <v>171</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="8" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="5" t="s">
         <v>161</v>
       </c>
       <c r="B65" t="s">
@@ -5541,12 +5634,12 @@
       <c r="E65" t="s">
         <v>174</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="8" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="5" t="s">
         <v>161</v>
       </c>
       <c r="B66" t="s">
@@ -5561,12 +5654,12 @@
       <c r="E66" t="s">
         <v>177</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="8" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="5" t="s">
         <v>161</v>
       </c>
       <c r="B67" t="s">
@@ -5581,12 +5674,12 @@
       <c r="E67" t="s">
         <v>180</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="8" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="5" t="s">
         <v>161</v>
       </c>
       <c r="B68" t="s">
@@ -5601,12 +5694,12 @@
       <c r="E68" t="s">
         <v>184</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="5" t="s">
         <v>161</v>
       </c>
       <c r="B69" t="s">
@@ -5621,12 +5714,12 @@
       <c r="E69" t="s">
         <v>186</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="8" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="5" t="s">
         <v>161</v>
       </c>
       <c r="B70" t="s">
@@ -5641,12 +5734,12 @@
       <c r="E70" t="s">
         <v>188</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="8" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="5" t="s">
         <v>190</v>
       </c>
       <c r="B71" t="s">
@@ -5661,12 +5754,12 @@
       <c r="E71" t="s">
         <v>192</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="8" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="5" t="s">
         <v>190</v>
       </c>
       <c r="B72" t="s">
@@ -5681,12 +5774,12 @@
       <c r="E72" t="s">
         <v>195</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="8" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="5" t="s">
         <v>190</v>
       </c>
       <c r="B73" t="s">
@@ -5701,12 +5794,12 @@
       <c r="E73" t="s">
         <v>198</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="8" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="5" t="s">
         <v>190</v>
       </c>
       <c r="B74" t="s">
@@ -5721,12 +5814,12 @@
       <c r="E74" t="s">
         <v>201</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="8" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="5" t="s">
         <v>190</v>
       </c>
       <c r="B75" t="s">
@@ -5741,12 +5834,12 @@
       <c r="E75" t="s">
         <v>203</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="8" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="5" t="s">
         <v>190</v>
       </c>
       <c r="B76" t="s">
@@ -5761,12 +5854,12 @@
       <c r="E76" t="s">
         <v>205</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="8" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="5" t="s">
         <v>190</v>
       </c>
       <c r="B77" t="s">
@@ -5781,12 +5874,12 @@
       <c r="E77" t="s">
         <v>208</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="8" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="5" t="s">
         <v>190</v>
       </c>
       <c r="B78" t="s">
@@ -5801,12 +5894,12 @@
       <c r="E78" t="s">
         <v>211</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="8" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="5" t="s">
         <v>190</v>
       </c>
       <c r="B79" t="s">
@@ -5821,12 +5914,12 @@
       <c r="E79" t="s">
         <v>214</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="8" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="5" t="s">
         <v>190</v>
       </c>
       <c r="B80" t="s">
@@ -5841,12 +5934,12 @@
       <c r="E80" t="s">
         <v>216</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="8" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="5" t="s">
         <v>190</v>
       </c>
       <c r="B81" t="s">
@@ -5861,12 +5954,12 @@
       <c r="E81" t="s">
         <v>218</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" s="8" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="5" t="s">
         <v>190</v>
       </c>
       <c r="B82" t="s">
@@ -5881,12 +5974,12 @@
       <c r="E82" t="s">
         <v>220</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="8" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="5" t="s">
         <v>190</v>
       </c>
       <c r="B83" t="s">
@@ -5901,12 +5994,12 @@
       <c r="E83" t="s">
         <v>222</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="8" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="5" t="s">
         <v>190</v>
       </c>
       <c r="B84" t="s">
@@ -5921,12 +6014,12 @@
       <c r="E84" t="s">
         <v>225</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="8" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="5" t="s">
         <v>190</v>
       </c>
       <c r="B85" t="s">
@@ -5941,12 +6034,12 @@
       <c r="E85" t="s">
         <v>228</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="8" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
+      <c r="A86" s="5" t="s">
         <v>190</v>
       </c>
       <c r="B86" t="s">
@@ -5961,12 +6054,12 @@
       <c r="E86" t="s">
         <v>231</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" s="8" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="5" t="s">
         <v>190</v>
       </c>
       <c r="B87" t="s">
@@ -5981,12 +6074,12 @@
       <c r="E87" t="s">
         <v>234</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" s="8" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
+      <c r="A88" s="5" t="s">
         <v>190</v>
       </c>
       <c r="B88" t="s">
@@ -6001,12 +6094,12 @@
       <c r="E88" t="s">
         <v>236</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" s="8" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="5" t="s">
         <v>190</v>
       </c>
       <c r="B89" t="s">
@@ -6021,12 +6114,12 @@
       <c r="E89" t="s">
         <v>238</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" s="8" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="5" t="s">
         <v>190</v>
       </c>
       <c r="B90" t="s">
@@ -6041,12 +6134,12 @@
       <c r="E90" t="s">
         <v>241</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" s="8" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
+      <c r="A91" s="5" t="s">
         <v>190</v>
       </c>
       <c r="B91" t="s">
@@ -6061,12 +6154,12 @@
       <c r="E91" t="s">
         <v>244</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" s="8" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
+      <c r="A92" s="5" t="s">
         <v>190</v>
       </c>
       <c r="B92" t="s">
@@ -6081,12 +6174,12 @@
       <c r="E92" t="s">
         <v>246</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" s="8" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
+      <c r="A93" s="5" t="s">
         <v>190</v>
       </c>
       <c r="B93" t="s">
@@ -6101,12 +6194,12 @@
       <c r="E93" t="s">
         <v>249</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
+      <c r="A94" s="5" t="s">
         <v>190</v>
       </c>
       <c r="B94" t="s">
@@ -6121,12 +6214,12 @@
       <c r="E94" t="s">
         <v>251</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="5" t="s">
         <v>190</v>
       </c>
       <c r="B95" t="s">
@@ -6141,12 +6234,12 @@
       <c r="E95" t="s">
         <v>253</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" s="8" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
+      <c r="A96" s="5" t="s">
         <v>255</v>
       </c>
       <c r="B96" t="s">
@@ -6161,12 +6254,12 @@
       <c r="E96" t="s">
         <v>257</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96" s="8" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
+      <c r="A97" s="5" t="s">
         <v>255</v>
       </c>
       <c r="B97" t="s">
@@ -6181,12 +6274,12 @@
       <c r="E97" t="s">
         <v>241</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" s="8" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="s">
+      <c r="A98" s="5" t="s">
         <v>255</v>
       </c>
       <c r="B98" t="s">
@@ -6201,12 +6294,12 @@
       <c r="E98" t="s">
         <v>262</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" s="8" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
+      <c r="A99" s="5" t="s">
         <v>255</v>
       </c>
       <c r="B99" t="s">
@@ -6221,12 +6314,12 @@
       <c r="E99" t="s">
         <v>265</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" s="8" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
+      <c r="A100" s="5" t="s">
         <v>255</v>
       </c>
       <c r="B100" t="s">
@@ -6241,12 +6334,12 @@
       <c r="E100" t="s">
         <v>268</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100" s="8" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="s">
+      <c r="A101" s="5" t="s">
         <v>255</v>
       </c>
       <c r="B101" t="s">
@@ -6261,12 +6354,12 @@
       <c r="E101" t="s">
         <v>271</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F101" s="8" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
+      <c r="A102" s="5" t="s">
         <v>273</v>
       </c>
       <c r="B102" t="s">
@@ -6281,12 +6374,12 @@
       <c r="E102" t="s">
         <v>275</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F102" s="8" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
+      <c r="A103" s="5" t="s">
         <v>273</v>
       </c>
       <c r="B103" t="s">
@@ -6298,12 +6391,12 @@
       <c r="D103">
         <v>3392911420</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103" s="8" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
+      <c r="A104" s="5" t="s">
         <v>273</v>
       </c>
       <c r="B104" t="s">
@@ -6318,12 +6411,12 @@
       <c r="E104" t="s">
         <v>280</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F104" s="8" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="s">
+      <c r="A105" s="5" t="s">
         <v>273</v>
       </c>
       <c r="B105" t="s">
@@ -6338,12 +6431,12 @@
       <c r="E105" t="s">
         <v>283</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F105" s="8" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="s">
+      <c r="A106" s="5" t="s">
         <v>273</v>
       </c>
       <c r="B106" t="s">
@@ -6358,12 +6451,12 @@
       <c r="E106" t="s">
         <v>286</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F106" s="8" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
+      <c r="A107" s="5" t="s">
         <v>273</v>
       </c>
       <c r="B107" t="s">
@@ -6378,12 +6471,12 @@
       <c r="E107" t="s">
         <v>289</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F107" s="8" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="4" t="s">
+      <c r="A108" s="5" t="s">
         <v>273</v>
       </c>
       <c r="B108" t="s">
@@ -6398,12 +6491,12 @@
       <c r="E108" t="s">
         <v>291</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F108" s="8" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="4" t="s">
+      <c r="A109" s="5" t="s">
         <v>273</v>
       </c>
       <c r="B109" t="s">
@@ -6418,12 +6511,12 @@
       <c r="E109" t="s">
         <v>294</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F109" s="8" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="4" t="s">
+      <c r="A110" s="5" t="s">
         <v>273</v>
       </c>
       <c r="B110" t="s">
@@ -6438,12 +6531,12 @@
       <c r="E110" t="s">
         <v>296</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F110" s="8" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="4" t="s">
+      <c r="A111" s="5" t="s">
         <v>273</v>
       </c>
       <c r="B111" t="s">
@@ -6458,12 +6551,12 @@
       <c r="E111" t="s">
         <v>299</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F111" s="8" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="4" t="s">
+      <c r="A112" s="5" t="s">
         <v>273</v>
       </c>
       <c r="B112" t="s">
@@ -6478,12 +6571,12 @@
       <c r="E112" t="s">
         <v>302</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F112" s="8" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="4" t="s">
+      <c r="A113" s="5" t="s">
         <v>304</v>
       </c>
       <c r="B113" t="s">
@@ -6498,12 +6591,12 @@
       <c r="E113" t="s">
         <v>306</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F113" s="8" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="4" t="s">
+      <c r="A114" s="5" t="s">
         <v>304</v>
       </c>
       <c r="B114" t="s">
@@ -6518,12 +6611,12 @@
       <c r="E114" t="s">
         <v>309</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F114" s="8" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="4" t="s">
+      <c r="A115" s="5" t="s">
         <v>304</v>
       </c>
       <c r="B115" t="s">
@@ -6538,12 +6631,12 @@
       <c r="E115" t="s">
         <v>312</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F115" s="8" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="4" t="s">
+      <c r="A116" s="5" t="s">
         <v>304</v>
       </c>
       <c r="B116" t="s">
@@ -6558,12 +6651,12 @@
       <c r="E116" t="s">
         <v>314</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F116" s="8" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="4" t="s">
+      <c r="A117" s="5" t="s">
         <v>304</v>
       </c>
       <c r="B117" t="s">
@@ -6578,12 +6671,12 @@
       <c r="E117" t="s">
         <v>317</v>
       </c>
-      <c r="F117" t="s">
+      <c r="F117" s="8" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="4" t="s">
+      <c r="A118" s="5" t="s">
         <v>304</v>
       </c>
       <c r="B118" t="s">
@@ -6598,12 +6691,12 @@
       <c r="E118" t="s">
         <v>319</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F118" s="8" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="4" t="s">
+      <c r="A119" s="5" t="s">
         <v>304</v>
       </c>
       <c r="B119" t="s">
@@ -6618,12 +6711,12 @@
       <c r="E119" t="s">
         <v>322</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F119" s="8" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="4" t="s">
+      <c r="A120" s="5" t="s">
         <v>304</v>
       </c>
       <c r="B120" t="s">
@@ -6638,12 +6731,12 @@
       <c r="E120" t="s">
         <v>325</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F120" s="8" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="4" t="s">
+      <c r="A121" s="5" t="s">
         <v>304</v>
       </c>
       <c r="B121" t="s">
@@ -6658,12 +6751,12 @@
       <c r="E121" t="s">
         <v>328</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F121" s="8" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="4" t="s">
+      <c r="A122" s="5" t="s">
         <v>330</v>
       </c>
       <c r="B122" t="s">
@@ -6678,12 +6771,12 @@
       <c r="E122" t="s">
         <v>333</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F122" s="8" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="4" t="s">
+      <c r="A123" s="5" t="s">
         <v>330</v>
       </c>
       <c r="B123" t="s">
@@ -6698,12 +6791,12 @@
       <c r="E123" t="s">
         <v>333</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F123" s="8" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="4" t="s">
+      <c r="A124" s="5" t="s">
         <v>330</v>
       </c>
       <c r="B124" t="s">
@@ -6718,12 +6811,12 @@
       <c r="E124" t="s">
         <v>337</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F124" s="8" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="4" t="s">
+      <c r="A125" s="5" t="s">
         <v>330</v>
       </c>
       <c r="B125" t="s">
@@ -6738,12 +6831,12 @@
       <c r="E125" t="s">
         <v>340</v>
       </c>
-      <c r="F125" t="s">
+      <c r="F125" s="8" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="4" t="s">
+      <c r="A126" s="5" t="s">
         <v>330</v>
       </c>
       <c r="B126" t="s">
@@ -6758,12 +6851,12 @@
       <c r="E126" t="s">
         <v>343</v>
       </c>
-      <c r="F126" t="s">
+      <c r="F126" s="8" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="4" t="s">
+      <c r="A127" s="5" t="s">
         <v>330</v>
       </c>
       <c r="B127" t="s">
@@ -6778,12 +6871,12 @@
       <c r="E127" t="s">
         <v>346</v>
       </c>
-      <c r="F127" t="s">
+      <c r="F127" s="8" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="4" t="s">
+      <c r="A128" s="5" t="s">
         <v>330</v>
       </c>
       <c r="B128" t="s">
@@ -6798,12 +6891,12 @@
       <c r="E128" t="s">
         <v>348</v>
       </c>
-      <c r="F128" t="s">
+      <c r="F128" s="8" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="4" t="s">
+      <c r="A129" s="5" t="s">
         <v>330</v>
       </c>
       <c r="B129" t="s">
@@ -6818,12 +6911,12 @@
       <c r="E129" t="s">
         <v>351</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F129" s="8" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="4" t="s">
+      <c r="A130" s="5" t="s">
         <v>330</v>
       </c>
       <c r="B130" t="s">
@@ -6838,12 +6931,12 @@
       <c r="E130" t="s">
         <v>354</v>
       </c>
-      <c r="F130" t="s">
+      <c r="F130" s="8" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="4" t="s">
+      <c r="A131" s="5" t="s">
         <v>330</v>
       </c>
       <c r="B131" t="s">
@@ -6858,12 +6951,12 @@
       <c r="E131" t="s">
         <v>357</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F131" s="8" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="4" t="s">
+      <c r="A132" s="5" t="s">
         <v>359</v>
       </c>
       <c r="B132" t="s">
@@ -6878,12 +6971,12 @@
       <c r="E132" t="s">
         <v>361</v>
       </c>
-      <c r="F132" t="s">
+      <c r="F132" s="8" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="4" t="s">
+      <c r="A133" s="5" t="s">
         <v>359</v>
       </c>
       <c r="B133" t="s">
@@ -6898,12 +6991,12 @@
       <c r="E133" t="s">
         <v>364</v>
       </c>
-      <c r="F133" t="s">
+      <c r="F133" s="8" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="4" t="s">
+      <c r="A134" s="5" t="s">
         <v>359</v>
       </c>
       <c r="B134" t="s">
@@ -6918,12 +7011,12 @@
       <c r="E134" t="s">
         <v>366</v>
       </c>
-      <c r="F134" t="s">
+      <c r="F134" s="8" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="4" t="s">
+      <c r="A135" s="5" t="s">
         <v>359</v>
       </c>
       <c r="B135" t="s">
@@ -6938,12 +7031,12 @@
       <c r="E135" t="s">
         <v>369</v>
       </c>
-      <c r="F135" t="s">
+      <c r="F135" s="8" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="4" t="s">
+      <c r="A136" s="5" t="s">
         <v>359</v>
       </c>
       <c r="B136" t="s">
@@ -6958,12 +7051,12 @@
       <c r="E136" t="s">
         <v>371</v>
       </c>
-      <c r="F136" t="s">
+      <c r="F136" s="8" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="4" t="s">
+      <c r="A137" s="5" t="s">
         <v>359</v>
       </c>
       <c r="B137" t="s">
@@ -6978,12 +7071,12 @@
       <c r="E137" t="s">
         <v>374</v>
       </c>
-      <c r="F137" t="s">
+      <c r="F137" s="8" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="4" t="s">
+      <c r="A138" s="5" t="s">
         <v>359</v>
       </c>
       <c r="B138" t="s">
@@ -6998,12 +7091,12 @@
       <c r="E138" t="s">
         <v>377</v>
       </c>
-      <c r="F138" t="s">
+      <c r="F138" s="8" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="4" t="s">
+      <c r="A139" s="5" t="s">
         <v>359</v>
       </c>
       <c r="B139" t="s">
@@ -7015,12 +7108,12 @@
       <c r="D139">
         <v>3392911420</v>
       </c>
-      <c r="F139" t="s">
+      <c r="F139" s="8" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="4" t="s">
+      <c r="A140" s="5" t="s">
         <v>359</v>
       </c>
       <c r="B140" t="s">
@@ -7035,12 +7128,12 @@
       <c r="E140" t="s">
         <v>381</v>
       </c>
-      <c r="F140" t="s">
+      <c r="F140" s="8" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="4" t="s">
+      <c r="A141" s="5" t="s">
         <v>359</v>
       </c>
       <c r="B141" t="s">
@@ -7055,12 +7148,12 @@
       <c r="E141" t="s">
         <v>383</v>
       </c>
-      <c r="F141" t="s">
+      <c r="F141" s="8" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="4" t="s">
+      <c r="A142" s="5" t="s">
         <v>359</v>
       </c>
       <c r="B142" t="s">
@@ -7075,12 +7168,12 @@
       <c r="E142" t="s">
         <v>386</v>
       </c>
-      <c r="F142" t="s">
+      <c r="F142" s="8" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="4" t="s">
+      <c r="A143" s="5" t="s">
         <v>359</v>
       </c>
       <c r="B143" t="s">
@@ -7095,12 +7188,12 @@
       <c r="E143" t="s">
         <v>389</v>
       </c>
-      <c r="F143" t="s">
+      <c r="F143" s="8" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="4" t="s">
+      <c r="A144" s="5" t="s">
         <v>359</v>
       </c>
       <c r="B144" t="s">
@@ -7115,12 +7208,12 @@
       <c r="E144" t="s">
         <v>392</v>
       </c>
-      <c r="F144" t="s">
+      <c r="F144" s="8" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="4" t="s">
+      <c r="A145" s="5" t="s">
         <v>359</v>
       </c>
       <c r="B145" t="s">
@@ -7135,12 +7228,12 @@
       <c r="E145" t="s">
         <v>394</v>
       </c>
-      <c r="F145" t="s">
+      <c r="F145" s="8" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="4" t="s">
+      <c r="A146" s="5" t="s">
         <v>395</v>
       </c>
       <c r="B146" t="s">
@@ -7155,12 +7248,12 @@
       <c r="E146" t="s">
         <v>397</v>
       </c>
-      <c r="F146" t="s">
+      <c r="F146" s="8" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="4" t="s">
+      <c r="A147" s="5" t="s">
         <v>399</v>
       </c>
       <c r="B147" t="s">
@@ -7175,12 +7268,12 @@
       <c r="E147" t="s">
         <v>402</v>
       </c>
-      <c r="F147" t="s">
+      <c r="F147" s="8" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="4" t="s">
+      <c r="A148" s="5" t="s">
         <v>399</v>
       </c>
       <c r="B148" t="s">
@@ -7195,12 +7288,12 @@
       <c r="E148" t="s">
         <v>402</v>
       </c>
-      <c r="F148" t="s">
+      <c r="F148" s="8" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="4" t="s">
+      <c r="A149" s="5" t="s">
         <v>399</v>
       </c>
       <c r="B149" t="s">
@@ -7215,12 +7308,12 @@
       <c r="E149" t="s">
         <v>406</v>
       </c>
-      <c r="F149" t="s">
+      <c r="F149" s="8" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="4" t="s">
+      <c r="A150" s="5" t="s">
         <v>399</v>
       </c>
       <c r="B150" t="s">
@@ -7235,12 +7328,12 @@
       <c r="E150" t="s">
         <v>408</v>
       </c>
-      <c r="F150" t="s">
+      <c r="F150" s="8" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="4" t="s">
+      <c r="A151" s="5" t="s">
         <v>399</v>
       </c>
       <c r="B151" t="s">
@@ -7255,12 +7348,12 @@
       <c r="E151" t="s">
         <v>411</v>
       </c>
-      <c r="F151" t="s">
+      <c r="F151" s="8" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="4" t="s">
+      <c r="A152" s="5" t="s">
         <v>399</v>
       </c>
       <c r="B152" t="s">
@@ -7275,12 +7368,12 @@
       <c r="E152" t="s">
         <v>413</v>
       </c>
-      <c r="F152" t="s">
+      <c r="F152" s="8" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="4" t="s">
+      <c r="A153" s="5" t="s">
         <v>399</v>
       </c>
       <c r="B153" t="s">
@@ -7295,12 +7388,12 @@
       <c r="E153" t="s">
         <v>416</v>
       </c>
-      <c r="F153" t="s">
+      <c r="F153" s="8" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="4" t="s">
+      <c r="A154" s="5" t="s">
         <v>399</v>
       </c>
       <c r="B154" t="s">
@@ -7315,12 +7408,12 @@
       <c r="E154" t="s">
         <v>419</v>
       </c>
-      <c r="F154" t="s">
+      <c r="F154" s="8" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="4" t="s">
+      <c r="A155" s="5" t="s">
         <v>399</v>
       </c>
       <c r="B155" t="s">
@@ -7335,12 +7428,12 @@
       <c r="E155" t="s">
         <v>422</v>
       </c>
-      <c r="F155" t="s">
+      <c r="F155" s="8" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="4" t="s">
+      <c r="A156" s="5" t="s">
         <v>399</v>
       </c>
       <c r="B156" t="s">
@@ -7355,12 +7448,12 @@
       <c r="E156" t="s">
         <v>425</v>
       </c>
-      <c r="F156" t="s">
+      <c r="F156" s="8" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="4" t="s">
+      <c r="A157" s="5" t="s">
         <v>399</v>
       </c>
       <c r="B157" t="s">
@@ -7375,12 +7468,12 @@
       <c r="E157" t="s">
         <v>428</v>
       </c>
-      <c r="F157" t="s">
+      <c r="F157" s="8" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="4" t="s">
+      <c r="A158" s="5" t="s">
         <v>399</v>
       </c>
       <c r="B158" t="s">
@@ -7395,12 +7488,12 @@
       <c r="E158" t="s">
         <v>431</v>
       </c>
-      <c r="F158" t="s">
+      <c r="F158" s="8" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="4" t="s">
+      <c r="A159" s="5" t="s">
         <v>399</v>
       </c>
       <c r="B159" t="s">
@@ -7415,12 +7508,12 @@
       <c r="E159" t="s">
         <v>434</v>
       </c>
-      <c r="F159" t="s">
+      <c r="F159" s="8" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="4" t="s">
+      <c r="A160" s="5" t="s">
         <v>399</v>
       </c>
       <c r="B160" t="s">
@@ -7435,12 +7528,12 @@
       <c r="E160" t="s">
         <v>437</v>
       </c>
-      <c r="F160" t="s">
+      <c r="F160" s="8" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="4" t="s">
+      <c r="A161" s="5" t="s">
         <v>399</v>
       </c>
       <c r="B161" t="s">
@@ -7455,12 +7548,12 @@
       <c r="E161" t="s">
         <v>440</v>
       </c>
-      <c r="F161" t="s">
+      <c r="F161" s="8" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="4" t="s">
+      <c r="A162" s="5" t="s">
         <v>399</v>
       </c>
       <c r="B162" t="s">
@@ -7475,12 +7568,12 @@
       <c r="E162" t="s">
         <v>442</v>
       </c>
-      <c r="F162" t="s">
+      <c r="F162" s="8" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="4" t="s">
+      <c r="A163" s="5" t="s">
         <v>399</v>
       </c>
       <c r="B163" t="s">
@@ -7495,12 +7588,12 @@
       <c r="E163" t="s">
         <v>444</v>
       </c>
-      <c r="F163" t="s">
+      <c r="F163" s="8" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="4" t="s">
+      <c r="A164" s="5" t="s">
         <v>399</v>
       </c>
       <c r="B164" t="s">
@@ -7515,12 +7608,12 @@
       <c r="E164" t="s">
         <v>447</v>
       </c>
-      <c r="F164" t="s">
+      <c r="F164" s="8" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="4" t="s">
+      <c r="A165" s="5" t="s">
         <v>399</v>
       </c>
       <c r="B165" t="s">
@@ -7535,12 +7628,12 @@
       <c r="E165" t="s">
         <v>450</v>
       </c>
-      <c r="F165" t="s">
+      <c r="F165" s="8" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="4" t="s">
+      <c r="A166" s="5" t="s">
         <v>399</v>
       </c>
       <c r="B166" t="s">
@@ -7555,12 +7648,12 @@
       <c r="E166" t="s">
         <v>452</v>
       </c>
-      <c r="F166" t="s">
+      <c r="F166" s="8" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="4" t="s">
+      <c r="A167" s="5" t="s">
         <v>399</v>
       </c>
       <c r="B167" t="s">
@@ -7575,12 +7668,12 @@
       <c r="E167" t="s">
         <v>455</v>
       </c>
-      <c r="F167" t="s">
+      <c r="F167" s="8" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="4" t="s">
+      <c r="A168" s="5" t="s">
         <v>399</v>
       </c>
       <c r="B168" t="s">
@@ -7595,12 +7688,12 @@
       <c r="E168" t="s">
         <v>458</v>
       </c>
-      <c r="F168" t="s">
+      <c r="F168" s="8" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="4" t="s">
+      <c r="A169" s="5" t="s">
         <v>399</v>
       </c>
       <c r="B169" t="s">
@@ -7615,12 +7708,12 @@
       <c r="E169" t="s">
         <v>460</v>
       </c>
-      <c r="F169" t="s">
+      <c r="F169" s="8" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="4" t="s">
+      <c r="A170" s="5" t="s">
         <v>399</v>
       </c>
       <c r="B170" t="s">
@@ -7635,12 +7728,12 @@
       <c r="E170" t="s">
         <v>463</v>
       </c>
-      <c r="F170" t="s">
+      <c r="F170" s="8" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="4" t="s">
+      <c r="A171" s="5" t="s">
         <v>399</v>
       </c>
       <c r="B171" t="s">
@@ -7655,12 +7748,12 @@
       <c r="E171" t="s">
         <v>466</v>
       </c>
-      <c r="F171" t="s">
+      <c r="F171" s="8" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="4" t="s">
+      <c r="A172" s="5" t="s">
         <v>399</v>
       </c>
       <c r="B172" t="s">
@@ -7675,12 +7768,12 @@
       <c r="E172" t="s">
         <v>469</v>
       </c>
-      <c r="F172" t="s">
+      <c r="F172" s="8" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="4" t="s">
+      <c r="A173" s="5" t="s">
         <v>399</v>
       </c>
       <c r="B173" t="s">
@@ -7695,12 +7788,12 @@
       <c r="E173" t="s">
         <v>471</v>
       </c>
-      <c r="F173" t="s">
+      <c r="F173" s="8" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="4" t="s">
+      <c r="A174" s="5" t="s">
         <v>399</v>
       </c>
       <c r="B174" t="s">
@@ -7715,12 +7808,12 @@
       <c r="E174" t="s">
         <v>473</v>
       </c>
-      <c r="F174" t="s">
+      <c r="F174" s="8" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="4" t="s">
+      <c r="A175" s="5" t="s">
         <v>399</v>
       </c>
       <c r="B175" t="s">
@@ -7735,12 +7828,12 @@
       <c r="E175" t="s">
         <v>476</v>
       </c>
-      <c r="F175" t="s">
+      <c r="F175" s="8" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="4" t="s">
+      <c r="A176" s="5" t="s">
         <v>399</v>
       </c>
       <c r="B176" t="s">
@@ -7755,12 +7848,12 @@
       <c r="E176" t="s">
         <v>476</v>
       </c>
-      <c r="F176" t="s">
+      <c r="F176" s="8" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="4" t="s">
+      <c r="A177" s="5" t="s">
         <v>399</v>
       </c>
       <c r="B177" t="s">
@@ -7775,12 +7868,12 @@
       <c r="E177" t="s">
         <v>480</v>
       </c>
-      <c r="F177" t="s">
+      <c r="F177" s="8" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="4" t="s">
+      <c r="A178" s="5" t="s">
         <v>399</v>
       </c>
       <c r="B178" t="s">
@@ -7795,12 +7888,12 @@
       <c r="E178" t="s">
         <v>482</v>
       </c>
-      <c r="F178" t="s">
+      <c r="F178" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="4" t="s">
+      <c r="A179" s="5" t="s">
         <v>399</v>
       </c>
       <c r="B179" t="s">
@@ -7815,12 +7908,12 @@
       <c r="E179" t="s">
         <v>484</v>
       </c>
-      <c r="F179" t="s">
+      <c r="F179" s="8" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="4" t="s">
+      <c r="A180" s="5" t="s">
         <v>399</v>
       </c>
       <c r="B180" t="s">
@@ -7835,12 +7928,12 @@
       <c r="E180" t="s">
         <v>487</v>
       </c>
-      <c r="F180" t="s">
+      <c r="F180" s="8" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="4" t="s">
+      <c r="A181" s="5" t="s">
         <v>399</v>
       </c>
       <c r="B181" t="s">
@@ -7855,12 +7948,12 @@
       <c r="E181" t="s">
         <v>489</v>
       </c>
-      <c r="F181" t="s">
+      <c r="F181" s="8" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="4" t="s">
+      <c r="A182" s="5" t="s">
         <v>399</v>
       </c>
       <c r="B182" t="s">
@@ -7875,12 +7968,12 @@
       <c r="E182" t="s">
         <v>492</v>
       </c>
-      <c r="F182" t="s">
+      <c r="F182" s="8" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="4" t="s">
+      <c r="A183" s="5" t="s">
         <v>494</v>
       </c>
       <c r="B183" t="s">
@@ -7895,12 +7988,12 @@
       <c r="E183" t="s">
         <v>496</v>
       </c>
-      <c r="F183" t="s">
+      <c r="F183" s="8" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="4" t="s">
+      <c r="A184" s="5" t="s">
         <v>494</v>
       </c>
       <c r="B184" t="s">
@@ -7915,12 +8008,12 @@
       <c r="E184" t="s">
         <v>499</v>
       </c>
-      <c r="F184" t="s">
+      <c r="F184" s="8" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="4" t="s">
+      <c r="A185" s="5" t="s">
         <v>494</v>
       </c>
       <c r="B185" t="s">
@@ -7935,12 +8028,12 @@
       <c r="E185" t="s">
         <v>502</v>
       </c>
-      <c r="F185" t="s">
+      <c r="F185" s="8" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="4" t="s">
+      <c r="A186" s="5" t="s">
         <v>494</v>
       </c>
       <c r="B186" t="s">
@@ -7955,12 +8048,12 @@
       <c r="E186" t="s">
         <v>504</v>
       </c>
-      <c r="F186" t="s">
+      <c r="F186" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="4" t="s">
+      <c r="A187" s="5" t="s">
         <v>494</v>
       </c>
       <c r="B187" t="s">
@@ -7975,12 +8068,12 @@
       <c r="E187" t="s">
         <v>506</v>
       </c>
-      <c r="F187" t="s">
+      <c r="F187" s="8" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="4" t="s">
+      <c r="A188" s="5" t="s">
         <v>494</v>
       </c>
       <c r="B188" t="s">
@@ -7995,12 +8088,12 @@
       <c r="E188" t="s">
         <v>509</v>
       </c>
-      <c r="F188" t="s">
+      <c r="F188" s="8" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="4" t="s">
+      <c r="A189" s="5" t="s">
         <v>494</v>
       </c>
       <c r="B189" t="s">
@@ -8015,12 +8108,12 @@
       <c r="E189" t="s">
         <v>511</v>
       </c>
-      <c r="F189" t="s">
+      <c r="F189" s="8" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" s="4" t="s">
+      <c r="A190" s="5" t="s">
         <v>494</v>
       </c>
       <c r="B190" t="s">
@@ -8035,12 +8128,12 @@
       <c r="E190" t="s">
         <v>514</v>
       </c>
-      <c r="F190" t="s">
+      <c r="F190" s="8" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" s="4" t="s">
+      <c r="A191" s="5" t="s">
         <v>494</v>
       </c>
       <c r="B191" t="s">
@@ -8055,12 +8148,12 @@
       <c r="E191" t="s">
         <v>516</v>
       </c>
-      <c r="F191" t="s">
+      <c r="F191" s="8" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" s="4" t="s">
+      <c r="A192" s="5" t="s">
         <v>494</v>
       </c>
       <c r="B192" t="s">
@@ -8075,12 +8168,12 @@
       <c r="E192" t="s">
         <v>519</v>
       </c>
-      <c r="F192" t="s">
+      <c r="F192" s="8" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" s="4" t="s">
+      <c r="A193" s="5" t="s">
         <v>494</v>
       </c>
       <c r="B193" t="s">
@@ -8095,12 +8188,12 @@
       <c r="E193" t="s">
         <v>521</v>
       </c>
-      <c r="F193" t="s">
+      <c r="F193" s="8" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" s="4" t="s">
+      <c r="A194" s="5" t="s">
         <v>494</v>
       </c>
       <c r="B194" t="s">
@@ -8115,12 +8208,12 @@
       <c r="E194" t="s">
         <v>524</v>
       </c>
-      <c r="F194" t="s">
+      <c r="F194" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" s="4" t="s">
+      <c r="A195" s="5" t="s">
         <v>494</v>
       </c>
       <c r="B195" t="s">
@@ -8135,12 +8228,12 @@
       <c r="E195" t="s">
         <v>526</v>
       </c>
-      <c r="F195" t="s">
+      <c r="F195" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" s="4" t="s">
+      <c r="A196" s="5" t="s">
         <v>494</v>
       </c>
       <c r="B196" t="s">
@@ -8155,12 +8248,12 @@
       <c r="E196" t="s">
         <v>528</v>
       </c>
-      <c r="F196" t="s">
+      <c r="F196" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" s="4" t="s">
+      <c r="A197" s="5" t="s">
         <v>494</v>
       </c>
       <c r="B197" t="s">
@@ -8175,12 +8268,12 @@
       <c r="E197" t="s">
         <v>530</v>
       </c>
-      <c r="F197" t="s">
+      <c r="F197" s="8" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" s="4" t="s">
+      <c r="A198" s="5" t="s">
         <v>494</v>
       </c>
       <c r="B198" t="s">
@@ -8195,12 +8288,12 @@
       <c r="E198" t="s">
         <v>532</v>
       </c>
-      <c r="F198" t="s">
+      <c r="F198" s="8" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" s="4" t="s">
+      <c r="A199" s="5" t="s">
         <v>494</v>
       </c>
       <c r="B199" t="s">
@@ -8215,12 +8308,12 @@
       <c r="E199" t="s">
         <v>535</v>
       </c>
-      <c r="F199" t="s">
+      <c r="F199" s="8" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" s="4" t="s">
+      <c r="A200" s="5" t="s">
         <v>494</v>
       </c>
       <c r="B200" t="s">
@@ -8235,12 +8328,12 @@
       <c r="E200" t="s">
         <v>537</v>
       </c>
-      <c r="F200" t="s">
+      <c r="F200" s="8" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201" s="4" t="s">
+      <c r="A201" s="5" t="s">
         <v>494</v>
       </c>
       <c r="B201" t="s">
@@ -8255,12 +8348,12 @@
       <c r="E201" t="s">
         <v>540</v>
       </c>
-      <c r="F201" t="s">
+      <c r="F201" s="8" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" s="4" t="s">
+      <c r="A202" s="5" t="s">
         <v>494</v>
       </c>
       <c r="B202" t="s">
@@ -8272,12 +8365,12 @@
       <c r="D202">
         <v>3392911420</v>
       </c>
-      <c r="F202" t="s">
+      <c r="F202" s="8" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203" s="4" t="s">
+      <c r="A203" s="5" t="s">
         <v>494</v>
       </c>
       <c r="B203" t="s">
@@ -8292,12 +8385,12 @@
       <c r="E203" t="s">
         <v>544</v>
       </c>
-      <c r="F203" t="s">
+      <c r="F203" s="8" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204" s="4" t="s">
+      <c r="A204" s="5" t="s">
         <v>494</v>
       </c>
       <c r="B204" t="s">
@@ -8312,12 +8405,12 @@
       <c r="E204" t="s">
         <v>546</v>
       </c>
-      <c r="F204" t="s">
+      <c r="F204" s="8" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" s="4" t="s">
+      <c r="A205" s="5" t="s">
         <v>494</v>
       </c>
       <c r="B205" t="s">
@@ -8332,12 +8425,12 @@
       <c r="E205" t="s">
         <v>549</v>
       </c>
-      <c r="F205" t="s">
+      <c r="F205" s="8" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" s="4" t="s">
+      <c r="A206" s="5" t="s">
         <v>494</v>
       </c>
       <c r="B206" t="s">
@@ -8352,12 +8445,12 @@
       <c r="E206" t="s">
         <v>551</v>
       </c>
-      <c r="F206" t="s">
+      <c r="F206" s="8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207" s="4" t="s">
+      <c r="A207" s="5" t="s">
         <v>494</v>
       </c>
       <c r="B207" t="s">
@@ -8372,12 +8465,12 @@
       <c r="E207" t="s">
         <v>553</v>
       </c>
-      <c r="F207" t="s">
+      <c r="F207" s="8" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" s="4" t="s">
+      <c r="A208" s="5" t="s">
         <v>494</v>
       </c>
       <c r="B208" t="s">
@@ -8392,12 +8485,12 @@
       <c r="E208" t="s">
         <v>556</v>
       </c>
-      <c r="F208" t="s">
+      <c r="F208" s="8" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209" s="4" t="s">
+      <c r="A209" s="5" t="s">
         <v>494</v>
       </c>
       <c r="B209" t="s">
@@ -8412,12 +8505,12 @@
       <c r="E209" t="s">
         <v>558</v>
       </c>
-      <c r="F209" t="s">
+      <c r="F209" s="8" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" s="4" t="s">
+      <c r="A210" s="5" t="s">
         <v>494</v>
       </c>
       <c r="B210" t="s">
@@ -8432,12 +8525,12 @@
       <c r="E210" t="s">
         <v>561</v>
       </c>
-      <c r="F210" t="s">
+      <c r="F210" s="8" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211" s="4" t="s">
+      <c r="A211" s="5" t="s">
         <v>494</v>
       </c>
       <c r="B211" t="s">
@@ -8452,12 +8545,12 @@
       <c r="E211" t="s">
         <v>563</v>
       </c>
-      <c r="F211" t="s">
+      <c r="F211" s="8" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212" s="4" t="s">
+      <c r="A212" s="5" t="s">
         <v>494</v>
       </c>
       <c r="B212" t="s">
@@ -8472,12 +8565,12 @@
       <c r="E212" t="s">
         <v>565</v>
       </c>
-      <c r="F212" t="s">
+      <c r="F212" s="8" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213" s="4" t="s">
+      <c r="A213" s="5" t="s">
         <v>494</v>
       </c>
       <c r="B213" t="s">
@@ -8492,12 +8585,12 @@
       <c r="E213" t="s">
         <v>567</v>
       </c>
-      <c r="F213" t="s">
+      <c r="F213" s="8" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A214" s="4" t="s">
+      <c r="A214" s="5" t="s">
         <v>494</v>
       </c>
       <c r="B214" t="s">
@@ -8512,12 +8605,12 @@
       <c r="E214" t="s">
         <v>570</v>
       </c>
-      <c r="F214" t="s">
+      <c r="F214" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A215" s="4" t="s">
+      <c r="A215" s="5" t="s">
         <v>494</v>
       </c>
       <c r="B215" t="s">
@@ -8532,12 +8625,12 @@
       <c r="E215" t="s">
         <v>570</v>
       </c>
-      <c r="F215" t="s">
+      <c r="F215" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A216" s="4" t="s">
+      <c r="A216" s="5" t="s">
         <v>572</v>
       </c>
       <c r="B216" t="s">
@@ -8552,12 +8645,12 @@
       <c r="E216" t="s">
         <v>574</v>
       </c>
-      <c r="F216" t="s">
+      <c r="F216" s="8" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217" s="4" t="s">
+      <c r="A217" s="5" t="s">
         <v>572</v>
       </c>
       <c r="B217" t="s">
@@ -8572,12 +8665,12 @@
       <c r="E217" t="s">
         <v>577</v>
       </c>
-      <c r="F217" t="s">
+      <c r="F217" s="8" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218" s="4" t="s">
+      <c r="A218" s="5" t="s">
         <v>572</v>
       </c>
       <c r="B218" t="s">
@@ -8592,12 +8685,12 @@
       <c r="E218" t="s">
         <v>580</v>
       </c>
-      <c r="F218" t="s">
+      <c r="F218" s="8" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219" s="4" t="s">
+      <c r="A219" s="5" t="s">
         <v>572</v>
       </c>
       <c r="B219" t="s">
@@ -8612,12 +8705,12 @@
       <c r="E219" t="s">
         <v>582</v>
       </c>
-      <c r="F219" t="s">
+      <c r="F219" s="8" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220" s="4" t="s">
+      <c r="A220" s="5" t="s">
         <v>572</v>
       </c>
       <c r="B220" t="s">
@@ -8632,12 +8725,12 @@
       <c r="E220" t="s">
         <v>584</v>
       </c>
-      <c r="F220" t="s">
+      <c r="F220" s="8" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A221" s="4" t="s">
+      <c r="A221" s="5" t="s">
         <v>572</v>
       </c>
       <c r="B221" t="s">
@@ -8652,12 +8745,12 @@
       <c r="E221" t="s">
         <v>586</v>
       </c>
-      <c r="F221" t="s">
+      <c r="F221" s="8" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222" s="4" t="s">
+      <c r="A222" s="5" t="s">
         <v>572</v>
       </c>
       <c r="B222" t="s">
@@ -8672,12 +8765,12 @@
       <c r="E222" t="s">
         <v>588</v>
       </c>
-      <c r="F222" t="s">
+      <c r="F222" s="8" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A223" s="4" t="s">
+      <c r="A223" s="5" t="s">
         <v>572</v>
       </c>
       <c r="B223" t="s">
@@ -8692,12 +8785,12 @@
       <c r="E223" t="s">
         <v>589</v>
       </c>
-      <c r="F223" t="s">
+      <c r="F223" s="8" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A224" s="4" t="s">
+      <c r="A224" s="5" t="s">
         <v>572</v>
       </c>
       <c r="B224" t="s">
@@ -8712,12 +8805,12 @@
       <c r="E224" t="s">
         <v>592</v>
       </c>
-      <c r="F224" t="s">
+      <c r="F224" s="8" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225" s="4" t="s">
+      <c r="A225" s="5" t="s">
         <v>572</v>
       </c>
       <c r="B225" t="s">
@@ -8732,12 +8825,12 @@
       <c r="E225" t="s">
         <v>595</v>
       </c>
-      <c r="F225" t="s">
+      <c r="F225" s="8" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226" s="4" t="s">
+      <c r="A226" s="5" t="s">
         <v>572</v>
       </c>
       <c r="B226" t="s">
@@ -8752,12 +8845,12 @@
       <c r="E226" t="s">
         <v>598</v>
       </c>
-      <c r="F226" t="s">
+      <c r="F226" s="8" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227" s="4" t="s">
+      <c r="A227" s="5" t="s">
         <v>572</v>
       </c>
       <c r="B227" t="s">
@@ -8772,12 +8865,12 @@
       <c r="E227" t="s">
         <v>601</v>
       </c>
-      <c r="F227" t="s">
+      <c r="F227" s="8" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A228" s="4" t="s">
+      <c r="A228" s="5" t="s">
         <v>572</v>
       </c>
       <c r="B228" t="s">
@@ -8792,12 +8885,12 @@
       <c r="E228" t="s">
         <v>603</v>
       </c>
-      <c r="F228" t="s">
+      <c r="F228" s="8" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A229" s="4" t="s">
+      <c r="A229" s="5" t="s">
         <v>572</v>
       </c>
       <c r="B229" t="s">
@@ -8812,12 +8905,12 @@
       <c r="E229" t="s">
         <v>605</v>
       </c>
-      <c r="F229" t="s">
+      <c r="F229" s="8" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230" s="4" t="s">
+      <c r="A230" s="5" t="s">
         <v>572</v>
       </c>
       <c r="B230" t="s">
@@ -8832,12 +8925,12 @@
       <c r="E230" t="s">
         <v>607</v>
       </c>
-      <c r="F230" t="s">
+      <c r="F230" s="8" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231" s="4" t="s">
+      <c r="A231" s="5" t="s">
         <v>572</v>
       </c>
       <c r="B231" t="s">
@@ -8852,12 +8945,12 @@
       <c r="E231" t="s">
         <v>609</v>
       </c>
-      <c r="F231" t="s">
+      <c r="F231" s="8" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232" s="4" t="s">
+      <c r="A232" s="5" t="s">
         <v>572</v>
       </c>
       <c r="B232" t="s">
@@ -8872,12 +8965,12 @@
       <c r="E232" t="s">
         <v>612</v>
       </c>
-      <c r="F232" t="s">
+      <c r="F232" s="8" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233" s="4" t="s">
+      <c r="A233" s="5" t="s">
         <v>572</v>
       </c>
       <c r="B233" t="s">
@@ -8892,12 +8985,12 @@
       <c r="E233" t="s">
         <v>615</v>
       </c>
-      <c r="F233" t="s">
+      <c r="F233" s="8" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A234" s="4" t="s">
+      <c r="A234" s="5" t="s">
         <v>572</v>
       </c>
       <c r="B234" t="s">
@@ -8912,12 +9005,12 @@
       <c r="E234" t="s">
         <v>618</v>
       </c>
-      <c r="F234" t="s">
+      <c r="F234" s="8" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235" s="4" t="s">
+      <c r="A235" s="5" t="s">
         <v>572</v>
       </c>
       <c r="B235" t="s">
@@ -8932,12 +9025,12 @@
       <c r="E235" t="s">
         <v>621</v>
       </c>
-      <c r="F235" t="s">
+      <c r="F235" s="8" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A236" s="4" t="s">
+      <c r="A236" s="5" t="s">
         <v>572</v>
       </c>
       <c r="B236" t="s">
@@ -8952,12 +9045,12 @@
       <c r="E236" t="s">
         <v>623</v>
       </c>
-      <c r="F236" t="s">
+      <c r="F236" s="8" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A237" s="4" t="s">
+      <c r="A237" s="5" t="s">
         <v>572</v>
       </c>
       <c r="B237" t="s">
@@ -8972,12 +9065,12 @@
       <c r="E237" t="s">
         <v>626</v>
       </c>
-      <c r="F237" t="s">
+      <c r="F237" s="8" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238" s="4" t="s">
+      <c r="A238" s="5" t="s">
         <v>572</v>
       </c>
       <c r="B238" t="s">
@@ -8992,12 +9085,12 @@
       <c r="E238" t="s">
         <v>628</v>
       </c>
-      <c r="F238" t="s">
+      <c r="F238" s="8" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239" s="4" t="s">
+      <c r="A239" s="5" t="s">
         <v>572</v>
       </c>
       <c r="B239" t="s">
@@ -9012,12 +9105,12 @@
       <c r="E239" t="s">
         <v>631</v>
       </c>
-      <c r="F239" t="s">
+      <c r="F239" s="8" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240" s="4" t="s">
+      <c r="A240" s="5" t="s">
         <v>572</v>
       </c>
       <c r="B240" t="s">
@@ -9032,12 +9125,12 @@
       <c r="E240" t="s">
         <v>634</v>
       </c>
-      <c r="F240" t="s">
+      <c r="F240" s="8" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241" s="4" t="s">
+      <c r="A241" s="5" t="s">
         <v>572</v>
       </c>
       <c r="B241" t="s">
@@ -9052,12 +9145,12 @@
       <c r="E241" t="s">
         <v>637</v>
       </c>
-      <c r="F241" t="s">
+      <c r="F241" s="8" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242" s="4" t="s">
+      <c r="A242" s="5" t="s">
         <v>572</v>
       </c>
       <c r="B242" t="s">
@@ -9072,12 +9165,12 @@
       <c r="E242" t="s">
         <v>640</v>
       </c>
-      <c r="F242" t="s">
+      <c r="F242" s="8" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243" s="4" t="s">
+      <c r="A243" s="5" t="s">
         <v>572</v>
       </c>
       <c r="B243" t="s">
@@ -9092,12 +9185,12 @@
       <c r="E243" t="s">
         <v>643</v>
       </c>
-      <c r="F243" t="s">
+      <c r="F243" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244" s="4" t="s">
+      <c r="A244" s="5" t="s">
         <v>572</v>
       </c>
       <c r="B244" t="s">
@@ -9112,12 +9205,12 @@
       <c r="E244" t="s">
         <v>643</v>
       </c>
-      <c r="F244" t="s">
+      <c r="F244" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245" s="4" t="s">
+      <c r="A245" s="5" t="s">
         <v>572</v>
       </c>
       <c r="B245" t="s">
@@ -9132,12 +9225,12 @@
       <c r="E245" t="s">
         <v>646</v>
       </c>
-      <c r="F245" t="s">
+      <c r="F245" s="8" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A246" s="4" t="s">
+      <c r="A246" s="5" t="s">
         <v>572</v>
       </c>
       <c r="B246" t="s">
@@ -9152,12 +9245,12 @@
       <c r="E246" t="s">
         <v>649</v>
       </c>
-      <c r="F246" t="s">
+      <c r="F246" s="8" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A247" s="4" t="s">
+      <c r="A247" s="5" t="s">
         <v>572</v>
       </c>
       <c r="B247" t="s">
@@ -9172,12 +9265,12 @@
       <c r="E247" t="s">
         <v>652</v>
       </c>
-      <c r="F247" t="s">
+      <c r="F247" s="8" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A248" s="4" t="s">
+      <c r="A248" s="5" t="s">
         <v>572</v>
       </c>
       <c r="B248" t="s">
@@ -9192,12 +9285,12 @@
       <c r="E248" t="s">
         <v>654</v>
       </c>
-      <c r="F248" t="s">
+      <c r="F248" s="8" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249" s="4" t="s">
+      <c r="A249" s="5" t="s">
         <v>572</v>
       </c>
       <c r="B249" t="s">
@@ -9212,12 +9305,12 @@
       <c r="E249" t="s">
         <v>656</v>
       </c>
-      <c r="F249" t="s">
+      <c r="F249" s="8" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250" s="4" t="s">
+      <c r="A250" s="5" t="s">
         <v>572</v>
       </c>
       <c r="B250" t="s">
@@ -9232,12 +9325,12 @@
       <c r="E250" t="s">
         <v>658</v>
       </c>
-      <c r="F250" t="s">
+      <c r="F250" s="8" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A251" s="4" t="s">
+      <c r="A251" s="5" t="s">
         <v>659</v>
       </c>
       <c r="B251" t="s">
@@ -9252,12 +9345,12 @@
       <c r="E251" t="s">
         <v>661</v>
       </c>
-      <c r="F251" t="s">
+      <c r="F251" s="8" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252" s="4" t="s">
+      <c r="A252" s="5" t="s">
         <v>659</v>
       </c>
       <c r="B252" t="s">
@@ -9272,12 +9365,12 @@
       <c r="E252" t="s">
         <v>663</v>
       </c>
-      <c r="F252" t="s">
+      <c r="F252" s="8" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253" s="4" t="s">
+      <c r="A253" s="5" t="s">
         <v>659</v>
       </c>
       <c r="B253" t="s">
@@ -9292,12 +9385,12 @@
       <c r="E253" t="s">
         <v>665</v>
       </c>
-      <c r="F253" t="s">
+      <c r="F253" s="8" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A254" s="4" t="s">
+      <c r="A254" s="5" t="s">
         <v>659</v>
       </c>
       <c r="B254" t="s">
@@ -9312,12 +9405,12 @@
       <c r="E254" t="s">
         <v>668</v>
       </c>
-      <c r="F254" t="s">
+      <c r="F254" s="8" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255" s="4" t="s">
+      <c r="A255" s="5" t="s">
         <v>659</v>
       </c>
       <c r="B255" t="s">
@@ -9332,12 +9425,12 @@
       <c r="E255" t="s">
         <v>670</v>
       </c>
-      <c r="F255" t="s">
+      <c r="F255" s="8" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256" s="4" t="s">
+      <c r="A256" s="5" t="s">
         <v>659</v>
       </c>
       <c r="B256" t="s">
@@ -9352,12 +9445,12 @@
       <c r="E256" t="s">
         <v>672</v>
       </c>
-      <c r="F256" t="s">
+      <c r="F256" s="8" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257" s="4" t="s">
+      <c r="A257" s="5" t="s">
         <v>659</v>
       </c>
       <c r="B257" t="s">
@@ -9372,12 +9465,12 @@
       <c r="E257" t="s">
         <v>674</v>
       </c>
-      <c r="F257" t="s">
+      <c r="F257" s="8" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258" s="4" t="s">
+      <c r="A258" s="5" t="s">
         <v>659</v>
       </c>
       <c r="B258" t="s">
@@ -9392,12 +9485,12 @@
       <c r="E258" t="s">
         <v>675</v>
       </c>
-      <c r="F258" t="s">
+      <c r="F258" s="8" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259" s="4" t="s">
+      <c r="A259" s="5" t="s">
         <v>659</v>
       </c>
       <c r="B259" t="s">
@@ -9412,12 +9505,12 @@
       <c r="E259" t="s">
         <v>677</v>
       </c>
-      <c r="F259" t="s">
+      <c r="F259" s="8" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260" s="4" t="s">
+      <c r="A260" s="5" t="s">
         <v>659</v>
       </c>
       <c r="B260" t="s">
@@ -9432,12 +9525,12 @@
       <c r="E260" t="s">
         <v>681</v>
       </c>
-      <c r="F260" t="s">
+      <c r="F260" s="8" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261" s="4" t="s">
+      <c r="A261" s="5" t="s">
         <v>659</v>
       </c>
       <c r="B261" t="s">
@@ -9452,12 +9545,12 @@
       <c r="E261" t="s">
         <v>681</v>
       </c>
-      <c r="F261" t="s">
+      <c r="F261" s="8" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" s="4" t="s">
+      <c r="A262" s="5" t="s">
         <v>659</v>
       </c>
       <c r="B262" t="s">
@@ -9472,12 +9565,12 @@
       <c r="E262" t="s">
         <v>685</v>
       </c>
-      <c r="F262" t="s">
+      <c r="F262" s="8" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A263" s="4" t="s">
+      <c r="A263" s="5" t="s">
         <v>659</v>
       </c>
       <c r="B263" t="s">
@@ -9492,12 +9585,12 @@
       <c r="E263" t="s">
         <v>688</v>
       </c>
-      <c r="F263" t="s">
+      <c r="F263" s="8" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A264" s="4" t="s">
+      <c r="A264" s="5" t="s">
         <v>659</v>
       </c>
       <c r="B264" t="s">
@@ -9512,12 +9605,12 @@
       <c r="E264" t="s">
         <v>691</v>
       </c>
-      <c r="F264" t="s">
+      <c r="F264" s="8" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A265" s="4" t="s">
+      <c r="A265" s="5" t="s">
         <v>659</v>
       </c>
       <c r="B265" t="s">
@@ -9532,12 +9625,12 @@
       <c r="E265" t="s">
         <v>694</v>
       </c>
-      <c r="F265" t="s">
+      <c r="F265" s="8" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A266" s="4" t="s">
+      <c r="A266" s="5" t="s">
         <v>659</v>
       </c>
       <c r="B266" t="s">
@@ -9552,12 +9645,12 @@
       <c r="E266" t="s">
         <v>697</v>
       </c>
-      <c r="F266" t="s">
+      <c r="F266" s="8" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A267" s="4" t="s">
+      <c r="A267" s="5" t="s">
         <v>659</v>
       </c>
       <c r="B267" t="s">
@@ -9572,12 +9665,12 @@
       <c r="E267" t="s">
         <v>700</v>
       </c>
-      <c r="F267" t="s">
+      <c r="F267" s="8" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A268" s="4" t="s">
+      <c r="A268" s="5" t="s">
         <v>659</v>
       </c>
       <c r="B268" t="s">
@@ -9592,12 +9685,12 @@
       <c r="E268" t="s">
         <v>703</v>
       </c>
-      <c r="F268" t="s">
+      <c r="F268" s="8" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A269" s="4" t="s">
+      <c r="A269" s="5" t="s">
         <v>659</v>
       </c>
       <c r="B269" t="s">
@@ -9612,12 +9705,12 @@
       <c r="E269" t="s">
         <v>705</v>
       </c>
-      <c r="F269" t="s">
+      <c r="F269" s="8" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A270" s="4" t="s">
+      <c r="A270" s="5" t="s">
         <v>659</v>
       </c>
       <c r="B270" t="s">
@@ -9632,12 +9725,12 @@
       <c r="E270" t="s">
         <v>707</v>
       </c>
-      <c r="F270" t="s">
+      <c r="F270" s="8" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A271" s="4" t="s">
+      <c r="A271" s="5" t="s">
         <v>659</v>
       </c>
       <c r="B271" t="s">
@@ -9652,12 +9745,12 @@
       <c r="E271" t="s">
         <v>710</v>
       </c>
-      <c r="F271" t="s">
+      <c r="F271" s="8" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A272" s="4" t="s">
+      <c r="A272" s="5" t="s">
         <v>659</v>
       </c>
       <c r="B272" t="s">
@@ -9672,12 +9765,12 @@
       <c r="E272" t="s">
         <v>712</v>
       </c>
-      <c r="F272" t="s">
+      <c r="F272" s="8" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A273" s="4" t="s">
+      <c r="A273" s="5" t="s">
         <v>659</v>
       </c>
       <c r="B273" t="s">
@@ -9692,12 +9785,12 @@
       <c r="E273" t="s">
         <v>714</v>
       </c>
-      <c r="F273" t="s">
+      <c r="F273" s="8" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A274" s="4" t="s">
+      <c r="A274" s="5" t="s">
         <v>659</v>
       </c>
       <c r="B274" t="s">
@@ -9712,12 +9805,12 @@
       <c r="E274" t="s">
         <v>717</v>
       </c>
-      <c r="F274" t="s">
+      <c r="F274" s="8" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A275" s="4" t="s">
+      <c r="A275" s="5" t="s">
         <v>659</v>
       </c>
       <c r="B275" t="s">
@@ -9732,12 +9825,12 @@
       <c r="E275" t="s">
         <v>719</v>
       </c>
-      <c r="F275" t="s">
+      <c r="F275" s="8" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A276" s="4" t="s">
+      <c r="A276" s="5" t="s">
         <v>659</v>
       </c>
       <c r="B276" t="s">
@@ -9752,12 +9845,12 @@
       <c r="E276" t="s">
         <v>723</v>
       </c>
-      <c r="F276" t="s">
+      <c r="F276" s="8" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A277" s="4" t="s">
+      <c r="A277" s="5" t="s">
         <v>659</v>
       </c>
       <c r="B277" t="s">
@@ -9772,12 +9865,12 @@
       <c r="E277" t="s">
         <v>723</v>
       </c>
-      <c r="F277" t="s">
+      <c r="F277" s="8" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A278" s="4" t="s">
+      <c r="A278" s="5" t="s">
         <v>659</v>
       </c>
       <c r="B278" t="s">
@@ -9792,12 +9885,12 @@
       <c r="E278" t="s">
         <v>726</v>
       </c>
-      <c r="F278" t="s">
+      <c r="F278" s="8" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A279" s="4" t="s">
+      <c r="A279" s="5" t="s">
         <v>659</v>
       </c>
       <c r="B279" t="s">
@@ -9812,12 +9905,12 @@
       <c r="E279" t="s">
         <v>729</v>
       </c>
-      <c r="F279" t="s">
+      <c r="F279" s="8" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A280" s="4" t="s">
+      <c r="A280" s="5" t="s">
         <v>659</v>
       </c>
       <c r="B280" t="s">
@@ -9832,12 +9925,12 @@
       <c r="E280" t="s">
         <v>732</v>
       </c>
-      <c r="F280" t="s">
+      <c r="F280" s="8" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A281" s="4" t="s">
+      <c r="A281" s="5" t="s">
         <v>659</v>
       </c>
       <c r="B281" t="s">
@@ -9852,12 +9945,12 @@
       <c r="E281" t="s">
         <v>735</v>
       </c>
-      <c r="F281" t="s">
+      <c r="F281" s="8" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A282" s="4" t="s">
+      <c r="A282" s="5" t="s">
         <v>659</v>
       </c>
       <c r="B282" t="s">
@@ -9872,12 +9965,12 @@
       <c r="E282" t="s">
         <v>737</v>
       </c>
-      <c r="F282" t="s">
+      <c r="F282" s="8" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A283" s="4" t="s">
+      <c r="A283" s="5" t="s">
         <v>659</v>
       </c>
       <c r="B283" t="s">
@@ -9892,12 +9985,12 @@
       <c r="E283" t="s">
         <v>739</v>
       </c>
-      <c r="F283" t="s">
+      <c r="F283" s="8" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A284" s="4" t="s">
+      <c r="A284" s="5" t="s">
         <v>659</v>
       </c>
       <c r="B284" t="s">
@@ -9912,12 +10005,12 @@
       <c r="E284" t="s">
         <v>742</v>
       </c>
-      <c r="F284" t="s">
+      <c r="F284" s="8" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A285" s="4" t="s">
+      <c r="A285" s="5" t="s">
         <v>659</v>
       </c>
       <c r="B285" t="s">
@@ -9932,12 +10025,12 @@
       <c r="E285" t="s">
         <v>744</v>
       </c>
-      <c r="F285" t="s">
+      <c r="F285" s="8" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A286" s="4" t="s">
+      <c r="A286" s="5" t="s">
         <v>659</v>
       </c>
       <c r="B286" t="s">
@@ -9952,12 +10045,12 @@
       <c r="E286" t="s">
         <v>746</v>
       </c>
-      <c r="F286" t="s">
+      <c r="F286" s="8" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A287" s="4" t="s">
+      <c r="A287" s="5" t="s">
         <v>659</v>
       </c>
       <c r="B287" t="s">
@@ -9972,12 +10065,12 @@
       <c r="E287" t="s">
         <v>748</v>
       </c>
-      <c r="F287" t="s">
+      <c r="F287" s="8" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A288" s="4" t="s">
+      <c r="A288" s="5" t="s">
         <v>659</v>
       </c>
       <c r="B288" t="s">
@@ -9992,12 +10085,12 @@
       <c r="E288" t="s">
         <v>750</v>
       </c>
-      <c r="F288" t="s">
+      <c r="F288" s="8" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A289" s="4" t="s">
+      <c r="A289" s="5" t="s">
         <v>659</v>
       </c>
       <c r="B289" t="s">
@@ -10012,12 +10105,12 @@
       <c r="E289" t="s">
         <v>752</v>
       </c>
-      <c r="F289" t="s">
+      <c r="F289" s="8" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A290" s="4" t="s">
+      <c r="A290" s="5" t="s">
         <v>659</v>
       </c>
       <c r="B290" t="s">
@@ -10032,12 +10125,12 @@
       <c r="E290" t="s">
         <v>756</v>
       </c>
-      <c r="F290" t="s">
+      <c r="F290" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A291" s="4" t="s">
+      <c r="A291" s="5" t="s">
         <v>659</v>
       </c>
       <c r="B291" t="s">
@@ -10052,12 +10145,12 @@
       <c r="E291" t="s">
         <v>756</v>
       </c>
-      <c r="F291" t="s">
+      <c r="F291" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A292" s="4" t="s">
+      <c r="A292" s="5" t="s">
         <v>659</v>
       </c>
       <c r="B292" t="s">
@@ -10072,12 +10165,12 @@
       <c r="E292" t="s">
         <v>759</v>
       </c>
-      <c r="F292" t="s">
+      <c r="F292" s="8" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A293" s="4" t="s">
+      <c r="A293" s="5" t="s">
         <v>659</v>
       </c>
       <c r="B293" t="s">
@@ -10092,12 +10185,12 @@
       <c r="E293" t="s">
         <v>762</v>
       </c>
-      <c r="F293" t="s">
+      <c r="F293" s="8" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A294" s="4" t="s">
+      <c r="A294" s="5" t="s">
         <v>659</v>
       </c>
       <c r="B294" t="s">
@@ -10112,12 +10205,12 @@
       <c r="E294" t="s">
         <v>765</v>
       </c>
-      <c r="F294" t="s">
+      <c r="F294" s="8" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A295" s="4" t="s">
+      <c r="A295" s="5" t="s">
         <v>659</v>
       </c>
       <c r="B295" t="s">
@@ -10132,12 +10225,12 @@
       <c r="E295" t="s">
         <v>768</v>
       </c>
-      <c r="F295" t="s">
+      <c r="F295" s="8" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A296" s="4" t="s">
+      <c r="A296" s="5" t="s">
         <v>659</v>
       </c>
       <c r="B296" t="s">
@@ -10152,12 +10245,12 @@
       <c r="E296" t="s">
         <v>770</v>
       </c>
-      <c r="F296" t="s">
+      <c r="F296" s="8" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A297" s="4" t="s">
+      <c r="A297" s="5" t="s">
         <v>659</v>
       </c>
       <c r="B297" t="s">
@@ -10172,12 +10265,12 @@
       <c r="E297" t="s">
         <v>773</v>
       </c>
-      <c r="F297" t="s">
+      <c r="F297" s="8" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A298" s="4" t="s">
+      <c r="A298" s="5" t="s">
         <v>774</v>
       </c>
       <c r="B298" t="s">
@@ -10192,12 +10285,12 @@
       <c r="E298" t="s">
         <v>776</v>
       </c>
-      <c r="F298" t="s">
+      <c r="F298" s="8" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A299" s="4" t="s">
+      <c r="A299" s="5" t="s">
         <v>774</v>
       </c>
       <c r="B299" t="s">
@@ -10212,12 +10305,12 @@
       <c r="E299" t="s">
         <v>779</v>
       </c>
-      <c r="F299" t="s">
+      <c r="F299" s="8" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A300" s="4" t="s">
+      <c r="A300" s="5" t="s">
         <v>774</v>
       </c>
       <c r="B300" t="s">
@@ -10232,12 +10325,12 @@
       <c r="E300" t="s">
         <v>782</v>
       </c>
-      <c r="F300" t="s">
+      <c r="F300" s="8" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A301" s="4" t="s">
+      <c r="A301" s="5" t="s">
         <v>774</v>
       </c>
       <c r="B301" t="s">
@@ -10252,12 +10345,12 @@
       <c r="E301" t="s">
         <v>784</v>
       </c>
-      <c r="F301" t="s">
+      <c r="F301" s="8" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A302" s="4" t="s">
+      <c r="A302" s="5" t="s">
         <v>774</v>
       </c>
       <c r="B302" t="s">
@@ -10272,12 +10365,12 @@
       <c r="E302" t="s">
         <v>787</v>
       </c>
-      <c r="F302" t="s">
+      <c r="F302" s="8" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A303" s="4" t="s">
+      <c r="A303" s="5" t="s">
         <v>774</v>
       </c>
       <c r="B303" t="s">
@@ -10292,12 +10385,12 @@
       <c r="E303" t="s">
         <v>789</v>
       </c>
-      <c r="F303" t="s">
+      <c r="F303" s="8" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A304" s="4" t="s">
+      <c r="A304" s="5" t="s">
         <v>774</v>
       </c>
       <c r="B304" t="s">
@@ -10312,12 +10405,12 @@
       <c r="E304" t="s">
         <v>791</v>
       </c>
-      <c r="F304" t="s">
+      <c r="F304" s="8" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A305" s="4" t="s">
+      <c r="A305" s="5" t="s">
         <v>774</v>
       </c>
       <c r="B305" t="s">
@@ -10332,12 +10425,12 @@
       <c r="E305" t="s">
         <v>793</v>
       </c>
-      <c r="F305" t="s">
+      <c r="F305" s="8" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A306" s="4" t="s">
+      <c r="A306" s="5" t="s">
         <v>774</v>
       </c>
       <c r="B306" t="s">
@@ -10352,12 +10445,12 @@
       <c r="E306" t="s">
         <v>795</v>
       </c>
-      <c r="F306" t="s">
+      <c r="F306" s="8" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A307" s="4" t="s">
+      <c r="A307" s="5" t="s">
         <v>774</v>
       </c>
       <c r="B307" t="s">
@@ -10372,12 +10465,12 @@
       <c r="E307" t="s">
         <v>797</v>
       </c>
-      <c r="F307" t="s">
+      <c r="F307" s="8" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A308" s="4" t="s">
+      <c r="A308" s="5" t="s">
         <v>774</v>
       </c>
       <c r="B308" t="s">
@@ -10392,12 +10485,12 @@
       <c r="E308" t="s">
         <v>799</v>
       </c>
-      <c r="F308" t="s">
+      <c r="F308" s="8" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A309" s="4" t="s">
+      <c r="A309" s="5" t="s">
         <v>774</v>
       </c>
       <c r="B309" t="s">
@@ -10412,12 +10505,12 @@
       <c r="E309" t="s">
         <v>800</v>
       </c>
-      <c r="F309" t="s">
+      <c r="F309" s="8" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A310" s="4" t="s">
+      <c r="A310" s="5" t="s">
         <v>774</v>
       </c>
       <c r="B310" t="s">
@@ -10432,12 +10525,12 @@
       <c r="E310" t="s">
         <v>803</v>
       </c>
-      <c r="F310" t="s">
+      <c r="F310" s="8" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A311" s="4" t="s">
+      <c r="A311" s="5" t="s">
         <v>774</v>
       </c>
       <c r="B311" t="s">
@@ -10452,12 +10545,12 @@
       <c r="E311" t="s">
         <v>806</v>
       </c>
-      <c r="F311" t="s">
+      <c r="F311" s="8" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A312" s="4" t="s">
+      <c r="A312" s="5" t="s">
         <v>774</v>
       </c>
       <c r="B312" t="s">
@@ -10472,12 +10565,12 @@
       <c r="E312" t="s">
         <v>808</v>
       </c>
-      <c r="F312" t="s">
+      <c r="F312" s="8" t="s">
         <v>809</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A313" s="4" t="s">
+      <c r="A313" s="5" t="s">
         <v>774</v>
       </c>
       <c r="B313" t="s">
@@ -10492,12 +10585,12 @@
       <c r="E313" t="s">
         <v>811</v>
       </c>
-      <c r="F313" t="s">
+      <c r="F313" s="8" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A314" s="4" t="s">
+      <c r="A314" s="5" t="s">
         <v>774</v>
       </c>
       <c r="B314" t="s">
@@ -10512,12 +10605,12 @@
       <c r="E314" t="s">
         <v>813</v>
       </c>
-      <c r="F314" t="s">
+      <c r="F314" s="8" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A315" s="4" t="s">
+      <c r="A315" s="5" t="s">
         <v>774</v>
       </c>
       <c r="B315" t="s">
@@ -10532,12 +10625,12 @@
       <c r="E315" t="s">
         <v>815</v>
       </c>
-      <c r="F315" t="s">
+      <c r="F315" s="8" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A316" s="4" t="s">
+      <c r="A316" s="5" t="s">
         <v>774</v>
       </c>
       <c r="B316" t="s">
@@ -10552,12 +10645,12 @@
       <c r="E316" t="s">
         <v>818</v>
       </c>
-      <c r="F316" t="s">
+      <c r="F316" s="8" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A317" s="4" t="s">
+      <c r="A317" s="5" t="s">
         <v>774</v>
       </c>
       <c r="B317" t="s">
@@ -10572,12 +10665,12 @@
       <c r="E317" t="s">
         <v>820</v>
       </c>
-      <c r="F317" t="s">
+      <c r="F317" s="8" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A318" s="4" t="s">
+      <c r="A318" s="5" t="s">
         <v>774</v>
       </c>
       <c r="B318" t="s">
@@ -10592,12 +10685,12 @@
       <c r="E318" t="s">
         <v>823</v>
       </c>
-      <c r="F318" t="s">
+      <c r="F318" s="8" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A319" s="4" t="s">
+      <c r="A319" s="5" t="s">
         <v>774</v>
       </c>
       <c r="B319" t="s">
@@ -10612,12 +10705,12 @@
       <c r="E319" t="s">
         <v>826</v>
       </c>
-      <c r="F319" t="s">
+      <c r="F319" s="8" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A320" s="4" t="s">
+      <c r="A320" s="5" t="s">
         <v>774</v>
       </c>
       <c r="B320" t="s">
@@ -10632,12 +10725,12 @@
       <c r="E320" t="s">
         <v>829</v>
       </c>
-      <c r="F320" t="s">
+      <c r="F320" s="8" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A321" s="4" t="s">
+      <c r="A321" s="5" t="s">
         <v>774</v>
       </c>
       <c r="B321" t="s">
@@ -10652,12 +10745,12 @@
       <c r="E321" t="s">
         <v>831</v>
       </c>
-      <c r="F321" t="s">
+      <c r="F321" s="8" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A322" s="4" t="s">
+      <c r="A322" s="5" t="s">
         <v>774</v>
       </c>
       <c r="B322" t="s">
@@ -10672,12 +10765,12 @@
       <c r="E322" t="s">
         <v>833</v>
       </c>
-      <c r="F322" t="s">
+      <c r="F322" s="8" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A323" s="4" t="s">
+      <c r="A323" s="5" t="s">
         <v>774</v>
       </c>
       <c r="B323" t="s">
@@ -10692,12 +10785,12 @@
       <c r="E323" t="s">
         <v>835</v>
       </c>
-      <c r="F323" t="s">
+      <c r="F323" s="8" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A324" s="4" t="s">
+      <c r="A324" s="5" t="s">
         <v>774</v>
       </c>
       <c r="B324" t="s">
@@ -10712,12 +10805,12 @@
       <c r="E324" t="s">
         <v>837</v>
       </c>
-      <c r="F324" t="s">
+      <c r="F324" s="8" t="s">
         <v>838</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A325" s="4" t="s">
+      <c r="A325" s="5" t="s">
         <v>774</v>
       </c>
       <c r="B325" t="s">
@@ -10732,12 +10825,12 @@
       <c r="E325" t="s">
         <v>840</v>
       </c>
-      <c r="F325" t="s">
+      <c r="F325" s="8" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A326" s="4" t="s">
+      <c r="A326" s="5" t="s">
         <v>774</v>
       </c>
       <c r="B326" t="s">
@@ -10752,12 +10845,12 @@
       <c r="E326" t="s">
         <v>842</v>
       </c>
-      <c r="F326" t="s">
+      <c r="F326" s="8" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A327" s="4" t="s">
+      <c r="A327" s="5" t="s">
         <v>774</v>
       </c>
       <c r="B327" t="s">
@@ -10772,12 +10865,12 @@
       <c r="E327" t="s">
         <v>845</v>
       </c>
-      <c r="F327" t="s">
+      <c r="F327" s="8" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A328" s="4" t="s">
+      <c r="A328" s="5" t="s">
         <v>774</v>
       </c>
       <c r="B328" t="s">
@@ -10792,12 +10885,12 @@
       <c r="E328" t="s">
         <v>847</v>
       </c>
-      <c r="F328" t="s">
+      <c r="F328" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A329" s="4" t="s">
+      <c r="A329" s="5" t="s">
         <v>774</v>
       </c>
       <c r="B329" t="s">
@@ -10812,12 +10905,12 @@
       <c r="E329" t="s">
         <v>849</v>
       </c>
-      <c r="F329" t="s">
+      <c r="F329" s="8" t="s">
         <v>850</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A330" s="4" t="s">
+      <c r="A330" s="5" t="s">
         <v>774</v>
       </c>
       <c r="B330" t="s">
@@ -10829,12 +10922,12 @@
       <c r="D330">
         <v>3490755</v>
       </c>
-      <c r="F330" t="s">
+      <c r="F330" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A331" s="4" t="s">
+      <c r="A331" s="5" t="s">
         <v>774</v>
       </c>
       <c r="B331" t="s">
@@ -10846,12 +10939,12 @@
       <c r="D331">
         <v>361322615</v>
       </c>
-      <c r="F331" t="s">
+      <c r="F331" s="8" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A332" s="4" t="s">
+      <c r="A332" s="5" t="s">
         <v>774</v>
       </c>
       <c r="B332" t="s">
@@ -10866,12 +10959,12 @@
       <c r="E332" t="s">
         <v>856</v>
       </c>
-      <c r="F332" t="s">
+      <c r="F332" s="8" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A333" s="4" t="s">
+      <c r="A333" s="5" t="s">
         <v>857</v>
       </c>
       <c r="B333" t="s">
@@ -10886,12 +10979,12 @@
       <c r="E333" t="s">
         <v>859</v>
       </c>
-      <c r="F333" t="s">
+      <c r="F333" s="8" t="s">
         <v>860</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A334" s="4" t="s">
+      <c r="A334" s="5" t="s">
         <v>857</v>
       </c>
       <c r="B334" t="s">
@@ -10906,12 +10999,12 @@
       <c r="E334" t="s">
         <v>862</v>
       </c>
-      <c r="F334" t="s">
+      <c r="F334" s="8" t="s">
         <v>863</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A335" s="4" t="s">
+      <c r="A335" s="5" t="s">
         <v>857</v>
       </c>
       <c r="B335" t="s">
@@ -10926,12 +11019,12 @@
       <c r="E335" t="s">
         <v>865</v>
       </c>
-      <c r="F335" t="s">
+      <c r="F335" s="8" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A336" s="4" t="s">
+      <c r="A336" s="5" t="s">
         <v>857</v>
       </c>
       <c r="B336" t="s">
@@ -10946,12 +11039,12 @@
       <c r="E336" t="s">
         <v>867</v>
       </c>
-      <c r="F336" t="s">
+      <c r="F336" s="8" t="s">
         <v>868</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A337" s="4" t="s">
+      <c r="A337" s="5" t="s">
         <v>857</v>
       </c>
       <c r="B337" t="s">
@@ -10966,12 +11059,12 @@
       <c r="E337" t="s">
         <v>870</v>
       </c>
-      <c r="F337" t="s">
+      <c r="F337" s="8" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A338" s="4" t="s">
+      <c r="A338" s="5" t="s">
         <v>857</v>
       </c>
       <c r="B338" t="s">
@@ -10986,12 +11079,12 @@
       <c r="E338" t="s">
         <v>872</v>
       </c>
-      <c r="F338" t="s">
+      <c r="F338" s="8" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A339" s="4" t="s">
+      <c r="A339" s="5" t="s">
         <v>857</v>
       </c>
       <c r="B339" t="s">
@@ -11003,12 +11096,12 @@
       <c r="D339">
         <v>3392911420</v>
       </c>
-      <c r="F339" t="s">
+      <c r="F339" s="8" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A340" s="4" t="s">
+      <c r="A340" s="5" t="s">
         <v>857</v>
       </c>
       <c r="B340" t="s">
@@ -11020,12 +11113,12 @@
       <c r="D340">
         <v>3392911420</v>
       </c>
-      <c r="F340" t="s">
+      <c r="F340" s="8" t="s">
         <v>875</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A341" s="4" t="s">
+      <c r="A341" s="5" t="s">
         <v>857</v>
       </c>
       <c r="B341" t="s">
@@ -11040,12 +11133,12 @@
       <c r="E341" t="s">
         <v>877</v>
       </c>
-      <c r="F341" t="s">
+      <c r="F341" s="8" t="s">
         <v>878</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A342" s="4" t="s">
+      <c r="A342" s="5" t="s">
         <v>857</v>
       </c>
       <c r="B342" t="s">
@@ -11060,12 +11153,12 @@
       <c r="E342" t="s">
         <v>880</v>
       </c>
-      <c r="F342" t="s">
+      <c r="F342" s="8" t="s">
         <v>878</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A343" s="4" t="s">
+      <c r="A343" s="5" t="s">
         <v>857</v>
       </c>
       <c r="B343" t="s">
@@ -11080,12 +11173,12 @@
       <c r="E343" t="s">
         <v>174</v>
       </c>
-      <c r="F343" t="s">
+      <c r="F343" s="8" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A344" s="4" t="s">
+      <c r="A344" s="5" t="s">
         <v>857</v>
       </c>
       <c r="B344" t="s">
@@ -11100,12 +11193,12 @@
       <c r="E344" t="s">
         <v>174</v>
       </c>
-      <c r="F344" t="s">
+      <c r="F344" s="8" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A345" s="4" t="s">
+      <c r="A345" s="5" t="s">
         <v>857</v>
       </c>
       <c r="B345" t="s">
@@ -11120,12 +11213,12 @@
       <c r="E345" t="s">
         <v>612</v>
       </c>
-      <c r="F345" t="s">
+      <c r="F345" s="8" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A346" s="4" t="s">
+      <c r="A346" s="5" t="s">
         <v>857</v>
       </c>
       <c r="B346" t="s">
@@ -11140,12 +11233,12 @@
       <c r="E346" t="s">
         <v>174</v>
       </c>
-      <c r="F346" t="s">
+      <c r="F346" s="8" t="s">
         <v>885</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A347" s="4" t="s">
+      <c r="A347" s="5" t="s">
         <v>857</v>
       </c>
       <c r="B347" t="s">
@@ -11160,12 +11253,12 @@
       <c r="E347" t="s">
         <v>887</v>
       </c>
-      <c r="F347" t="s">
+      <c r="F347" s="8" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A348" s="4" t="s">
+      <c r="A348" s="5" t="s">
         <v>857</v>
       </c>
       <c r="B348" t="s">
@@ -11180,12 +11273,12 @@
       <c r="E348" t="s">
         <v>890</v>
       </c>
-      <c r="F348" t="s">
+      <c r="F348" s="8" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A349" s="4" t="s">
+      <c r="A349" s="5" t="s">
         <v>857</v>
       </c>
       <c r="B349" t="s">
@@ -11200,12 +11293,12 @@
       <c r="E349" t="s">
         <v>892</v>
       </c>
-      <c r="F349" t="s">
+      <c r="F349" s="8" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A350" s="4" t="s">
+      <c r="A350" s="5" t="s">
         <v>857</v>
       </c>
       <c r="B350" t="s">
@@ -11220,12 +11313,12 @@
       <c r="E350" t="s">
         <v>894</v>
       </c>
-      <c r="F350" t="s">
+      <c r="F350" s="8" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A351" s="4" t="s">
+      <c r="A351" s="5" t="s">
         <v>857</v>
       </c>
       <c r="B351" t="s">
@@ -11240,12 +11333,12 @@
       <c r="E351" t="s">
         <v>896</v>
       </c>
-      <c r="F351" t="s">
+      <c r="F351" s="8" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A352" s="4" t="s">
+      <c r="A352" s="5" t="s">
         <v>857</v>
       </c>
       <c r="B352" t="s">
@@ -11260,12 +11353,12 @@
       <c r="E352" t="s">
         <v>898</v>
       </c>
-      <c r="F352" t="s">
+      <c r="F352" s="8" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A353" s="4" t="s">
+      <c r="A353" s="5" t="s">
         <v>857</v>
       </c>
       <c r="B353" t="s">
@@ -11280,12 +11373,12 @@
       <c r="E353" t="s">
         <v>900</v>
       </c>
-      <c r="F353" t="s">
+      <c r="F353" s="8" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A354" s="4" t="s">
+      <c r="A354" s="5" t="s">
         <v>857</v>
       </c>
       <c r="B354" t="s">
@@ -11300,12 +11393,12 @@
       <c r="E354" t="s">
         <v>902</v>
       </c>
-      <c r="F354" t="s">
+      <c r="F354" s="8" t="s">
         <v>903</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A355" s="4" t="s">
+      <c r="A355" s="5" t="s">
         <v>857</v>
       </c>
       <c r="B355" t="s">
@@ -11317,12 +11410,12 @@
       <c r="D355">
         <v>3392911420</v>
       </c>
-      <c r="F355" t="s">
+      <c r="F355" s="8" t="s">
         <v>905</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A356" s="4" t="s">
+      <c r="A356" s="5" t="s">
         <v>857</v>
       </c>
       <c r="B356" t="s">
@@ -11337,12 +11430,12 @@
       <c r="E356" t="s">
         <v>907</v>
       </c>
-      <c r="F356" t="s">
+      <c r="F356" s="8" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A357" s="4" t="s">
+      <c r="A357" s="5" t="s">
         <v>857</v>
       </c>
       <c r="B357" t="s">
@@ -11357,12 +11450,12 @@
       <c r="E357" t="s">
         <v>910</v>
       </c>
-      <c r="F357" t="s">
+      <c r="F357" s="8" t="s">
         <v>911</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A358" s="4" t="s">
+      <c r="A358" s="5" t="s">
         <v>857</v>
       </c>
       <c r="B358" t="s">
@@ -11377,12 +11470,12 @@
       <c r="E358" t="s">
         <v>913</v>
       </c>
-      <c r="F358" t="s">
+      <c r="F358" s="8" t="s">
         <v>914</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A359" s="4" t="s">
+      <c r="A359" s="5" t="s">
         <v>857</v>
       </c>
       <c r="B359" t="s">
@@ -11397,12 +11490,12 @@
       <c r="E359" t="s">
         <v>916</v>
       </c>
-      <c r="F359" t="s">
+      <c r="F359" s="8" t="s">
         <v>917</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A360" s="4" t="s">
+      <c r="A360" s="5" t="s">
         <v>857</v>
       </c>
       <c r="B360" t="s">
@@ -11417,12 +11510,12 @@
       <c r="E360" t="s">
         <v>919</v>
       </c>
-      <c r="F360" t="s">
+      <c r="F360" s="8" t="s">
         <v>920</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A361" s="4" t="s">
+      <c r="A361" s="5" t="s">
         <v>857</v>
       </c>
       <c r="B361" t="s">
@@ -11437,12 +11530,12 @@
       <c r="E361" t="s">
         <v>922</v>
       </c>
-      <c r="F361" t="s">
+      <c r="F361" s="8" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A362" s="4" t="s">
+      <c r="A362" s="5" t="s">
         <v>857</v>
       </c>
       <c r="B362" t="s">
@@ -11457,12 +11550,12 @@
       <c r="E362" t="s">
         <v>925</v>
       </c>
-      <c r="F362" t="s">
+      <c r="F362" s="8" t="s">
         <v>903</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A363" s="4" t="s">
+      <c r="A363" s="5" t="s">
         <v>857</v>
       </c>
       <c r="B363" t="s">
@@ -11477,12 +11570,12 @@
       <c r="E363" t="s">
         <v>927</v>
       </c>
-      <c r="F363" t="s">
+      <c r="F363" s="8" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A364" s="4" t="s">
+      <c r="A364" s="5" t="s">
         <v>857</v>
       </c>
       <c r="B364" t="s">
@@ -11497,12 +11590,12 @@
       <c r="E364" t="s">
         <v>929</v>
       </c>
-      <c r="F364" t="s">
+      <c r="F364" s="8" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A365" s="4" t="s">
+      <c r="A365" s="5" t="s">
         <v>857</v>
       </c>
       <c r="B365" t="s">
@@ -11517,12 +11610,12 @@
       <c r="E365" t="s">
         <v>932</v>
       </c>
-      <c r="F365" t="s">
+      <c r="F365" s="8" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A366" s="4" t="s">
+      <c r="A366" s="5" t="s">
         <v>857</v>
       </c>
       <c r="B366" t="s">
@@ -11537,12 +11630,12 @@
       <c r="E366" t="s">
         <v>934</v>
       </c>
-      <c r="F366" t="s">
+      <c r="F366" s="8" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A367" s="4" t="s">
+      <c r="A367" s="5" t="s">
         <v>857</v>
       </c>
       <c r="B367" t="s">
@@ -11557,12 +11650,12 @@
       <c r="E367" t="s">
         <v>936</v>
       </c>
-      <c r="F367" t="s">
+      <c r="F367" s="8" t="s">
         <v>937</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A368" s="4" t="s">
+      <c r="A368" s="5" t="s">
         <v>857</v>
       </c>
       <c r="B368" t="s">
@@ -11577,12 +11670,12 @@
       <c r="E368" t="s">
         <v>940</v>
       </c>
-      <c r="F368" t="s">
+      <c r="F368" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A369" s="4" t="s">
+      <c r="A369" s="5" t="s">
         <v>857</v>
       </c>
       <c r="B369" t="s">
@@ -11597,12 +11690,12 @@
       <c r="E369" t="s">
         <v>940</v>
       </c>
-      <c r="F369" t="s">
+      <c r="F369" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A370" s="4" t="s">
+      <c r="A370" s="5" t="s">
         <v>857</v>
       </c>
       <c r="B370" t="s">
@@ -11617,12 +11710,12 @@
       <c r="E370" t="s">
         <v>943</v>
       </c>
-      <c r="F370" t="s">
+      <c r="F370" s="8" t="s">
         <v>944</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A371" s="4" t="s">
+      <c r="A371" s="5" t="s">
         <v>945</v>
       </c>
       <c r="B371" t="s">
@@ -11637,12 +11730,12 @@
       <c r="E371" t="s">
         <v>174</v>
       </c>
-      <c r="F371" t="s">
+      <c r="F371" s="8" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A372" s="4" t="s">
+      <c r="A372" s="5" t="s">
         <v>945</v>
       </c>
       <c r="B372" t="s">
@@ -11657,12 +11750,12 @@
       <c r="E372" t="s">
         <v>174</v>
       </c>
-      <c r="F372" t="s">
+      <c r="F372" s="8" t="s">
         <v>903</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A373" s="4" t="s">
+      <c r="A373" s="5" t="s">
         <v>945</v>
       </c>
       <c r="B373" t="s">
@@ -11677,12 +11770,12 @@
       <c r="E373" t="s">
         <v>949</v>
       </c>
-      <c r="F373" t="s">
+      <c r="F373" s="8" t="s">
         <v>903</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A374" s="4" t="s">
+      <c r="A374" s="5" t="s">
         <v>945</v>
       </c>
       <c r="B374" t="s">
@@ -11697,12 +11790,12 @@
       <c r="E374" t="s">
         <v>951</v>
       </c>
-      <c r="F374" t="s">
+      <c r="F374" s="8" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A375" s="4" t="s">
+      <c r="A375" s="5" t="s">
         <v>945</v>
       </c>
       <c r="B375" t="s">
@@ -11717,12 +11810,12 @@
       <c r="E375" t="s">
         <v>953</v>
       </c>
-      <c r="F375" t="s">
+      <c r="F375" s="8" t="s">
         <v>954</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A376" s="4" t="s">
+      <c r="A376" s="5" t="s">
         <v>945</v>
       </c>
       <c r="B376" t="s">
@@ -11737,12 +11830,12 @@
       <c r="E376" t="s">
         <v>955</v>
       </c>
-      <c r="F376" t="s">
+      <c r="F376" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A377" s="4" t="s">
+      <c r="A377" s="5" t="s">
         <v>945</v>
       </c>
       <c r="B377" t="s">
@@ -11757,12 +11850,12 @@
       <c r="E377" t="s">
         <v>957</v>
       </c>
-      <c r="F377" t="s">
+      <c r="F377" s="8" t="s">
         <v>954</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A378" s="4" t="s">
+      <c r="A378" s="5" t="s">
         <v>945</v>
       </c>
       <c r="B378" t="s">
@@ -11777,12 +11870,12 @@
       <c r="E378" t="s">
         <v>959</v>
       </c>
-      <c r="F378" t="s">
+      <c r="F378" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A379" s="4" t="s">
+      <c r="A379" s="5" t="s">
         <v>945</v>
       </c>
       <c r="B379" t="s">
@@ -11797,12 +11890,12 @@
       <c r="E379" t="s">
         <v>961</v>
       </c>
-      <c r="F379" t="s">
+      <c r="F379" s="8" t="s">
         <v>903</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A380" s="4" t="s">
+      <c r="A380" s="5" t="s">
         <v>945</v>
       </c>
       <c r="B380" t="s">
@@ -11817,12 +11910,12 @@
       <c r="E380" t="s">
         <v>963</v>
       </c>
-      <c r="F380" t="s">
+      <c r="F380" s="8" t="s">
         <v>964</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A381" s="4" t="s">
+      <c r="A381" s="5" t="s">
         <v>945</v>
       </c>
       <c r="B381" t="s">
@@ -11837,12 +11930,12 @@
       <c r="E381" t="s">
         <v>967</v>
       </c>
-      <c r="F381" t="s">
+      <c r="F381" s="8" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A382" s="4" t="s">
+      <c r="A382" s="5" t="s">
         <v>945</v>
       </c>
       <c r="B382" t="s">
@@ -11857,12 +11950,12 @@
       <c r="E382" t="s">
         <v>967</v>
       </c>
-      <c r="F382" t="s">
+      <c r="F382" s="8" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A383" s="4" t="s">
+      <c r="A383" s="5" t="s">
         <v>945</v>
       </c>
       <c r="B383" t="s">
@@ -11877,12 +11970,12 @@
       <c r="E383" t="s">
         <v>970</v>
       </c>
-      <c r="F383" t="s">
+      <c r="F383" s="8" t="s">
         <v>920</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A384" s="4" t="s">
+      <c r="A384" s="5" t="s">
         <v>945</v>
       </c>
       <c r="B384" t="s">
@@ -11897,12 +11990,12 @@
       <c r="E384" t="s">
         <v>972</v>
       </c>
-      <c r="F384" t="s">
+      <c r="F384" s="8" t="s">
         <v>911</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A385" s="4" t="s">
+      <c r="A385" s="5" t="s">
         <v>945</v>
       </c>
       <c r="B385" t="s">
@@ -11917,12 +12010,12 @@
       <c r="E385" t="s">
         <v>974</v>
       </c>
-      <c r="F385" t="s">
+      <c r="F385" s="8" t="s">
         <v>975</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A386" s="4" t="s">
+      <c r="A386" s="5" t="s">
         <v>945</v>
       </c>
       <c r="B386" t="s">
@@ -11937,12 +12030,12 @@
       <c r="E386" t="s">
         <v>977</v>
       </c>
-      <c r="F386" t="s">
+      <c r="F386" s="8" t="s">
         <v>975</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A387" s="4" t="s">
+      <c r="A387" s="5" t="s">
         <v>945</v>
       </c>
       <c r="B387" t="s">
@@ -11957,12 +12050,12 @@
       <c r="E387" t="s">
         <v>979</v>
       </c>
-      <c r="F387" t="s">
+      <c r="F387" s="8" t="s">
         <v>980</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A388" s="4" t="s">
+      <c r="A388" s="5" t="s">
         <v>945</v>
       </c>
       <c r="B388" t="s">
@@ -11977,12 +12070,12 @@
       <c r="E388" t="s">
         <v>982</v>
       </c>
-      <c r="F388" t="s">
+      <c r="F388" s="8" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A389" s="4" t="s">
+      <c r="A389" s="5" t="s">
         <v>945</v>
       </c>
       <c r="B389" t="s">
@@ -11997,12 +12090,12 @@
       <c r="E389" t="s">
         <v>984</v>
       </c>
-      <c r="F389" t="s">
+      <c r="F389" s="8" t="s">
         <v>985</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A390" s="4" t="s">
+      <c r="A390" s="5" t="s">
         <v>945</v>
       </c>
       <c r="B390" t="s">
@@ -12017,12 +12110,12 @@
       <c r="E390" t="s">
         <v>986</v>
       </c>
-      <c r="F390" t="s">
+      <c r="F390" s="8" t="s">
         <v>985</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A391" s="4" t="s">
+      <c r="A391" s="5" t="s">
         <v>945</v>
       </c>
       <c r="B391" t="s">
@@ -12037,12 +12130,12 @@
       <c r="E391" t="s">
         <v>988</v>
       </c>
-      <c r="F391" t="s">
+      <c r="F391" s="8" t="s">
         <v>975</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A392" s="4" t="s">
+      <c r="A392" s="5" t="s">
         <v>945</v>
       </c>
       <c r="B392" t="s">
@@ -12057,12 +12150,12 @@
       <c r="E392" t="s">
         <v>990</v>
       </c>
-      <c r="F392" t="s">
+      <c r="F392" s="8" t="s">
         <v>991</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A393" s="4" t="s">
+      <c r="A393" s="5" t="s">
         <v>945</v>
       </c>
       <c r="B393" t="s">
@@ -12077,12 +12170,12 @@
       <c r="E393" t="s">
         <v>993</v>
       </c>
-      <c r="F393" t="s">
+      <c r="F393" s="8" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A394" s="4" t="s">
+      <c r="A394" s="5" t="s">
         <v>945</v>
       </c>
       <c r="B394" t="s">
@@ -12097,12 +12190,12 @@
       <c r="E394" t="s">
         <v>995</v>
       </c>
-      <c r="F394" t="s">
+      <c r="F394" s="8" t="s">
         <v>917</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A395" s="4" t="s">
+      <c r="A395" s="5" t="s">
         <v>945</v>
       </c>
       <c r="B395" t="s">
@@ -12117,12 +12210,12 @@
       <c r="E395" t="s">
         <v>997</v>
       </c>
-      <c r="F395" t="s">
+      <c r="F395" s="8" t="s">
         <v>998</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A396" s="4" t="s">
+      <c r="A396" s="5" t="s">
         <v>945</v>
       </c>
       <c r="B396" t="s">
@@ -12137,12 +12230,12 @@
       <c r="E396" t="s">
         <v>1000</v>
       </c>
-      <c r="F396" t="s">
+      <c r="F396" s="8" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A397" s="4" t="s">
+      <c r="A397" s="5" t="s">
         <v>945</v>
       </c>
       <c r="B397" t="s">
@@ -12157,12 +12250,12 @@
       <c r="E397" t="s">
         <v>1003</v>
       </c>
-      <c r="F397" t="s">
+      <c r="F397" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A398" s="4" t="s">
+      <c r="A398" s="5" t="s">
         <v>945</v>
       </c>
       <c r="B398" t="s">
@@ -12177,12 +12270,12 @@
       <c r="E398" t="s">
         <v>1003</v>
       </c>
-      <c r="F398" t="s">
+      <c r="F398" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A399" s="4" t="s">
+      <c r="A399" s="5" t="s">
         <v>1005</v>
       </c>
       <c r="B399" t="s">
@@ -12197,12 +12290,12 @@
       <c r="E399" t="s">
         <v>1007</v>
       </c>
-      <c r="F399" t="s">
+      <c r="F399" s="8" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A400" s="4" t="s">
+      <c r="A400" s="5" t="s">
         <v>1005</v>
       </c>
       <c r="B400" t="s">
@@ -12214,12 +12307,12 @@
       <c r="D400">
         <v>1004028451</v>
       </c>
-      <c r="F400" t="s">
+      <c r="F400" s="8" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A401" s="4" t="s">
+      <c r="A401" s="5" t="s">
         <v>1005</v>
       </c>
       <c r="B401" t="s">
@@ -12231,12 +12324,12 @@
       <c r="D401">
         <v>1004028451</v>
       </c>
-      <c r="F401" t="s">
+      <c r="F401" s="8" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A402" s="4" t="s">
+      <c r="A402" s="5" t="s">
         <v>1005</v>
       </c>
       <c r="B402" t="s">
@@ -12248,12 +12341,12 @@
       <c r="D402">
         <v>1004028451</v>
       </c>
-      <c r="F402" t="s">
+      <c r="F402" s="8" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A403" s="4" t="s">
+      <c r="A403" s="5" t="s">
         <v>1005</v>
       </c>
       <c r="B403" t="s">
@@ -12268,12 +12361,12 @@
       <c r="E403" t="s">
         <v>1012</v>
       </c>
-      <c r="F403" t="s">
+      <c r="F403" s="8" t="s">
         <v>1013</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A404" s="4" t="s">
+      <c r="A404" s="5" t="s">
         <v>1014</v>
       </c>
       <c r="B404" t="s">
@@ -12288,12 +12381,12 @@
       <c r="E404" t="s">
         <v>1016</v>
       </c>
-      <c r="F404" t="s">
+      <c r="F404" s="8" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A405" s="4" t="s">
+      <c r="A405" s="5" t="s">
         <v>1014</v>
       </c>
       <c r="B405" t="s">
@@ -12308,12 +12401,12 @@
       <c r="E405" t="s">
         <v>1019</v>
       </c>
-      <c r="F405" t="s">
+      <c r="F405" s="8" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A406" s="4" t="s">
+      <c r="A406" s="5" t="s">
         <v>1014</v>
       </c>
       <c r="B406" t="s">
@@ -12328,12 +12421,12 @@
       <c r="E406" t="s">
         <v>1022</v>
       </c>
-      <c r="F406" t="s">
+      <c r="F406" s="8" t="s">
         <v>1023</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A407" s="4" t="s">
+      <c r="A407" s="5" t="s">
         <v>1014</v>
       </c>
       <c r="B407" t="s">
@@ -12348,12 +12441,12 @@
       <c r="E407" t="s">
         <v>1025</v>
       </c>
-      <c r="F407" t="s">
+      <c r="F407" s="8" t="s">
         <v>1026</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A408" s="4" t="s">
+      <c r="A408" s="5" t="s">
         <v>1014</v>
       </c>
       <c r="B408" t="s">
@@ -12368,12 +12461,12 @@
       <c r="E408" t="s">
         <v>1028</v>
       </c>
-      <c r="F408" t="s">
+      <c r="F408" s="8" t="s">
         <v>1029</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A409" s="4" t="s">
+      <c r="A409" s="5" t="s">
         <v>1030</v>
       </c>
       <c r="B409" t="s">
@@ -12388,12 +12481,12 @@
       <c r="E409" t="s">
         <v>1032</v>
       </c>
-      <c r="F409" t="s">
+      <c r="F409" s="8" t="s">
         <v>1033</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A410" s="4" t="s">
+      <c r="A410" s="5" t="s">
         <v>1030</v>
       </c>
       <c r="B410" t="s">
@@ -12408,12 +12501,12 @@
       <c r="E410" t="s">
         <v>1035</v>
       </c>
-      <c r="F410" t="s">
+      <c r="F410" s="8" t="s">
         <v>1036</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A411" s="4" t="s">
+      <c r="A411" s="5" t="s">
         <v>1030</v>
       </c>
       <c r="B411" t="s">
@@ -12428,12 +12521,12 @@
       <c r="E411" t="s">
         <v>1038</v>
       </c>
-      <c r="F411" t="s">
+      <c r="F411" s="8" t="s">
         <v>1039</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A412" s="4" t="s">
+      <c r="A412" s="5" t="s">
         <v>1030</v>
       </c>
       <c r="B412" t="s">
@@ -12448,12 +12541,12 @@
       <c r="E412" t="s">
         <v>1041</v>
       </c>
-      <c r="F412" t="s">
+      <c r="F412" s="8" t="s">
         <v>1042</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A413" s="4" t="s">
+      <c r="A413" s="5" t="s">
         <v>1030</v>
       </c>
       <c r="B413" t="s">
@@ -12468,12 +12561,12 @@
       <c r="E413" t="s">
         <v>1044</v>
       </c>
-      <c r="F413" t="s">
+      <c r="F413" s="8" t="s">
         <v>1045</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A414" s="4" t="s">
+      <c r="A414" s="5" t="s">
         <v>1030</v>
       </c>
       <c r="B414" t="s">
@@ -12488,12 +12581,12 @@
       <c r="E414" t="s">
         <v>1047</v>
       </c>
-      <c r="F414" t="s">
+      <c r="F414" s="8" t="s">
         <v>1039</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A415" s="4" t="s">
+      <c r="A415" s="5" t="s">
         <v>1030</v>
       </c>
       <c r="B415" t="s">
@@ -12508,12 +12601,12 @@
       <c r="E415" t="s">
         <v>1049</v>
       </c>
-      <c r="F415" t="s">
+      <c r="F415" s="8" t="s">
         <v>1050</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A416" s="4" t="s">
+      <c r="A416" s="5" t="s">
         <v>1030</v>
       </c>
       <c r="B416" t="s">
@@ -12528,12 +12621,12 @@
       <c r="E416" t="s">
         <v>1052</v>
       </c>
-      <c r="F416" t="s">
+      <c r="F416" s="8" t="s">
         <v>1053</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A417" s="4" t="s">
+      <c r="A417" s="5" t="s">
         <v>1030</v>
       </c>
       <c r="B417" t="s">
@@ -12548,12 +12641,12 @@
       <c r="E417" t="s">
         <v>1055</v>
       </c>
-      <c r="F417" t="s">
+      <c r="F417" s="8" t="s">
         <v>1056</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A418" s="4" t="s">
+      <c r="A418" s="5" t="s">
         <v>1030</v>
       </c>
       <c r="B418" t="s">
@@ -12568,12 +12661,12 @@
       <c r="E418" t="s">
         <v>1058</v>
       </c>
-      <c r="F418" t="s">
+      <c r="F418" s="8" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A419" s="4" t="s">
+      <c r="A419" s="5" t="s">
         <v>1030</v>
       </c>
       <c r="B419" t="s">
@@ -12588,12 +12681,12 @@
       <c r="E419" t="s">
         <v>1060</v>
       </c>
-      <c r="F419" t="s">
+      <c r="F419" s="8" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A420" s="4" t="s">
+      <c r="A420" s="5" t="s">
         <v>1030</v>
       </c>
       <c r="B420" t="s">
@@ -12608,12 +12701,12 @@
       <c r="E420" t="s">
         <v>1062</v>
       </c>
-      <c r="F420" t="s">
+      <c r="F420" s="8" t="s">
         <v>1063</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A421" s="4" t="s">
+      <c r="A421" s="5" t="s">
         <v>1030</v>
       </c>
       <c r="B421" t="s">
@@ -12628,12 +12721,12 @@
       <c r="E421" t="s">
         <v>1065</v>
       </c>
-      <c r="F421" t="s">
+      <c r="F421" s="8" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A422" s="4" t="s">
+      <c r="A422" s="5" t="s">
         <v>1030</v>
       </c>
       <c r="B422" t="s">
@@ -12648,12 +12741,12 @@
       <c r="E422" t="s">
         <v>1067</v>
       </c>
-      <c r="F422" t="s">
+      <c r="F422" s="8" t="s">
         <v>1068</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A423" s="4" t="s">
+      <c r="A423" s="5" t="s">
         <v>1030</v>
       </c>
       <c r="B423" t="s">
@@ -12668,12 +12761,12 @@
       <c r="E423" t="s">
         <v>1069</v>
       </c>
-      <c r="F423" t="s">
+      <c r="F423" s="8" t="s">
         <v>1070</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A424" s="4" t="s">
+      <c r="A424" s="5" t="s">
         <v>1030</v>
       </c>
       <c r="B424" t="s">
@@ -12688,12 +12781,12 @@
       <c r="E424" t="s">
         <v>1072</v>
       </c>
-      <c r="F424" t="s">
+      <c r="F424" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A425" s="4" t="s">
+      <c r="A425" s="5" t="s">
         <v>1030</v>
       </c>
       <c r="B425" t="s">
@@ -12708,12 +12801,12 @@
       <c r="E425" t="s">
         <v>1074</v>
       </c>
-      <c r="F425" t="s">
+      <c r="F425" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A426" s="4" t="s">
+      <c r="A426" s="5" t="s">
         <v>1030</v>
       </c>
       <c r="B426" t="s">
@@ -12728,12 +12821,12 @@
       <c r="E426" t="s">
         <v>1076</v>
       </c>
-      <c r="F426" t="s">
+      <c r="F426" s="8" t="s">
         <v>1077</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A427" s="4" t="s">
+      <c r="A427" s="5" t="s">
         <v>1078</v>
       </c>
       <c r="B427" t="s">
@@ -12748,12 +12841,12 @@
       <c r="E427" t="s">
         <v>1080</v>
       </c>
-      <c r="F427" t="s">
+      <c r="F427" s="8" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A428" s="4" t="s">
+      <c r="A428" s="5" t="s">
         <v>1078</v>
       </c>
       <c r="B428" t="s">
@@ -12768,12 +12861,12 @@
       <c r="E428" t="s">
         <v>1082</v>
       </c>
-      <c r="F428" t="s">
+      <c r="F428" s="8" t="s">
         <v>964</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A429" s="4" t="s">
+      <c r="A429" s="5" t="s">
         <v>1078</v>
       </c>
       <c r="B429" t="s">
@@ -12788,12 +12881,12 @@
       <c r="E429" t="s">
         <v>1084</v>
       </c>
-      <c r="F429" t="s">
+      <c r="F429" s="8" t="s">
         <v>964</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A430" s="4" t="s">
+      <c r="A430" s="5" t="s">
         <v>1078</v>
       </c>
       <c r="B430" t="s">
@@ -12808,12 +12901,12 @@
       <c r="E430" t="s">
         <v>1085</v>
       </c>
-      <c r="F430" t="s">
+      <c r="F430" s="8" t="s">
         <v>1086</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A431" s="4" t="s">
+      <c r="A431" s="5" t="s">
         <v>1078</v>
       </c>
       <c r="B431" t="s">
@@ -12828,12 +12921,12 @@
       <c r="E431" t="s">
         <v>1088</v>
       </c>
-      <c r="F431" t="s">
+      <c r="F431" s="8" t="s">
         <v>1089</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A432" s="4" t="s">
+      <c r="A432" s="5" t="s">
         <v>1078</v>
       </c>
       <c r="B432" t="s">
@@ -12848,12 +12941,12 @@
       <c r="E432" t="s">
         <v>1091</v>
       </c>
-      <c r="F432" t="s">
+      <c r="F432" s="8" t="s">
         <v>1092</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A433" s="4" t="s">
+      <c r="A433" s="5" t="s">
         <v>1078</v>
       </c>
       <c r="B433" t="s">
@@ -12868,12 +12961,12 @@
       <c r="E433" t="s">
         <v>1094</v>
       </c>
-      <c r="F433" t="s">
+      <c r="F433" s="8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A434" s="4" t="s">
+      <c r="A434" s="5" t="s">
         <v>1078</v>
       </c>
       <c r="B434" t="s">
@@ -12888,12 +12981,12 @@
       <c r="E434" t="s">
         <v>1096</v>
       </c>
-      <c r="F434" t="s">
+      <c r="F434" s="8" t="s">
         <v>1097</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A435" s="4" t="s">
+      <c r="A435" s="5" t="s">
         <v>1078</v>
       </c>
       <c r="B435" t="s">
@@ -12908,12 +13001,12 @@
       <c r="E435" t="s">
         <v>1099</v>
       </c>
-      <c r="F435" t="s">
+      <c r="F435" s="8" t="s">
         <v>1100</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A436" s="4" t="s">
+      <c r="A436" s="5" t="s">
         <v>1078</v>
       </c>
       <c r="B436" t="s">
@@ -12928,12 +13021,12 @@
       <c r="E436" t="s">
         <v>1102</v>
       </c>
-      <c r="F436" t="s">
+      <c r="F436" s="8" t="s">
         <v>1103</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A437" s="4" t="s">
+      <c r="A437" s="5" t="s">
         <v>1078</v>
       </c>
       <c r="B437" t="s">
@@ -12948,12 +13041,12 @@
       <c r="E437" t="s">
         <v>1105</v>
       </c>
-      <c r="F437" t="s">
+      <c r="F437" s="8" t="s">
         <v>1106</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A438" s="4" t="s">
+      <c r="A438" s="5" t="s">
         <v>1078</v>
       </c>
       <c r="B438" t="s">
@@ -12968,12 +13061,12 @@
       <c r="E438" t="s">
         <v>1108</v>
       </c>
-      <c r="F438" t="s">
+      <c r="F438" s="8" t="s">
         <v>1109</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A439" s="4" t="s">
+      <c r="A439" s="5" t="s">
         <v>1078</v>
       </c>
       <c r="B439" t="s">
@@ -12988,12 +13081,12 @@
       <c r="E439" t="s">
         <v>1111</v>
       </c>
-      <c r="F439" t="s">
+      <c r="F439" s="8" t="s">
         <v>1045</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A440" s="4" t="s">
+      <c r="A440" s="5" t="s">
         <v>1078</v>
       </c>
       <c r="B440" t="s">
@@ -13008,12 +13101,12 @@
       <c r="E440" t="s">
         <v>1113</v>
       </c>
-      <c r="F440" t="s">
+      <c r="F440" s="8" t="s">
         <v>1114</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A441" s="4" t="s">
+      <c r="A441" s="5" t="s">
         <v>1078</v>
       </c>
       <c r="B441" t="s">
@@ -13028,12 +13121,12 @@
       <c r="E441" t="s">
         <v>1116</v>
       </c>
-      <c r="F441" t="s">
+      <c r="F441" s="8" t="s">
         <v>1117</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A442" s="4" t="s">
+      <c r="A442" s="5" t="s">
         <v>1078</v>
       </c>
       <c r="B442" t="s">
@@ -13048,12 +13141,12 @@
       <c r="E442" t="s">
         <v>1119</v>
       </c>
-      <c r="F442" t="s">
+      <c r="F442" s="8" t="s">
         <v>1120</v>
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A443" s="4" t="s">
+      <c r="A443" s="5" t="s">
         <v>1078</v>
       </c>
       <c r="B443" t="s">
@@ -13068,12 +13161,12 @@
       <c r="E443" t="s">
         <v>1122</v>
       </c>
-      <c r="F443" t="s">
+      <c r="F443" s="8" t="s">
         <v>1123</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A444" s="4" t="s">
+      <c r="A444" s="5" t="s">
         <v>1078</v>
       </c>
       <c r="B444" t="s">
@@ -13088,12 +13181,12 @@
       <c r="E444" t="s">
         <v>1125</v>
       </c>
-      <c r="F444" t="s">
+      <c r="F444" s="8" t="s">
         <v>1126</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A445" s="4" t="s">
+      <c r="A445" s="5" t="s">
         <v>1078</v>
       </c>
       <c r="B445" t="s">
@@ -13108,12 +13201,12 @@
       <c r="E445" t="s">
         <v>1127</v>
       </c>
-      <c r="F445" t="s">
+      <c r="F445" s="8" t="s">
         <v>1128</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A446" s="4" t="s">
+      <c r="A446" s="5" t="s">
         <v>1078</v>
       </c>
       <c r="B446" t="s">
@@ -13128,12 +13221,12 @@
       <c r="E446" t="s">
         <v>1130</v>
       </c>
-      <c r="F446" t="s">
+      <c r="F446" s="8" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A447" s="4" t="s">
+      <c r="A447" s="5" t="s">
         <v>1078</v>
       </c>
       <c r="B447" t="s">
@@ -13148,12 +13241,12 @@
       <c r="E447" t="s">
         <v>1132</v>
       </c>
-      <c r="F447" t="s">
+      <c r="F447" s="8" t="s">
         <v>1133</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A448" s="4" t="s">
+      <c r="A448" s="5" t="s">
         <v>1078</v>
       </c>
       <c r="B448" t="s">
@@ -13168,12 +13261,12 @@
       <c r="E448" t="s">
         <v>1135</v>
       </c>
-      <c r="F448" t="s">
+      <c r="F448" s="8" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A449" s="4" t="s">
+      <c r="A449" s="5" t="s">
         <v>1078</v>
       </c>
       <c r="B449" t="s">
@@ -13188,12 +13281,12 @@
       <c r="E449" t="s">
         <v>1137</v>
       </c>
-      <c r="F449" t="s">
+      <c r="F449" s="8" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A450" s="4" t="s">
+      <c r="A450" s="5" t="s">
         <v>1078</v>
       </c>
       <c r="B450" t="s">
@@ -13208,12 +13301,12 @@
       <c r="E450" t="s">
         <v>1139</v>
       </c>
-      <c r="F450" t="s">
+      <c r="F450" s="8" t="s">
         <v>1140</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A451" s="4" t="s">
+      <c r="A451" s="5" t="s">
         <v>1078</v>
       </c>
       <c r="B451" t="s">
@@ -13228,12 +13321,12 @@
       <c r="E451" t="s">
         <v>1142</v>
       </c>
-      <c r="F451" t="s">
+      <c r="F451" s="8" t="s">
         <v>1143</v>
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A452" s="4" t="s">
+      <c r="A452" s="5" t="s">
         <v>1144</v>
       </c>
       <c r="B452" t="s">
@@ -13248,12 +13341,12 @@
       <c r="E452" t="s">
         <v>1146</v>
       </c>
-      <c r="F452" t="s">
+      <c r="F452" s="8" t="s">
         <v>1147</v>
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A453" s="4" t="s">
+      <c r="A453" s="5" t="s">
         <v>1144</v>
       </c>
       <c r="B453" t="s">
@@ -13268,12 +13361,12 @@
       <c r="E453" t="s">
         <v>1149</v>
       </c>
-      <c r="F453" t="s">
+      <c r="F453" s="8" t="s">
         <v>1150</v>
       </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A454" s="4" t="s">
+      <c r="A454" s="5" t="s">
         <v>1144</v>
       </c>
       <c r="B454" t="s">
@@ -13288,12 +13381,12 @@
       <c r="E454" t="s">
         <v>1152</v>
       </c>
-      <c r="F454" t="s">
+      <c r="F454" s="8" t="s">
         <v>1150</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A455" s="4" t="s">
+      <c r="A455" s="5" t="s">
         <v>1144</v>
       </c>
       <c r="B455" t="s">
@@ -13308,12 +13401,12 @@
       <c r="E455" t="s">
         <v>1154</v>
       </c>
-      <c r="F455" t="s">
+      <c r="F455" s="8" t="s">
         <v>1155</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A456" s="4" t="s">
+      <c r="A456" s="5" t="s">
         <v>1144</v>
       </c>
       <c r="B456" t="s">
@@ -13328,12 +13421,12 @@
       <c r="E456" t="s">
         <v>1157</v>
       </c>
-      <c r="F456" t="s">
+      <c r="F456" s="8" t="s">
         <v>1158</v>
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A457" s="4" t="s">
+      <c r="A457" s="5" t="s">
         <v>1144</v>
       </c>
       <c r="B457" t="s">
@@ -13348,12 +13441,12 @@
       <c r="E457" t="s">
         <v>1160</v>
       </c>
-      <c r="F457" t="s">
+      <c r="F457" s="8" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A458" s="4" t="s">
+      <c r="A458" s="5" t="s">
         <v>1144</v>
       </c>
       <c r="B458" t="s">
@@ -13368,12 +13461,12 @@
       <c r="E458" t="s">
         <v>1162</v>
       </c>
-      <c r="F458" t="s">
+      <c r="F458" s="8" t="s">
         <v>1163</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A459" s="4" t="s">
+      <c r="A459" s="5" t="s">
         <v>1144</v>
       </c>
       <c r="B459" t="s">
@@ -13388,12 +13481,12 @@
       <c r="E459" t="s">
         <v>1165</v>
       </c>
-      <c r="F459" t="s">
+      <c r="F459" s="8" t="s">
         <v>1166</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A460" s="4" t="s">
+      <c r="A460" s="5" t="s">
         <v>1144</v>
       </c>
       <c r="B460" t="s">
@@ -13408,12 +13501,12 @@
       <c r="E460" t="s">
         <v>1168</v>
       </c>
-      <c r="F460" t="s">
+      <c r="F460" s="8" t="s">
         <v>1045</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A461" s="4" t="s">
+      <c r="A461" s="5" t="s">
         <v>1144</v>
       </c>
       <c r="B461" t="s">
@@ -13428,12 +13521,12 @@
       <c r="E461" t="s">
         <v>1170</v>
       </c>
-      <c r="F461" t="s">
+      <c r="F461" s="8" t="s">
         <v>1171</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A462" s="4" t="s">
+      <c r="A462" s="5" t="s">
         <v>1144</v>
       </c>
       <c r="B462" t="s">
@@ -13448,12 +13541,12 @@
       <c r="E462" t="s">
         <v>1173</v>
       </c>
-      <c r="F462" t="s">
+      <c r="F462" s="8" t="s">
         <v>1174</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A463" s="4" t="s">
+      <c r="A463" s="5" t="s">
         <v>1144</v>
       </c>
       <c r="B463" t="s">
@@ -13468,12 +13561,12 @@
       <c r="E463" t="s">
         <v>1176</v>
       </c>
-      <c r="F463" t="s">
+      <c r="F463" s="8" t="s">
         <v>1177</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A464" s="4" t="s">
+      <c r="A464" s="5" t="s">
         <v>1144</v>
       </c>
       <c r="B464" t="s">
@@ -13488,12 +13581,12 @@
       <c r="E464" t="s">
         <v>1179</v>
       </c>
-      <c r="F464" t="s">
+      <c r="F464" s="8" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A465" s="4" t="s">
+      <c r="A465" s="5" t="s">
         <v>1144</v>
       </c>
       <c r="B465" t="s">
@@ -13508,12 +13601,12 @@
       <c r="E465" t="s">
         <v>1181</v>
       </c>
-      <c r="F465" t="s">
+      <c r="F465" s="8" t="s">
         <v>1182</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A466" s="4" t="s">
+      <c r="A466" s="5" t="s">
         <v>1144</v>
       </c>
       <c r="B466" t="s">
@@ -13528,12 +13621,12 @@
       <c r="E466" t="s">
         <v>1184</v>
       </c>
-      <c r="F466" t="s">
+      <c r="F466" s="8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A467" s="4" t="s">
+      <c r="A467" s="5" t="s">
         <v>1144</v>
       </c>
       <c r="B467" t="s">
@@ -13548,12 +13641,12 @@
       <c r="E467" t="s">
         <v>1187</v>
       </c>
-      <c r="F467" t="s">
+      <c r="F467" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A468" s="4" t="s">
+      <c r="A468" s="5" t="s">
         <v>1144</v>
       </c>
       <c r="B468" t="s">
@@ -13568,12 +13661,12 @@
       <c r="E468" t="s">
         <v>1187</v>
       </c>
-      <c r="F468" t="s">
+      <c r="F468" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A469" s="4" t="s">
+      <c r="A469" s="5" t="s">
         <v>1144</v>
       </c>
       <c r="B469" t="s">
@@ -13588,12 +13681,12 @@
       <c r="E469" t="s">
         <v>1190</v>
       </c>
-      <c r="F469" t="s">
+      <c r="F469" s="8" t="s">
         <v>1050</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A470" s="4" t="s">
+      <c r="A470" s="5" t="s">
         <v>1144</v>
       </c>
       <c r="B470" t="s">
@@ -13608,12 +13701,12 @@
       <c r="E470" t="s">
         <v>1193</v>
       </c>
-      <c r="F470" t="s">
+      <c r="F470" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A471" s="4" t="s">
+      <c r="A471" s="5" t="s">
         <v>1144</v>
       </c>
       <c r="B471" t="s">
@@ -13628,12 +13721,12 @@
       <c r="E471" t="s">
         <v>1193</v>
       </c>
-      <c r="F471" t="s">
+      <c r="F471" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A472" s="4" t="s">
+      <c r="A472" s="5" t="s">
         <v>1144</v>
       </c>
       <c r="B472" t="s">
@@ -13648,12 +13741,12 @@
       <c r="E472" t="s">
         <v>1196</v>
       </c>
-      <c r="F472" t="s">
+      <c r="F472" s="8" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A473" s="4" t="s">
+      <c r="A473" s="5" t="s">
         <v>1144</v>
       </c>
       <c r="B473" t="s">
@@ -13668,12 +13761,12 @@
       <c r="E473" t="s">
         <v>1198</v>
       </c>
-      <c r="F473" t="s">
+      <c r="F473" s="8" t="s">
         <v>1199</v>
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A474" s="4" t="s">
+      <c r="A474" s="5" t="s">
         <v>1144</v>
       </c>
       <c r="B474" t="s">
@@ -13688,12 +13781,12 @@
       <c r="E474" t="s">
         <v>1201</v>
       </c>
-      <c r="F474" t="s">
+      <c r="F474" s="8" t="s">
         <v>1202</v>
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A475" s="4" t="s">
+      <c r="A475" s="5" t="s">
         <v>1144</v>
       </c>
       <c r="B475" t="s">
@@ -13708,12 +13801,12 @@
       <c r="E475" t="s">
         <v>1204</v>
       </c>
-      <c r="F475" t="s">
+      <c r="F475" s="8" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A476" s="4" t="s">
+      <c r="A476" s="5" t="s">
         <v>1144</v>
       </c>
       <c r="B476" t="s">
@@ -13728,12 +13821,12 @@
       <c r="E476" t="s">
         <v>1206</v>
       </c>
-      <c r="F476" t="s">
+      <c r="F476" s="8" t="s">
         <v>1207</v>
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A477" s="4" t="s">
+      <c r="A477" s="5" t="s">
         <v>1144</v>
       </c>
       <c r="B477" t="s">
@@ -13748,13 +13841,13 @@
       <c r="E477" t="s">
         <v>1209</v>
       </c>
-      <c r="F477" t="s">
+      <c r="F477" s="8" t="s">
         <v>1210</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A478" s="4" t="s">
-        <v>1144</v>
+      <c r="A478" s="5">
+        <v>45547</v>
       </c>
       <c r="B478" t="s">
         <v>1211</v>
@@ -13768,13 +13861,13 @@
       <c r="E478" t="s">
         <v>1212</v>
       </c>
-      <c r="F478" t="s">
+      <c r="F478" s="8" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A479" s="4" t="s">
-        <v>1144</v>
+      <c r="A479" s="5">
+        <v>45547</v>
       </c>
       <c r="B479" t="s">
         <v>1213</v>
@@ -13788,434 +13881,588 @@
       <c r="E479" t="s">
         <v>1214</v>
       </c>
-      <c r="F479" t="s">
+      <c r="F479" s="8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A480" s="5">
+        <v>45569</v>
+      </c>
+      <c r="B480" t="s">
+        <v>1252</v>
+      </c>
       <c r="C480" t="s">
         <v>12</v>
       </c>
+      <c r="D480">
+        <v>1665570343</v>
+      </c>
+      <c r="E480" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F480" s="8">
+        <v>300677</v>
+      </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A481" s="5">
+        <v>45569</v>
+      </c>
+      <c r="B481" t="s">
+        <v>1253</v>
+      </c>
       <c r="C481" t="s">
         <v>12</v>
       </c>
+      <c r="D481">
+        <v>1665570343</v>
+      </c>
+      <c r="E481" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F481" s="8">
+        <v>688621</v>
+      </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A482" s="5">
+        <v>45569</v>
+      </c>
+      <c r="B482" t="s">
+        <v>1254</v>
+      </c>
       <c r="C482" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="483" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A483" s="4">
+      <c r="D482">
+        <v>1665570343</v>
+      </c>
+      <c r="E482" t="s">
+        <v>1225</v>
+      </c>
+      <c r="F482" s="8">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A483" s="5">
         <v>45569</v>
       </c>
+      <c r="B483" t="s">
+        <v>1255</v>
+      </c>
       <c r="C483" t="s">
         <v>12</v>
       </c>
-      <c r="E483" s="6" t="s">
-        <v>1223</v>
-      </c>
-      <c r="F483" s="6">
-        <v>300677</v>
-      </c>
-    </row>
-    <row r="484" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A484" s="4">
+      <c r="D483">
+        <v>1665570343</v>
+      </c>
+      <c r="E483" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F483" s="8">
+        <v>605358</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A484" s="5">
         <v>45569</v>
       </c>
+      <c r="B484" t="s">
+        <v>1256</v>
+      </c>
       <c r="C484" t="s">
         <v>12</v>
       </c>
-      <c r="E484" s="6" t="s">
-        <v>1224</v>
-      </c>
-      <c r="F484" s="6">
-        <v>688621</v>
-      </c>
-    </row>
-    <row r="485" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A485" s="4">
+      <c r="D484">
+        <v>1665570343</v>
+      </c>
+      <c r="E484" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F484" s="8">
+        <v>300007</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A485" s="5">
         <v>45569</v>
       </c>
+      <c r="B485" t="s">
+        <v>1257</v>
+      </c>
       <c r="C485" t="s">
         <v>12</v>
       </c>
-      <c r="E485" s="6" t="s">
-        <v>1225</v>
-      </c>
-      <c r="F485" s="6">
-        <v>2487</v>
-      </c>
-    </row>
-    <row r="486" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A486" s="4">
+      <c r="D485">
+        <v>1665570343</v>
+      </c>
+      <c r="E485" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F485" s="8">
+        <v>301213</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A486" s="5">
         <v>45569</v>
       </c>
+      <c r="B486" t="s">
+        <v>1258</v>
+      </c>
       <c r="C486" t="s">
         <v>12</v>
       </c>
-      <c r="E486" s="6" t="s">
-        <v>1226</v>
-      </c>
-      <c r="F486" s="6">
+      <c r="D486">
+        <v>1665570343</v>
+      </c>
+      <c r="E486" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F486" s="8">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A487" s="5">
+        <v>45569</v>
+      </c>
+      <c r="B487" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C487" t="s">
+        <v>12</v>
+      </c>
+      <c r="D487">
+        <v>1665570343</v>
+      </c>
+      <c r="E487" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F487" s="8">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A488" s="5">
+        <v>45569</v>
+      </c>
+      <c r="B488" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C488" t="s">
+        <v>12</v>
+      </c>
+      <c r="D488">
+        <v>1665570343</v>
+      </c>
+      <c r="E488" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F488" s="8">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A489" s="5">
+        <v>45569</v>
+      </c>
+      <c r="B489" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C489" t="s">
+        <v>12</v>
+      </c>
+      <c r="D489">
+        <v>1665570343</v>
+      </c>
+      <c r="E489" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F489" s="8">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A490" s="5">
+        <v>45569</v>
+      </c>
+      <c r="B490" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C490" t="s">
+        <v>12</v>
+      </c>
+      <c r="D490">
+        <v>1665570343</v>
+      </c>
+      <c r="E490" t="s">
+        <v>1233</v>
+      </c>
+      <c r="F490" s="8">
+        <v>601919</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A491" s="5">
+        <v>45569</v>
+      </c>
+      <c r="B491" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C491" t="s">
+        <v>12</v>
+      </c>
+      <c r="D491">
+        <v>1665570343</v>
+      </c>
+      <c r="E491" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F491" s="8">
+        <v>300077</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A492" s="5">
+        <v>45569</v>
+      </c>
+      <c r="B492" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C492" t="s">
+        <v>12</v>
+      </c>
+      <c r="D492">
+        <v>1665570343</v>
+      </c>
+      <c r="E492" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F492" s="8">
+        <v>603728</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A493" s="5">
+        <v>45569</v>
+      </c>
+      <c r="B493" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C493" t="s">
+        <v>12</v>
+      </c>
+      <c r="D493">
+        <v>1665570343</v>
+      </c>
+      <c r="E493" t="s">
+        <v>1236</v>
+      </c>
+      <c r="F493" s="8">
+        <v>836961</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A494" s="5">
+        <v>45569</v>
+      </c>
+      <c r="B494" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C494" t="s">
+        <v>12</v>
+      </c>
+      <c r="D494">
+        <v>1665570343</v>
+      </c>
+      <c r="E494" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F494" s="8">
+        <v>300377</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A495" s="5">
+        <v>45569</v>
+      </c>
+      <c r="B495" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C495" t="s">
+        <v>12</v>
+      </c>
+      <c r="D495">
+        <v>1665570343</v>
+      </c>
+      <c r="E495" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F495" s="8">
+        <v>300085</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A496" s="5">
+        <v>45569</v>
+      </c>
+      <c r="B496" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C496" t="s">
+        <v>12</v>
+      </c>
+      <c r="D496">
+        <v>1665570343</v>
+      </c>
+      <c r="E496" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F496" s="8">
+        <v>300748</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A497" s="5">
+        <v>45569</v>
+      </c>
+      <c r="B497" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C497" t="s">
+        <v>12</v>
+      </c>
+      <c r="D497">
+        <v>1665570343</v>
+      </c>
+      <c r="E497" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F497" s="8">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A498" s="5">
+        <v>45569</v>
+      </c>
+      <c r="B498" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C498" t="s">
+        <v>12</v>
+      </c>
+      <c r="D498">
+        <v>1665570343</v>
+      </c>
+      <c r="E498" t="s">
+        <v>1241</v>
+      </c>
+      <c r="F498" s="8">
+        <v>603099</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A499" s="5">
+        <v>45569</v>
+      </c>
+      <c r="B499" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C499" t="s">
+        <v>12</v>
+      </c>
+      <c r="D499">
+        <v>1665570343</v>
+      </c>
+      <c r="E499" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F499" s="8">
+        <v>600418</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A500" s="5">
+        <v>45569</v>
+      </c>
+      <c r="B500" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C500" t="s">
+        <v>12</v>
+      </c>
+      <c r="D500">
+        <v>1665570343</v>
+      </c>
+      <c r="E500" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F500" s="8">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A501" s="5">
+        <v>45569</v>
+      </c>
+      <c r="B501" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C501" t="s">
+        <v>12</v>
+      </c>
+      <c r="D501">
+        <v>1665570343</v>
+      </c>
+      <c r="E501" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F501" s="8">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A502" s="5">
+        <v>45569</v>
+      </c>
+      <c r="B502" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C502" t="s">
+        <v>12</v>
+      </c>
+      <c r="D502">
+        <v>1665570343</v>
+      </c>
+      <c r="E502" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F502" s="8">
         <v>605358</v>
       </c>
     </row>
-    <row r="487" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A487" s="4">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A503" s="5">
         <v>45569</v>
       </c>
-      <c r="C487" t="s">
-        <v>12</v>
-      </c>
-      <c r="E487" s="6" t="s">
-        <v>1227</v>
-      </c>
-      <c r="F487" s="6">
-        <v>300007</v>
-      </c>
-    </row>
-    <row r="488" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A488" s="4">
+      <c r="B503" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C503" t="s">
+        <v>12</v>
+      </c>
+      <c r="D503">
+        <v>1665570343</v>
+      </c>
+      <c r="E503" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F503" s="8">
+        <v>600750</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A504" s="5">
         <v>45569</v>
       </c>
-      <c r="C488" t="s">
-        <v>12</v>
-      </c>
-      <c r="E488" s="6" t="s">
-        <v>1228</v>
-      </c>
-      <c r="F488" s="6">
-        <v>301213</v>
-      </c>
-    </row>
-    <row r="489" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A489" s="4">
+      <c r="B504" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C504" t="s">
+        <v>12</v>
+      </c>
+      <c r="D504">
+        <v>1665570343</v>
+      </c>
+      <c r="E504" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F504" s="8">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A505" s="5">
         <v>45569</v>
       </c>
-      <c r="C489" t="s">
-        <v>12</v>
-      </c>
-      <c r="E489" s="6" t="s">
-        <v>1229</v>
-      </c>
-      <c r="F489" s="6">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="490" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A490" s="4">
+      <c r="B505" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C505" t="s">
+        <v>12</v>
+      </c>
+      <c r="D505">
+        <v>1665570343</v>
+      </c>
+      <c r="E505" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F505" s="8">
+        <v>688205</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A506" s="5">
         <v>45569</v>
       </c>
-      <c r="C490" t="s">
-        <v>12</v>
-      </c>
-      <c r="E490" s="6" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F490" s="6">
-        <v>2371</v>
-      </c>
-    </row>
-    <row r="491" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A491" s="4">
+      <c r="B506" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C506" t="s">
+        <v>12</v>
+      </c>
+      <c r="D506">
+        <v>1665570343</v>
+      </c>
+      <c r="E506" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F506" s="8">
+        <v>300059</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A507" s="5">
         <v>45569</v>
       </c>
-      <c r="C491" t="s">
-        <v>12</v>
-      </c>
-      <c r="E491" s="6" t="s">
-        <v>1231</v>
-      </c>
-      <c r="F491" s="6">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="492" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A492" s="4">
+      <c r="B507" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C507" t="s">
+        <v>12</v>
+      </c>
+      <c r="D507">
+        <v>1665570343</v>
+      </c>
+      <c r="E507" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F507" s="8">
+        <v>603063</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A508" s="5">
         <v>45569</v>
       </c>
-      <c r="C492" t="s">
-        <v>12</v>
-      </c>
-      <c r="E492" s="6" t="s">
-        <v>1232</v>
-      </c>
-      <c r="F492" s="6">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="493" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A493" s="4">
-        <v>45569</v>
-      </c>
-      <c r="C493" t="s">
-        <v>12</v>
-      </c>
-      <c r="E493" s="6" t="s">
-        <v>1233</v>
-      </c>
-      <c r="F493" s="6">
-        <v>601919</v>
-      </c>
-    </row>
-    <row r="494" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A494" s="4">
-        <v>45569</v>
-      </c>
-      <c r="C494" t="s">
-        <v>12</v>
-      </c>
-      <c r="E494" s="6" t="s">
-        <v>1234</v>
-      </c>
-      <c r="F494" s="6">
-        <v>300077</v>
-      </c>
-    </row>
-    <row r="495" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A495" s="4">
-        <v>45569</v>
-      </c>
-      <c r="C495" t="s">
-        <v>12</v>
-      </c>
-      <c r="E495" s="6" t="s">
-        <v>1235</v>
-      </c>
-      <c r="F495" s="6">
-        <v>603728</v>
-      </c>
-    </row>
-    <row r="496" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A496" s="4">
-        <v>45569</v>
-      </c>
-      <c r="C496" t="s">
-        <v>12</v>
-      </c>
-      <c r="E496" s="6" t="s">
-        <v>1236</v>
-      </c>
-      <c r="F496" s="6">
-        <v>836961</v>
-      </c>
-    </row>
-    <row r="497" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A497" s="4">
-        <v>45569</v>
-      </c>
-      <c r="C497" t="s">
-        <v>12</v>
-      </c>
-      <c r="E497" s="6" t="s">
-        <v>1237</v>
-      </c>
-      <c r="F497" s="6">
-        <v>300377</v>
-      </c>
-    </row>
-    <row r="498" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A498" s="4">
-        <v>45569</v>
-      </c>
-      <c r="C498" t="s">
-        <v>12</v>
-      </c>
-      <c r="E498" s="6" t="s">
-        <v>1238</v>
-      </c>
-      <c r="F498" s="6">
-        <v>300085</v>
-      </c>
-    </row>
-    <row r="499" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A499" s="4">
-        <v>45569</v>
-      </c>
-      <c r="C499" t="s">
-        <v>12</v>
-      </c>
-      <c r="E499" s="6" t="s">
-        <v>1239</v>
-      </c>
-      <c r="F499" s="6">
-        <v>300748</v>
-      </c>
-    </row>
-    <row r="500" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A500" s="4">
-        <v>45569</v>
-      </c>
-      <c r="C500" t="s">
-        <v>12</v>
-      </c>
-      <c r="E500" s="6" t="s">
-        <v>1240</v>
-      </c>
-      <c r="F500" s="6">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="501" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A501" s="4">
-        <v>45569</v>
-      </c>
-      <c r="C501" t="s">
-        <v>12</v>
-      </c>
-      <c r="E501" s="6" t="s">
-        <v>1241</v>
-      </c>
-      <c r="F501" s="6">
-        <v>603099</v>
-      </c>
-    </row>
-    <row r="502" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A502" s="4">
-        <v>45569</v>
-      </c>
-      <c r="C502" t="s">
-        <v>12</v>
-      </c>
-      <c r="E502" s="6" t="s">
-        <v>1242</v>
-      </c>
-      <c r="F502" s="6">
-        <v>600418</v>
-      </c>
-    </row>
-    <row r="503" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A503" s="4">
-        <v>45569</v>
-      </c>
-      <c r="C503" t="s">
-        <v>12</v>
-      </c>
-      <c r="E503" s="6" t="s">
-        <v>1243</v>
-      </c>
-      <c r="F503" s="6">
-        <v>2312</v>
-      </c>
-    </row>
-    <row r="504" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A504" s="4">
-        <v>45569</v>
-      </c>
-      <c r="C504" t="s">
-        <v>12</v>
-      </c>
-      <c r="E504" s="6" t="s">
-        <v>1244</v>
-      </c>
-      <c r="F504" s="6">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="505" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A505" s="4">
-        <v>45569</v>
-      </c>
-      <c r="C505" t="s">
-        <v>12</v>
-      </c>
-      <c r="E505" s="6" t="s">
-        <v>1245</v>
-      </c>
-      <c r="F505" s="6">
-        <v>605358</v>
-      </c>
-    </row>
-    <row r="506" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A506" s="4">
-        <v>45569</v>
-      </c>
-      <c r="C506" t="s">
-        <v>12</v>
-      </c>
-      <c r="E506" s="6" t="s">
-        <v>1246</v>
-      </c>
-      <c r="F506" s="6">
-        <v>600750</v>
-      </c>
-    </row>
-    <row r="507" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A507" s="4">
-        <v>45569</v>
-      </c>
-      <c r="C507" t="s">
-        <v>12</v>
-      </c>
-      <c r="E507" s="6" t="s">
-        <v>1247</v>
-      </c>
-      <c r="F507" s="6">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="508" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A508" s="4">
-        <v>45569</v>
+      <c r="B508" t="s">
+        <v>1280</v>
       </c>
       <c r="C508" t="s">
         <v>12</v>
       </c>
-      <c r="E508" s="6" t="s">
-        <v>1248</v>
-      </c>
-      <c r="F508" s="6">
-        <v>688205</v>
-      </c>
-    </row>
-    <row r="509" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A509" s="4">
-        <v>45569</v>
-      </c>
-      <c r="C509" t="s">
-        <v>12</v>
-      </c>
-      <c r="E509" s="6" t="s">
-        <v>1249</v>
-      </c>
-      <c r="F509" s="6">
-        <v>300059</v>
-      </c>
-    </row>
-    <row r="510" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A510" s="4">
-        <v>45569</v>
-      </c>
-      <c r="C510" t="s">
-        <v>12</v>
-      </c>
-      <c r="E510" s="6" t="s">
-        <v>1250</v>
-      </c>
-      <c r="F510" s="6">
-        <v>603063</v>
-      </c>
-    </row>
-    <row r="511" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A511" s="4">
-        <v>45569</v>
-      </c>
-      <c r="C511" t="s">
-        <v>12</v>
-      </c>
-      <c r="E511" s="6" t="s">
+      <c r="D508">
+        <v>1665570343</v>
+      </c>
+      <c r="E508" t="s">
         <v>1251</v>
       </c>
-      <c r="F511" s="6">
+      <c r="F508" s="8">
         <v>600460</v>
-      </c>
-    </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A512" s="4">
-        <v>45569</v>
       </c>
     </row>
   </sheetData>

--- a/modified_chat_records.xlsx
+++ b/modified_chat_records.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AAA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA79790-545B-41C1-A5CB-277222E435FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E700A12-384E-49F9-B920-F4517020373F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="20" windowWidth="22210" windowHeight="15310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3939,7 +3939,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -4020,7 +4020,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -4336,8 +4336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F508"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C474" workbookViewId="0">
-      <selection activeCell="F478" sqref="F478"/>
+    <sheetView tabSelected="1" topLeftCell="A489" workbookViewId="0">
+      <selection activeCell="C518" sqref="C518"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>

--- a/modified_chat_records.xlsx
+++ b/modified_chat_records.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AAA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E700A12-384E-49F9-B920-F4517020373F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A17EB86-EAE9-48AF-A757-E3A23B418988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2466" uniqueCount="1281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2504" uniqueCount="1293">
   <si>
     <t>Date</t>
   </si>
@@ -3932,15 +3932,59 @@
   </si>
   <si>
     <t>21:22:71</t>
+  </si>
+  <si>
+    <t>2024-09-12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-04</t>
+  </si>
+  <si>
+    <t>2024-11-04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>002487</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>001311</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>002371</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000792</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>001314</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000970</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000750</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>002312</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>000498</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4006,7 +4050,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4017,19 +4061,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -4336,22 +4377,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F508"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A489" workbookViewId="0">
-      <selection activeCell="C518" sqref="C518"/>
+    <sheetView tabSelected="1" topLeftCell="A433" workbookViewId="0">
+      <selection activeCell="F511" sqref="F511"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.26953125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.26953125" style="7" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="19.1796875" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
     <col min="5" max="5" width="104.6328125" customWidth="1"/>
-    <col min="6" max="6" width="19.81640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="19.81640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -4366,12 +4407,12 @@
       <c r="E1" s="2" t="s">
         <v>1216</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="4" t="s">
         <v>1215</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
@@ -4383,12 +4424,12 @@
       <c r="D2">
         <v>3392911420</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
@@ -4403,12 +4444,12 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
@@ -4423,12 +4464,12 @@
       <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
@@ -4443,12 +4484,12 @@
       <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -4463,12 +4504,12 @@
       <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -4483,12 +4524,12 @@
       <c r="E7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
@@ -4503,12 +4544,12 @@
       <c r="E8" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B9" t="s">
@@ -4523,12 +4564,12 @@
       <c r="E9" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B10" t="s">
@@ -4543,12 +4584,12 @@
       <c r="E10" t="s">
         <v>1217</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B11" t="s">
@@ -4563,12 +4604,12 @@
       <c r="E11" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B12" t="s">
@@ -4583,12 +4624,12 @@
       <c r="E12" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B13" t="s">
@@ -4603,12 +4644,12 @@
       <c r="E13" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B14" t="s">
@@ -4623,12 +4664,12 @@
       <c r="E14" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B15" t="s">
@@ -4643,12 +4684,12 @@
       <c r="E15" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B16" t="s">
@@ -4660,12 +4701,12 @@
       <c r="D16">
         <v>3392911420</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B17" t="s">
@@ -4677,12 +4718,12 @@
       <c r="D17">
         <v>3392911420</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B18" t="s">
@@ -4697,12 +4738,12 @@
       <c r="E18" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B19" t="s">
@@ -4717,12 +4758,12 @@
       <c r="E19" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B20" t="s">
@@ -4734,12 +4775,12 @@
       <c r="D20">
         <v>3490755</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B21" t="s">
@@ -4754,12 +4795,12 @@
       <c r="E21" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B22" t="s">
@@ -4774,12 +4815,12 @@
       <c r="E22" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B23" t="s">
@@ -4794,12 +4835,12 @@
       <c r="E23" t="s">
         <v>60</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B24" t="s">
@@ -4814,12 +4855,12 @@
       <c r="E24" t="s">
         <v>63</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B25" t="s">
@@ -4834,12 +4875,12 @@
       <c r="E25" t="s">
         <v>66</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B26" t="s">
@@ -4854,12 +4895,12 @@
       <c r="E26" t="s">
         <v>69</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B27" t="s">
@@ -4874,13 +4915,13 @@
       <c r="E27" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>5</v>
+      <c r="A28" s="7">
+        <v>45518</v>
       </c>
       <c r="B28" t="s">
         <v>74</v>
@@ -4894,12 +4935,12 @@
       <c r="E28" t="s">
         <v>75</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B29" t="s">
@@ -4914,12 +4955,12 @@
       <c r="E29" t="s">
         <v>78</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B30" t="s">
@@ -4934,12 +4975,12 @@
       <c r="E30" t="s">
         <v>81</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B31" t="s">
@@ -4954,12 +4995,12 @@
       <c r="E31" t="s">
         <v>84</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B32" t="s">
@@ -4974,13 +5015,13 @@
       <c r="E32" t="s">
         <v>87</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>5</v>
+      <c r="A33" s="7">
+        <v>45518</v>
       </c>
       <c r="B33" t="s">
         <v>89</v>
@@ -4994,12 +5035,12 @@
       <c r="E33" t="s">
         <v>90</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B34" t="s">
@@ -5014,12 +5055,12 @@
       <c r="E34" t="s">
         <v>92</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B35" t="s">
@@ -5034,12 +5075,12 @@
       <c r="E35" t="s">
         <v>94</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="5" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="7" t="s">
         <v>96</v>
       </c>
       <c r="B36" t="s">
@@ -5054,12 +5095,12 @@
       <c r="E36" t="s">
         <v>98</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="5" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="7" t="s">
         <v>96</v>
       </c>
       <c r="B37" t="s">
@@ -5074,12 +5115,12 @@
       <c r="E37" t="s">
         <v>101</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="5" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="7" t="s">
         <v>96</v>
       </c>
       <c r="B38" t="s">
@@ -5094,12 +5135,12 @@
       <c r="E38" t="s">
         <v>103</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="5" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="126" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="7" t="s">
         <v>96</v>
       </c>
       <c r="B39" t="s">
@@ -5114,12 +5155,12 @@
       <c r="E39" t="s">
         <v>106</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="5" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="7" t="s">
         <v>96</v>
       </c>
       <c r="B40" t="s">
@@ -5134,12 +5175,12 @@
       <c r="E40" t="s">
         <v>106</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="5" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="7" t="s">
         <v>96</v>
       </c>
       <c r="B41" t="s">
@@ -5154,12 +5195,12 @@
       <c r="E41" t="s">
         <v>110</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="5" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="7" t="s">
         <v>96</v>
       </c>
       <c r="B42" t="s">
@@ -5174,12 +5215,12 @@
       <c r="E42" t="s">
         <v>113</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="F42" s="5" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="7" t="s">
         <v>96</v>
       </c>
       <c r="B43" t="s">
@@ -5194,12 +5235,12 @@
       <c r="E43" t="s">
         <v>116</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="5" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="7" t="s">
         <v>96</v>
       </c>
       <c r="B44" t="s">
@@ -5214,12 +5255,12 @@
       <c r="E44" t="s">
         <v>118</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="5" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="7" t="s">
         <v>96</v>
       </c>
       <c r="B45" t="s">
@@ -5234,12 +5275,12 @@
       <c r="E45" t="s">
         <v>121</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="F45" s="5" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="7" t="s">
         <v>96</v>
       </c>
       <c r="B46" t="s">
@@ -5254,12 +5295,12 @@
       <c r="E46" t="s">
         <v>124</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="F46" s="5" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="7" t="s">
         <v>96</v>
       </c>
       <c r="B47" t="s">
@@ -5274,12 +5315,12 @@
       <c r="E47" t="s">
         <v>127</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="7" t="s">
         <v>96</v>
       </c>
       <c r="B48" t="s">
@@ -5294,12 +5335,12 @@
       <c r="E48" t="s">
         <v>130</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="5" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="7" t="s">
         <v>96</v>
       </c>
       <c r="B49" t="s">
@@ -5314,12 +5355,12 @@
       <c r="E49" t="s">
         <v>132</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="5" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="7" t="s">
         <v>96</v>
       </c>
       <c r="B50" t="s">
@@ -5334,12 +5375,12 @@
       <c r="E50" t="s">
         <v>134</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="F50" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="7" t="s">
         <v>96</v>
       </c>
       <c r="B51" t="s">
@@ -5354,12 +5395,12 @@
       <c r="E51" t="s">
         <v>137</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="F51" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="7" t="s">
         <v>96</v>
       </c>
       <c r="B52" t="s">
@@ -5374,12 +5415,12 @@
       <c r="E52" t="s">
         <v>139</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="7" t="s">
         <v>96</v>
       </c>
       <c r="B53" t="s">
@@ -5394,12 +5435,12 @@
       <c r="E53" t="s">
         <v>142</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="5" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="7" t="s">
         <v>96</v>
       </c>
       <c r="B54" t="s">
@@ -5414,12 +5455,12 @@
       <c r="E54" t="s">
         <v>145</v>
       </c>
-      <c r="F54" s="8" t="s">
+      <c r="F54" s="5" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="7" t="s">
         <v>96</v>
       </c>
       <c r="B55" t="s">
@@ -5434,12 +5475,12 @@
       <c r="E55" t="s">
         <v>148</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="F55" s="5" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="7" t="s">
         <v>96</v>
       </c>
       <c r="B56" t="s">
@@ -5454,12 +5495,12 @@
       <c r="E56" t="s">
         <v>151</v>
       </c>
-      <c r="F56" s="8" t="s">
+      <c r="F56" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="7" t="s">
         <v>96</v>
       </c>
       <c r="B57" t="s">
@@ -5474,12 +5515,12 @@
       <c r="E57" t="s">
         <v>153</v>
       </c>
-      <c r="F57" s="8" t="s">
+      <c r="F57" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="7" t="s">
         <v>96</v>
       </c>
       <c r="B58" t="s">
@@ -5494,12 +5535,12 @@
       <c r="E58" t="s">
         <v>155</v>
       </c>
-      <c r="F58" s="8" t="s">
+      <c r="F58" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="7" t="s">
         <v>96</v>
       </c>
       <c r="B59" t="s">
@@ -5514,12 +5555,12 @@
       <c r="E59" t="s">
         <v>157</v>
       </c>
-      <c r="F59" s="8" t="s">
+      <c r="F59" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="7" t="s">
         <v>96</v>
       </c>
       <c r="B60" t="s">
@@ -5534,12 +5575,12 @@
       <c r="E60" t="s">
         <v>159</v>
       </c>
-      <c r="F60" s="8" t="s">
+      <c r="F60" s="5" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="7" t="s">
         <v>161</v>
       </c>
       <c r="B61" t="s">
@@ -5554,12 +5595,12 @@
       <c r="E61" t="s">
         <v>163</v>
       </c>
-      <c r="F61" s="8" t="s">
+      <c r="F61" s="5" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="7" t="s">
         <v>161</v>
       </c>
       <c r="B62" t="s">
@@ -5574,12 +5615,12 @@
       <c r="E62" t="s">
         <v>166</v>
       </c>
-      <c r="F62" s="8" t="s">
+      <c r="F62" s="5" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="7" t="s">
         <v>161</v>
       </c>
       <c r="B63" t="s">
@@ -5594,12 +5635,12 @@
       <c r="E63" t="s">
         <v>168</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="F63" s="5" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="7" t="s">
         <v>161</v>
       </c>
       <c r="B64" t="s">
@@ -5614,12 +5655,12 @@
       <c r="E64" t="s">
         <v>171</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="F64" s="5" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="7" t="s">
         <v>161</v>
       </c>
       <c r="B65" t="s">
@@ -5634,12 +5675,12 @@
       <c r="E65" t="s">
         <v>174</v>
       </c>
-      <c r="F65" s="8" t="s">
+      <c r="F65" s="5" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="7" t="s">
         <v>161</v>
       </c>
       <c r="B66" t="s">
@@ -5654,12 +5695,12 @@
       <c r="E66" t="s">
         <v>177</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="F66" s="5" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="7" t="s">
         <v>161</v>
       </c>
       <c r="B67" t="s">
@@ -5674,12 +5715,12 @@
       <c r="E67" t="s">
         <v>180</v>
       </c>
-      <c r="F67" s="8" t="s">
+      <c r="F67" s="5" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="7" t="s">
         <v>161</v>
       </c>
       <c r="B68" t="s">
@@ -5694,12 +5735,12 @@
       <c r="E68" t="s">
         <v>184</v>
       </c>
-      <c r="F68" s="8" t="s">
+      <c r="F68" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="7" t="s">
         <v>161</v>
       </c>
       <c r="B69" t="s">
@@ -5714,12 +5755,12 @@
       <c r="E69" t="s">
         <v>186</v>
       </c>
-      <c r="F69" s="8" t="s">
+      <c r="F69" s="5" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="7" t="s">
         <v>161</v>
       </c>
       <c r="B70" t="s">
@@ -5734,12 +5775,12 @@
       <c r="E70" t="s">
         <v>188</v>
       </c>
-      <c r="F70" s="8" t="s">
+      <c r="F70" s="5" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="7" t="s">
         <v>190</v>
       </c>
       <c r="B71" t="s">
@@ -5754,12 +5795,12 @@
       <c r="E71" t="s">
         <v>192</v>
       </c>
-      <c r="F71" s="8" t="s">
+      <c r="F71" s="5" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="7" t="s">
         <v>190</v>
       </c>
       <c r="B72" t="s">
@@ -5774,12 +5815,12 @@
       <c r="E72" t="s">
         <v>195</v>
       </c>
-      <c r="F72" s="8" t="s">
+      <c r="F72" s="5" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="7" t="s">
         <v>190</v>
       </c>
       <c r="B73" t="s">
@@ -5794,12 +5835,12 @@
       <c r="E73" t="s">
         <v>198</v>
       </c>
-      <c r="F73" s="8" t="s">
+      <c r="F73" s="5" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="7" t="s">
         <v>190</v>
       </c>
       <c r="B74" t="s">
@@ -5814,12 +5855,12 @@
       <c r="E74" t="s">
         <v>201</v>
       </c>
-      <c r="F74" s="8" t="s">
+      <c r="F74" s="5" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="7" t="s">
         <v>190</v>
       </c>
       <c r="B75" t="s">
@@ -5834,12 +5875,12 @@
       <c r="E75" t="s">
         <v>203</v>
       </c>
-      <c r="F75" s="8" t="s">
+      <c r="F75" s="5" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="7" t="s">
         <v>190</v>
       </c>
       <c r="B76" t="s">
@@ -5854,12 +5895,12 @@
       <c r="E76" t="s">
         <v>205</v>
       </c>
-      <c r="F76" s="8" t="s">
+      <c r="F76" s="5" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="7" t="s">
         <v>190</v>
       </c>
       <c r="B77" t="s">
@@ -5874,12 +5915,12 @@
       <c r="E77" t="s">
         <v>208</v>
       </c>
-      <c r="F77" s="8" t="s">
+      <c r="F77" s="5" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="7" t="s">
         <v>190</v>
       </c>
       <c r="B78" t="s">
@@ -5894,12 +5935,12 @@
       <c r="E78" t="s">
         <v>211</v>
       </c>
-      <c r="F78" s="8" t="s">
+      <c r="F78" s="5" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="7" t="s">
         <v>190</v>
       </c>
       <c r="B79" t="s">
@@ -5914,12 +5955,12 @@
       <c r="E79" t="s">
         <v>214</v>
       </c>
-      <c r="F79" s="8" t="s">
+      <c r="F79" s="5" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="7" t="s">
         <v>190</v>
       </c>
       <c r="B80" t="s">
@@ -5934,12 +5975,12 @@
       <c r="E80" t="s">
         <v>216</v>
       </c>
-      <c r="F80" s="8" t="s">
+      <c r="F80" s="5" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="7" t="s">
         <v>190</v>
       </c>
       <c r="B81" t="s">
@@ -5954,12 +5995,12 @@
       <c r="E81" t="s">
         <v>218</v>
       </c>
-      <c r="F81" s="8" t="s">
+      <c r="F81" s="5" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="7" t="s">
         <v>190</v>
       </c>
       <c r="B82" t="s">
@@ -5974,12 +6015,12 @@
       <c r="E82" t="s">
         <v>220</v>
       </c>
-      <c r="F82" s="8" t="s">
+      <c r="F82" s="5" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="7" t="s">
         <v>190</v>
       </c>
       <c r="B83" t="s">
@@ -5994,12 +6035,12 @@
       <c r="E83" t="s">
         <v>222</v>
       </c>
-      <c r="F83" s="8" t="s">
+      <c r="F83" s="5" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="7" t="s">
         <v>190</v>
       </c>
       <c r="B84" t="s">
@@ -6014,12 +6055,12 @@
       <c r="E84" t="s">
         <v>225</v>
       </c>
-      <c r="F84" s="8" t="s">
+      <c r="F84" s="5" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="7" t="s">
         <v>190</v>
       </c>
       <c r="B85" t="s">
@@ -6034,12 +6075,12 @@
       <c r="E85" t="s">
         <v>228</v>
       </c>
-      <c r="F85" s="8" t="s">
+      <c r="F85" s="5" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="7" t="s">
         <v>190</v>
       </c>
       <c r="B86" t="s">
@@ -6054,12 +6095,12 @@
       <c r="E86" t="s">
         <v>231</v>
       </c>
-      <c r="F86" s="8" t="s">
+      <c r="F86" s="5" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="7" t="s">
         <v>190</v>
       </c>
       <c r="B87" t="s">
@@ -6074,12 +6115,12 @@
       <c r="E87" t="s">
         <v>234</v>
       </c>
-      <c r="F87" s="8" t="s">
+      <c r="F87" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
+      <c r="A88" s="7" t="s">
         <v>190</v>
       </c>
       <c r="B88" t="s">
@@ -6094,12 +6135,12 @@
       <c r="E88" t="s">
         <v>236</v>
       </c>
-      <c r="F88" s="8" t="s">
+      <c r="F88" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="7" t="s">
         <v>190</v>
       </c>
       <c r="B89" t="s">
@@ -6114,12 +6155,12 @@
       <c r="E89" t="s">
         <v>238</v>
       </c>
-      <c r="F89" s="8" t="s">
+      <c r="F89" s="5" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
+      <c r="A90" s="7" t="s">
         <v>190</v>
       </c>
       <c r="B90" t="s">
@@ -6134,12 +6175,12 @@
       <c r="E90" t="s">
         <v>241</v>
       </c>
-      <c r="F90" s="8" t="s">
+      <c r="F90" s="5" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
+      <c r="A91" s="7" t="s">
         <v>190</v>
       </c>
       <c r="B91" t="s">
@@ -6154,12 +6195,12 @@
       <c r="E91" t="s">
         <v>244</v>
       </c>
-      <c r="F91" s="8" t="s">
+      <c r="F91" s="5" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
+      <c r="A92" s="7" t="s">
         <v>190</v>
       </c>
       <c r="B92" t="s">
@@ -6174,12 +6215,12 @@
       <c r="E92" t="s">
         <v>246</v>
       </c>
-      <c r="F92" s="8" t="s">
+      <c r="F92" s="5" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="7" t="s">
         <v>190</v>
       </c>
       <c r="B93" t="s">
@@ -6194,12 +6235,12 @@
       <c r="E93" t="s">
         <v>249</v>
       </c>
-      <c r="F93" s="8" t="s">
+      <c r="F93" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="7" t="s">
         <v>190</v>
       </c>
       <c r="B94" t="s">
@@ -6214,12 +6255,12 @@
       <c r="E94" t="s">
         <v>251</v>
       </c>
-      <c r="F94" s="8" t="s">
+      <c r="F94" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="7" t="s">
         <v>190</v>
       </c>
       <c r="B95" t="s">
@@ -6234,12 +6275,12 @@
       <c r="E95" t="s">
         <v>253</v>
       </c>
-      <c r="F95" s="8" t="s">
+      <c r="F95" s="5" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
+      <c r="A96" s="7" t="s">
         <v>255</v>
       </c>
       <c r="B96" t="s">
@@ -6254,12 +6295,12 @@
       <c r="E96" t="s">
         <v>257</v>
       </c>
-      <c r="F96" s="8" t="s">
+      <c r="F96" s="5" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="7" t="s">
         <v>255</v>
       </c>
       <c r="B97" t="s">
@@ -6274,12 +6315,12 @@
       <c r="E97" t="s">
         <v>241</v>
       </c>
-      <c r="F97" s="8" t="s">
+      <c r="F97" s="5" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
+      <c r="A98" s="7" t="s">
         <v>255</v>
       </c>
       <c r="B98" t="s">
@@ -6294,12 +6335,12 @@
       <c r="E98" t="s">
         <v>262</v>
       </c>
-      <c r="F98" s="8" t="s">
+      <c r="F98" s="5" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
+      <c r="A99" s="7" t="s">
         <v>255</v>
       </c>
       <c r="B99" t="s">
@@ -6314,12 +6355,12 @@
       <c r="E99" t="s">
         <v>265</v>
       </c>
-      <c r="F99" s="8" t="s">
+      <c r="F99" s="5" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
+      <c r="A100" s="7" t="s">
         <v>255</v>
       </c>
       <c r="B100" t="s">
@@ -6334,12 +6375,12 @@
       <c r="E100" t="s">
         <v>268</v>
       </c>
-      <c r="F100" s="8" t="s">
+      <c r="F100" s="5" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
+      <c r="A101" s="7" t="s">
         <v>255</v>
       </c>
       <c r="B101" t="s">
@@ -6354,12 +6395,12 @@
       <c r="E101" t="s">
         <v>271</v>
       </c>
-      <c r="F101" s="8" t="s">
+      <c r="F101" s="5" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
+      <c r="A102" s="7" t="s">
         <v>273</v>
       </c>
       <c r="B102" t="s">
@@ -6374,12 +6415,12 @@
       <c r="E102" t="s">
         <v>275</v>
       </c>
-      <c r="F102" s="8" t="s">
+      <c r="F102" s="5" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
+      <c r="A103" s="7" t="s">
         <v>273</v>
       </c>
       <c r="B103" t="s">
@@ -6391,12 +6432,12 @@
       <c r="D103">
         <v>3392911420</v>
       </c>
-      <c r="F103" s="8" t="s">
+      <c r="F103" s="5" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
+      <c r="A104" s="7" t="s">
         <v>273</v>
       </c>
       <c r="B104" t="s">
@@ -6411,12 +6452,12 @@
       <c r="E104" t="s">
         <v>280</v>
       </c>
-      <c r="F104" s="8" t="s">
+      <c r="F104" s="5" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="s">
+      <c r="A105" s="7" t="s">
         <v>273</v>
       </c>
       <c r="B105" t="s">
@@ -6431,12 +6472,12 @@
       <c r="E105" t="s">
         <v>283</v>
       </c>
-      <c r="F105" s="8" t="s">
+      <c r="F105" s="5" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
+      <c r="A106" s="7" t="s">
         <v>273</v>
       </c>
       <c r="B106" t="s">
@@ -6451,12 +6492,12 @@
       <c r="E106" t="s">
         <v>286</v>
       </c>
-      <c r="F106" s="8" t="s">
+      <c r="F106" s="5" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
+      <c r="A107" s="7" t="s">
         <v>273</v>
       </c>
       <c r="B107" t="s">
@@ -6471,12 +6512,12 @@
       <c r="E107" t="s">
         <v>289</v>
       </c>
-      <c r="F107" s="8" t="s">
+      <c r="F107" s="5" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="s">
+      <c r="A108" s="7" t="s">
         <v>273</v>
       </c>
       <c r="B108" t="s">
@@ -6491,12 +6532,12 @@
       <c r="E108" t="s">
         <v>291</v>
       </c>
-      <c r="F108" s="8" t="s">
+      <c r="F108" s="5" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="5" t="s">
+      <c r="A109" s="7" t="s">
         <v>273</v>
       </c>
       <c r="B109" t="s">
@@ -6511,12 +6552,12 @@
       <c r="E109" t="s">
         <v>294</v>
       </c>
-      <c r="F109" s="8" t="s">
+      <c r="F109" s="5" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="5" t="s">
+      <c r="A110" s="7" t="s">
         <v>273</v>
       </c>
       <c r="B110" t="s">
@@ -6531,12 +6572,12 @@
       <c r="E110" t="s">
         <v>296</v>
       </c>
-      <c r="F110" s="8" t="s">
+      <c r="F110" s="5" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="5" t="s">
+      <c r="A111" s="7" t="s">
         <v>273</v>
       </c>
       <c r="B111" t="s">
@@ -6551,12 +6592,12 @@
       <c r="E111" t="s">
         <v>299</v>
       </c>
-      <c r="F111" s="8" t="s">
+      <c r="F111" s="5" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="5" t="s">
+      <c r="A112" s="7" t="s">
         <v>273</v>
       </c>
       <c r="B112" t="s">
@@ -6571,12 +6612,12 @@
       <c r="E112" t="s">
         <v>302</v>
       </c>
-      <c r="F112" s="8" t="s">
+      <c r="F112" s="5" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="5" t="s">
+      <c r="A113" s="7" t="s">
         <v>304</v>
       </c>
       <c r="B113" t="s">
@@ -6591,12 +6632,12 @@
       <c r="E113" t="s">
         <v>306</v>
       </c>
-      <c r="F113" s="8" t="s">
+      <c r="F113" s="5" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="5" t="s">
+      <c r="A114" s="7" t="s">
         <v>304</v>
       </c>
       <c r="B114" t="s">
@@ -6611,12 +6652,12 @@
       <c r="E114" t="s">
         <v>309</v>
       </c>
-      <c r="F114" s="8" t="s">
+      <c r="F114" s="5" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="5" t="s">
+      <c r="A115" s="7" t="s">
         <v>304</v>
       </c>
       <c r="B115" t="s">
@@ -6631,12 +6672,12 @@
       <c r="E115" t="s">
         <v>312</v>
       </c>
-      <c r="F115" s="8" t="s">
+      <c r="F115" s="5" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="5" t="s">
+      <c r="A116" s="7" t="s">
         <v>304</v>
       </c>
       <c r="B116" t="s">
@@ -6651,12 +6692,12 @@
       <c r="E116" t="s">
         <v>314</v>
       </c>
-      <c r="F116" s="8" t="s">
+      <c r="F116" s="5" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="5" t="s">
+      <c r="A117" s="7" t="s">
         <v>304</v>
       </c>
       <c r="B117" t="s">
@@ -6671,12 +6712,12 @@
       <c r="E117" t="s">
         <v>317</v>
       </c>
-      <c r="F117" s="8" t="s">
+      <c r="F117" s="5" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="s">
+      <c r="A118" s="7" t="s">
         <v>304</v>
       </c>
       <c r="B118" t="s">
@@ -6691,12 +6732,12 @@
       <c r="E118" t="s">
         <v>319</v>
       </c>
-      <c r="F118" s="8" t="s">
+      <c r="F118" s="5" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="5" t="s">
+      <c r="A119" s="7" t="s">
         <v>304</v>
       </c>
       <c r="B119" t="s">
@@ -6711,12 +6752,12 @@
       <c r="E119" t="s">
         <v>322</v>
       </c>
-      <c r="F119" s="8" t="s">
+      <c r="F119" s="5" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="5" t="s">
+      <c r="A120" s="7" t="s">
         <v>304</v>
       </c>
       <c r="B120" t="s">
@@ -6731,12 +6772,12 @@
       <c r="E120" t="s">
         <v>325</v>
       </c>
-      <c r="F120" s="8" t="s">
+      <c r="F120" s="5" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="5" t="s">
+      <c r="A121" s="7" t="s">
         <v>304</v>
       </c>
       <c r="B121" t="s">
@@ -6751,12 +6792,12 @@
       <c r="E121" t="s">
         <v>328</v>
       </c>
-      <c r="F121" s="8" t="s">
+      <c r="F121" s="5" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="5" t="s">
+      <c r="A122" s="7" t="s">
         <v>330</v>
       </c>
       <c r="B122" t="s">
@@ -6771,12 +6812,12 @@
       <c r="E122" t="s">
         <v>333</v>
       </c>
-      <c r="F122" s="8" t="s">
+      <c r="F122" s="5" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="5" t="s">
+      <c r="A123" s="7" t="s">
         <v>330</v>
       </c>
       <c r="B123" t="s">
@@ -6791,12 +6832,12 @@
       <c r="E123" t="s">
         <v>333</v>
       </c>
-      <c r="F123" s="8" t="s">
+      <c r="F123" s="5" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="5" t="s">
+      <c r="A124" s="7" t="s">
         <v>330</v>
       </c>
       <c r="B124" t="s">
@@ -6811,12 +6852,12 @@
       <c r="E124" t="s">
         <v>337</v>
       </c>
-      <c r="F124" s="8" t="s">
+      <c r="F124" s="5" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="5" t="s">
+      <c r="A125" s="7" t="s">
         <v>330</v>
       </c>
       <c r="B125" t="s">
@@ -6831,12 +6872,12 @@
       <c r="E125" t="s">
         <v>340</v>
       </c>
-      <c r="F125" s="8" t="s">
+      <c r="F125" s="5" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="5" t="s">
+      <c r="A126" s="7" t="s">
         <v>330</v>
       </c>
       <c r="B126" t="s">
@@ -6851,12 +6892,12 @@
       <c r="E126" t="s">
         <v>343</v>
       </c>
-      <c r="F126" s="8" t="s">
+      <c r="F126" s="5" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="5" t="s">
+      <c r="A127" s="7" t="s">
         <v>330</v>
       </c>
       <c r="B127" t="s">
@@ -6871,12 +6912,12 @@
       <c r="E127" t="s">
         <v>346</v>
       </c>
-      <c r="F127" s="8" t="s">
+      <c r="F127" s="5" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="5" t="s">
+      <c r="A128" s="7" t="s">
         <v>330</v>
       </c>
       <c r="B128" t="s">
@@ -6891,12 +6932,12 @@
       <c r="E128" t="s">
         <v>348</v>
       </c>
-      <c r="F128" s="8" t="s">
+      <c r="F128" s="5" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="5" t="s">
+      <c r="A129" s="7" t="s">
         <v>330</v>
       </c>
       <c r="B129" t="s">
@@ -6911,12 +6952,12 @@
       <c r="E129" t="s">
         <v>351</v>
       </c>
-      <c r="F129" s="8" t="s">
+      <c r="F129" s="5" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="5" t="s">
+      <c r="A130" s="7" t="s">
         <v>330</v>
       </c>
       <c r="B130" t="s">
@@ -6931,12 +6972,12 @@
       <c r="E130" t="s">
         <v>354</v>
       </c>
-      <c r="F130" s="8" t="s">
+      <c r="F130" s="5" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="5" t="s">
+      <c r="A131" s="7" t="s">
         <v>330</v>
       </c>
       <c r="B131" t="s">
@@ -6951,12 +6992,12 @@
       <c r="E131" t="s">
         <v>357</v>
       </c>
-      <c r="F131" s="8" t="s">
+      <c r="F131" s="5" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="5" t="s">
+      <c r="A132" s="7" t="s">
         <v>359</v>
       </c>
       <c r="B132" t="s">
@@ -6971,12 +7012,12 @@
       <c r="E132" t="s">
         <v>361</v>
       </c>
-      <c r="F132" s="8" t="s">
+      <c r="F132" s="5" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="5" t="s">
+      <c r="A133" s="7" t="s">
         <v>359</v>
       </c>
       <c r="B133" t="s">
@@ -6991,12 +7032,12 @@
       <c r="E133" t="s">
         <v>364</v>
       </c>
-      <c r="F133" s="8" t="s">
+      <c r="F133" s="5" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="5" t="s">
+      <c r="A134" s="7" t="s">
         <v>359</v>
       </c>
       <c r="B134" t="s">
@@ -7011,12 +7052,12 @@
       <c r="E134" t="s">
         <v>366</v>
       </c>
-      <c r="F134" s="8" t="s">
+      <c r="F134" s="5" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="5" t="s">
+      <c r="A135" s="7" t="s">
         <v>359</v>
       </c>
       <c r="B135" t="s">
@@ -7031,12 +7072,12 @@
       <c r="E135" t="s">
         <v>369</v>
       </c>
-      <c r="F135" s="8" t="s">
+      <c r="F135" s="5" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="5" t="s">
+      <c r="A136" s="7" t="s">
         <v>359</v>
       </c>
       <c r="B136" t="s">
@@ -7051,12 +7092,12 @@
       <c r="E136" t="s">
         <v>371</v>
       </c>
-      <c r="F136" s="8" t="s">
+      <c r="F136" s="5" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="5" t="s">
+      <c r="A137" s="7" t="s">
         <v>359</v>
       </c>
       <c r="B137" t="s">
@@ -7071,12 +7112,12 @@
       <c r="E137" t="s">
         <v>374</v>
       </c>
-      <c r="F137" s="8" t="s">
+      <c r="F137" s="5" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="5" t="s">
+      <c r="A138" s="7" t="s">
         <v>359</v>
       </c>
       <c r="B138" t="s">
@@ -7091,12 +7132,12 @@
       <c r="E138" t="s">
         <v>377</v>
       </c>
-      <c r="F138" s="8" t="s">
+      <c r="F138" s="5" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="5" t="s">
+      <c r="A139" s="7" t="s">
         <v>359</v>
       </c>
       <c r="B139" t="s">
@@ -7108,12 +7149,12 @@
       <c r="D139">
         <v>3392911420</v>
       </c>
-      <c r="F139" s="8" t="s">
+      <c r="F139" s="5" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="5" t="s">
+      <c r="A140" s="7" t="s">
         <v>359</v>
       </c>
       <c r="B140" t="s">
@@ -7128,12 +7169,12 @@
       <c r="E140" t="s">
         <v>381</v>
       </c>
-      <c r="F140" s="8" t="s">
+      <c r="F140" s="5" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="5" t="s">
+      <c r="A141" s="7" t="s">
         <v>359</v>
       </c>
       <c r="B141" t="s">
@@ -7148,12 +7189,12 @@
       <c r="E141" t="s">
         <v>383</v>
       </c>
-      <c r="F141" s="8" t="s">
+      <c r="F141" s="5" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="5" t="s">
+      <c r="A142" s="7" t="s">
         <v>359</v>
       </c>
       <c r="B142" t="s">
@@ -7168,12 +7209,12 @@
       <c r="E142" t="s">
         <v>386</v>
       </c>
-      <c r="F142" s="8" t="s">
+      <c r="F142" s="5" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="5" t="s">
+      <c r="A143" s="7" t="s">
         <v>359</v>
       </c>
       <c r="B143" t="s">
@@ -7188,12 +7229,12 @@
       <c r="E143" t="s">
         <v>389</v>
       </c>
-      <c r="F143" s="8" t="s">
+      <c r="F143" s="5" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="5" t="s">
+      <c r="A144" s="7" t="s">
         <v>359</v>
       </c>
       <c r="B144" t="s">
@@ -7208,12 +7249,12 @@
       <c r="E144" t="s">
         <v>392</v>
       </c>
-      <c r="F144" s="8" t="s">
+      <c r="F144" s="5" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="5" t="s">
+      <c r="A145" s="7" t="s">
         <v>359</v>
       </c>
       <c r="B145" t="s">
@@ -7228,12 +7269,12 @@
       <c r="E145" t="s">
         <v>394</v>
       </c>
-      <c r="F145" s="8" t="s">
+      <c r="F145" s="5" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="5" t="s">
+      <c r="A146" s="7" t="s">
         <v>395</v>
       </c>
       <c r="B146" t="s">
@@ -7248,12 +7289,12 @@
       <c r="E146" t="s">
         <v>397</v>
       </c>
-      <c r="F146" s="8" t="s">
+      <c r="F146" s="5" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="5" t="s">
+      <c r="A147" s="7" t="s">
         <v>399</v>
       </c>
       <c r="B147" t="s">
@@ -7268,12 +7309,12 @@
       <c r="E147" t="s">
         <v>402</v>
       </c>
-      <c r="F147" s="8" t="s">
+      <c r="F147" s="5" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="5" t="s">
+      <c r="A148" s="7" t="s">
         <v>399</v>
       </c>
       <c r="B148" t="s">
@@ -7288,12 +7329,12 @@
       <c r="E148" t="s">
         <v>402</v>
       </c>
-      <c r="F148" s="8" t="s">
+      <c r="F148" s="5" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="5" t="s">
+      <c r="A149" s="7" t="s">
         <v>399</v>
       </c>
       <c r="B149" t="s">
@@ -7308,12 +7349,12 @@
       <c r="E149" t="s">
         <v>406</v>
       </c>
-      <c r="F149" s="8" t="s">
+      <c r="F149" s="5" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="5" t="s">
+      <c r="A150" s="7" t="s">
         <v>399</v>
       </c>
       <c r="B150" t="s">
@@ -7328,12 +7369,12 @@
       <c r="E150" t="s">
         <v>408</v>
       </c>
-      <c r="F150" s="8" t="s">
+      <c r="F150" s="5" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="5" t="s">
+      <c r="A151" s="7" t="s">
         <v>399</v>
       </c>
       <c r="B151" t="s">
@@ -7348,12 +7389,12 @@
       <c r="E151" t="s">
         <v>411</v>
       </c>
-      <c r="F151" s="8" t="s">
+      <c r="F151" s="5" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="5" t="s">
+      <c r="A152" s="7" t="s">
         <v>399</v>
       </c>
       <c r="B152" t="s">
@@ -7368,12 +7409,12 @@
       <c r="E152" t="s">
         <v>413</v>
       </c>
-      <c r="F152" s="8" t="s">
+      <c r="F152" s="5" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="5" t="s">
+      <c r="A153" s="7" t="s">
         <v>399</v>
       </c>
       <c r="B153" t="s">
@@ -7388,12 +7429,12 @@
       <c r="E153" t="s">
         <v>416</v>
       </c>
-      <c r="F153" s="8" t="s">
+      <c r="F153" s="5" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="5" t="s">
+      <c r="A154" s="7" t="s">
         <v>399</v>
       </c>
       <c r="B154" t="s">
@@ -7408,12 +7449,12 @@
       <c r="E154" t="s">
         <v>419</v>
       </c>
-      <c r="F154" s="8" t="s">
+      <c r="F154" s="5" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="5" t="s">
+      <c r="A155" s="7" t="s">
         <v>399</v>
       </c>
       <c r="B155" t="s">
@@ -7428,12 +7469,12 @@
       <c r="E155" t="s">
         <v>422</v>
       </c>
-      <c r="F155" s="8" t="s">
+      <c r="F155" s="5" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="5" t="s">
+      <c r="A156" s="7" t="s">
         <v>399</v>
       </c>
       <c r="B156" t="s">
@@ -7448,12 +7489,12 @@
       <c r="E156" t="s">
         <v>425</v>
       </c>
-      <c r="F156" s="8" t="s">
+      <c r="F156" s="5" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="5" t="s">
+      <c r="A157" s="7" t="s">
         <v>399</v>
       </c>
       <c r="B157" t="s">
@@ -7468,12 +7509,12 @@
       <c r="E157" t="s">
         <v>428</v>
       </c>
-      <c r="F157" s="8" t="s">
+      <c r="F157" s="5" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="5" t="s">
+      <c r="A158" s="7" t="s">
         <v>399</v>
       </c>
       <c r="B158" t="s">
@@ -7488,12 +7529,12 @@
       <c r="E158" t="s">
         <v>431</v>
       </c>
-      <c r="F158" s="8" t="s">
+      <c r="F158" s="5" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="5" t="s">
+      <c r="A159" s="7" t="s">
         <v>399</v>
       </c>
       <c r="B159" t="s">
@@ -7508,12 +7549,12 @@
       <c r="E159" t="s">
         <v>434</v>
       </c>
-      <c r="F159" s="8" t="s">
+      <c r="F159" s="5" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="5" t="s">
+      <c r="A160" s="7" t="s">
         <v>399</v>
       </c>
       <c r="B160" t="s">
@@ -7528,12 +7569,12 @@
       <c r="E160" t="s">
         <v>437</v>
       </c>
-      <c r="F160" s="8" t="s">
+      <c r="F160" s="5" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="5" t="s">
+      <c r="A161" s="7" t="s">
         <v>399</v>
       </c>
       <c r="B161" t="s">
@@ -7548,12 +7589,12 @@
       <c r="E161" t="s">
         <v>440</v>
       </c>
-      <c r="F161" s="8" t="s">
+      <c r="F161" s="5" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="5" t="s">
+      <c r="A162" s="7" t="s">
         <v>399</v>
       </c>
       <c r="B162" t="s">
@@ -7568,12 +7609,12 @@
       <c r="E162" t="s">
         <v>442</v>
       </c>
-      <c r="F162" s="8" t="s">
+      <c r="F162" s="5" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="5" t="s">
+      <c r="A163" s="7" t="s">
         <v>399</v>
       </c>
       <c r="B163" t="s">
@@ -7588,12 +7629,12 @@
       <c r="E163" t="s">
         <v>444</v>
       </c>
-      <c r="F163" s="8" t="s">
+      <c r="F163" s="5" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="5" t="s">
+      <c r="A164" s="7" t="s">
         <v>399</v>
       </c>
       <c r="B164" t="s">
@@ -7608,12 +7649,12 @@
       <c r="E164" t="s">
         <v>447</v>
       </c>
-      <c r="F164" s="8" t="s">
+      <c r="F164" s="5" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="5" t="s">
+      <c r="A165" s="7" t="s">
         <v>399</v>
       </c>
       <c r="B165" t="s">
@@ -7628,12 +7669,12 @@
       <c r="E165" t="s">
         <v>450</v>
       </c>
-      <c r="F165" s="8" t="s">
+      <c r="F165" s="5" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="5" t="s">
+      <c r="A166" s="7" t="s">
         <v>399</v>
       </c>
       <c r="B166" t="s">
@@ -7648,12 +7689,12 @@
       <c r="E166" t="s">
         <v>452</v>
       </c>
-      <c r="F166" s="8" t="s">
+      <c r="F166" s="5" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="5" t="s">
+      <c r="A167" s="7" t="s">
         <v>399</v>
       </c>
       <c r="B167" t="s">
@@ -7668,12 +7709,12 @@
       <c r="E167" t="s">
         <v>455</v>
       </c>
-      <c r="F167" s="8" t="s">
+      <c r="F167" s="5" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="5" t="s">
+      <c r="A168" s="7" t="s">
         <v>399</v>
       </c>
       <c r="B168" t="s">
@@ -7688,12 +7729,12 @@
       <c r="E168" t="s">
         <v>458</v>
       </c>
-      <c r="F168" s="8" t="s">
+      <c r="F168" s="5" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="5" t="s">
+      <c r="A169" s="7" t="s">
         <v>399</v>
       </c>
       <c r="B169" t="s">
@@ -7708,12 +7749,12 @@
       <c r="E169" t="s">
         <v>460</v>
       </c>
-      <c r="F169" s="8" t="s">
+      <c r="F169" s="5" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="5" t="s">
+      <c r="A170" s="7" t="s">
         <v>399</v>
       </c>
       <c r="B170" t="s">
@@ -7728,12 +7769,12 @@
       <c r="E170" t="s">
         <v>463</v>
       </c>
-      <c r="F170" s="8" t="s">
+      <c r="F170" s="5" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="5" t="s">
+      <c r="A171" s="7" t="s">
         <v>399</v>
       </c>
       <c r="B171" t="s">
@@ -7748,12 +7789,12 @@
       <c r="E171" t="s">
         <v>466</v>
       </c>
-      <c r="F171" s="8" t="s">
+      <c r="F171" s="5" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="5" t="s">
+      <c r="A172" s="7" t="s">
         <v>399</v>
       </c>
       <c r="B172" t="s">
@@ -7768,12 +7809,12 @@
       <c r="E172" t="s">
         <v>469</v>
       </c>
-      <c r="F172" s="8" t="s">
+      <c r="F172" s="5" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="5" t="s">
+      <c r="A173" s="7" t="s">
         <v>399</v>
       </c>
       <c r="B173" t="s">
@@ -7788,12 +7829,12 @@
       <c r="E173" t="s">
         <v>471</v>
       </c>
-      <c r="F173" s="8" t="s">
+      <c r="F173" s="5" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="5" t="s">
+      <c r="A174" s="7" t="s">
         <v>399</v>
       </c>
       <c r="B174" t="s">
@@ -7808,12 +7849,12 @@
       <c r="E174" t="s">
         <v>473</v>
       </c>
-      <c r="F174" s="8" t="s">
+      <c r="F174" s="5" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="5" t="s">
+      <c r="A175" s="7" t="s">
         <v>399</v>
       </c>
       <c r="B175" t="s">
@@ -7828,12 +7869,12 @@
       <c r="E175" t="s">
         <v>476</v>
       </c>
-      <c r="F175" s="8" t="s">
+      <c r="F175" s="5" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="5" t="s">
+      <c r="A176" s="7" t="s">
         <v>399</v>
       </c>
       <c r="B176" t="s">
@@ -7848,12 +7889,12 @@
       <c r="E176" t="s">
         <v>476</v>
       </c>
-      <c r="F176" s="8" t="s">
+      <c r="F176" s="5" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="5" t="s">
+      <c r="A177" s="7" t="s">
         <v>399</v>
       </c>
       <c r="B177" t="s">
@@ -7868,12 +7909,12 @@
       <c r="E177" t="s">
         <v>480</v>
       </c>
-      <c r="F177" s="8" t="s">
+      <c r="F177" s="5" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="5" t="s">
+      <c r="A178" s="7" t="s">
         <v>399</v>
       </c>
       <c r="B178" t="s">
@@ -7888,12 +7929,12 @@
       <c r="E178" t="s">
         <v>482</v>
       </c>
-      <c r="F178" s="8" t="s">
+      <c r="F178" s="5" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="5" t="s">
+      <c r="A179" s="7" t="s">
         <v>399</v>
       </c>
       <c r="B179" t="s">
@@ -7908,12 +7949,12 @@
       <c r="E179" t="s">
         <v>484</v>
       </c>
-      <c r="F179" s="8" t="s">
+      <c r="F179" s="5" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="5" t="s">
+      <c r="A180" s="7" t="s">
         <v>399</v>
       </c>
       <c r="B180" t="s">
@@ -7928,12 +7969,12 @@
       <c r="E180" t="s">
         <v>487</v>
       </c>
-      <c r="F180" s="8" t="s">
+      <c r="F180" s="5" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="5" t="s">
+      <c r="A181" s="7" t="s">
         <v>399</v>
       </c>
       <c r="B181" t="s">
@@ -7948,12 +7989,12 @@
       <c r="E181" t="s">
         <v>489</v>
       </c>
-      <c r="F181" s="8" t="s">
+      <c r="F181" s="5" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="5" t="s">
+      <c r="A182" s="7" t="s">
         <v>399</v>
       </c>
       <c r="B182" t="s">
@@ -7968,12 +8009,12 @@
       <c r="E182" t="s">
         <v>492</v>
       </c>
-      <c r="F182" s="8" t="s">
+      <c r="F182" s="5" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="5" t="s">
+      <c r="A183" s="7" t="s">
         <v>494</v>
       </c>
       <c r="B183" t="s">
@@ -7988,12 +8029,12 @@
       <c r="E183" t="s">
         <v>496</v>
       </c>
-      <c r="F183" s="8" t="s">
+      <c r="F183" s="5" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="5" t="s">
+      <c r="A184" s="7" t="s">
         <v>494</v>
       </c>
       <c r="B184" t="s">
@@ -8008,12 +8049,12 @@
       <c r="E184" t="s">
         <v>499</v>
       </c>
-      <c r="F184" s="8" t="s">
+      <c r="F184" s="5" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="5" t="s">
+      <c r="A185" s="7" t="s">
         <v>494</v>
       </c>
       <c r="B185" t="s">
@@ -8028,12 +8069,12 @@
       <c r="E185" t="s">
         <v>502</v>
       </c>
-      <c r="F185" s="8" t="s">
+      <c r="F185" s="5" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="5" t="s">
+      <c r="A186" s="7" t="s">
         <v>494</v>
       </c>
       <c r="B186" t="s">
@@ -8048,12 +8089,12 @@
       <c r="E186" t="s">
         <v>504</v>
       </c>
-      <c r="F186" s="8" t="s">
+      <c r="F186" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="5" t="s">
+      <c r="A187" s="7" t="s">
         <v>494</v>
       </c>
       <c r="B187" t="s">
@@ -8068,12 +8109,12 @@
       <c r="E187" t="s">
         <v>506</v>
       </c>
-      <c r="F187" s="8" t="s">
+      <c r="F187" s="5" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="5" t="s">
+      <c r="A188" s="7" t="s">
         <v>494</v>
       </c>
       <c r="B188" t="s">
@@ -8088,12 +8129,12 @@
       <c r="E188" t="s">
         <v>509</v>
       </c>
-      <c r="F188" s="8" t="s">
+      <c r="F188" s="5" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="5" t="s">
+      <c r="A189" s="7" t="s">
         <v>494</v>
       </c>
       <c r="B189" t="s">
@@ -8108,12 +8149,12 @@
       <c r="E189" t="s">
         <v>511</v>
       </c>
-      <c r="F189" s="8" t="s">
+      <c r="F189" s="5" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" s="5" t="s">
+      <c r="A190" s="7" t="s">
         <v>494</v>
       </c>
       <c r="B190" t="s">
@@ -8128,12 +8169,12 @@
       <c r="E190" t="s">
         <v>514</v>
       </c>
-      <c r="F190" s="8" t="s">
+      <c r="F190" s="5" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" s="5" t="s">
+      <c r="A191" s="7" t="s">
         <v>494</v>
       </c>
       <c r="B191" t="s">
@@ -8148,12 +8189,12 @@
       <c r="E191" t="s">
         <v>516</v>
       </c>
-      <c r="F191" s="8" t="s">
+      <c r="F191" s="5" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" s="5" t="s">
+      <c r="A192" s="7" t="s">
         <v>494</v>
       </c>
       <c r="B192" t="s">
@@ -8168,12 +8209,12 @@
       <c r="E192" t="s">
         <v>519</v>
       </c>
-      <c r="F192" s="8" t="s">
+      <c r="F192" s="5" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" s="5" t="s">
+      <c r="A193" s="7" t="s">
         <v>494</v>
       </c>
       <c r="B193" t="s">
@@ -8188,12 +8229,12 @@
       <c r="E193" t="s">
         <v>521</v>
       </c>
-      <c r="F193" s="8" t="s">
+      <c r="F193" s="5" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" s="5" t="s">
+      <c r="A194" s="7" t="s">
         <v>494</v>
       </c>
       <c r="B194" t="s">
@@ -8208,12 +8249,12 @@
       <c r="E194" t="s">
         <v>524</v>
       </c>
-      <c r="F194" s="8" t="s">
+      <c r="F194" s="5" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" s="5" t="s">
+      <c r="A195" s="7" t="s">
         <v>494</v>
       </c>
       <c r="B195" t="s">
@@ -8228,12 +8269,12 @@
       <c r="E195" t="s">
         <v>526</v>
       </c>
-      <c r="F195" s="8" t="s">
+      <c r="F195" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" s="5" t="s">
+      <c r="A196" s="7" t="s">
         <v>494</v>
       </c>
       <c r="B196" t="s">
@@ -8248,12 +8289,12 @@
       <c r="E196" t="s">
         <v>528</v>
       </c>
-      <c r="F196" s="8" t="s">
+      <c r="F196" s="5" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" s="5" t="s">
+      <c r="A197" s="7" t="s">
         <v>494</v>
       </c>
       <c r="B197" t="s">
@@ -8268,12 +8309,12 @@
       <c r="E197" t="s">
         <v>530</v>
       </c>
-      <c r="F197" s="8" t="s">
+      <c r="F197" s="5" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" s="5" t="s">
+      <c r="A198" s="7" t="s">
         <v>494</v>
       </c>
       <c r="B198" t="s">
@@ -8288,12 +8329,12 @@
       <c r="E198" t="s">
         <v>532</v>
       </c>
-      <c r="F198" s="8" t="s">
+      <c r="F198" s="5" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" s="5" t="s">
+      <c r="A199" s="7" t="s">
         <v>494</v>
       </c>
       <c r="B199" t="s">
@@ -8308,12 +8349,12 @@
       <c r="E199" t="s">
         <v>535</v>
       </c>
-      <c r="F199" s="8" t="s">
+      <c r="F199" s="5" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" s="5" t="s">
+      <c r="A200" s="7" t="s">
         <v>494</v>
       </c>
       <c r="B200" t="s">
@@ -8328,12 +8369,12 @@
       <c r="E200" t="s">
         <v>537</v>
       </c>
-      <c r="F200" s="8" t="s">
+      <c r="F200" s="5" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201" s="5" t="s">
+      <c r="A201" s="7" t="s">
         <v>494</v>
       </c>
       <c r="B201" t="s">
@@ -8348,12 +8389,12 @@
       <c r="E201" t="s">
         <v>540</v>
       </c>
-      <c r="F201" s="8" t="s">
+      <c r="F201" s="5" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" s="5" t="s">
+      <c r="A202" s="7" t="s">
         <v>494</v>
       </c>
       <c r="B202" t="s">
@@ -8365,12 +8406,12 @@
       <c r="D202">
         <v>3392911420</v>
       </c>
-      <c r="F202" s="8" t="s">
+      <c r="F202" s="5" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203" s="5" t="s">
+      <c r="A203" s="7" t="s">
         <v>494</v>
       </c>
       <c r="B203" t="s">
@@ -8385,12 +8426,12 @@
       <c r="E203" t="s">
         <v>544</v>
       </c>
-      <c r="F203" s="8" t="s">
+      <c r="F203" s="5" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204" s="5" t="s">
+      <c r="A204" s="7" t="s">
         <v>494</v>
       </c>
       <c r="B204" t="s">
@@ -8405,12 +8446,12 @@
       <c r="E204" t="s">
         <v>546</v>
       </c>
-      <c r="F204" s="8" t="s">
+      <c r="F204" s="5" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" s="5" t="s">
+      <c r="A205" s="7" t="s">
         <v>494</v>
       </c>
       <c r="B205" t="s">
@@ -8425,12 +8466,12 @@
       <c r="E205" t="s">
         <v>549</v>
       </c>
-      <c r="F205" s="8" t="s">
+      <c r="F205" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" s="5" t="s">
+      <c r="A206" s="7" t="s">
         <v>494</v>
       </c>
       <c r="B206" t="s">
@@ -8445,12 +8486,12 @@
       <c r="E206" t="s">
         <v>551</v>
       </c>
-      <c r="F206" s="8" t="s">
+      <c r="F206" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207" s="5" t="s">
+      <c r="A207" s="7" t="s">
         <v>494</v>
       </c>
       <c r="B207" t="s">
@@ -8465,12 +8506,12 @@
       <c r="E207" t="s">
         <v>553</v>
       </c>
-      <c r="F207" s="8" t="s">
+      <c r="F207" s="5" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" s="5" t="s">
+      <c r="A208" s="7" t="s">
         <v>494</v>
       </c>
       <c r="B208" t="s">
@@ -8485,12 +8526,12 @@
       <c r="E208" t="s">
         <v>556</v>
       </c>
-      <c r="F208" s="8" t="s">
+      <c r="F208" s="5" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209" s="5" t="s">
+      <c r="A209" s="7" t="s">
         <v>494</v>
       </c>
       <c r="B209" t="s">
@@ -8505,12 +8546,12 @@
       <c r="E209" t="s">
         <v>558</v>
       </c>
-      <c r="F209" s="8" t="s">
+      <c r="F209" s="5" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" s="5" t="s">
+      <c r="A210" s="7" t="s">
         <v>494</v>
       </c>
       <c r="B210" t="s">
@@ -8525,12 +8566,12 @@
       <c r="E210" t="s">
         <v>561</v>
       </c>
-      <c r="F210" s="8" t="s">
+      <c r="F210" s="5" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211" s="5" t="s">
+      <c r="A211" s="7" t="s">
         <v>494</v>
       </c>
       <c r="B211" t="s">
@@ -8545,12 +8586,12 @@
       <c r="E211" t="s">
         <v>563</v>
       </c>
-      <c r="F211" s="8" t="s">
+      <c r="F211" s="5" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212" s="5" t="s">
+      <c r="A212" s="7" t="s">
         <v>494</v>
       </c>
       <c r="B212" t="s">
@@ -8565,12 +8606,12 @@
       <c r="E212" t="s">
         <v>565</v>
       </c>
-      <c r="F212" s="8" t="s">
+      <c r="F212" s="5" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213" s="5" t="s">
+      <c r="A213" s="7" t="s">
         <v>494</v>
       </c>
       <c r="B213" t="s">
@@ -8585,12 +8626,12 @@
       <c r="E213" t="s">
         <v>567</v>
       </c>
-      <c r="F213" s="8" t="s">
+      <c r="F213" s="5" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A214" s="5" t="s">
+      <c r="A214" s="7" t="s">
         <v>494</v>
       </c>
       <c r="B214" t="s">
@@ -8605,12 +8646,12 @@
       <c r="E214" t="s">
         <v>570</v>
       </c>
-      <c r="F214" s="8" t="s">
+      <c r="F214" s="5" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A215" s="5" t="s">
+      <c r="A215" s="7" t="s">
         <v>494</v>
       </c>
       <c r="B215" t="s">
@@ -8625,12 +8666,12 @@
       <c r="E215" t="s">
         <v>570</v>
       </c>
-      <c r="F215" s="8" t="s">
+      <c r="F215" s="5" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A216" s="5" t="s">
+      <c r="A216" s="7" t="s">
         <v>572</v>
       </c>
       <c r="B216" t="s">
@@ -8645,12 +8686,12 @@
       <c r="E216" t="s">
         <v>574</v>
       </c>
-      <c r="F216" s="8" t="s">
+      <c r="F216" s="5" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217" s="5" t="s">
+      <c r="A217" s="7" t="s">
         <v>572</v>
       </c>
       <c r="B217" t="s">
@@ -8665,12 +8706,12 @@
       <c r="E217" t="s">
         <v>577</v>
       </c>
-      <c r="F217" s="8" t="s">
+      <c r="F217" s="5" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218" s="5" t="s">
+      <c r="A218" s="7" t="s">
         <v>572</v>
       </c>
       <c r="B218" t="s">
@@ -8685,12 +8726,12 @@
       <c r="E218" t="s">
         <v>580</v>
       </c>
-      <c r="F218" s="8" t="s">
+      <c r="F218" s="5" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219" s="5" t="s">
+      <c r="A219" s="7" t="s">
         <v>572</v>
       </c>
       <c r="B219" t="s">
@@ -8705,12 +8746,12 @@
       <c r="E219" t="s">
         <v>582</v>
       </c>
-      <c r="F219" s="8" t="s">
+      <c r="F219" s="5" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220" s="5" t="s">
+      <c r="A220" s="7" t="s">
         <v>572</v>
       </c>
       <c r="B220" t="s">
@@ -8725,12 +8766,12 @@
       <c r="E220" t="s">
         <v>584</v>
       </c>
-      <c r="F220" s="8" t="s">
+      <c r="F220" s="5" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A221" s="5" t="s">
+      <c r="A221" s="7" t="s">
         <v>572</v>
       </c>
       <c r="B221" t="s">
@@ -8745,12 +8786,12 @@
       <c r="E221" t="s">
         <v>586</v>
       </c>
-      <c r="F221" s="8" t="s">
+      <c r="F221" s="5" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222" s="5" t="s">
+      <c r="A222" s="7" t="s">
         <v>572</v>
       </c>
       <c r="B222" t="s">
@@ -8765,12 +8806,12 @@
       <c r="E222" t="s">
         <v>588</v>
       </c>
-      <c r="F222" s="8" t="s">
+      <c r="F222" s="5" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A223" s="5" t="s">
+      <c r="A223" s="7" t="s">
         <v>572</v>
       </c>
       <c r="B223" t="s">
@@ -8785,12 +8826,12 @@
       <c r="E223" t="s">
         <v>589</v>
       </c>
-      <c r="F223" s="8" t="s">
+      <c r="F223" s="5" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A224" s="5" t="s">
+      <c r="A224" s="7" t="s">
         <v>572</v>
       </c>
       <c r="B224" t="s">
@@ -8805,12 +8846,12 @@
       <c r="E224" t="s">
         <v>592</v>
       </c>
-      <c r="F224" s="8" t="s">
+      <c r="F224" s="5" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225" s="5" t="s">
+      <c r="A225" s="7" t="s">
         <v>572</v>
       </c>
       <c r="B225" t="s">
@@ -8825,12 +8866,12 @@
       <c r="E225" t="s">
         <v>595</v>
       </c>
-      <c r="F225" s="8" t="s">
+      <c r="F225" s="5" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226" s="5" t="s">
+      <c r="A226" s="7" t="s">
         <v>572</v>
       </c>
       <c r="B226" t="s">
@@ -8845,12 +8886,12 @@
       <c r="E226" t="s">
         <v>598</v>
       </c>
-      <c r="F226" s="8" t="s">
+      <c r="F226" s="5" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227" s="5" t="s">
+      <c r="A227" s="7" t="s">
         <v>572</v>
       </c>
       <c r="B227" t="s">
@@ -8865,12 +8906,12 @@
       <c r="E227" t="s">
         <v>601</v>
       </c>
-      <c r="F227" s="8" t="s">
+      <c r="F227" s="5" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A228" s="5" t="s">
+      <c r="A228" s="7" t="s">
         <v>572</v>
       </c>
       <c r="B228" t="s">
@@ -8885,12 +8926,12 @@
       <c r="E228" t="s">
         <v>603</v>
       </c>
-      <c r="F228" s="8" t="s">
+      <c r="F228" s="5" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A229" s="5" t="s">
+      <c r="A229" s="7" t="s">
         <v>572</v>
       </c>
       <c r="B229" t="s">
@@ -8905,12 +8946,12 @@
       <c r="E229" t="s">
         <v>605</v>
       </c>
-      <c r="F229" s="8" t="s">
+      <c r="F229" s="5" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230" s="5" t="s">
+      <c r="A230" s="7" t="s">
         <v>572</v>
       </c>
       <c r="B230" t="s">
@@ -8925,12 +8966,12 @@
       <c r="E230" t="s">
         <v>607</v>
       </c>
-      <c r="F230" s="8" t="s">
+      <c r="F230" s="5" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231" s="5" t="s">
+      <c r="A231" s="7" t="s">
         <v>572</v>
       </c>
       <c r="B231" t="s">
@@ -8945,12 +8986,12 @@
       <c r="E231" t="s">
         <v>609</v>
       </c>
-      <c r="F231" s="8" t="s">
+      <c r="F231" s="5" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232" s="5" t="s">
+      <c r="A232" s="7" t="s">
         <v>572</v>
       </c>
       <c r="B232" t="s">
@@ -8965,12 +9006,12 @@
       <c r="E232" t="s">
         <v>612</v>
       </c>
-      <c r="F232" s="8" t="s">
+      <c r="F232" s="5" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233" s="5" t="s">
+      <c r="A233" s="7" t="s">
         <v>572</v>
       </c>
       <c r="B233" t="s">
@@ -8985,12 +9026,12 @@
       <c r="E233" t="s">
         <v>615</v>
       </c>
-      <c r="F233" s="8" t="s">
+      <c r="F233" s="5" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A234" s="5" t="s">
+      <c r="A234" s="7" t="s">
         <v>572</v>
       </c>
       <c r="B234" t="s">
@@ -9005,12 +9046,12 @@
       <c r="E234" t="s">
         <v>618</v>
       </c>
-      <c r="F234" s="8" t="s">
+      <c r="F234" s="5" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235" s="5" t="s">
+      <c r="A235" s="7" t="s">
         <v>572</v>
       </c>
       <c r="B235" t="s">
@@ -9025,12 +9066,12 @@
       <c r="E235" t="s">
         <v>621</v>
       </c>
-      <c r="F235" s="8" t="s">
+      <c r="F235" s="5" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A236" s="5" t="s">
+      <c r="A236" s="7" t="s">
         <v>572</v>
       </c>
       <c r="B236" t="s">
@@ -9045,12 +9086,12 @@
       <c r="E236" t="s">
         <v>623</v>
       </c>
-      <c r="F236" s="8" t="s">
+      <c r="F236" s="5" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A237" s="5" t="s">
+      <c r="A237" s="7" t="s">
         <v>572</v>
       </c>
       <c r="B237" t="s">
@@ -9065,12 +9106,12 @@
       <c r="E237" t="s">
         <v>626</v>
       </c>
-      <c r="F237" s="8" t="s">
+      <c r="F237" s="5" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238" s="5" t="s">
+      <c r="A238" s="7" t="s">
         <v>572</v>
       </c>
       <c r="B238" t="s">
@@ -9085,12 +9126,12 @@
       <c r="E238" t="s">
         <v>628</v>
       </c>
-      <c r="F238" s="8" t="s">
+      <c r="F238" s="5" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239" s="5" t="s">
+      <c r="A239" s="7" t="s">
         <v>572</v>
       </c>
       <c r="B239" t="s">
@@ -9105,12 +9146,12 @@
       <c r="E239" t="s">
         <v>631</v>
       </c>
-      <c r="F239" s="8" t="s">
+      <c r="F239" s="5" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240" s="5" t="s">
+      <c r="A240" s="7" t="s">
         <v>572</v>
       </c>
       <c r="B240" t="s">
@@ -9125,12 +9166,12 @@
       <c r="E240" t="s">
         <v>634</v>
       </c>
-      <c r="F240" s="8" t="s">
+      <c r="F240" s="5" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241" s="5" t="s">
+      <c r="A241" s="7" t="s">
         <v>572</v>
       </c>
       <c r="B241" t="s">
@@ -9145,12 +9186,12 @@
       <c r="E241" t="s">
         <v>637</v>
       </c>
-      <c r="F241" s="8" t="s">
+      <c r="F241" s="5" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242" s="5" t="s">
+      <c r="A242" s="7" t="s">
         <v>572</v>
       </c>
       <c r="B242" t="s">
@@ -9165,12 +9206,12 @@
       <c r="E242" t="s">
         <v>640</v>
       </c>
-      <c r="F242" s="8" t="s">
+      <c r="F242" s="5" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243" s="5" t="s">
+      <c r="A243" s="7" t="s">
         <v>572</v>
       </c>
       <c r="B243" t="s">
@@ -9185,12 +9226,12 @@
       <c r="E243" t="s">
         <v>643</v>
       </c>
-      <c r="F243" s="8" t="s">
+      <c r="F243" s="5" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244" s="5" t="s">
+      <c r="A244" s="7" t="s">
         <v>572</v>
       </c>
       <c r="B244" t="s">
@@ -9205,12 +9246,12 @@
       <c r="E244" t="s">
         <v>643</v>
       </c>
-      <c r="F244" s="8" t="s">
+      <c r="F244" s="5" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245" s="5" t="s">
+      <c r="A245" s="7" t="s">
         <v>572</v>
       </c>
       <c r="B245" t="s">
@@ -9225,12 +9266,12 @@
       <c r="E245" t="s">
         <v>646</v>
       </c>
-      <c r="F245" s="8" t="s">
+      <c r="F245" s="5" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A246" s="5" t="s">
+      <c r="A246" s="7" t="s">
         <v>572</v>
       </c>
       <c r="B246" t="s">
@@ -9245,12 +9286,12 @@
       <c r="E246" t="s">
         <v>649</v>
       </c>
-      <c r="F246" s="8" t="s">
+      <c r="F246" s="5" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A247" s="5" t="s">
+      <c r="A247" s="7" t="s">
         <v>572</v>
       </c>
       <c r="B247" t="s">
@@ -9265,12 +9306,12 @@
       <c r="E247" t="s">
         <v>652</v>
       </c>
-      <c r="F247" s="8" t="s">
+      <c r="F247" s="5" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A248" s="5" t="s">
+      <c r="A248" s="7" t="s">
         <v>572</v>
       </c>
       <c r="B248" t="s">
@@ -9285,12 +9326,12 @@
       <c r="E248" t="s">
         <v>654</v>
       </c>
-      <c r="F248" s="8" t="s">
+      <c r="F248" s="5" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249" s="5" t="s">
+      <c r="A249" s="7" t="s">
         <v>572</v>
       </c>
       <c r="B249" t="s">
@@ -9305,12 +9346,12 @@
       <c r="E249" t="s">
         <v>656</v>
       </c>
-      <c r="F249" s="8" t="s">
+      <c r="F249" s="5" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250" s="5" t="s">
+      <c r="A250" s="7" t="s">
         <v>572</v>
       </c>
       <c r="B250" t="s">
@@ -9325,12 +9366,12 @@
       <c r="E250" t="s">
         <v>658</v>
       </c>
-      <c r="F250" s="8" t="s">
+      <c r="F250" s="5" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A251" s="5" t="s">
+      <c r="A251" s="7" t="s">
         <v>659</v>
       </c>
       <c r="B251" t="s">
@@ -9345,12 +9386,12 @@
       <c r="E251" t="s">
         <v>661</v>
       </c>
-      <c r="F251" s="8" t="s">
+      <c r="F251" s="5" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252" s="5" t="s">
+      <c r="A252" s="7" t="s">
         <v>659</v>
       </c>
       <c r="B252" t="s">
@@ -9365,12 +9406,12 @@
       <c r="E252" t="s">
         <v>663</v>
       </c>
-      <c r="F252" s="8" t="s">
+      <c r="F252" s="5" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253" s="5" t="s">
+      <c r="A253" s="7" t="s">
         <v>659</v>
       </c>
       <c r="B253" t="s">
@@ -9385,12 +9426,12 @@
       <c r="E253" t="s">
         <v>665</v>
       </c>
-      <c r="F253" s="8" t="s">
+      <c r="F253" s="5" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A254" s="5" t="s">
+      <c r="A254" s="7" t="s">
         <v>659</v>
       </c>
       <c r="B254" t="s">
@@ -9405,12 +9446,12 @@
       <c r="E254" t="s">
         <v>668</v>
       </c>
-      <c r="F254" s="8" t="s">
+      <c r="F254" s="5" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255" s="5" t="s">
+      <c r="A255" s="7" t="s">
         <v>659</v>
       </c>
       <c r="B255" t="s">
@@ -9425,12 +9466,12 @@
       <c r="E255" t="s">
         <v>670</v>
       </c>
-      <c r="F255" s="8" t="s">
+      <c r="F255" s="5" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256" s="5" t="s">
+      <c r="A256" s="7" t="s">
         <v>659</v>
       </c>
       <c r="B256" t="s">
@@ -9445,12 +9486,12 @@
       <c r="E256" t="s">
         <v>672</v>
       </c>
-      <c r="F256" s="8" t="s">
+      <c r="F256" s="5" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257" s="5" t="s">
+      <c r="A257" s="7" t="s">
         <v>659</v>
       </c>
       <c r="B257" t="s">
@@ -9465,12 +9506,12 @@
       <c r="E257" t="s">
         <v>674</v>
       </c>
-      <c r="F257" s="8" t="s">
+      <c r="F257" s="5" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258" s="5" t="s">
+      <c r="A258" s="7" t="s">
         <v>659</v>
       </c>
       <c r="B258" t="s">
@@ -9485,12 +9526,12 @@
       <c r="E258" t="s">
         <v>675</v>
       </c>
-      <c r="F258" s="8" t="s">
+      <c r="F258" s="5" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259" s="5" t="s">
+      <c r="A259" s="7" t="s">
         <v>659</v>
       </c>
       <c r="B259" t="s">
@@ -9505,12 +9546,12 @@
       <c r="E259" t="s">
         <v>677</v>
       </c>
-      <c r="F259" s="8" t="s">
+      <c r="F259" s="5" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260" s="5" t="s">
+      <c r="A260" s="7" t="s">
         <v>659</v>
       </c>
       <c r="B260" t="s">
@@ -9525,12 +9566,12 @@
       <c r="E260" t="s">
         <v>681</v>
       </c>
-      <c r="F260" s="8" t="s">
+      <c r="F260" s="5" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261" s="5" t="s">
+      <c r="A261" s="7" t="s">
         <v>659</v>
       </c>
       <c r="B261" t="s">
@@ -9545,12 +9586,12 @@
       <c r="E261" t="s">
         <v>681</v>
       </c>
-      <c r="F261" s="8" t="s">
+      <c r="F261" s="5" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" s="5" t="s">
+      <c r="A262" s="7" t="s">
         <v>659</v>
       </c>
       <c r="B262" t="s">
@@ -9565,12 +9606,12 @@
       <c r="E262" t="s">
         <v>685</v>
       </c>
-      <c r="F262" s="8" t="s">
+      <c r="F262" s="5" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A263" s="5" t="s">
+      <c r="A263" s="7" t="s">
         <v>659</v>
       </c>
       <c r="B263" t="s">
@@ -9585,12 +9626,12 @@
       <c r="E263" t="s">
         <v>688</v>
       </c>
-      <c r="F263" s="8" t="s">
+      <c r="F263" s="5" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A264" s="5" t="s">
+      <c r="A264" s="7" t="s">
         <v>659</v>
       </c>
       <c r="B264" t="s">
@@ -9605,12 +9646,12 @@
       <c r="E264" t="s">
         <v>691</v>
       </c>
-      <c r="F264" s="8" t="s">
+      <c r="F264" s="5" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A265" s="5" t="s">
+      <c r="A265" s="7" t="s">
         <v>659</v>
       </c>
       <c r="B265" t="s">
@@ -9625,12 +9666,12 @@
       <c r="E265" t="s">
         <v>694</v>
       </c>
-      <c r="F265" s="8" t="s">
+      <c r="F265" s="5" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A266" s="5" t="s">
+      <c r="A266" s="7" t="s">
         <v>659</v>
       </c>
       <c r="B266" t="s">
@@ -9645,12 +9686,12 @@
       <c r="E266" t="s">
         <v>697</v>
       </c>
-      <c r="F266" s="8" t="s">
+      <c r="F266" s="5" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A267" s="5" t="s">
+      <c r="A267" s="7" t="s">
         <v>659</v>
       </c>
       <c r="B267" t="s">
@@ -9665,12 +9706,12 @@
       <c r="E267" t="s">
         <v>700</v>
       </c>
-      <c r="F267" s="8" t="s">
+      <c r="F267" s="5" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A268" s="5" t="s">
+      <c r="A268" s="7" t="s">
         <v>659</v>
       </c>
       <c r="B268" t="s">
@@ -9685,12 +9726,12 @@
       <c r="E268" t="s">
         <v>703</v>
       </c>
-      <c r="F268" s="8" t="s">
+      <c r="F268" s="5" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A269" s="5" t="s">
+      <c r="A269" s="7" t="s">
         <v>659</v>
       </c>
       <c r="B269" t="s">
@@ -9705,12 +9746,12 @@
       <c r="E269" t="s">
         <v>705</v>
       </c>
-      <c r="F269" s="8" t="s">
+      <c r="F269" s="5" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A270" s="5" t="s">
+      <c r="A270" s="7" t="s">
         <v>659</v>
       </c>
       <c r="B270" t="s">
@@ -9725,12 +9766,12 @@
       <c r="E270" t="s">
         <v>707</v>
       </c>
-      <c r="F270" s="8" t="s">
+      <c r="F270" s="5" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A271" s="5" t="s">
+      <c r="A271" s="7" t="s">
         <v>659</v>
       </c>
       <c r="B271" t="s">
@@ -9745,12 +9786,12 @@
       <c r="E271" t="s">
         <v>710</v>
       </c>
-      <c r="F271" s="8" t="s">
+      <c r="F271" s="5" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A272" s="5" t="s">
+      <c r="A272" s="7" t="s">
         <v>659</v>
       </c>
       <c r="B272" t="s">
@@ -9765,12 +9806,12 @@
       <c r="E272" t="s">
         <v>712</v>
       </c>
-      <c r="F272" s="8" t="s">
+      <c r="F272" s="5" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A273" s="5" t="s">
+      <c r="A273" s="7" t="s">
         <v>659</v>
       </c>
       <c r="B273" t="s">
@@ -9785,12 +9826,12 @@
       <c r="E273" t="s">
         <v>714</v>
       </c>
-      <c r="F273" s="8" t="s">
+      <c r="F273" s="5" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A274" s="5" t="s">
+      <c r="A274" s="7" t="s">
         <v>659</v>
       </c>
       <c r="B274" t="s">
@@ -9805,12 +9846,12 @@
       <c r="E274" t="s">
         <v>717</v>
       </c>
-      <c r="F274" s="8" t="s">
+      <c r="F274" s="5" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A275" s="5" t="s">
+      <c r="A275" s="7" t="s">
         <v>659</v>
       </c>
       <c r="B275" t="s">
@@ -9825,12 +9866,12 @@
       <c r="E275" t="s">
         <v>719</v>
       </c>
-      <c r="F275" s="8" t="s">
+      <c r="F275" s="5" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A276" s="5" t="s">
+      <c r="A276" s="7" t="s">
         <v>659</v>
       </c>
       <c r="B276" t="s">
@@ -9845,12 +9886,12 @@
       <c r="E276" t="s">
         <v>723</v>
       </c>
-      <c r="F276" s="8" t="s">
+      <c r="F276" s="5" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A277" s="5" t="s">
+      <c r="A277" s="7" t="s">
         <v>659</v>
       </c>
       <c r="B277" t="s">
@@ -9865,12 +9906,12 @@
       <c r="E277" t="s">
         <v>723</v>
       </c>
-      <c r="F277" s="8" t="s">
+      <c r="F277" s="5" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A278" s="5" t="s">
+      <c r="A278" s="7" t="s">
         <v>659</v>
       </c>
       <c r="B278" t="s">
@@ -9885,12 +9926,12 @@
       <c r="E278" t="s">
         <v>726</v>
       </c>
-      <c r="F278" s="8" t="s">
+      <c r="F278" s="5" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A279" s="5" t="s">
+      <c r="A279" s="7" t="s">
         <v>659</v>
       </c>
       <c r="B279" t="s">
@@ -9905,12 +9946,12 @@
       <c r="E279" t="s">
         <v>729</v>
       </c>
-      <c r="F279" s="8" t="s">
+      <c r="F279" s="5" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A280" s="5" t="s">
+      <c r="A280" s="7" t="s">
         <v>659</v>
       </c>
       <c r="B280" t="s">
@@ -9925,12 +9966,12 @@
       <c r="E280" t="s">
         <v>732</v>
       </c>
-      <c r="F280" s="8" t="s">
+      <c r="F280" s="5" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A281" s="5" t="s">
+      <c r="A281" s="7" t="s">
         <v>659</v>
       </c>
       <c r="B281" t="s">
@@ -9945,12 +9986,12 @@
       <c r="E281" t="s">
         <v>735</v>
       </c>
-      <c r="F281" s="8" t="s">
+      <c r="F281" s="5" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A282" s="5" t="s">
+      <c r="A282" s="7" t="s">
         <v>659</v>
       </c>
       <c r="B282" t="s">
@@ -9965,12 +10006,12 @@
       <c r="E282" t="s">
         <v>737</v>
       </c>
-      <c r="F282" s="8" t="s">
+      <c r="F282" s="5" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A283" s="5" t="s">
+      <c r="A283" s="7" t="s">
         <v>659</v>
       </c>
       <c r="B283" t="s">
@@ -9985,12 +10026,12 @@
       <c r="E283" t="s">
         <v>739</v>
       </c>
-      <c r="F283" s="8" t="s">
+      <c r="F283" s="5" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A284" s="5" t="s">
+      <c r="A284" s="7" t="s">
         <v>659</v>
       </c>
       <c r="B284" t="s">
@@ -10005,12 +10046,12 @@
       <c r="E284" t="s">
         <v>742</v>
       </c>
-      <c r="F284" s="8" t="s">
+      <c r="F284" s="5" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A285" s="5" t="s">
+      <c r="A285" s="7" t="s">
         <v>659</v>
       </c>
       <c r="B285" t="s">
@@ -10025,12 +10066,12 @@
       <c r="E285" t="s">
         <v>744</v>
       </c>
-      <c r="F285" s="8" t="s">
+      <c r="F285" s="5" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A286" s="5" t="s">
+      <c r="A286" s="7" t="s">
         <v>659</v>
       </c>
       <c r="B286" t="s">
@@ -10045,12 +10086,12 @@
       <c r="E286" t="s">
         <v>746</v>
       </c>
-      <c r="F286" s="8" t="s">
+      <c r="F286" s="5" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A287" s="5" t="s">
+      <c r="A287" s="7" t="s">
         <v>659</v>
       </c>
       <c r="B287" t="s">
@@ -10065,12 +10106,12 @@
       <c r="E287" t="s">
         <v>748</v>
       </c>
-      <c r="F287" s="8" t="s">
+      <c r="F287" s="5" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A288" s="5" t="s">
+      <c r="A288" s="7" t="s">
         <v>659</v>
       </c>
       <c r="B288" t="s">
@@ -10085,12 +10126,12 @@
       <c r="E288" t="s">
         <v>750</v>
       </c>
-      <c r="F288" s="8" t="s">
+      <c r="F288" s="5" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A289" s="5" t="s">
+      <c r="A289" s="7" t="s">
         <v>659</v>
       </c>
       <c r="B289" t="s">
@@ -10105,12 +10146,12 @@
       <c r="E289" t="s">
         <v>752</v>
       </c>
-      <c r="F289" s="8" t="s">
+      <c r="F289" s="5" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A290" s="5" t="s">
+      <c r="A290" s="7" t="s">
         <v>659</v>
       </c>
       <c r="B290" t="s">
@@ -10125,12 +10166,12 @@
       <c r="E290" t="s">
         <v>756</v>
       </c>
-      <c r="F290" s="8" t="s">
+      <c r="F290" s="5" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A291" s="5" t="s">
+      <c r="A291" s="7" t="s">
         <v>659</v>
       </c>
       <c r="B291" t="s">
@@ -10145,12 +10186,12 @@
       <c r="E291" t="s">
         <v>756</v>
       </c>
-      <c r="F291" s="8" t="s">
+      <c r="F291" s="5" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A292" s="5" t="s">
+      <c r="A292" s="7" t="s">
         <v>659</v>
       </c>
       <c r="B292" t="s">
@@ -10165,12 +10206,12 @@
       <c r="E292" t="s">
         <v>759</v>
       </c>
-      <c r="F292" s="8" t="s">
+      <c r="F292" s="5" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A293" s="5" t="s">
+      <c r="A293" s="7" t="s">
         <v>659</v>
       </c>
       <c r="B293" t="s">
@@ -10185,12 +10226,12 @@
       <c r="E293" t="s">
         <v>762</v>
       </c>
-      <c r="F293" s="8" t="s">
+      <c r="F293" s="5" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A294" s="5" t="s">
+      <c r="A294" s="7" t="s">
         <v>659</v>
       </c>
       <c r="B294" t="s">
@@ -10205,12 +10246,12 @@
       <c r="E294" t="s">
         <v>765</v>
       </c>
-      <c r="F294" s="8" t="s">
+      <c r="F294" s="5" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A295" s="5" t="s">
+      <c r="A295" s="7" t="s">
         <v>659</v>
       </c>
       <c r="B295" t="s">
@@ -10225,12 +10266,12 @@
       <c r="E295" t="s">
         <v>768</v>
       </c>
-      <c r="F295" s="8" t="s">
+      <c r="F295" s="5" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A296" s="5" t="s">
+      <c r="A296" s="7" t="s">
         <v>659</v>
       </c>
       <c r="B296" t="s">
@@ -10245,12 +10286,12 @@
       <c r="E296" t="s">
         <v>770</v>
       </c>
-      <c r="F296" s="8" t="s">
+      <c r="F296" s="5" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A297" s="5" t="s">
+      <c r="A297" s="7" t="s">
         <v>659</v>
       </c>
       <c r="B297" t="s">
@@ -10265,12 +10306,12 @@
       <c r="E297" t="s">
         <v>773</v>
       </c>
-      <c r="F297" s="8" t="s">
+      <c r="F297" s="5" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A298" s="5" t="s">
+      <c r="A298" s="7" t="s">
         <v>774</v>
       </c>
       <c r="B298" t="s">
@@ -10285,12 +10326,12 @@
       <c r="E298" t="s">
         <v>776</v>
       </c>
-      <c r="F298" s="8" t="s">
+      <c r="F298" s="5" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A299" s="5" t="s">
+      <c r="A299" s="7" t="s">
         <v>774</v>
       </c>
       <c r="B299" t="s">
@@ -10305,12 +10346,12 @@
       <c r="E299" t="s">
         <v>779</v>
       </c>
-      <c r="F299" s="8" t="s">
+      <c r="F299" s="5" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A300" s="5" t="s">
+      <c r="A300" s="7" t="s">
         <v>774</v>
       </c>
       <c r="B300" t="s">
@@ -10325,12 +10366,12 @@
       <c r="E300" t="s">
         <v>782</v>
       </c>
-      <c r="F300" s="8" t="s">
+      <c r="F300" s="5" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A301" s="5" t="s">
+      <c r="A301" s="7" t="s">
         <v>774</v>
       </c>
       <c r="B301" t="s">
@@ -10345,12 +10386,12 @@
       <c r="E301" t="s">
         <v>784</v>
       </c>
-      <c r="F301" s="8" t="s">
+      <c r="F301" s="5" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A302" s="5" t="s">
+      <c r="A302" s="7" t="s">
         <v>774</v>
       </c>
       <c r="B302" t="s">
@@ -10365,12 +10406,12 @@
       <c r="E302" t="s">
         <v>787</v>
       </c>
-      <c r="F302" s="8" t="s">
+      <c r="F302" s="5" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A303" s="5" t="s">
+      <c r="A303" s="7" t="s">
         <v>774</v>
       </c>
       <c r="B303" t="s">
@@ -10385,12 +10426,12 @@
       <c r="E303" t="s">
         <v>789</v>
       </c>
-      <c r="F303" s="8" t="s">
+      <c r="F303" s="5" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A304" s="5" t="s">
+      <c r="A304" s="7" t="s">
         <v>774</v>
       </c>
       <c r="B304" t="s">
@@ -10405,12 +10446,12 @@
       <c r="E304" t="s">
         <v>791</v>
       </c>
-      <c r="F304" s="8" t="s">
+      <c r="F304" s="5" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A305" s="5" t="s">
+      <c r="A305" s="7" t="s">
         <v>774</v>
       </c>
       <c r="B305" t="s">
@@ -10425,12 +10466,12 @@
       <c r="E305" t="s">
         <v>793</v>
       </c>
-      <c r="F305" s="8" t="s">
+      <c r="F305" s="5" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A306" s="5" t="s">
+      <c r="A306" s="7" t="s">
         <v>774</v>
       </c>
       <c r="B306" t="s">
@@ -10445,12 +10486,12 @@
       <c r="E306" t="s">
         <v>795</v>
       </c>
-      <c r="F306" s="8" t="s">
+      <c r="F306" s="5" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A307" s="5" t="s">
+      <c r="A307" s="7" t="s">
         <v>774</v>
       </c>
       <c r="B307" t="s">
@@ -10465,12 +10506,12 @@
       <c r="E307" t="s">
         <v>797</v>
       </c>
-      <c r="F307" s="8" t="s">
+      <c r="F307" s="5" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A308" s="5" t="s">
+      <c r="A308" s="7" t="s">
         <v>774</v>
       </c>
       <c r="B308" t="s">
@@ -10485,12 +10526,12 @@
       <c r="E308" t="s">
         <v>799</v>
       </c>
-      <c r="F308" s="8" t="s">
+      <c r="F308" s="5" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A309" s="5" t="s">
+      <c r="A309" s="7" t="s">
         <v>774</v>
       </c>
       <c r="B309" t="s">
@@ -10505,12 +10546,12 @@
       <c r="E309" t="s">
         <v>800</v>
       </c>
-      <c r="F309" s="8" t="s">
+      <c r="F309" s="5" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A310" s="5" t="s">
+      <c r="A310" s="7" t="s">
         <v>774</v>
       </c>
       <c r="B310" t="s">
@@ -10525,12 +10566,12 @@
       <c r="E310" t="s">
         <v>803</v>
       </c>
-      <c r="F310" s="8" t="s">
+      <c r="F310" s="5" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A311" s="5" t="s">
+      <c r="A311" s="7" t="s">
         <v>774</v>
       </c>
       <c r="B311" t="s">
@@ -10545,12 +10586,12 @@
       <c r="E311" t="s">
         <v>806</v>
       </c>
-      <c r="F311" s="8" t="s">
+      <c r="F311" s="5" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A312" s="5" t="s">
+      <c r="A312" s="7" t="s">
         <v>774</v>
       </c>
       <c r="B312" t="s">
@@ -10565,12 +10606,12 @@
       <c r="E312" t="s">
         <v>808</v>
       </c>
-      <c r="F312" s="8" t="s">
+      <c r="F312" s="5" t="s">
         <v>809</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A313" s="5" t="s">
+      <c r="A313" s="7" t="s">
         <v>774</v>
       </c>
       <c r="B313" t="s">
@@ -10585,12 +10626,12 @@
       <c r="E313" t="s">
         <v>811</v>
       </c>
-      <c r="F313" s="8" t="s">
+      <c r="F313" s="5" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A314" s="5" t="s">
+      <c r="A314" s="7" t="s">
         <v>774</v>
       </c>
       <c r="B314" t="s">
@@ -10605,12 +10646,12 @@
       <c r="E314" t="s">
         <v>813</v>
       </c>
-      <c r="F314" s="8" t="s">
+      <c r="F314" s="5" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A315" s="5" t="s">
+      <c r="A315" s="7" t="s">
         <v>774</v>
       </c>
       <c r="B315" t="s">
@@ -10625,12 +10666,12 @@
       <c r="E315" t="s">
         <v>815</v>
       </c>
-      <c r="F315" s="8" t="s">
+      <c r="F315" s="5" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A316" s="5" t="s">
+      <c r="A316" s="7" t="s">
         <v>774</v>
       </c>
       <c r="B316" t="s">
@@ -10645,12 +10686,12 @@
       <c r="E316" t="s">
         <v>818</v>
       </c>
-      <c r="F316" s="8" t="s">
+      <c r="F316" s="5" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A317" s="5" t="s">
+      <c r="A317" s="7" t="s">
         <v>774</v>
       </c>
       <c r="B317" t="s">
@@ -10665,12 +10706,12 @@
       <c r="E317" t="s">
         <v>820</v>
       </c>
-      <c r="F317" s="8" t="s">
+      <c r="F317" s="5" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A318" s="5" t="s">
+      <c r="A318" s="7" t="s">
         <v>774</v>
       </c>
       <c r="B318" t="s">
@@ -10685,12 +10726,12 @@
       <c r="E318" t="s">
         <v>823</v>
       </c>
-      <c r="F318" s="8" t="s">
+      <c r="F318" s="5" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A319" s="5" t="s">
+      <c r="A319" s="7" t="s">
         <v>774</v>
       </c>
       <c r="B319" t="s">
@@ -10705,12 +10746,12 @@
       <c r="E319" t="s">
         <v>826</v>
       </c>
-      <c r="F319" s="8" t="s">
+      <c r="F319" s="5" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A320" s="5" t="s">
+      <c r="A320" s="7" t="s">
         <v>774</v>
       </c>
       <c r="B320" t="s">
@@ -10725,12 +10766,12 @@
       <c r="E320" t="s">
         <v>829</v>
       </c>
-      <c r="F320" s="8" t="s">
+      <c r="F320" s="5" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A321" s="5" t="s">
+      <c r="A321" s="7" t="s">
         <v>774</v>
       </c>
       <c r="B321" t="s">
@@ -10745,12 +10786,12 @@
       <c r="E321" t="s">
         <v>831</v>
       </c>
-      <c r="F321" s="8" t="s">
+      <c r="F321" s="5" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A322" s="5" t="s">
+      <c r="A322" s="7" t="s">
         <v>774</v>
       </c>
       <c r="B322" t="s">
@@ -10765,12 +10806,12 @@
       <c r="E322" t="s">
         <v>833</v>
       </c>
-      <c r="F322" s="8" t="s">
+      <c r="F322" s="5" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A323" s="5" t="s">
+      <c r="A323" s="7" t="s">
         <v>774</v>
       </c>
       <c r="B323" t="s">
@@ -10785,12 +10826,12 @@
       <c r="E323" t="s">
         <v>835</v>
       </c>
-      <c r="F323" s="8" t="s">
+      <c r="F323" s="5" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A324" s="5" t="s">
+      <c r="A324" s="7" t="s">
         <v>774</v>
       </c>
       <c r="B324" t="s">
@@ -10805,12 +10846,12 @@
       <c r="E324" t="s">
         <v>837</v>
       </c>
-      <c r="F324" s="8" t="s">
+      <c r="F324" s="5" t="s">
         <v>838</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A325" s="5" t="s">
+      <c r="A325" s="7" t="s">
         <v>774</v>
       </c>
       <c r="B325" t="s">
@@ -10825,12 +10866,12 @@
       <c r="E325" t="s">
         <v>840</v>
       </c>
-      <c r="F325" s="8" t="s">
+      <c r="F325" s="5" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A326" s="5" t="s">
+      <c r="A326" s="7" t="s">
         <v>774</v>
       </c>
       <c r="B326" t="s">
@@ -10845,12 +10886,12 @@
       <c r="E326" t="s">
         <v>842</v>
       </c>
-      <c r="F326" s="8" t="s">
+      <c r="F326" s="5" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A327" s="5" t="s">
+      <c r="A327" s="7" t="s">
         <v>774</v>
       </c>
       <c r="B327" t="s">
@@ -10865,12 +10906,12 @@
       <c r="E327" t="s">
         <v>845</v>
       </c>
-      <c r="F327" s="8" t="s">
+      <c r="F327" s="5" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A328" s="5" t="s">
+      <c r="A328" s="7" t="s">
         <v>774</v>
       </c>
       <c r="B328" t="s">
@@ -10885,12 +10926,12 @@
       <c r="E328" t="s">
         <v>847</v>
       </c>
-      <c r="F328" s="8" t="s">
+      <c r="F328" s="5" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A329" s="5" t="s">
+      <c r="A329" s="7" t="s">
         <v>774</v>
       </c>
       <c r="B329" t="s">
@@ -10905,12 +10946,12 @@
       <c r="E329" t="s">
         <v>849</v>
       </c>
-      <c r="F329" s="8" t="s">
+      <c r="F329" s="5" t="s">
         <v>850</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A330" s="5" t="s">
+      <c r="A330" s="7" t="s">
         <v>774</v>
       </c>
       <c r="B330" t="s">
@@ -10922,12 +10963,12 @@
       <c r="D330">
         <v>3490755</v>
       </c>
-      <c r="F330" s="8" t="s">
+      <c r="F330" s="5" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A331" s="5" t="s">
+      <c r="A331" s="7" t="s">
         <v>774</v>
       </c>
       <c r="B331" t="s">
@@ -10939,12 +10980,12 @@
       <c r="D331">
         <v>361322615</v>
       </c>
-      <c r="F331" s="8" t="s">
+      <c r="F331" s="5" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A332" s="5" t="s">
+      <c r="A332" s="7" t="s">
         <v>774</v>
       </c>
       <c r="B332" t="s">
@@ -10959,12 +11000,12 @@
       <c r="E332" t="s">
         <v>856</v>
       </c>
-      <c r="F332" s="8" t="s">
+      <c r="F332" s="5" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A333" s="5" t="s">
+      <c r="A333" s="7" t="s">
         <v>857</v>
       </c>
       <c r="B333" t="s">
@@ -10979,12 +11020,12 @@
       <c r="E333" t="s">
         <v>859</v>
       </c>
-      <c r="F333" s="8" t="s">
+      <c r="F333" s="5" t="s">
         <v>860</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A334" s="5" t="s">
+      <c r="A334" s="7" t="s">
         <v>857</v>
       </c>
       <c r="B334" t="s">
@@ -10999,12 +11040,12 @@
       <c r="E334" t="s">
         <v>862</v>
       </c>
-      <c r="F334" s="8" t="s">
+      <c r="F334" s="5" t="s">
         <v>863</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A335" s="5" t="s">
+      <c r="A335" s="7" t="s">
         <v>857</v>
       </c>
       <c r="B335" t="s">
@@ -11019,12 +11060,12 @@
       <c r="E335" t="s">
         <v>865</v>
       </c>
-      <c r="F335" s="8" t="s">
+      <c r="F335" s="5" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A336" s="5" t="s">
+      <c r="A336" s="7" t="s">
         <v>857</v>
       </c>
       <c r="B336" t="s">
@@ -11039,12 +11080,12 @@
       <c r="E336" t="s">
         <v>867</v>
       </c>
-      <c r="F336" s="8" t="s">
+      <c r="F336" s="5" t="s">
         <v>868</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A337" s="5" t="s">
+      <c r="A337" s="7" t="s">
         <v>857</v>
       </c>
       <c r="B337" t="s">
@@ -11059,12 +11100,12 @@
       <c r="E337" t="s">
         <v>870</v>
       </c>
-      <c r="F337" s="8" t="s">
+      <c r="F337" s="5" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A338" s="5" t="s">
+      <c r="A338" s="7" t="s">
         <v>857</v>
       </c>
       <c r="B338" t="s">
@@ -11079,12 +11120,12 @@
       <c r="E338" t="s">
         <v>872</v>
       </c>
-      <c r="F338" s="8" t="s">
+      <c r="F338" s="5" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A339" s="5" t="s">
+      <c r="A339" s="7" t="s">
         <v>857</v>
       </c>
       <c r="B339" t="s">
@@ -11096,12 +11137,12 @@
       <c r="D339">
         <v>3392911420</v>
       </c>
-      <c r="F339" s="8" t="s">
+      <c r="F339" s="5" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A340" s="5" t="s">
+      <c r="A340" s="7" t="s">
         <v>857</v>
       </c>
       <c r="B340" t="s">
@@ -11113,12 +11154,12 @@
       <c r="D340">
         <v>3392911420</v>
       </c>
-      <c r="F340" s="8" t="s">
+      <c r="F340" s="5" t="s">
         <v>875</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A341" s="5" t="s">
+      <c r="A341" s="7" t="s">
         <v>857</v>
       </c>
       <c r="B341" t="s">
@@ -11133,12 +11174,12 @@
       <c r="E341" t="s">
         <v>877</v>
       </c>
-      <c r="F341" s="8" t="s">
+      <c r="F341" s="5" t="s">
         <v>878</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A342" s="5" t="s">
+      <c r="A342" s="7" t="s">
         <v>857</v>
       </c>
       <c r="B342" t="s">
@@ -11153,12 +11194,12 @@
       <c r="E342" t="s">
         <v>880</v>
       </c>
-      <c r="F342" s="8" t="s">
+      <c r="F342" s="5" t="s">
         <v>878</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A343" s="5" t="s">
+      <c r="A343" s="7" t="s">
         <v>857</v>
       </c>
       <c r="B343" t="s">
@@ -11173,12 +11214,12 @@
       <c r="E343" t="s">
         <v>174</v>
       </c>
-      <c r="F343" s="8" t="s">
+      <c r="F343" s="5" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A344" s="5" t="s">
+      <c r="A344" s="7" t="s">
         <v>857</v>
       </c>
       <c r="B344" t="s">
@@ -11193,12 +11234,12 @@
       <c r="E344" t="s">
         <v>174</v>
       </c>
-      <c r="F344" s="8" t="s">
+      <c r="F344" s="5" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A345" s="5" t="s">
+      <c r="A345" s="7" t="s">
         <v>857</v>
       </c>
       <c r="B345" t="s">
@@ -11213,12 +11254,12 @@
       <c r="E345" t="s">
         <v>612</v>
       </c>
-      <c r="F345" s="8" t="s">
+      <c r="F345" s="5" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A346" s="5" t="s">
+      <c r="A346" s="7" t="s">
         <v>857</v>
       </c>
       <c r="B346" t="s">
@@ -11233,12 +11274,12 @@
       <c r="E346" t="s">
         <v>174</v>
       </c>
-      <c r="F346" s="8" t="s">
+      <c r="F346" s="5" t="s">
         <v>885</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A347" s="5" t="s">
+      <c r="A347" s="7" t="s">
         <v>857</v>
       </c>
       <c r="B347" t="s">
@@ -11253,12 +11294,12 @@
       <c r="E347" t="s">
         <v>887</v>
       </c>
-      <c r="F347" s="8" t="s">
+      <c r="F347" s="5" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A348" s="5" t="s">
+      <c r="A348" s="7" t="s">
         <v>857</v>
       </c>
       <c r="B348" t="s">
@@ -11273,12 +11314,12 @@
       <c r="E348" t="s">
         <v>890</v>
       </c>
-      <c r="F348" s="8" t="s">
+      <c r="F348" s="5" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A349" s="5" t="s">
+      <c r="A349" s="7" t="s">
         <v>857</v>
       </c>
       <c r="B349" t="s">
@@ -11293,12 +11334,12 @@
       <c r="E349" t="s">
         <v>892</v>
       </c>
-      <c r="F349" s="8" t="s">
+      <c r="F349" s="5" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A350" s="5" t="s">
+      <c r="A350" s="7" t="s">
         <v>857</v>
       </c>
       <c r="B350" t="s">
@@ -11313,12 +11354,12 @@
       <c r="E350" t="s">
         <v>894</v>
       </c>
-      <c r="F350" s="8" t="s">
+      <c r="F350" s="5" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A351" s="5" t="s">
+      <c r="A351" s="7" t="s">
         <v>857</v>
       </c>
       <c r="B351" t="s">
@@ -11333,12 +11374,12 @@
       <c r="E351" t="s">
         <v>896</v>
       </c>
-      <c r="F351" s="8" t="s">
+      <c r="F351" s="5" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A352" s="5" t="s">
+      <c r="A352" s="7" t="s">
         <v>857</v>
       </c>
       <c r="B352" t="s">
@@ -11353,12 +11394,12 @@
       <c r="E352" t="s">
         <v>898</v>
       </c>
-      <c r="F352" s="8" t="s">
+      <c r="F352" s="5" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A353" s="5" t="s">
+      <c r="A353" s="7" t="s">
         <v>857</v>
       </c>
       <c r="B353" t="s">
@@ -11373,12 +11414,12 @@
       <c r="E353" t="s">
         <v>900</v>
       </c>
-      <c r="F353" s="8" t="s">
+      <c r="F353" s="5" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A354" s="5" t="s">
+      <c r="A354" s="7" t="s">
         <v>857</v>
       </c>
       <c r="B354" t="s">
@@ -11393,12 +11434,12 @@
       <c r="E354" t="s">
         <v>902</v>
       </c>
-      <c r="F354" s="8" t="s">
+      <c r="F354" s="5" t="s">
         <v>903</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A355" s="5" t="s">
+      <c r="A355" s="7" t="s">
         <v>857</v>
       </c>
       <c r="B355" t="s">
@@ -11410,12 +11451,12 @@
       <c r="D355">
         <v>3392911420</v>
       </c>
-      <c r="F355" s="8" t="s">
+      <c r="F355" s="5" t="s">
         <v>905</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A356" s="5" t="s">
+      <c r="A356" s="7" t="s">
         <v>857</v>
       </c>
       <c r="B356" t="s">
@@ -11430,12 +11471,12 @@
       <c r="E356" t="s">
         <v>907</v>
       </c>
-      <c r="F356" s="8" t="s">
+      <c r="F356" s="5" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A357" s="5" t="s">
+      <c r="A357" s="7" t="s">
         <v>857</v>
       </c>
       <c r="B357" t="s">
@@ -11450,12 +11491,12 @@
       <c r="E357" t="s">
         <v>910</v>
       </c>
-      <c r="F357" s="8" t="s">
+      <c r="F357" s="5" t="s">
         <v>911</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A358" s="5" t="s">
+      <c r="A358" s="7" t="s">
         <v>857</v>
       </c>
       <c r="B358" t="s">
@@ -11470,12 +11511,12 @@
       <c r="E358" t="s">
         <v>913</v>
       </c>
-      <c r="F358" s="8" t="s">
+      <c r="F358" s="5" t="s">
         <v>914</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A359" s="5" t="s">
+      <c r="A359" s="7" t="s">
         <v>857</v>
       </c>
       <c r="B359" t="s">
@@ -11490,12 +11531,12 @@
       <c r="E359" t="s">
         <v>916</v>
       </c>
-      <c r="F359" s="8" t="s">
+      <c r="F359" s="5" t="s">
         <v>917</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A360" s="5" t="s">
+      <c r="A360" s="7" t="s">
         <v>857</v>
       </c>
       <c r="B360" t="s">
@@ -11510,12 +11551,12 @@
       <c r="E360" t="s">
         <v>919</v>
       </c>
-      <c r="F360" s="8" t="s">
+      <c r="F360" s="5" t="s">
         <v>920</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A361" s="5" t="s">
+      <c r="A361" s="7" t="s">
         <v>857</v>
       </c>
       <c r="B361" t="s">
@@ -11530,12 +11571,12 @@
       <c r="E361" t="s">
         <v>922</v>
       </c>
-      <c r="F361" s="8" t="s">
+      <c r="F361" s="5" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A362" s="5" t="s">
+      <c r="A362" s="7" t="s">
         <v>857</v>
       </c>
       <c r="B362" t="s">
@@ -11550,12 +11591,12 @@
       <c r="E362" t="s">
         <v>925</v>
       </c>
-      <c r="F362" s="8" t="s">
+      <c r="F362" s="5" t="s">
         <v>903</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A363" s="5" t="s">
+      <c r="A363" s="7" t="s">
         <v>857</v>
       </c>
       <c r="B363" t="s">
@@ -11570,12 +11611,12 @@
       <c r="E363" t="s">
         <v>927</v>
       </c>
-      <c r="F363" s="8" t="s">
+      <c r="F363" s="5" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A364" s="5" t="s">
+      <c r="A364" s="7" t="s">
         <v>857</v>
       </c>
       <c r="B364" t="s">
@@ -11590,12 +11631,12 @@
       <c r="E364" t="s">
         <v>929</v>
       </c>
-      <c r="F364" s="8" t="s">
+      <c r="F364" s="5" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A365" s="5" t="s">
+      <c r="A365" s="7" t="s">
         <v>857</v>
       </c>
       <c r="B365" t="s">
@@ -11610,12 +11651,12 @@
       <c r="E365" t="s">
         <v>932</v>
       </c>
-      <c r="F365" s="8" t="s">
+      <c r="F365" s="5" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A366" s="5" t="s">
+      <c r="A366" s="7" t="s">
         <v>857</v>
       </c>
       <c r="B366" t="s">
@@ -11630,12 +11671,12 @@
       <c r="E366" t="s">
         <v>934</v>
       </c>
-      <c r="F366" s="8" t="s">
+      <c r="F366" s="5" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A367" s="5" t="s">
+      <c r="A367" s="7" t="s">
         <v>857</v>
       </c>
       <c r="B367" t="s">
@@ -11650,12 +11691,12 @@
       <c r="E367" t="s">
         <v>936</v>
       </c>
-      <c r="F367" s="8" t="s">
+      <c r="F367" s="5" t="s">
         <v>937</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A368" s="5" t="s">
+      <c r="A368" s="7" t="s">
         <v>857</v>
       </c>
       <c r="B368" t="s">
@@ -11670,12 +11711,12 @@
       <c r="E368" t="s">
         <v>940</v>
       </c>
-      <c r="F368" s="8" t="s">
+      <c r="F368" s="5" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A369" s="5" t="s">
+      <c r="A369" s="7" t="s">
         <v>857</v>
       </c>
       <c r="B369" t="s">
@@ -11690,12 +11731,12 @@
       <c r="E369" t="s">
         <v>940</v>
       </c>
-      <c r="F369" s="8" t="s">
+      <c r="F369" s="5" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A370" s="5" t="s">
+      <c r="A370" s="7" t="s">
         <v>857</v>
       </c>
       <c r="B370" t="s">
@@ -11710,12 +11751,12 @@
       <c r="E370" t="s">
         <v>943</v>
       </c>
-      <c r="F370" s="8" t="s">
+      <c r="F370" s="5" t="s">
         <v>944</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A371" s="5" t="s">
+      <c r="A371" s="7" t="s">
         <v>945</v>
       </c>
       <c r="B371" t="s">
@@ -11730,12 +11771,12 @@
       <c r="E371" t="s">
         <v>174</v>
       </c>
-      <c r="F371" s="8" t="s">
+      <c r="F371" s="5" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A372" s="5" t="s">
+      <c r="A372" s="7" t="s">
         <v>945</v>
       </c>
       <c r="B372" t="s">
@@ -11750,12 +11791,12 @@
       <c r="E372" t="s">
         <v>174</v>
       </c>
-      <c r="F372" s="8" t="s">
+      <c r="F372" s="5" t="s">
         <v>903</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A373" s="5" t="s">
+      <c r="A373" s="7" t="s">
         <v>945</v>
       </c>
       <c r="B373" t="s">
@@ -11770,12 +11811,12 @@
       <c r="E373" t="s">
         <v>949</v>
       </c>
-      <c r="F373" s="8" t="s">
+      <c r="F373" s="5" t="s">
         <v>903</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A374" s="5" t="s">
+      <c r="A374" s="7" t="s">
         <v>945</v>
       </c>
       <c r="B374" t="s">
@@ -11790,12 +11831,12 @@
       <c r="E374" t="s">
         <v>951</v>
       </c>
-      <c r="F374" s="8" t="s">
+      <c r="F374" s="5" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A375" s="5" t="s">
+      <c r="A375" s="7" t="s">
         <v>945</v>
       </c>
       <c r="B375" t="s">
@@ -11810,12 +11851,12 @@
       <c r="E375" t="s">
         <v>953</v>
       </c>
-      <c r="F375" s="8" t="s">
+      <c r="F375" s="5" t="s">
         <v>954</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A376" s="5" t="s">
+      <c r="A376" s="7" t="s">
         <v>945</v>
       </c>
       <c r="B376" t="s">
@@ -11830,12 +11871,12 @@
       <c r="E376" t="s">
         <v>955</v>
       </c>
-      <c r="F376" s="8" t="s">
+      <c r="F376" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A377" s="5" t="s">
+      <c r="A377" s="7" t="s">
         <v>945</v>
       </c>
       <c r="B377" t="s">
@@ -11850,12 +11891,12 @@
       <c r="E377" t="s">
         <v>957</v>
       </c>
-      <c r="F377" s="8" t="s">
+      <c r="F377" s="5" t="s">
         <v>954</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A378" s="5" t="s">
+      <c r="A378" s="7" t="s">
         <v>945</v>
       </c>
       <c r="B378" t="s">
@@ -11870,12 +11911,12 @@
       <c r="E378" t="s">
         <v>959</v>
       </c>
-      <c r="F378" s="8" t="s">
+      <c r="F378" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A379" s="5" t="s">
+      <c r="A379" s="7" t="s">
         <v>945</v>
       </c>
       <c r="B379" t="s">
@@ -11890,12 +11931,12 @@
       <c r="E379" t="s">
         <v>961</v>
       </c>
-      <c r="F379" s="8" t="s">
+      <c r="F379" s="5" t="s">
         <v>903</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A380" s="5" t="s">
+      <c r="A380" s="7" t="s">
         <v>945</v>
       </c>
       <c r="B380" t="s">
@@ -11910,12 +11951,12 @@
       <c r="E380" t="s">
         <v>963</v>
       </c>
-      <c r="F380" s="8" t="s">
+      <c r="F380" s="5" t="s">
         <v>964</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A381" s="5" t="s">
+      <c r="A381" s="7" t="s">
         <v>945</v>
       </c>
       <c r="B381" t="s">
@@ -11930,12 +11971,12 @@
       <c r="E381" t="s">
         <v>967</v>
       </c>
-      <c r="F381" s="8" t="s">
+      <c r="F381" s="5" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A382" s="5" t="s">
+      <c r="A382" s="7" t="s">
         <v>945</v>
       </c>
       <c r="B382" t="s">
@@ -11950,12 +11991,12 @@
       <c r="E382" t="s">
         <v>967</v>
       </c>
-      <c r="F382" s="8" t="s">
+      <c r="F382" s="5" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A383" s="5" t="s">
+      <c r="A383" s="7" t="s">
         <v>945</v>
       </c>
       <c r="B383" t="s">
@@ -11970,12 +12011,12 @@
       <c r="E383" t="s">
         <v>970</v>
       </c>
-      <c r="F383" s="8" t="s">
+      <c r="F383" s="5" t="s">
         <v>920</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A384" s="5" t="s">
+      <c r="A384" s="7" t="s">
         <v>945</v>
       </c>
       <c r="B384" t="s">
@@ -11990,12 +12031,12 @@
       <c r="E384" t="s">
         <v>972</v>
       </c>
-      <c r="F384" s="8" t="s">
+      <c r="F384" s="5" t="s">
         <v>911</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A385" s="5" t="s">
+      <c r="A385" s="7" t="s">
         <v>945</v>
       </c>
       <c r="B385" t="s">
@@ -12010,12 +12051,12 @@
       <c r="E385" t="s">
         <v>974</v>
       </c>
-      <c r="F385" s="8" t="s">
+      <c r="F385" s="5" t="s">
         <v>975</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A386" s="5" t="s">
+      <c r="A386" s="7" t="s">
         <v>945</v>
       </c>
       <c r="B386" t="s">
@@ -12030,12 +12071,12 @@
       <c r="E386" t="s">
         <v>977</v>
       </c>
-      <c r="F386" s="8" t="s">
+      <c r="F386" s="5" t="s">
         <v>975</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A387" s="5" t="s">
+      <c r="A387" s="7" t="s">
         <v>945</v>
       </c>
       <c r="B387" t="s">
@@ -12050,12 +12091,12 @@
       <c r="E387" t="s">
         <v>979</v>
       </c>
-      <c r="F387" s="8" t="s">
+      <c r="F387" s="5" t="s">
         <v>980</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A388" s="5" t="s">
+      <c r="A388" s="7" t="s">
         <v>945</v>
       </c>
       <c r="B388" t="s">
@@ -12070,12 +12111,12 @@
       <c r="E388" t="s">
         <v>982</v>
       </c>
-      <c r="F388" s="8" t="s">
+      <c r="F388" s="5" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A389" s="5" t="s">
+      <c r="A389" s="7" t="s">
         <v>945</v>
       </c>
       <c r="B389" t="s">
@@ -12090,12 +12131,12 @@
       <c r="E389" t="s">
         <v>984</v>
       </c>
-      <c r="F389" s="8" t="s">
+      <c r="F389" s="5" t="s">
         <v>985</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A390" s="5" t="s">
+      <c r="A390" s="7" t="s">
         <v>945</v>
       </c>
       <c r="B390" t="s">
@@ -12110,12 +12151,12 @@
       <c r="E390" t="s">
         <v>986</v>
       </c>
-      <c r="F390" s="8" t="s">
+      <c r="F390" s="5" t="s">
         <v>985</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A391" s="5" t="s">
+      <c r="A391" s="7" t="s">
         <v>945</v>
       </c>
       <c r="B391" t="s">
@@ -12130,12 +12171,12 @@
       <c r="E391" t="s">
         <v>988</v>
       </c>
-      <c r="F391" s="8" t="s">
+      <c r="F391" s="5" t="s">
         <v>975</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A392" s="5" t="s">
+      <c r="A392" s="7" t="s">
         <v>945</v>
       </c>
       <c r="B392" t="s">
@@ -12150,12 +12191,12 @@
       <c r="E392" t="s">
         <v>990</v>
       </c>
-      <c r="F392" s="8" t="s">
+      <c r="F392" s="5" t="s">
         <v>991</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A393" s="5" t="s">
+      <c r="A393" s="7" t="s">
         <v>945</v>
       </c>
       <c r="B393" t="s">
@@ -12170,12 +12211,12 @@
       <c r="E393" t="s">
         <v>993</v>
       </c>
-      <c r="F393" s="8" t="s">
+      <c r="F393" s="5" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A394" s="5" t="s">
+      <c r="A394" s="7" t="s">
         <v>945</v>
       </c>
       <c r="B394" t="s">
@@ -12190,12 +12231,12 @@
       <c r="E394" t="s">
         <v>995</v>
       </c>
-      <c r="F394" s="8" t="s">
+      <c r="F394" s="5" t="s">
         <v>917</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A395" s="5" t="s">
+      <c r="A395" s="7" t="s">
         <v>945</v>
       </c>
       <c r="B395" t="s">
@@ -12210,12 +12251,12 @@
       <c r="E395" t="s">
         <v>997</v>
       </c>
-      <c r="F395" s="8" t="s">
+      <c r="F395" s="5" t="s">
         <v>998</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A396" s="5" t="s">
+      <c r="A396" s="7" t="s">
         <v>945</v>
       </c>
       <c r="B396" t="s">
@@ -12230,12 +12271,12 @@
       <c r="E396" t="s">
         <v>1000</v>
       </c>
-      <c r="F396" s="8" t="s">
+      <c r="F396" s="5" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A397" s="5" t="s">
+      <c r="A397" s="7" t="s">
         <v>945</v>
       </c>
       <c r="B397" t="s">
@@ -12250,12 +12291,12 @@
       <c r="E397" t="s">
         <v>1003</v>
       </c>
-      <c r="F397" s="8" t="s">
+      <c r="F397" s="5" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A398" s="5" t="s">
+      <c r="A398" s="7" t="s">
         <v>945</v>
       </c>
       <c r="B398" t="s">
@@ -12270,12 +12311,12 @@
       <c r="E398" t="s">
         <v>1003</v>
       </c>
-      <c r="F398" s="8" t="s">
+      <c r="F398" s="5" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A399" s="5" t="s">
+      <c r="A399" s="7" t="s">
         <v>1005</v>
       </c>
       <c r="B399" t="s">
@@ -12290,12 +12331,12 @@
       <c r="E399" t="s">
         <v>1007</v>
       </c>
-      <c r="F399" s="8" t="s">
+      <c r="F399" s="5" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A400" s="5" t="s">
+      <c r="A400" s="7" t="s">
         <v>1005</v>
       </c>
       <c r="B400" t="s">
@@ -12307,12 +12348,12 @@
       <c r="D400">
         <v>1004028451</v>
       </c>
-      <c r="F400" s="8" t="s">
+      <c r="F400" s="5" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A401" s="5" t="s">
+      <c r="A401" s="7" t="s">
         <v>1005</v>
       </c>
       <c r="B401" t="s">
@@ -12324,12 +12365,12 @@
       <c r="D401">
         <v>1004028451</v>
       </c>
-      <c r="F401" s="8" t="s">
+      <c r="F401" s="5" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A402" s="5" t="s">
+      <c r="A402" s="7" t="s">
         <v>1005</v>
       </c>
       <c r="B402" t="s">
@@ -12341,12 +12382,12 @@
       <c r="D402">
         <v>1004028451</v>
       </c>
-      <c r="F402" s="8" t="s">
+      <c r="F402" s="5" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A403" s="5" t="s">
+      <c r="A403" s="7" t="s">
         <v>1005</v>
       </c>
       <c r="B403" t="s">
@@ -12361,12 +12402,12 @@
       <c r="E403" t="s">
         <v>1012</v>
       </c>
-      <c r="F403" s="8" t="s">
+      <c r="F403" s="5" t="s">
         <v>1013</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A404" s="5" t="s">
+      <c r="A404" s="7" t="s">
         <v>1014</v>
       </c>
       <c r="B404" t="s">
@@ -12381,12 +12422,12 @@
       <c r="E404" t="s">
         <v>1016</v>
       </c>
-      <c r="F404" s="8" t="s">
+      <c r="F404" s="5" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A405" s="5" t="s">
+      <c r="A405" s="7" t="s">
         <v>1014</v>
       </c>
       <c r="B405" t="s">
@@ -12401,12 +12442,12 @@
       <c r="E405" t="s">
         <v>1019</v>
       </c>
-      <c r="F405" s="8" t="s">
+      <c r="F405" s="5" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A406" s="5" t="s">
+      <c r="A406" s="7" t="s">
         <v>1014</v>
       </c>
       <c r="B406" t="s">
@@ -12421,12 +12462,12 @@
       <c r="E406" t="s">
         <v>1022</v>
       </c>
-      <c r="F406" s="8" t="s">
+      <c r="F406" s="5" t="s">
         <v>1023</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A407" s="5" t="s">
+      <c r="A407" s="7" t="s">
         <v>1014</v>
       </c>
       <c r="B407" t="s">
@@ -12441,12 +12482,12 @@
       <c r="E407" t="s">
         <v>1025</v>
       </c>
-      <c r="F407" s="8" t="s">
+      <c r="F407" s="5" t="s">
         <v>1026</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A408" s="5" t="s">
+      <c r="A408" s="7" t="s">
         <v>1014</v>
       </c>
       <c r="B408" t="s">
@@ -12461,12 +12502,12 @@
       <c r="E408" t="s">
         <v>1028</v>
       </c>
-      <c r="F408" s="8" t="s">
+      <c r="F408" s="5" t="s">
         <v>1029</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A409" s="5" t="s">
+      <c r="A409" s="7" t="s">
         <v>1030</v>
       </c>
       <c r="B409" t="s">
@@ -12481,12 +12522,12 @@
       <c r="E409" t="s">
         <v>1032</v>
       </c>
-      <c r="F409" s="8" t="s">
+      <c r="F409" s="5" t="s">
         <v>1033</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A410" s="5" t="s">
+      <c r="A410" s="7" t="s">
         <v>1030</v>
       </c>
       <c r="B410" t="s">
@@ -12501,12 +12542,12 @@
       <c r="E410" t="s">
         <v>1035</v>
       </c>
-      <c r="F410" s="8" t="s">
+      <c r="F410" s="5" t="s">
         <v>1036</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A411" s="5" t="s">
+      <c r="A411" s="7" t="s">
         <v>1030</v>
       </c>
       <c r="B411" t="s">
@@ -12521,12 +12562,12 @@
       <c r="E411" t="s">
         <v>1038</v>
       </c>
-      <c r="F411" s="8" t="s">
+      <c r="F411" s="5" t="s">
         <v>1039</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A412" s="5" t="s">
+      <c r="A412" s="7" t="s">
         <v>1030</v>
       </c>
       <c r="B412" t="s">
@@ -12541,12 +12582,12 @@
       <c r="E412" t="s">
         <v>1041</v>
       </c>
-      <c r="F412" s="8" t="s">
+      <c r="F412" s="5" t="s">
         <v>1042</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A413" s="5" t="s">
+      <c r="A413" s="7" t="s">
         <v>1030</v>
       </c>
       <c r="B413" t="s">
@@ -12561,12 +12602,12 @@
       <c r="E413" t="s">
         <v>1044</v>
       </c>
-      <c r="F413" s="8" t="s">
+      <c r="F413" s="5" t="s">
         <v>1045</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A414" s="5" t="s">
+      <c r="A414" s="7" t="s">
         <v>1030</v>
       </c>
       <c r="B414" t="s">
@@ -12581,12 +12622,12 @@
       <c r="E414" t="s">
         <v>1047</v>
       </c>
-      <c r="F414" s="8" t="s">
+      <c r="F414" s="5" t="s">
         <v>1039</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A415" s="5" t="s">
+      <c r="A415" s="7" t="s">
         <v>1030</v>
       </c>
       <c r="B415" t="s">
@@ -12601,12 +12642,12 @@
       <c r="E415" t="s">
         <v>1049</v>
       </c>
-      <c r="F415" s="8" t="s">
+      <c r="F415" s="5" t="s">
         <v>1050</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A416" s="5" t="s">
+      <c r="A416" s="7" t="s">
         <v>1030</v>
       </c>
       <c r="B416" t="s">
@@ -12621,12 +12662,12 @@
       <c r="E416" t="s">
         <v>1052</v>
       </c>
-      <c r="F416" s="8" t="s">
+      <c r="F416" s="5" t="s">
         <v>1053</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A417" s="5" t="s">
+      <c r="A417" s="7" t="s">
         <v>1030</v>
       </c>
       <c r="B417" t="s">
@@ -12641,12 +12682,12 @@
       <c r="E417" t="s">
         <v>1055</v>
       </c>
-      <c r="F417" s="8" t="s">
+      <c r="F417" s="5" t="s">
         <v>1056</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A418" s="5" t="s">
+      <c r="A418" s="7" t="s">
         <v>1030</v>
       </c>
       <c r="B418" t="s">
@@ -12661,12 +12702,12 @@
       <c r="E418" t="s">
         <v>1058</v>
       </c>
-      <c r="F418" s="8" t="s">
+      <c r="F418" s="5" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A419" s="5" t="s">
+      <c r="A419" s="7" t="s">
         <v>1030</v>
       </c>
       <c r="B419" t="s">
@@ -12681,12 +12722,12 @@
       <c r="E419" t="s">
         <v>1060</v>
       </c>
-      <c r="F419" s="8" t="s">
+      <c r="F419" s="5" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A420" s="5" t="s">
+      <c r="A420" s="7" t="s">
         <v>1030</v>
       </c>
       <c r="B420" t="s">
@@ -12701,12 +12742,12 @@
       <c r="E420" t="s">
         <v>1062</v>
       </c>
-      <c r="F420" s="8" t="s">
+      <c r="F420" s="5" t="s">
         <v>1063</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A421" s="5" t="s">
+      <c r="A421" s="7" t="s">
         <v>1030</v>
       </c>
       <c r="B421" t="s">
@@ -12721,12 +12762,12 @@
       <c r="E421" t="s">
         <v>1065</v>
       </c>
-      <c r="F421" s="8" t="s">
+      <c r="F421" s="5" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A422" s="5" t="s">
+      <c r="A422" s="7" t="s">
         <v>1030</v>
       </c>
       <c r="B422" t="s">
@@ -12741,12 +12782,12 @@
       <c r="E422" t="s">
         <v>1067</v>
       </c>
-      <c r="F422" s="8" t="s">
+      <c r="F422" s="5" t="s">
         <v>1068</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A423" s="5" t="s">
+      <c r="A423" s="7" t="s">
         <v>1030</v>
       </c>
       <c r="B423" t="s">
@@ -12761,12 +12802,12 @@
       <c r="E423" t="s">
         <v>1069</v>
       </c>
-      <c r="F423" s="8" t="s">
+      <c r="F423" s="5" t="s">
         <v>1070</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A424" s="5" t="s">
+      <c r="A424" s="7" t="s">
         <v>1030</v>
       </c>
       <c r="B424" t="s">
@@ -12781,12 +12822,12 @@
       <c r="E424" t="s">
         <v>1072</v>
       </c>
-      <c r="F424" s="8" t="s">
+      <c r="F424" s="5" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A425" s="5" t="s">
+      <c r="A425" s="7" t="s">
         <v>1030</v>
       </c>
       <c r="B425" t="s">
@@ -12801,12 +12842,12 @@
       <c r="E425" t="s">
         <v>1074</v>
       </c>
-      <c r="F425" s="8" t="s">
+      <c r="F425" s="5" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A426" s="5" t="s">
+      <c r="A426" s="7" t="s">
         <v>1030</v>
       </c>
       <c r="B426" t="s">
@@ -12821,12 +12862,12 @@
       <c r="E426" t="s">
         <v>1076</v>
       </c>
-      <c r="F426" s="8" t="s">
+      <c r="F426" s="5" t="s">
         <v>1077</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A427" s="5" t="s">
+      <c r="A427" s="7" t="s">
         <v>1078</v>
       </c>
       <c r="B427" t="s">
@@ -12841,12 +12882,12 @@
       <c r="E427" t="s">
         <v>1080</v>
       </c>
-      <c r="F427" s="8" t="s">
+      <c r="F427" s="5" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A428" s="5" t="s">
+      <c r="A428" s="7" t="s">
         <v>1078</v>
       </c>
       <c r="B428" t="s">
@@ -12861,12 +12902,12 @@
       <c r="E428" t="s">
         <v>1082</v>
       </c>
-      <c r="F428" s="8" t="s">
+      <c r="F428" s="5" t="s">
         <v>964</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A429" s="5" t="s">
+      <c r="A429" s="7" t="s">
         <v>1078</v>
       </c>
       <c r="B429" t="s">
@@ -12881,12 +12922,12 @@
       <c r="E429" t="s">
         <v>1084</v>
       </c>
-      <c r="F429" s="8" t="s">
+      <c r="F429" s="5" t="s">
         <v>964</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A430" s="5" t="s">
+      <c r="A430" s="7" t="s">
         <v>1078</v>
       </c>
       <c r="B430" t="s">
@@ -12901,12 +12942,12 @@
       <c r="E430" t="s">
         <v>1085</v>
       </c>
-      <c r="F430" s="8" t="s">
+      <c r="F430" s="5" t="s">
         <v>1086</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A431" s="5" t="s">
+      <c r="A431" s="7" t="s">
         <v>1078</v>
       </c>
       <c r="B431" t="s">
@@ -12921,12 +12962,12 @@
       <c r="E431" t="s">
         <v>1088</v>
       </c>
-      <c r="F431" s="8" t="s">
+      <c r="F431" s="5" t="s">
         <v>1089</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A432" s="5" t="s">
+      <c r="A432" s="7" t="s">
         <v>1078</v>
       </c>
       <c r="B432" t="s">
@@ -12941,12 +12982,12 @@
       <c r="E432" t="s">
         <v>1091</v>
       </c>
-      <c r="F432" s="8" t="s">
+      <c r="F432" s="5" t="s">
         <v>1092</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A433" s="5" t="s">
+      <c r="A433" s="7" t="s">
         <v>1078</v>
       </c>
       <c r="B433" t="s">
@@ -12961,12 +13002,12 @@
       <c r="E433" t="s">
         <v>1094</v>
       </c>
-      <c r="F433" s="8" t="s">
+      <c r="F433" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A434" s="5" t="s">
+      <c r="A434" s="7" t="s">
         <v>1078</v>
       </c>
       <c r="B434" t="s">
@@ -12981,12 +13022,12 @@
       <c r="E434" t="s">
         <v>1096</v>
       </c>
-      <c r="F434" s="8" t="s">
+      <c r="F434" s="5" t="s">
         <v>1097</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A435" s="5" t="s">
+      <c r="A435" s="7" t="s">
         <v>1078</v>
       </c>
       <c r="B435" t="s">
@@ -13001,12 +13042,12 @@
       <c r="E435" t="s">
         <v>1099</v>
       </c>
-      <c r="F435" s="8" t="s">
+      <c r="F435" s="5" t="s">
         <v>1100</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A436" s="5" t="s">
+      <c r="A436" s="7" t="s">
         <v>1078</v>
       </c>
       <c r="B436" t="s">
@@ -13021,12 +13062,12 @@
       <c r="E436" t="s">
         <v>1102</v>
       </c>
-      <c r="F436" s="8" t="s">
+      <c r="F436" s="5" t="s">
         <v>1103</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A437" s="5" t="s">
+      <c r="A437" s="7" t="s">
         <v>1078</v>
       </c>
       <c r="B437" t="s">
@@ -13041,12 +13082,12 @@
       <c r="E437" t="s">
         <v>1105</v>
       </c>
-      <c r="F437" s="8" t="s">
+      <c r="F437" s="5" t="s">
         <v>1106</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A438" s="5" t="s">
+      <c r="A438" s="7" t="s">
         <v>1078</v>
       </c>
       <c r="B438" t="s">
@@ -13061,12 +13102,12 @@
       <c r="E438" t="s">
         <v>1108</v>
       </c>
-      <c r="F438" s="8" t="s">
+      <c r="F438" s="5" t="s">
         <v>1109</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A439" s="5" t="s">
+      <c r="A439" s="7" t="s">
         <v>1078</v>
       </c>
       <c r="B439" t="s">
@@ -13081,12 +13122,12 @@
       <c r="E439" t="s">
         <v>1111</v>
       </c>
-      <c r="F439" s="8" t="s">
+      <c r="F439" s="5" t="s">
         <v>1045</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A440" s="5" t="s">
+      <c r="A440" s="7" t="s">
         <v>1078</v>
       </c>
       <c r="B440" t="s">
@@ -13101,12 +13142,12 @@
       <c r="E440" t="s">
         <v>1113</v>
       </c>
-      <c r="F440" s="8" t="s">
+      <c r="F440" s="5" t="s">
         <v>1114</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A441" s="5" t="s">
+      <c r="A441" s="7" t="s">
         <v>1078</v>
       </c>
       <c r="B441" t="s">
@@ -13121,12 +13162,12 @@
       <c r="E441" t="s">
         <v>1116</v>
       </c>
-      <c r="F441" s="8" t="s">
+      <c r="F441" s="5" t="s">
         <v>1117</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A442" s="5" t="s">
+      <c r="A442" s="7" t="s">
         <v>1078</v>
       </c>
       <c r="B442" t="s">
@@ -13141,12 +13182,12 @@
       <c r="E442" t="s">
         <v>1119</v>
       </c>
-      <c r="F442" s="8" t="s">
+      <c r="F442" s="5" t="s">
         <v>1120</v>
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A443" s="5" t="s">
+      <c r="A443" s="7" t="s">
         <v>1078</v>
       </c>
       <c r="B443" t="s">
@@ -13161,12 +13202,12 @@
       <c r="E443" t="s">
         <v>1122</v>
       </c>
-      <c r="F443" s="8" t="s">
+      <c r="F443" s="5" t="s">
         <v>1123</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A444" s="5" t="s">
+      <c r="A444" s="7" t="s">
         <v>1078</v>
       </c>
       <c r="B444" t="s">
@@ -13181,12 +13222,12 @@
       <c r="E444" t="s">
         <v>1125</v>
       </c>
-      <c r="F444" s="8" t="s">
+      <c r="F444" s="5" t="s">
         <v>1126</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A445" s="5" t="s">
+      <c r="A445" s="7" t="s">
         <v>1078</v>
       </c>
       <c r="B445" t="s">
@@ -13201,12 +13242,12 @@
       <c r="E445" t="s">
         <v>1127</v>
       </c>
-      <c r="F445" s="8" t="s">
+      <c r="F445" s="5" t="s">
         <v>1128</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A446" s="5" t="s">
+      <c r="A446" s="7" t="s">
         <v>1078</v>
       </c>
       <c r="B446" t="s">
@@ -13221,12 +13262,12 @@
       <c r="E446" t="s">
         <v>1130</v>
       </c>
-      <c r="F446" s="8" t="s">
+      <c r="F446" s="5" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A447" s="5" t="s">
+      <c r="A447" s="7" t="s">
         <v>1078</v>
       </c>
       <c r="B447" t="s">
@@ -13241,12 +13282,12 @@
       <c r="E447" t="s">
         <v>1132</v>
       </c>
-      <c r="F447" s="8" t="s">
+      <c r="F447" s="5" t="s">
         <v>1133</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A448" s="5" t="s">
+      <c r="A448" s="7" t="s">
         <v>1078</v>
       </c>
       <c r="B448" t="s">
@@ -13261,12 +13302,12 @@
       <c r="E448" t="s">
         <v>1135</v>
       </c>
-      <c r="F448" s="8" t="s">
+      <c r="F448" s="5" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A449" s="5" t="s">
+      <c r="A449" s="7" t="s">
         <v>1078</v>
       </c>
       <c r="B449" t="s">
@@ -13281,12 +13322,12 @@
       <c r="E449" t="s">
         <v>1137</v>
       </c>
-      <c r="F449" s="8" t="s">
+      <c r="F449" s="5" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A450" s="5" t="s">
+      <c r="A450" s="7" t="s">
         <v>1078</v>
       </c>
       <c r="B450" t="s">
@@ -13301,12 +13342,12 @@
       <c r="E450" t="s">
         <v>1139</v>
       </c>
-      <c r="F450" s="8" t="s">
+      <c r="F450" s="5" t="s">
         <v>1140</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A451" s="5" t="s">
+      <c r="A451" s="7" t="s">
         <v>1078</v>
       </c>
       <c r="B451" t="s">
@@ -13321,12 +13362,12 @@
       <c r="E451" t="s">
         <v>1142</v>
       </c>
-      <c r="F451" s="8" t="s">
+      <c r="F451" s="5" t="s">
         <v>1143</v>
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A452" s="5" t="s">
+      <c r="A452" s="7" t="s">
         <v>1144</v>
       </c>
       <c r="B452" t="s">
@@ -13341,12 +13382,12 @@
       <c r="E452" t="s">
         <v>1146</v>
       </c>
-      <c r="F452" s="8" t="s">
+      <c r="F452" s="5" t="s">
         <v>1147</v>
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A453" s="5" t="s">
+      <c r="A453" s="7" t="s">
         <v>1144</v>
       </c>
       <c r="B453" t="s">
@@ -13361,12 +13402,12 @@
       <c r="E453" t="s">
         <v>1149</v>
       </c>
-      <c r="F453" s="8" t="s">
+      <c r="F453" s="5" t="s">
         <v>1150</v>
       </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A454" s="5" t="s">
+      <c r="A454" s="7" t="s">
         <v>1144</v>
       </c>
       <c r="B454" t="s">
@@ -13381,12 +13422,12 @@
       <c r="E454" t="s">
         <v>1152</v>
       </c>
-      <c r="F454" s="8" t="s">
+      <c r="F454" s="5" t="s">
         <v>1150</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A455" s="5" t="s">
+      <c r="A455" s="7" t="s">
         <v>1144</v>
       </c>
       <c r="B455" t="s">
@@ -13401,12 +13442,12 @@
       <c r="E455" t="s">
         <v>1154</v>
       </c>
-      <c r="F455" s="8" t="s">
+      <c r="F455" s="5" t="s">
         <v>1155</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A456" s="5" t="s">
+      <c r="A456" s="7" t="s">
         <v>1144</v>
       </c>
       <c r="B456" t="s">
@@ -13421,12 +13462,12 @@
       <c r="E456" t="s">
         <v>1157</v>
       </c>
-      <c r="F456" s="8" t="s">
+      <c r="F456" s="5" t="s">
         <v>1158</v>
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A457" s="5" t="s">
+      <c r="A457" s="7" t="s">
         <v>1144</v>
       </c>
       <c r="B457" t="s">
@@ -13441,12 +13482,12 @@
       <c r="E457" t="s">
         <v>1160</v>
       </c>
-      <c r="F457" s="8" t="s">
+      <c r="F457" s="5" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A458" s="5" t="s">
+      <c r="A458" s="7" t="s">
         <v>1144</v>
       </c>
       <c r="B458" t="s">
@@ -13461,12 +13502,12 @@
       <c r="E458" t="s">
         <v>1162</v>
       </c>
-      <c r="F458" s="8" t="s">
+      <c r="F458" s="5" t="s">
         <v>1163</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A459" s="5" t="s">
+      <c r="A459" s="7" t="s">
         <v>1144</v>
       </c>
       <c r="B459" t="s">
@@ -13481,12 +13522,12 @@
       <c r="E459" t="s">
         <v>1165</v>
       </c>
-      <c r="F459" s="8" t="s">
+      <c r="F459" s="5" t="s">
         <v>1166</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A460" s="5" t="s">
+      <c r="A460" s="7" t="s">
         <v>1144</v>
       </c>
       <c r="B460" t="s">
@@ -13501,12 +13542,12 @@
       <c r="E460" t="s">
         <v>1168</v>
       </c>
-      <c r="F460" s="8" t="s">
+      <c r="F460" s="5" t="s">
         <v>1045</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A461" s="5" t="s">
+      <c r="A461" s="7" t="s">
         <v>1144</v>
       </c>
       <c r="B461" t="s">
@@ -13521,12 +13562,12 @@
       <c r="E461" t="s">
         <v>1170</v>
       </c>
-      <c r="F461" s="8" t="s">
+      <c r="F461" s="5" t="s">
         <v>1171</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A462" s="5" t="s">
+      <c r="A462" s="7" t="s">
         <v>1144</v>
       </c>
       <c r="B462" t="s">
@@ -13541,12 +13582,12 @@
       <c r="E462" t="s">
         <v>1173</v>
       </c>
-      <c r="F462" s="8" t="s">
+      <c r="F462" s="5" t="s">
         <v>1174</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A463" s="5" t="s">
+      <c r="A463" s="7" t="s">
         <v>1144</v>
       </c>
       <c r="B463" t="s">
@@ -13561,12 +13602,12 @@
       <c r="E463" t="s">
         <v>1176</v>
       </c>
-      <c r="F463" s="8" t="s">
+      <c r="F463" s="5" t="s">
         <v>1177</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A464" s="5" t="s">
+      <c r="A464" s="7" t="s">
         <v>1144</v>
       </c>
       <c r="B464" t="s">
@@ -13581,12 +13622,12 @@
       <c r="E464" t="s">
         <v>1179</v>
       </c>
-      <c r="F464" s="8" t="s">
+      <c r="F464" s="5" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A465" s="5" t="s">
+      <c r="A465" s="7" t="s">
         <v>1144</v>
       </c>
       <c r="B465" t="s">
@@ -13601,12 +13642,12 @@
       <c r="E465" t="s">
         <v>1181</v>
       </c>
-      <c r="F465" s="8" t="s">
+      <c r="F465" s="5" t="s">
         <v>1182</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A466" s="5" t="s">
+      <c r="A466" s="7" t="s">
         <v>1144</v>
       </c>
       <c r="B466" t="s">
@@ -13621,12 +13662,12 @@
       <c r="E466" t="s">
         <v>1184</v>
       </c>
-      <c r="F466" s="8" t="s">
+      <c r="F466" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A467" s="5" t="s">
+      <c r="A467" s="7" t="s">
         <v>1144</v>
       </c>
       <c r="B467" t="s">
@@ -13641,12 +13682,12 @@
       <c r="E467" t="s">
         <v>1187</v>
       </c>
-      <c r="F467" s="8" t="s">
+      <c r="F467" s="5" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A468" s="5" t="s">
+      <c r="A468" s="7" t="s">
         <v>1144</v>
       </c>
       <c r="B468" t="s">
@@ -13661,12 +13702,12 @@
       <c r="E468" t="s">
         <v>1187</v>
       </c>
-      <c r="F468" s="8" t="s">
+      <c r="F468" s="5" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A469" s="5" t="s">
+      <c r="A469" s="7" t="s">
         <v>1144</v>
       </c>
       <c r="B469" t="s">
@@ -13681,12 +13722,12 @@
       <c r="E469" t="s">
         <v>1190</v>
       </c>
-      <c r="F469" s="8" t="s">
+      <c r="F469" s="5" t="s">
         <v>1050</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A470" s="5" t="s">
+      <c r="A470" s="7" t="s">
         <v>1144</v>
       </c>
       <c r="B470" t="s">
@@ -13701,12 +13742,12 @@
       <c r="E470" t="s">
         <v>1193</v>
       </c>
-      <c r="F470" s="8" t="s">
+      <c r="F470" s="5" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A471" s="5" t="s">
+      <c r="A471" s="7" t="s">
         <v>1144</v>
       </c>
       <c r="B471" t="s">
@@ -13721,13 +13762,13 @@
       <c r="E471" t="s">
         <v>1193</v>
       </c>
-      <c r="F471" s="8" t="s">
+      <c r="F471" s="5" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A472" s="5" t="s">
-        <v>1144</v>
+      <c r="A472" s="7" t="s">
+        <v>1281</v>
       </c>
       <c r="B472" t="s">
         <v>1195</v>
@@ -13741,12 +13782,12 @@
       <c r="E472" t="s">
         <v>1196</v>
       </c>
-      <c r="F472" s="8" t="s">
+      <c r="F472" s="5" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A473" s="5" t="s">
+      <c r="A473" s="7" t="s">
         <v>1144</v>
       </c>
       <c r="B473" t="s">
@@ -13761,12 +13802,12 @@
       <c r="E473" t="s">
         <v>1198</v>
       </c>
-      <c r="F473" s="8" t="s">
+      <c r="F473" s="5" t="s">
         <v>1199</v>
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A474" s="5" t="s">
+      <c r="A474" s="7" t="s">
         <v>1144</v>
       </c>
       <c r="B474" t="s">
@@ -13781,12 +13822,12 @@
       <c r="E474" t="s">
         <v>1201</v>
       </c>
-      <c r="F474" s="8" t="s">
+      <c r="F474" s="5" t="s">
         <v>1202</v>
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A475" s="5" t="s">
+      <c r="A475" s="7" t="s">
         <v>1144</v>
       </c>
       <c r="B475" t="s">
@@ -13801,12 +13842,12 @@
       <c r="E475" t="s">
         <v>1204</v>
       </c>
-      <c r="F475" s="8" t="s">
+      <c r="F475" s="5" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A476" s="5" t="s">
+      <c r="A476" s="7" t="s">
         <v>1144</v>
       </c>
       <c r="B476" t="s">
@@ -13821,12 +13862,12 @@
       <c r="E476" t="s">
         <v>1206</v>
       </c>
-      <c r="F476" s="8" t="s">
+      <c r="F476" s="5" t="s">
         <v>1207</v>
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A477" s="5" t="s">
+      <c r="A477" s="7" t="s">
         <v>1144</v>
       </c>
       <c r="B477" t="s">
@@ -13841,13 +13882,13 @@
       <c r="E477" t="s">
         <v>1209</v>
       </c>
-      <c r="F477" s="8" t="s">
+      <c r="F477" s="5" t="s">
         <v>1210</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A478" s="5">
-        <v>45547</v>
+      <c r="A478" s="7" t="s">
+        <v>1144</v>
       </c>
       <c r="B478" t="s">
         <v>1211</v>
@@ -13861,13 +13902,13 @@
       <c r="E478" t="s">
         <v>1212</v>
       </c>
-      <c r="F478" s="8" t="s">
+      <c r="F478" s="5" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A479" s="5">
-        <v>45547</v>
+      <c r="A479" s="7" t="s">
+        <v>1144</v>
       </c>
       <c r="B479" t="s">
         <v>1213</v>
@@ -13881,13 +13922,13 @@
       <c r="E479" t="s">
         <v>1214</v>
       </c>
-      <c r="F479" s="8" t="s">
+      <c r="F479" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A480" s="5">
-        <v>45569</v>
+      <c r="A480" s="7" t="s">
+        <v>1283</v>
       </c>
       <c r="B480" t="s">
         <v>1252</v>
@@ -13901,13 +13942,13 @@
       <c r="E480" t="s">
         <v>1223</v>
       </c>
-      <c r="F480" s="8">
+      <c r="F480" s="7">
         <v>300677</v>
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A481" s="5">
-        <v>45569</v>
+      <c r="A481" s="7" t="s">
+        <v>1283</v>
       </c>
       <c r="B481" t="s">
         <v>1253</v>
@@ -13921,13 +13962,13 @@
       <c r="E481" t="s">
         <v>1224</v>
       </c>
-      <c r="F481" s="8">
+      <c r="F481" s="7">
         <v>688621</v>
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A482" s="5">
-        <v>45569</v>
+      <c r="A482" s="7" t="s">
+        <v>1282</v>
       </c>
       <c r="B482" t="s">
         <v>1254</v>
@@ -13941,13 +13982,13 @@
       <c r="E482" t="s">
         <v>1225</v>
       </c>
-      <c r="F482" s="8">
-        <v>2487</v>
+      <c r="F482" s="7" t="s">
+        <v>1284</v>
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A483" s="5">
-        <v>45569</v>
+      <c r="A483" s="7" t="s">
+        <v>1282</v>
       </c>
       <c r="B483" t="s">
         <v>1255</v>
@@ -13961,13 +14002,13 @@
       <c r="E483" t="s">
         <v>1226</v>
       </c>
-      <c r="F483" s="8">
+      <c r="F483" s="7">
         <v>605358</v>
       </c>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A484" s="5">
-        <v>45569</v>
+      <c r="A484" s="7" t="s">
+        <v>1282</v>
       </c>
       <c r="B484" t="s">
         <v>1256</v>
@@ -13981,13 +14022,13 @@
       <c r="E484" t="s">
         <v>1227</v>
       </c>
-      <c r="F484" s="8">
+      <c r="F484" s="7">
         <v>300007</v>
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A485" s="5">
-        <v>45569</v>
+      <c r="A485" s="7" t="s">
+        <v>1282</v>
       </c>
       <c r="B485" t="s">
         <v>1257</v>
@@ -14001,13 +14042,13 @@
       <c r="E485" t="s">
         <v>1228</v>
       </c>
-      <c r="F485" s="8">
+      <c r="F485" s="7">
         <v>301213</v>
       </c>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A486" s="5">
-        <v>45569</v>
+      <c r="A486" s="7" t="s">
+        <v>1282</v>
       </c>
       <c r="B486" t="s">
         <v>1258</v>
@@ -14021,13 +14062,13 @@
       <c r="E486" t="s">
         <v>1229</v>
       </c>
-      <c r="F486" s="8">
-        <v>1311</v>
+      <c r="F486" s="7" t="s">
+        <v>1285</v>
       </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A487" s="5">
-        <v>45569</v>
+      <c r="A487" s="7" t="s">
+        <v>1282</v>
       </c>
       <c r="B487" t="s">
         <v>1259</v>
@@ -14041,13 +14082,13 @@
       <c r="E487" t="s">
         <v>1230</v>
       </c>
-      <c r="F487" s="8">
-        <v>2371</v>
+      <c r="F487" s="7" t="s">
+        <v>1286</v>
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A488" s="5">
-        <v>45569</v>
+      <c r="A488" s="7" t="s">
+        <v>1282</v>
       </c>
       <c r="B488" t="s">
         <v>1260</v>
@@ -14061,13 +14102,13 @@
       <c r="E488" t="s">
         <v>1231</v>
       </c>
-      <c r="F488" s="8">
-        <v>792</v>
+      <c r="F488" s="7" t="s">
+        <v>1287</v>
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A489" s="5">
-        <v>45569</v>
+      <c r="A489" s="7" t="s">
+        <v>1282</v>
       </c>
       <c r="B489" t="s">
         <v>1261</v>
@@ -14081,13 +14122,13 @@
       <c r="E489" t="s">
         <v>1232</v>
       </c>
-      <c r="F489" s="8">
-        <v>1314</v>
+      <c r="F489" s="7" t="s">
+        <v>1288</v>
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A490" s="5">
-        <v>45569</v>
+      <c r="A490" s="7" t="s">
+        <v>1282</v>
       </c>
       <c r="B490" t="s">
         <v>1262</v>
@@ -14101,13 +14142,13 @@
       <c r="E490" t="s">
         <v>1233</v>
       </c>
-      <c r="F490" s="8">
+      <c r="F490" s="7">
         <v>601919</v>
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A491" s="5">
-        <v>45569</v>
+      <c r="A491" s="7" t="s">
+        <v>1282</v>
       </c>
       <c r="B491" t="s">
         <v>1263</v>
@@ -14121,13 +14162,13 @@
       <c r="E491" t="s">
         <v>1234</v>
       </c>
-      <c r="F491" s="8">
+      <c r="F491" s="7">
         <v>300077</v>
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A492" s="5">
-        <v>45569</v>
+      <c r="A492" s="7" t="s">
+        <v>1282</v>
       </c>
       <c r="B492" t="s">
         <v>1264</v>
@@ -14141,13 +14182,13 @@
       <c r="E492" t="s">
         <v>1235</v>
       </c>
-      <c r="F492" s="8">
+      <c r="F492" s="7">
         <v>603728</v>
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A493" s="5">
-        <v>45569</v>
+      <c r="A493" s="7" t="s">
+        <v>1282</v>
       </c>
       <c r="B493" t="s">
         <v>1265</v>
@@ -14161,13 +14202,13 @@
       <c r="E493" t="s">
         <v>1236</v>
       </c>
-      <c r="F493" s="8">
+      <c r="F493" s="7">
         <v>836961</v>
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A494" s="5">
-        <v>45569</v>
+      <c r="A494" s="7" t="s">
+        <v>1282</v>
       </c>
       <c r="B494" t="s">
         <v>1266</v>
@@ -14181,13 +14222,13 @@
       <c r="E494" t="s">
         <v>1237</v>
       </c>
-      <c r="F494" s="8">
+      <c r="F494" s="7">
         <v>300377</v>
       </c>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A495" s="5">
-        <v>45569</v>
+      <c r="A495" s="7" t="s">
+        <v>1282</v>
       </c>
       <c r="B495" t="s">
         <v>1267</v>
@@ -14201,13 +14242,13 @@
       <c r="E495" t="s">
         <v>1238</v>
       </c>
-      <c r="F495" s="8">
+      <c r="F495" s="7">
         <v>300085</v>
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A496" s="5">
-        <v>45569</v>
+      <c r="A496" s="7" t="s">
+        <v>1282</v>
       </c>
       <c r="B496" t="s">
         <v>1268</v>
@@ -14221,13 +14262,13 @@
       <c r="E496" t="s">
         <v>1239</v>
       </c>
-      <c r="F496" s="8">
+      <c r="F496" s="7">
         <v>300748</v>
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A497" s="5">
-        <v>45569</v>
+      <c r="A497" s="7" t="s">
+        <v>1282</v>
       </c>
       <c r="B497" t="s">
         <v>1269</v>
@@ -14241,13 +14282,13 @@
       <c r="E497" t="s">
         <v>1240</v>
       </c>
-      <c r="F497" s="8">
-        <v>970</v>
+      <c r="F497" s="7" t="s">
+        <v>1289</v>
       </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A498" s="5">
-        <v>45569</v>
+      <c r="A498" s="7" t="s">
+        <v>1282</v>
       </c>
       <c r="B498" t="s">
         <v>1270</v>
@@ -14261,13 +14302,13 @@
       <c r="E498" t="s">
         <v>1241</v>
       </c>
-      <c r="F498" s="8">
+      <c r="F498" s="7">
         <v>603099</v>
       </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A499" s="5">
-        <v>45569</v>
+      <c r="A499" s="7" t="s">
+        <v>1282</v>
       </c>
       <c r="B499" t="s">
         <v>1271</v>
@@ -14281,13 +14322,13 @@
       <c r="E499" t="s">
         <v>1242</v>
       </c>
-      <c r="F499" s="8">
+      <c r="F499" s="7">
         <v>600418</v>
       </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A500" s="5">
-        <v>45569</v>
+      <c r="A500" s="7" t="s">
+        <v>1282</v>
       </c>
       <c r="B500" t="s">
         <v>1272</v>
@@ -14301,13 +14342,13 @@
       <c r="E500" t="s">
         <v>1243</v>
       </c>
-      <c r="F500" s="8">
-        <v>2312</v>
+      <c r="F500" s="7" t="s">
+        <v>1291</v>
       </c>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A501" s="5">
-        <v>45569</v>
+      <c r="A501" s="7" t="s">
+        <v>1282</v>
       </c>
       <c r="B501" t="s">
         <v>1273</v>
@@ -14321,13 +14362,13 @@
       <c r="E501" t="s">
         <v>1244</v>
       </c>
-      <c r="F501" s="8">
-        <v>750</v>
+      <c r="F501" s="7" t="s">
+        <v>1290</v>
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A502" s="5">
-        <v>45569</v>
+      <c r="A502" s="7" t="s">
+        <v>1282</v>
       </c>
       <c r="B502" t="s">
         <v>1274</v>
@@ -14341,13 +14382,13 @@
       <c r="E502" t="s">
         <v>1245</v>
       </c>
-      <c r="F502" s="8">
+      <c r="F502" s="7">
         <v>605358</v>
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A503" s="5">
-        <v>45569</v>
+      <c r="A503" s="7" t="s">
+        <v>1282</v>
       </c>
       <c r="B503" t="s">
         <v>1275</v>
@@ -14361,13 +14402,13 @@
       <c r="E503" t="s">
         <v>1246</v>
       </c>
-      <c r="F503" s="8">
+      <c r="F503" s="7">
         <v>600750</v>
       </c>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A504" s="5">
-        <v>45569</v>
+      <c r="A504" s="7" t="s">
+        <v>1282</v>
       </c>
       <c r="B504" t="s">
         <v>1276</v>
@@ -14381,13 +14422,13 @@
       <c r="E504" t="s">
         <v>1247</v>
       </c>
-      <c r="F504" s="8">
-        <v>498</v>
+      <c r="F504" s="7" t="s">
+        <v>1292</v>
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A505" s="5">
-        <v>45569</v>
+      <c r="A505" s="7" t="s">
+        <v>1282</v>
       </c>
       <c r="B505" t="s">
         <v>1277</v>
@@ -14401,13 +14442,13 @@
       <c r="E505" t="s">
         <v>1248</v>
       </c>
-      <c r="F505" s="8">
+      <c r="F505" s="7">
         <v>688205</v>
       </c>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A506" s="5">
-        <v>45569</v>
+      <c r="A506" s="7" t="s">
+        <v>1282</v>
       </c>
       <c r="B506" t="s">
         <v>1278</v>
@@ -14421,13 +14462,13 @@
       <c r="E506" t="s">
         <v>1249</v>
       </c>
-      <c r="F506" s="8">
+      <c r="F506" s="7">
         <v>300059</v>
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A507" s="5">
-        <v>45569</v>
+      <c r="A507" s="7" t="s">
+        <v>1282</v>
       </c>
       <c r="B507" t="s">
         <v>1279</v>
@@ -14441,13 +14482,13 @@
       <c r="E507" t="s">
         <v>1250</v>
       </c>
-      <c r="F507" s="8">
+      <c r="F507" s="7">
         <v>603063</v>
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A508" s="5">
-        <v>45569</v>
+      <c r="A508" s="7" t="s">
+        <v>1282</v>
       </c>
       <c r="B508" t="s">
         <v>1280</v>
@@ -14461,7 +14502,7 @@
       <c r="E508" t="s">
         <v>1251</v>
       </c>
-      <c r="F508" s="8">
+      <c r="F508" s="7">
         <v>600460</v>
       </c>
     </row>

--- a/modified_chat_records.xlsx
+++ b/modified_chat_records.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AAA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A17EB86-EAE9-48AF-A757-E3A23B418988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFF42D5-691A-41A6-AA0B-9423E858B6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2500" yWindow="230" windowWidth="22210" windowHeight="15310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3985,6 +3985,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4050,7 +4053,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4067,10 +4070,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -4377,13 +4383,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F508"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A433" workbookViewId="0">
-      <selection activeCell="F511" sqref="F511"/>
+    <sheetView tabSelected="1" topLeftCell="A475" workbookViewId="0">
+      <selection activeCell="A507" sqref="A507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.26953125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.26953125" style="8" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="19.1796875" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
@@ -4392,7 +4398,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -4412,7 +4418,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
@@ -4429,7 +4435,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
@@ -4449,7 +4455,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
@@ -4469,7 +4475,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
@@ -4489,7 +4495,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -4509,7 +4515,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -4529,7 +4535,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
@@ -4549,7 +4555,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B9" t="s">
@@ -4569,7 +4575,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B10" t="s">
@@ -4589,7 +4595,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B11" t="s">
@@ -4609,7 +4615,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B12" t="s">
@@ -4629,7 +4635,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B13" t="s">
@@ -4649,7 +4655,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B14" t="s">
@@ -4669,7 +4675,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B15" t="s">
@@ -4689,7 +4695,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B16" t="s">
@@ -4706,7 +4712,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B17" t="s">
@@ -4723,7 +4729,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B18" t="s">
@@ -4743,7 +4749,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B19" t="s">
@@ -4763,7 +4769,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B20" t="s">
@@ -4780,7 +4786,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B21" t="s">
@@ -4800,7 +4806,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B22" t="s">
@@ -4820,7 +4826,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B23" t="s">
@@ -4840,7 +4846,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B24" t="s">
@@ -4860,7 +4866,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B25" t="s">
@@ -4880,7 +4886,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B26" t="s">
@@ -4900,7 +4906,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B27" t="s">
@@ -4920,7 +4926,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
+      <c r="A28" s="8">
         <v>45518</v>
       </c>
       <c r="B28" t="s">
@@ -4940,7 +4946,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B29" t="s">
@@ -4960,7 +4966,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B30" t="s">
@@ -4980,7 +4986,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B31" t="s">
@@ -5000,7 +5006,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B32" t="s">
@@ -5020,7 +5026,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
+      <c r="A33" s="8">
         <v>45518</v>
       </c>
       <c r="B33" t="s">
@@ -5040,7 +5046,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B34" t="s">
@@ -5060,7 +5066,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B35" t="s">
@@ -5080,7 +5086,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="8" t="s">
         <v>96</v>
       </c>
       <c r="B36" t="s">
@@ -5100,7 +5106,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="8" t="s">
         <v>96</v>
       </c>
       <c r="B37" t="s">
@@ -5120,7 +5126,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="8" t="s">
         <v>96</v>
       </c>
       <c r="B38" t="s">
@@ -5140,7 +5146,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="126" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="8" t="s">
         <v>96</v>
       </c>
       <c r="B39" t="s">
@@ -5160,7 +5166,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="8" t="s">
         <v>96</v>
       </c>
       <c r="B40" t="s">
@@ -5180,7 +5186,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="8" t="s">
         <v>96</v>
       </c>
       <c r="B41" t="s">
@@ -5200,7 +5206,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="8" t="s">
         <v>96</v>
       </c>
       <c r="B42" t="s">
@@ -5220,7 +5226,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="8" t="s">
         <v>96</v>
       </c>
       <c r="B43" t="s">
@@ -5240,7 +5246,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="8" t="s">
         <v>96</v>
       </c>
       <c r="B44" t="s">
@@ -5260,7 +5266,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="8" t="s">
         <v>96</v>
       </c>
       <c r="B45" t="s">
@@ -5280,7 +5286,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="8" t="s">
         <v>96</v>
       </c>
       <c r="B46" t="s">
@@ -5300,7 +5306,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="8" t="s">
         <v>96</v>
       </c>
       <c r="B47" t="s">
@@ -5320,7 +5326,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="8" t="s">
         <v>96</v>
       </c>
       <c r="B48" t="s">
@@ -5340,7 +5346,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="8" t="s">
         <v>96</v>
       </c>
       <c r="B49" t="s">
@@ -5360,7 +5366,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="8" t="s">
         <v>96</v>
       </c>
       <c r="B50" t="s">
@@ -5380,7 +5386,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="8" t="s">
         <v>96</v>
       </c>
       <c r="B51" t="s">
@@ -5400,7 +5406,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="8" t="s">
         <v>96</v>
       </c>
       <c r="B52" t="s">
@@ -5420,7 +5426,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="8" t="s">
         <v>96</v>
       </c>
       <c r="B53" t="s">
@@ -5440,7 +5446,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="8" t="s">
         <v>96</v>
       </c>
       <c r="B54" t="s">
@@ -5460,7 +5466,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="8" t="s">
         <v>96</v>
       </c>
       <c r="B55" t="s">
@@ -5480,7 +5486,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="8" t="s">
         <v>96</v>
       </c>
       <c r="B56" t="s">
@@ -5500,7 +5506,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="8" t="s">
         <v>96</v>
       </c>
       <c r="B57" t="s">
@@ -5520,7 +5526,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="8" t="s">
         <v>96</v>
       </c>
       <c r="B58" t="s">
@@ -5540,7 +5546,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="8" t="s">
         <v>96</v>
       </c>
       <c r="B59" t="s">
@@ -5560,7 +5566,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="8" t="s">
         <v>96</v>
       </c>
       <c r="B60" t="s">
@@ -5580,7 +5586,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="8" t="s">
         <v>161</v>
       </c>
       <c r="B61" t="s">
@@ -5600,7 +5606,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="8" t="s">
         <v>161</v>
       </c>
       <c r="B62" t="s">
@@ -5620,7 +5626,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="8" t="s">
         <v>161</v>
       </c>
       <c r="B63" t="s">
@@ -5640,7 +5646,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="8" t="s">
         <v>161</v>
       </c>
       <c r="B64" t="s">
@@ -5660,7 +5666,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="8" t="s">
         <v>161</v>
       </c>
       <c r="B65" t="s">
@@ -5680,7 +5686,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="8" t="s">
         <v>161</v>
       </c>
       <c r="B66" t="s">
@@ -5700,7 +5706,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
+      <c r="A67" s="8" t="s">
         <v>161</v>
       </c>
       <c r="B67" t="s">
@@ -5720,7 +5726,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="8" t="s">
         <v>161</v>
       </c>
       <c r="B68" t="s">
@@ -5740,7 +5746,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="7" t="s">
+      <c r="A69" s="8" t="s">
         <v>161</v>
       </c>
       <c r="B69" t="s">
@@ -5760,7 +5766,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="7" t="s">
+      <c r="A70" s="8" t="s">
         <v>161</v>
       </c>
       <c r="B70" t="s">
@@ -5780,7 +5786,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="8" t="s">
         <v>190</v>
       </c>
       <c r="B71" t="s">
@@ -5800,7 +5806,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="8" t="s">
         <v>190</v>
       </c>
       <c r="B72" t="s">
@@ -5820,7 +5826,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="8" t="s">
         <v>190</v>
       </c>
       <c r="B73" t="s">
@@ -5840,7 +5846,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="8" t="s">
         <v>190</v>
       </c>
       <c r="B74" t="s">
@@ -5860,7 +5866,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="7" t="s">
+      <c r="A75" s="8" t="s">
         <v>190</v>
       </c>
       <c r="B75" t="s">
@@ -5880,7 +5886,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="7" t="s">
+      <c r="A76" s="8" t="s">
         <v>190</v>
       </c>
       <c r="B76" t="s">
@@ -5900,7 +5906,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="7" t="s">
+      <c r="A77" s="8" t="s">
         <v>190</v>
       </c>
       <c r="B77" t="s">
@@ -5920,7 +5926,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="7" t="s">
+      <c r="A78" s="8" t="s">
         <v>190</v>
       </c>
       <c r="B78" t="s">
@@ -5940,7 +5946,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="7" t="s">
+      <c r="A79" s="8" t="s">
         <v>190</v>
       </c>
       <c r="B79" t="s">
@@ -5960,7 +5966,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="7" t="s">
+      <c r="A80" s="8" t="s">
         <v>190</v>
       </c>
       <c r="B80" t="s">
@@ -5980,7 +5986,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="7" t="s">
+      <c r="A81" s="8" t="s">
         <v>190</v>
       </c>
       <c r="B81" t="s">
@@ -6000,7 +6006,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="7" t="s">
+      <c r="A82" s="8" t="s">
         <v>190</v>
       </c>
       <c r="B82" t="s">
@@ -6020,7 +6026,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="7" t="s">
+      <c r="A83" s="8" t="s">
         <v>190</v>
       </c>
       <c r="B83" t="s">
@@ -6040,7 +6046,7 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="7" t="s">
+      <c r="A84" s="8" t="s">
         <v>190</v>
       </c>
       <c r="B84" t="s">
@@ -6060,7 +6066,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="7" t="s">
+      <c r="A85" s="8" t="s">
         <v>190</v>
       </c>
       <c r="B85" t="s">
@@ -6080,7 +6086,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="7" t="s">
+      <c r="A86" s="8" t="s">
         <v>190</v>
       </c>
       <c r="B86" t="s">
@@ -6100,7 +6106,7 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="7" t="s">
+      <c r="A87" s="8" t="s">
         <v>190</v>
       </c>
       <c r="B87" t="s">
@@ -6120,7 +6126,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="7" t="s">
+      <c r="A88" s="8" t="s">
         <v>190</v>
       </c>
       <c r="B88" t="s">
@@ -6140,7 +6146,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="7" t="s">
+      <c r="A89" s="8" t="s">
         <v>190</v>
       </c>
       <c r="B89" t="s">
@@ -6160,7 +6166,7 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="7" t="s">
+      <c r="A90" s="8" t="s">
         <v>190</v>
       </c>
       <c r="B90" t="s">
@@ -6180,7 +6186,7 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="7" t="s">
+      <c r="A91" s="8" t="s">
         <v>190</v>
       </c>
       <c r="B91" t="s">
@@ -6200,7 +6206,7 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="7" t="s">
+      <c r="A92" s="8" t="s">
         <v>190</v>
       </c>
       <c r="B92" t="s">
@@ -6220,7 +6226,7 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="7" t="s">
+      <c r="A93" s="8" t="s">
         <v>190</v>
       </c>
       <c r="B93" t="s">
@@ -6240,7 +6246,7 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="7" t="s">
+      <c r="A94" s="8" t="s">
         <v>190</v>
       </c>
       <c r="B94" t="s">
@@ -6260,7 +6266,7 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="7" t="s">
+      <c r="A95" s="8" t="s">
         <v>190</v>
       </c>
       <c r="B95" t="s">
@@ -6280,7 +6286,7 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="7" t="s">
+      <c r="A96" s="8" t="s">
         <v>255</v>
       </c>
       <c r="B96" t="s">
@@ -6300,7 +6306,7 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="7" t="s">
+      <c r="A97" s="8" t="s">
         <v>255</v>
       </c>
       <c r="B97" t="s">
@@ -6320,7 +6326,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="7" t="s">
+      <c r="A98" s="8" t="s">
         <v>255</v>
       </c>
       <c r="B98" t="s">
@@ -6340,7 +6346,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="7" t="s">
+      <c r="A99" s="8" t="s">
         <v>255</v>
       </c>
       <c r="B99" t="s">
@@ -6360,7 +6366,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="7" t="s">
+      <c r="A100" s="8" t="s">
         <v>255</v>
       </c>
       <c r="B100" t="s">
@@ -6380,7 +6386,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="7" t="s">
+      <c r="A101" s="8" t="s">
         <v>255</v>
       </c>
       <c r="B101" t="s">
@@ -6400,7 +6406,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="7" t="s">
+      <c r="A102" s="8" t="s">
         <v>273</v>
       </c>
       <c r="B102" t="s">
@@ -6420,7 +6426,7 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="7" t="s">
+      <c r="A103" s="8" t="s">
         <v>273</v>
       </c>
       <c r="B103" t="s">
@@ -6437,7 +6443,7 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="7" t="s">
+      <c r="A104" s="8" t="s">
         <v>273</v>
       </c>
       <c r="B104" t="s">
@@ -6457,7 +6463,7 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="7" t="s">
+      <c r="A105" s="8" t="s">
         <v>273</v>
       </c>
       <c r="B105" t="s">
@@ -6477,7 +6483,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="7" t="s">
+      <c r="A106" s="8" t="s">
         <v>273</v>
       </c>
       <c r="B106" t="s">
@@ -6497,7 +6503,7 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="7" t="s">
+      <c r="A107" s="8" t="s">
         <v>273</v>
       </c>
       <c r="B107" t="s">
@@ -6517,7 +6523,7 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="7" t="s">
+      <c r="A108" s="8" t="s">
         <v>273</v>
       </c>
       <c r="B108" t="s">
@@ -6537,7 +6543,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="7" t="s">
+      <c r="A109" s="8" t="s">
         <v>273</v>
       </c>
       <c r="B109" t="s">
@@ -6557,7 +6563,7 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="7" t="s">
+      <c r="A110" s="8" t="s">
         <v>273</v>
       </c>
       <c r="B110" t="s">
@@ -6577,7 +6583,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="7" t="s">
+      <c r="A111" s="8" t="s">
         <v>273</v>
       </c>
       <c r="B111" t="s">
@@ -6597,7 +6603,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="7" t="s">
+      <c r="A112" s="8" t="s">
         <v>273</v>
       </c>
       <c r="B112" t="s">
@@ -6617,7 +6623,7 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="7" t="s">
+      <c r="A113" s="8" t="s">
         <v>304</v>
       </c>
       <c r="B113" t="s">
@@ -6637,7 +6643,7 @@
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="7" t="s">
+      <c r="A114" s="8" t="s">
         <v>304</v>
       </c>
       <c r="B114" t="s">
@@ -6657,7 +6663,7 @@
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="7" t="s">
+      <c r="A115" s="8" t="s">
         <v>304</v>
       </c>
       <c r="B115" t="s">
@@ -6677,7 +6683,7 @@
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="7" t="s">
+      <c r="A116" s="8" t="s">
         <v>304</v>
       </c>
       <c r="B116" t="s">
@@ -6697,7 +6703,7 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="7" t="s">
+      <c r="A117" s="8" t="s">
         <v>304</v>
       </c>
       <c r="B117" t="s">
@@ -6717,7 +6723,7 @@
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="7" t="s">
+      <c r="A118" s="8" t="s">
         <v>304</v>
       </c>
       <c r="B118" t="s">
@@ -6737,7 +6743,7 @@
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="7" t="s">
+      <c r="A119" s="8" t="s">
         <v>304</v>
       </c>
       <c r="B119" t="s">
@@ -6757,7 +6763,7 @@
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="7" t="s">
+      <c r="A120" s="8" t="s">
         <v>304</v>
       </c>
       <c r="B120" t="s">
@@ -6777,7 +6783,7 @@
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="7" t="s">
+      <c r="A121" s="8" t="s">
         <v>304</v>
       </c>
       <c r="B121" t="s">
@@ -6797,7 +6803,7 @@
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="7" t="s">
+      <c r="A122" s="8" t="s">
         <v>330</v>
       </c>
       <c r="B122" t="s">
@@ -6817,7 +6823,7 @@
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="7" t="s">
+      <c r="A123" s="8" t="s">
         <v>330</v>
       </c>
       <c r="B123" t="s">
@@ -6837,7 +6843,7 @@
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="7" t="s">
+      <c r="A124" s="8" t="s">
         <v>330</v>
       </c>
       <c r="B124" t="s">
@@ -6857,7 +6863,7 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="7" t="s">
+      <c r="A125" s="8" t="s">
         <v>330</v>
       </c>
       <c r="B125" t="s">
@@ -6877,7 +6883,7 @@
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="7" t="s">
+      <c r="A126" s="8" t="s">
         <v>330</v>
       </c>
       <c r="B126" t="s">
@@ -6897,7 +6903,7 @@
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="7" t="s">
+      <c r="A127" s="8" t="s">
         <v>330</v>
       </c>
       <c r="B127" t="s">
@@ -6917,7 +6923,7 @@
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="7" t="s">
+      <c r="A128" s="8" t="s">
         <v>330</v>
       </c>
       <c r="B128" t="s">
@@ -6937,7 +6943,7 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="7" t="s">
+      <c r="A129" s="8" t="s">
         <v>330</v>
       </c>
       <c r="B129" t="s">
@@ -6957,7 +6963,7 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="7" t="s">
+      <c r="A130" s="8" t="s">
         <v>330</v>
       </c>
       <c r="B130" t="s">
@@ -6977,7 +6983,7 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="7" t="s">
+      <c r="A131" s="8" t="s">
         <v>330</v>
       </c>
       <c r="B131" t="s">
@@ -6997,7 +7003,7 @@
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="7" t="s">
+      <c r="A132" s="8" t="s">
         <v>359</v>
       </c>
       <c r="B132" t="s">
@@ -7017,7 +7023,7 @@
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="7" t="s">
+      <c r="A133" s="8" t="s">
         <v>359</v>
       </c>
       <c r="B133" t="s">
@@ -7037,7 +7043,7 @@
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="7" t="s">
+      <c r="A134" s="8" t="s">
         <v>359</v>
       </c>
       <c r="B134" t="s">
@@ -7057,7 +7063,7 @@
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="7" t="s">
+      <c r="A135" s="8" t="s">
         <v>359</v>
       </c>
       <c r="B135" t="s">
@@ -7077,7 +7083,7 @@
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="7" t="s">
+      <c r="A136" s="8" t="s">
         <v>359</v>
       </c>
       <c r="B136" t="s">
@@ -7097,7 +7103,7 @@
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="7" t="s">
+      <c r="A137" s="8" t="s">
         <v>359</v>
       </c>
       <c r="B137" t="s">
@@ -7117,7 +7123,7 @@
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="7" t="s">
+      <c r="A138" s="8" t="s">
         <v>359</v>
       </c>
       <c r="B138" t="s">
@@ -7137,7 +7143,7 @@
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="7" t="s">
+      <c r="A139" s="8" t="s">
         <v>359</v>
       </c>
       <c r="B139" t="s">
@@ -7154,7 +7160,7 @@
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="7" t="s">
+      <c r="A140" s="8" t="s">
         <v>359</v>
       </c>
       <c r="B140" t="s">
@@ -7174,7 +7180,7 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="7" t="s">
+      <c r="A141" s="8" t="s">
         <v>359</v>
       </c>
       <c r="B141" t="s">
@@ -7194,7 +7200,7 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="7" t="s">
+      <c r="A142" s="8" t="s">
         <v>359</v>
       </c>
       <c r="B142" t="s">
@@ -7214,7 +7220,7 @@
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="7" t="s">
+      <c r="A143" s="8" t="s">
         <v>359</v>
       </c>
       <c r="B143" t="s">
@@ -7234,7 +7240,7 @@
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="7" t="s">
+      <c r="A144" s="8" t="s">
         <v>359</v>
       </c>
       <c r="B144" t="s">
@@ -7254,7 +7260,7 @@
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="7" t="s">
+      <c r="A145" s="8" t="s">
         <v>359</v>
       </c>
       <c r="B145" t="s">
@@ -7274,7 +7280,7 @@
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="7" t="s">
+      <c r="A146" s="8" t="s">
         <v>395</v>
       </c>
       <c r="B146" t="s">
@@ -7294,7 +7300,7 @@
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="7" t="s">
+      <c r="A147" s="8" t="s">
         <v>399</v>
       </c>
       <c r="B147" t="s">
@@ -7314,7 +7320,7 @@
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="7" t="s">
+      <c r="A148" s="8" t="s">
         <v>399</v>
       </c>
       <c r="B148" t="s">
@@ -7334,7 +7340,7 @@
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="7" t="s">
+      <c r="A149" s="8" t="s">
         <v>399</v>
       </c>
       <c r="B149" t="s">
@@ -7354,7 +7360,7 @@
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="7" t="s">
+      <c r="A150" s="8" t="s">
         <v>399</v>
       </c>
       <c r="B150" t="s">
@@ -7374,7 +7380,7 @@
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="7" t="s">
+      <c r="A151" s="8" t="s">
         <v>399</v>
       </c>
       <c r="B151" t="s">
@@ -7394,7 +7400,7 @@
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="7" t="s">
+      <c r="A152" s="8" t="s">
         <v>399</v>
       </c>
       <c r="B152" t="s">
@@ -7414,7 +7420,7 @@
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="7" t="s">
+      <c r="A153" s="8" t="s">
         <v>399</v>
       </c>
       <c r="B153" t="s">
@@ -7434,7 +7440,7 @@
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="7" t="s">
+      <c r="A154" s="8" t="s">
         <v>399</v>
       </c>
       <c r="B154" t="s">
@@ -7454,7 +7460,7 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="7" t="s">
+      <c r="A155" s="8" t="s">
         <v>399</v>
       </c>
       <c r="B155" t="s">
@@ -7474,7 +7480,7 @@
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="7" t="s">
+      <c r="A156" s="8" t="s">
         <v>399</v>
       </c>
       <c r="B156" t="s">
@@ -7494,7 +7500,7 @@
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="7" t="s">
+      <c r="A157" s="8" t="s">
         <v>399</v>
       </c>
       <c r="B157" t="s">
@@ -7514,7 +7520,7 @@
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="7" t="s">
+      <c r="A158" s="8" t="s">
         <v>399</v>
       </c>
       <c r="B158" t="s">
@@ -7534,7 +7540,7 @@
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="7" t="s">
+      <c r="A159" s="8" t="s">
         <v>399</v>
       </c>
       <c r="B159" t="s">
@@ -7554,7 +7560,7 @@
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="7" t="s">
+      <c r="A160" s="8" t="s">
         <v>399</v>
       </c>
       <c r="B160" t="s">
@@ -7574,7 +7580,7 @@
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="7" t="s">
+      <c r="A161" s="8" t="s">
         <v>399</v>
       </c>
       <c r="B161" t="s">
@@ -7594,7 +7600,7 @@
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="7" t="s">
+      <c r="A162" s="8" t="s">
         <v>399</v>
       </c>
       <c r="B162" t="s">
@@ -7614,7 +7620,7 @@
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="7" t="s">
+      <c r="A163" s="8" t="s">
         <v>399</v>
       </c>
       <c r="B163" t="s">
@@ -7634,7 +7640,7 @@
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="7" t="s">
+      <c r="A164" s="8" t="s">
         <v>399</v>
       </c>
       <c r="B164" t="s">
@@ -7654,7 +7660,7 @@
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="7" t="s">
+      <c r="A165" s="8" t="s">
         <v>399</v>
       </c>
       <c r="B165" t="s">
@@ -7674,7 +7680,7 @@
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="7" t="s">
+      <c r="A166" s="8" t="s">
         <v>399</v>
       </c>
       <c r="B166" t="s">
@@ -7694,7 +7700,7 @@
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="7" t="s">
+      <c r="A167" s="8" t="s">
         <v>399</v>
       </c>
       <c r="B167" t="s">
@@ -7714,7 +7720,7 @@
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="7" t="s">
+      <c r="A168" s="8" t="s">
         <v>399</v>
       </c>
       <c r="B168" t="s">
@@ -7734,7 +7740,7 @@
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="7" t="s">
+      <c r="A169" s="8" t="s">
         <v>399</v>
       </c>
       <c r="B169" t="s">
@@ -7754,7 +7760,7 @@
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="7" t="s">
+      <c r="A170" s="8" t="s">
         <v>399</v>
       </c>
       <c r="B170" t="s">
@@ -7774,7 +7780,7 @@
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="7" t="s">
+      <c r="A171" s="8" t="s">
         <v>399</v>
       </c>
       <c r="B171" t="s">
@@ -7794,7 +7800,7 @@
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="7" t="s">
+      <c r="A172" s="8" t="s">
         <v>399</v>
       </c>
       <c r="B172" t="s">
@@ -7814,7 +7820,7 @@
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="7" t="s">
+      <c r="A173" s="8" t="s">
         <v>399</v>
       </c>
       <c r="B173" t="s">
@@ -7834,7 +7840,7 @@
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="7" t="s">
+      <c r="A174" s="8" t="s">
         <v>399</v>
       </c>
       <c r="B174" t="s">
@@ -7854,7 +7860,7 @@
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="7" t="s">
+      <c r="A175" s="8" t="s">
         <v>399</v>
       </c>
       <c r="B175" t="s">
@@ -7874,7 +7880,7 @@
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="7" t="s">
+      <c r="A176" s="8" t="s">
         <v>399</v>
       </c>
       <c r="B176" t="s">
@@ -7894,7 +7900,7 @@
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="7" t="s">
+      <c r="A177" s="8" t="s">
         <v>399</v>
       </c>
       <c r="B177" t="s">
@@ -7914,7 +7920,7 @@
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="7" t="s">
+      <c r="A178" s="8" t="s">
         <v>399</v>
       </c>
       <c r="B178" t="s">
@@ -7934,7 +7940,7 @@
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="7" t="s">
+      <c r="A179" s="8" t="s">
         <v>399</v>
       </c>
       <c r="B179" t="s">
@@ -7954,7 +7960,7 @@
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="7" t="s">
+      <c r="A180" s="8" t="s">
         <v>399</v>
       </c>
       <c r="B180" t="s">
@@ -7974,7 +7980,7 @@
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="7" t="s">
+      <c r="A181" s="8" t="s">
         <v>399</v>
       </c>
       <c r="B181" t="s">
@@ -7994,7 +8000,7 @@
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="7" t="s">
+      <c r="A182" s="8" t="s">
         <v>399</v>
       </c>
       <c r="B182" t="s">
@@ -8014,7 +8020,7 @@
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="7" t="s">
+      <c r="A183" s="8" t="s">
         <v>494</v>
       </c>
       <c r="B183" t="s">
@@ -8034,7 +8040,7 @@
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="7" t="s">
+      <c r="A184" s="8" t="s">
         <v>494</v>
       </c>
       <c r="B184" t="s">
@@ -8054,7 +8060,7 @@
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="7" t="s">
+      <c r="A185" s="8" t="s">
         <v>494</v>
       </c>
       <c r="B185" t="s">
@@ -8074,7 +8080,7 @@
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="7" t="s">
+      <c r="A186" s="8" t="s">
         <v>494</v>
       </c>
       <c r="B186" t="s">
@@ -8094,7 +8100,7 @@
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="7" t="s">
+      <c r="A187" s="8" t="s">
         <v>494</v>
       </c>
       <c r="B187" t="s">
@@ -8114,7 +8120,7 @@
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="7" t="s">
+      <c r="A188" s="8" t="s">
         <v>494</v>
       </c>
       <c r="B188" t="s">
@@ -8134,7 +8140,7 @@
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="7" t="s">
+      <c r="A189" s="8" t="s">
         <v>494</v>
       </c>
       <c r="B189" t="s">
@@ -8154,7 +8160,7 @@
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" s="7" t="s">
+      <c r="A190" s="8" t="s">
         <v>494</v>
       </c>
       <c r="B190" t="s">
@@ -8174,7 +8180,7 @@
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" s="7" t="s">
+      <c r="A191" s="8" t="s">
         <v>494</v>
       </c>
       <c r="B191" t="s">
@@ -8194,7 +8200,7 @@
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" s="7" t="s">
+      <c r="A192" s="8" t="s">
         <v>494</v>
       </c>
       <c r="B192" t="s">
@@ -8214,7 +8220,7 @@
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" s="7" t="s">
+      <c r="A193" s="8" t="s">
         <v>494</v>
       </c>
       <c r="B193" t="s">
@@ -8234,7 +8240,7 @@
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" s="7" t="s">
+      <c r="A194" s="8" t="s">
         <v>494</v>
       </c>
       <c r="B194" t="s">
@@ -8254,7 +8260,7 @@
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" s="7" t="s">
+      <c r="A195" s="8" t="s">
         <v>494</v>
       </c>
       <c r="B195" t="s">
@@ -8274,7 +8280,7 @@
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" s="7" t="s">
+      <c r="A196" s="8" t="s">
         <v>494</v>
       </c>
       <c r="B196" t="s">
@@ -8294,7 +8300,7 @@
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" s="7" t="s">
+      <c r="A197" s="8" t="s">
         <v>494</v>
       </c>
       <c r="B197" t="s">
@@ -8314,7 +8320,7 @@
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" s="7" t="s">
+      <c r="A198" s="8" t="s">
         <v>494</v>
       </c>
       <c r="B198" t="s">
@@ -8334,7 +8340,7 @@
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" s="7" t="s">
+      <c r="A199" s="8" t="s">
         <v>494</v>
       </c>
       <c r="B199" t="s">
@@ -8354,7 +8360,7 @@
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" s="7" t="s">
+      <c r="A200" s="8" t="s">
         <v>494</v>
       </c>
       <c r="B200" t="s">
@@ -8374,7 +8380,7 @@
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201" s="7" t="s">
+      <c r="A201" s="8" t="s">
         <v>494</v>
       </c>
       <c r="B201" t="s">
@@ -8394,7 +8400,7 @@
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" s="7" t="s">
+      <c r="A202" s="8" t="s">
         <v>494</v>
       </c>
       <c r="B202" t="s">
@@ -8411,7 +8417,7 @@
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203" s="7" t="s">
+      <c r="A203" s="8" t="s">
         <v>494</v>
       </c>
       <c r="B203" t="s">
@@ -8431,7 +8437,7 @@
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204" s="7" t="s">
+      <c r="A204" s="8" t="s">
         <v>494</v>
       </c>
       <c r="B204" t="s">
@@ -8451,7 +8457,7 @@
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" s="7" t="s">
+      <c r="A205" s="8" t="s">
         <v>494</v>
       </c>
       <c r="B205" t="s">
@@ -8471,7 +8477,7 @@
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" s="7" t="s">
+      <c r="A206" s="8" t="s">
         <v>494</v>
       </c>
       <c r="B206" t="s">
@@ -8491,7 +8497,7 @@
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207" s="7" t="s">
+      <c r="A207" s="8" t="s">
         <v>494</v>
       </c>
       <c r="B207" t="s">
@@ -8511,7 +8517,7 @@
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" s="7" t="s">
+      <c r="A208" s="8" t="s">
         <v>494</v>
       </c>
       <c r="B208" t="s">
@@ -8531,7 +8537,7 @@
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209" s="7" t="s">
+      <c r="A209" s="8" t="s">
         <v>494</v>
       </c>
       <c r="B209" t="s">
@@ -8551,7 +8557,7 @@
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" s="7" t="s">
+      <c r="A210" s="8" t="s">
         <v>494</v>
       </c>
       <c r="B210" t="s">
@@ -8571,7 +8577,7 @@
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211" s="7" t="s">
+      <c r="A211" s="8" t="s">
         <v>494</v>
       </c>
       <c r="B211" t="s">
@@ -8591,7 +8597,7 @@
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212" s="7" t="s">
+      <c r="A212" s="8" t="s">
         <v>494</v>
       </c>
       <c r="B212" t="s">
@@ -8611,7 +8617,7 @@
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213" s="7" t="s">
+      <c r="A213" s="8" t="s">
         <v>494</v>
       </c>
       <c r="B213" t="s">
@@ -8631,7 +8637,7 @@
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A214" s="7" t="s">
+      <c r="A214" s="8" t="s">
         <v>494</v>
       </c>
       <c r="B214" t="s">
@@ -8651,7 +8657,7 @@
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A215" s="7" t="s">
+      <c r="A215" s="8" t="s">
         <v>494</v>
       </c>
       <c r="B215" t="s">
@@ -8671,7 +8677,7 @@
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A216" s="7" t="s">
+      <c r="A216" s="8" t="s">
         <v>572</v>
       </c>
       <c r="B216" t="s">
@@ -8691,7 +8697,7 @@
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217" s="7" t="s">
+      <c r="A217" s="8" t="s">
         <v>572</v>
       </c>
       <c r="B217" t="s">
@@ -8711,7 +8717,7 @@
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218" s="7" t="s">
+      <c r="A218" s="8" t="s">
         <v>572</v>
       </c>
       <c r="B218" t="s">
@@ -8731,7 +8737,7 @@
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219" s="7" t="s">
+      <c r="A219" s="8" t="s">
         <v>572</v>
       </c>
       <c r="B219" t="s">
@@ -8751,7 +8757,7 @@
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220" s="7" t="s">
+      <c r="A220" s="8" t="s">
         <v>572</v>
       </c>
       <c r="B220" t="s">
@@ -8771,7 +8777,7 @@
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A221" s="7" t="s">
+      <c r="A221" s="8" t="s">
         <v>572</v>
       </c>
       <c r="B221" t="s">
@@ -8791,7 +8797,7 @@
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222" s="7" t="s">
+      <c r="A222" s="8" t="s">
         <v>572</v>
       </c>
       <c r="B222" t="s">
@@ -8811,7 +8817,7 @@
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A223" s="7" t="s">
+      <c r="A223" s="8" t="s">
         <v>572</v>
       </c>
       <c r="B223" t="s">
@@ -8831,7 +8837,7 @@
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A224" s="7" t="s">
+      <c r="A224" s="8" t="s">
         <v>572</v>
       </c>
       <c r="B224" t="s">
@@ -8851,7 +8857,7 @@
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225" s="7" t="s">
+      <c r="A225" s="8" t="s">
         <v>572</v>
       </c>
       <c r="B225" t="s">
@@ -8871,7 +8877,7 @@
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226" s="7" t="s">
+      <c r="A226" s="8" t="s">
         <v>572</v>
       </c>
       <c r="B226" t="s">
@@ -8891,7 +8897,7 @@
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227" s="7" t="s">
+      <c r="A227" s="8" t="s">
         <v>572</v>
       </c>
       <c r="B227" t="s">
@@ -8911,7 +8917,7 @@
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A228" s="7" t="s">
+      <c r="A228" s="8" t="s">
         <v>572</v>
       </c>
       <c r="B228" t="s">
@@ -8931,7 +8937,7 @@
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A229" s="7" t="s">
+      <c r="A229" s="8" t="s">
         <v>572</v>
       </c>
       <c r="B229" t="s">
@@ -8951,7 +8957,7 @@
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230" s="7" t="s">
+      <c r="A230" s="8" t="s">
         <v>572</v>
       </c>
       <c r="B230" t="s">
@@ -8971,7 +8977,7 @@
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231" s="7" t="s">
+      <c r="A231" s="8" t="s">
         <v>572</v>
       </c>
       <c r="B231" t="s">
@@ -8991,7 +8997,7 @@
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232" s="7" t="s">
+      <c r="A232" s="8" t="s">
         <v>572</v>
       </c>
       <c r="B232" t="s">
@@ -9011,7 +9017,7 @@
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233" s="7" t="s">
+      <c r="A233" s="8" t="s">
         <v>572</v>
       </c>
       <c r="B233" t="s">
@@ -9031,7 +9037,7 @@
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A234" s="7" t="s">
+      <c r="A234" s="8" t="s">
         <v>572</v>
       </c>
       <c r="B234" t="s">
@@ -9051,7 +9057,7 @@
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235" s="7" t="s">
+      <c r="A235" s="8" t="s">
         <v>572</v>
       </c>
       <c r="B235" t="s">
@@ -9071,7 +9077,7 @@
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A236" s="7" t="s">
+      <c r="A236" s="8" t="s">
         <v>572</v>
       </c>
       <c r="B236" t="s">
@@ -9091,7 +9097,7 @@
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A237" s="7" t="s">
+      <c r="A237" s="8" t="s">
         <v>572</v>
       </c>
       <c r="B237" t="s">
@@ -9111,7 +9117,7 @@
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238" s="7" t="s">
+      <c r="A238" s="8" t="s">
         <v>572</v>
       </c>
       <c r="B238" t="s">
@@ -9131,7 +9137,7 @@
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239" s="7" t="s">
+      <c r="A239" s="8" t="s">
         <v>572</v>
       </c>
       <c r="B239" t="s">
@@ -9151,7 +9157,7 @@
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240" s="7" t="s">
+      <c r="A240" s="8" t="s">
         <v>572</v>
       </c>
       <c r="B240" t="s">
@@ -9171,7 +9177,7 @@
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241" s="7" t="s">
+      <c r="A241" s="8" t="s">
         <v>572</v>
       </c>
       <c r="B241" t="s">
@@ -9191,7 +9197,7 @@
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242" s="7" t="s">
+      <c r="A242" s="8" t="s">
         <v>572</v>
       </c>
       <c r="B242" t="s">
@@ -9211,7 +9217,7 @@
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243" s="7" t="s">
+      <c r="A243" s="8" t="s">
         <v>572</v>
       </c>
       <c r="B243" t="s">
@@ -9231,7 +9237,7 @@
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244" s="7" t="s">
+      <c r="A244" s="8" t="s">
         <v>572</v>
       </c>
       <c r="B244" t="s">
@@ -9251,7 +9257,7 @@
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245" s="7" t="s">
+      <c r="A245" s="8" t="s">
         <v>572</v>
       </c>
       <c r="B245" t="s">
@@ -9271,7 +9277,7 @@
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A246" s="7" t="s">
+      <c r="A246" s="8" t="s">
         <v>572</v>
       </c>
       <c r="B246" t="s">
@@ -9291,7 +9297,7 @@
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A247" s="7" t="s">
+      <c r="A247" s="8" t="s">
         <v>572</v>
       </c>
       <c r="B247" t="s">
@@ -9311,7 +9317,7 @@
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A248" s="7" t="s">
+      <c r="A248" s="8" t="s">
         <v>572</v>
       </c>
       <c r="B248" t="s">
@@ -9331,7 +9337,7 @@
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249" s="7" t="s">
+      <c r="A249" s="8" t="s">
         <v>572</v>
       </c>
       <c r="B249" t="s">
@@ -9351,7 +9357,7 @@
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250" s="7" t="s">
+      <c r="A250" s="8" t="s">
         <v>572</v>
       </c>
       <c r="B250" t="s">
@@ -9371,7 +9377,7 @@
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A251" s="7" t="s">
+      <c r="A251" s="8" t="s">
         <v>659</v>
       </c>
       <c r="B251" t="s">
@@ -9391,7 +9397,7 @@
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252" s="7" t="s">
+      <c r="A252" s="8" t="s">
         <v>659</v>
       </c>
       <c r="B252" t="s">
@@ -9411,7 +9417,7 @@
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253" s="7" t="s">
+      <c r="A253" s="8" t="s">
         <v>659</v>
       </c>
       <c r="B253" t="s">
@@ -9431,7 +9437,7 @@
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A254" s="7" t="s">
+      <c r="A254" s="8" t="s">
         <v>659</v>
       </c>
       <c r="B254" t="s">
@@ -9451,7 +9457,7 @@
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255" s="7" t="s">
+      <c r="A255" s="8" t="s">
         <v>659</v>
       </c>
       <c r="B255" t="s">
@@ -9471,7 +9477,7 @@
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256" s="7" t="s">
+      <c r="A256" s="8" t="s">
         <v>659</v>
       </c>
       <c r="B256" t="s">
@@ -9491,7 +9497,7 @@
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257" s="7" t="s">
+      <c r="A257" s="8" t="s">
         <v>659</v>
       </c>
       <c r="B257" t="s">
@@ -9511,7 +9517,7 @@
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258" s="7" t="s">
+      <c r="A258" s="8" t="s">
         <v>659</v>
       </c>
       <c r="B258" t="s">
@@ -9531,7 +9537,7 @@
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259" s="7" t="s">
+      <c r="A259" s="8" t="s">
         <v>659</v>
       </c>
       <c r="B259" t="s">
@@ -9551,7 +9557,7 @@
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260" s="7" t="s">
+      <c r="A260" s="8" t="s">
         <v>659</v>
       </c>
       <c r="B260" t="s">
@@ -9571,7 +9577,7 @@
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261" s="7" t="s">
+      <c r="A261" s="8" t="s">
         <v>659</v>
       </c>
       <c r="B261" t="s">
@@ -9591,7 +9597,7 @@
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" s="7" t="s">
+      <c r="A262" s="8" t="s">
         <v>659</v>
       </c>
       <c r="B262" t="s">
@@ -9611,7 +9617,7 @@
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A263" s="7" t="s">
+      <c r="A263" s="8" t="s">
         <v>659</v>
       </c>
       <c r="B263" t="s">
@@ -9631,7 +9637,7 @@
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A264" s="7" t="s">
+      <c r="A264" s="8" t="s">
         <v>659</v>
       </c>
       <c r="B264" t="s">
@@ -9651,7 +9657,7 @@
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A265" s="7" t="s">
+      <c r="A265" s="8" t="s">
         <v>659</v>
       </c>
       <c r="B265" t="s">
@@ -9671,7 +9677,7 @@
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A266" s="7" t="s">
+      <c r="A266" s="8" t="s">
         <v>659</v>
       </c>
       <c r="B266" t="s">
@@ -9691,7 +9697,7 @@
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A267" s="7" t="s">
+      <c r="A267" s="8" t="s">
         <v>659</v>
       </c>
       <c r="B267" t="s">
@@ -9711,7 +9717,7 @@
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A268" s="7" t="s">
+      <c r="A268" s="8" t="s">
         <v>659</v>
       </c>
       <c r="B268" t="s">
@@ -9731,7 +9737,7 @@
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A269" s="7" t="s">
+      <c r="A269" s="8" t="s">
         <v>659</v>
       </c>
       <c r="B269" t="s">
@@ -9751,7 +9757,7 @@
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A270" s="7" t="s">
+      <c r="A270" s="8" t="s">
         <v>659</v>
       </c>
       <c r="B270" t="s">
@@ -9771,7 +9777,7 @@
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A271" s="7" t="s">
+      <c r="A271" s="8" t="s">
         <v>659</v>
       </c>
       <c r="B271" t="s">
@@ -9791,7 +9797,7 @@
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A272" s="7" t="s">
+      <c r="A272" s="8" t="s">
         <v>659</v>
       </c>
       <c r="B272" t="s">
@@ -9811,7 +9817,7 @@
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A273" s="7" t="s">
+      <c r="A273" s="8" t="s">
         <v>659</v>
       </c>
       <c r="B273" t="s">
@@ -9831,7 +9837,7 @@
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A274" s="7" t="s">
+      <c r="A274" s="8" t="s">
         <v>659</v>
       </c>
       <c r="B274" t="s">
@@ -9851,7 +9857,7 @@
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A275" s="7" t="s">
+      <c r="A275" s="8" t="s">
         <v>659</v>
       </c>
       <c r="B275" t="s">
@@ -9871,7 +9877,7 @@
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A276" s="7" t="s">
+      <c r="A276" s="8" t="s">
         <v>659</v>
       </c>
       <c r="B276" t="s">
@@ -9891,7 +9897,7 @@
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A277" s="7" t="s">
+      <c r="A277" s="8" t="s">
         <v>659</v>
       </c>
       <c r="B277" t="s">
@@ -9911,7 +9917,7 @@
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A278" s="7" t="s">
+      <c r="A278" s="8" t="s">
         <v>659</v>
       </c>
       <c r="B278" t="s">
@@ -9931,7 +9937,7 @@
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A279" s="7" t="s">
+      <c r="A279" s="8" t="s">
         <v>659</v>
       </c>
       <c r="B279" t="s">
@@ -9951,7 +9957,7 @@
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A280" s="7" t="s">
+      <c r="A280" s="8" t="s">
         <v>659</v>
       </c>
       <c r="B280" t="s">
@@ -9971,7 +9977,7 @@
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A281" s="7" t="s">
+      <c r="A281" s="8" t="s">
         <v>659</v>
       </c>
       <c r="B281" t="s">
@@ -9991,7 +9997,7 @@
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A282" s="7" t="s">
+      <c r="A282" s="8" t="s">
         <v>659</v>
       </c>
       <c r="B282" t="s">
@@ -10011,7 +10017,7 @@
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A283" s="7" t="s">
+      <c r="A283" s="8" t="s">
         <v>659</v>
       </c>
       <c r="B283" t="s">
@@ -10031,7 +10037,7 @@
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A284" s="7" t="s">
+      <c r="A284" s="8" t="s">
         <v>659</v>
       </c>
       <c r="B284" t="s">
@@ -10051,7 +10057,7 @@
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A285" s="7" t="s">
+      <c r="A285" s="8" t="s">
         <v>659</v>
       </c>
       <c r="B285" t="s">
@@ -10071,7 +10077,7 @@
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A286" s="7" t="s">
+      <c r="A286" s="8" t="s">
         <v>659</v>
       </c>
       <c r="B286" t="s">
@@ -10091,7 +10097,7 @@
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A287" s="7" t="s">
+      <c r="A287" s="8" t="s">
         <v>659</v>
       </c>
       <c r="B287" t="s">
@@ -10111,7 +10117,7 @@
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A288" s="7" t="s">
+      <c r="A288" s="8" t="s">
         <v>659</v>
       </c>
       <c r="B288" t="s">
@@ -10131,7 +10137,7 @@
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A289" s="7" t="s">
+      <c r="A289" s="8" t="s">
         <v>659</v>
       </c>
       <c r="B289" t="s">
@@ -10151,7 +10157,7 @@
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A290" s="7" t="s">
+      <c r="A290" s="8" t="s">
         <v>659</v>
       </c>
       <c r="B290" t="s">
@@ -10171,7 +10177,7 @@
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A291" s="7" t="s">
+      <c r="A291" s="8" t="s">
         <v>659</v>
       </c>
       <c r="B291" t="s">
@@ -10191,7 +10197,7 @@
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A292" s="7" t="s">
+      <c r="A292" s="8" t="s">
         <v>659</v>
       </c>
       <c r="B292" t="s">
@@ -10211,7 +10217,7 @@
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A293" s="7" t="s">
+      <c r="A293" s="8" t="s">
         <v>659</v>
       </c>
       <c r="B293" t="s">
@@ -10231,7 +10237,7 @@
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A294" s="7" t="s">
+      <c r="A294" s="8" t="s">
         <v>659</v>
       </c>
       <c r="B294" t="s">
@@ -10251,7 +10257,7 @@
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A295" s="7" t="s">
+      <c r="A295" s="8" t="s">
         <v>659</v>
       </c>
       <c r="B295" t="s">
@@ -10271,7 +10277,7 @@
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A296" s="7" t="s">
+      <c r="A296" s="8" t="s">
         <v>659</v>
       </c>
       <c r="B296" t="s">
@@ -10291,7 +10297,7 @@
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A297" s="7" t="s">
+      <c r="A297" s="8" t="s">
         <v>659</v>
       </c>
       <c r="B297" t="s">
@@ -10311,7 +10317,7 @@
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A298" s="7" t="s">
+      <c r="A298" s="8" t="s">
         <v>774</v>
       </c>
       <c r="B298" t="s">
@@ -10331,7 +10337,7 @@
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A299" s="7" t="s">
+      <c r="A299" s="8" t="s">
         <v>774</v>
       </c>
       <c r="B299" t="s">
@@ -10351,7 +10357,7 @@
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A300" s="7" t="s">
+      <c r="A300" s="8" t="s">
         <v>774</v>
       </c>
       <c r="B300" t="s">
@@ -10371,7 +10377,7 @@
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A301" s="7" t="s">
+      <c r="A301" s="8" t="s">
         <v>774</v>
       </c>
       <c r="B301" t="s">
@@ -10391,7 +10397,7 @@
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A302" s="7" t="s">
+      <c r="A302" s="8" t="s">
         <v>774</v>
       </c>
       <c r="B302" t="s">
@@ -10411,7 +10417,7 @@
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A303" s="7" t="s">
+      <c r="A303" s="8" t="s">
         <v>774</v>
       </c>
       <c r="B303" t="s">
@@ -10431,7 +10437,7 @@
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A304" s="7" t="s">
+      <c r="A304" s="8" t="s">
         <v>774</v>
       </c>
       <c r="B304" t="s">
@@ -10451,7 +10457,7 @@
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A305" s="7" t="s">
+      <c r="A305" s="8" t="s">
         <v>774</v>
       </c>
       <c r="B305" t="s">
@@ -10471,7 +10477,7 @@
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A306" s="7" t="s">
+      <c r="A306" s="8" t="s">
         <v>774</v>
       </c>
       <c r="B306" t="s">
@@ -10491,7 +10497,7 @@
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A307" s="7" t="s">
+      <c r="A307" s="8" t="s">
         <v>774</v>
       </c>
       <c r="B307" t="s">
@@ -10511,7 +10517,7 @@
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A308" s="7" t="s">
+      <c r="A308" s="8" t="s">
         <v>774</v>
       </c>
       <c r="B308" t="s">
@@ -10531,7 +10537,7 @@
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A309" s="7" t="s">
+      <c r="A309" s="8" t="s">
         <v>774</v>
       </c>
       <c r="B309" t="s">
@@ -10551,7 +10557,7 @@
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A310" s="7" t="s">
+      <c r="A310" s="8" t="s">
         <v>774</v>
       </c>
       <c r="B310" t="s">
@@ -10571,7 +10577,7 @@
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A311" s="7" t="s">
+      <c r="A311" s="8" t="s">
         <v>774</v>
       </c>
       <c r="B311" t="s">
@@ -10591,7 +10597,7 @@
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A312" s="7" t="s">
+      <c r="A312" s="8" t="s">
         <v>774</v>
       </c>
       <c r="B312" t="s">
@@ -10611,7 +10617,7 @@
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A313" s="7" t="s">
+      <c r="A313" s="8" t="s">
         <v>774</v>
       </c>
       <c r="B313" t="s">
@@ -10631,7 +10637,7 @@
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A314" s="7" t="s">
+      <c r="A314" s="8" t="s">
         <v>774</v>
       </c>
       <c r="B314" t="s">
@@ -10651,7 +10657,7 @@
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A315" s="7" t="s">
+      <c r="A315" s="8" t="s">
         <v>774</v>
       </c>
       <c r="B315" t="s">
@@ -10671,7 +10677,7 @@
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A316" s="7" t="s">
+      <c r="A316" s="8" t="s">
         <v>774</v>
       </c>
       <c r="B316" t="s">
@@ -10691,7 +10697,7 @@
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A317" s="7" t="s">
+      <c r="A317" s="8" t="s">
         <v>774</v>
       </c>
       <c r="B317" t="s">
@@ -10711,7 +10717,7 @@
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A318" s="7" t="s">
+      <c r="A318" s="8" t="s">
         <v>774</v>
       </c>
       <c r="B318" t="s">
@@ -10731,7 +10737,7 @@
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A319" s="7" t="s">
+      <c r="A319" s="8" t="s">
         <v>774</v>
       </c>
       <c r="B319" t="s">
@@ -10751,7 +10757,7 @@
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A320" s="7" t="s">
+      <c r="A320" s="8" t="s">
         <v>774</v>
       </c>
       <c r="B320" t="s">
@@ -10771,7 +10777,7 @@
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A321" s="7" t="s">
+      <c r="A321" s="8" t="s">
         <v>774</v>
       </c>
       <c r="B321" t="s">
@@ -10791,7 +10797,7 @@
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A322" s="7" t="s">
+      <c r="A322" s="8" t="s">
         <v>774</v>
       </c>
       <c r="B322" t="s">
@@ -10811,7 +10817,7 @@
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A323" s="7" t="s">
+      <c r="A323" s="8" t="s">
         <v>774</v>
       </c>
       <c r="B323" t="s">
@@ -10831,7 +10837,7 @@
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A324" s="7" t="s">
+      <c r="A324" s="8" t="s">
         <v>774</v>
       </c>
       <c r="B324" t="s">
@@ -10851,7 +10857,7 @@
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A325" s="7" t="s">
+      <c r="A325" s="8" t="s">
         <v>774</v>
       </c>
       <c r="B325" t="s">
@@ -10871,7 +10877,7 @@
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A326" s="7" t="s">
+      <c r="A326" s="8" t="s">
         <v>774</v>
       </c>
       <c r="B326" t="s">
@@ -10891,7 +10897,7 @@
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A327" s="7" t="s">
+      <c r="A327" s="8" t="s">
         <v>774</v>
       </c>
       <c r="B327" t="s">
@@ -10911,7 +10917,7 @@
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A328" s="7" t="s">
+      <c r="A328" s="8" t="s">
         <v>774</v>
       </c>
       <c r="B328" t="s">
@@ -10931,7 +10937,7 @@
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A329" s="7" t="s">
+      <c r="A329" s="8" t="s">
         <v>774</v>
       </c>
       <c r="B329" t="s">
@@ -10951,7 +10957,7 @@
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A330" s="7" t="s">
+      <c r="A330" s="8" t="s">
         <v>774</v>
       </c>
       <c r="B330" t="s">
@@ -10968,7 +10974,7 @@
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A331" s="7" t="s">
+      <c r="A331" s="8" t="s">
         <v>774</v>
       </c>
       <c r="B331" t="s">
@@ -10985,7 +10991,7 @@
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A332" s="7" t="s">
+      <c r="A332" s="8" t="s">
         <v>774</v>
       </c>
       <c r="B332" t="s">
@@ -11005,7 +11011,7 @@
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A333" s="7" t="s">
+      <c r="A333" s="8" t="s">
         <v>857</v>
       </c>
       <c r="B333" t="s">
@@ -11025,7 +11031,7 @@
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A334" s="7" t="s">
+      <c r="A334" s="8" t="s">
         <v>857</v>
       </c>
       <c r="B334" t="s">
@@ -11045,7 +11051,7 @@
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A335" s="7" t="s">
+      <c r="A335" s="8" t="s">
         <v>857</v>
       </c>
       <c r="B335" t="s">
@@ -11065,7 +11071,7 @@
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A336" s="7" t="s">
+      <c r="A336" s="8" t="s">
         <v>857</v>
       </c>
       <c r="B336" t="s">
@@ -11085,7 +11091,7 @@
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A337" s="7" t="s">
+      <c r="A337" s="8" t="s">
         <v>857</v>
       </c>
       <c r="B337" t="s">
@@ -11105,7 +11111,7 @@
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A338" s="7" t="s">
+      <c r="A338" s="8" t="s">
         <v>857</v>
       </c>
       <c r="B338" t="s">
@@ -11125,7 +11131,7 @@
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A339" s="7" t="s">
+      <c r="A339" s="8" t="s">
         <v>857</v>
       </c>
       <c r="B339" t="s">
@@ -11142,7 +11148,7 @@
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A340" s="7" t="s">
+      <c r="A340" s="8" t="s">
         <v>857</v>
       </c>
       <c r="B340" t="s">
@@ -11159,7 +11165,7 @@
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A341" s="7" t="s">
+      <c r="A341" s="8" t="s">
         <v>857</v>
       </c>
       <c r="B341" t="s">
@@ -11179,7 +11185,7 @@
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A342" s="7" t="s">
+      <c r="A342" s="8" t="s">
         <v>857</v>
       </c>
       <c r="B342" t="s">
@@ -11199,7 +11205,7 @@
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A343" s="7" t="s">
+      <c r="A343" s="8" t="s">
         <v>857</v>
       </c>
       <c r="B343" t="s">
@@ -11219,7 +11225,7 @@
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A344" s="7" t="s">
+      <c r="A344" s="8" t="s">
         <v>857</v>
       </c>
       <c r="B344" t="s">
@@ -11239,7 +11245,7 @@
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A345" s="7" t="s">
+      <c r="A345" s="8" t="s">
         <v>857</v>
       </c>
       <c r="B345" t="s">
@@ -11259,7 +11265,7 @@
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A346" s="7" t="s">
+      <c r="A346" s="8" t="s">
         <v>857</v>
       </c>
       <c r="B346" t="s">
@@ -11279,7 +11285,7 @@
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A347" s="7" t="s">
+      <c r="A347" s="8" t="s">
         <v>857</v>
       </c>
       <c r="B347" t="s">
@@ -11299,7 +11305,7 @@
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A348" s="7" t="s">
+      <c r="A348" s="8" t="s">
         <v>857</v>
       </c>
       <c r="B348" t="s">
@@ -11319,7 +11325,7 @@
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A349" s="7" t="s">
+      <c r="A349" s="8" t="s">
         <v>857</v>
       </c>
       <c r="B349" t="s">
@@ -11339,7 +11345,7 @@
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A350" s="7" t="s">
+      <c r="A350" s="8" t="s">
         <v>857</v>
       </c>
       <c r="B350" t="s">
@@ -11359,7 +11365,7 @@
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A351" s="7" t="s">
+      <c r="A351" s="8" t="s">
         <v>857</v>
       </c>
       <c r="B351" t="s">
@@ -11379,7 +11385,7 @@
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A352" s="7" t="s">
+      <c r="A352" s="8" t="s">
         <v>857</v>
       </c>
       <c r="B352" t="s">
@@ -11399,7 +11405,7 @@
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A353" s="7" t="s">
+      <c r="A353" s="8" t="s">
         <v>857</v>
       </c>
       <c r="B353" t="s">
@@ -11419,7 +11425,7 @@
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A354" s="7" t="s">
+      <c r="A354" s="8" t="s">
         <v>857</v>
       </c>
       <c r="B354" t="s">
@@ -11439,7 +11445,7 @@
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A355" s="7" t="s">
+      <c r="A355" s="8" t="s">
         <v>857</v>
       </c>
       <c r="B355" t="s">
@@ -11456,7 +11462,7 @@
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A356" s="7" t="s">
+      <c r="A356" s="8" t="s">
         <v>857</v>
       </c>
       <c r="B356" t="s">
@@ -11476,7 +11482,7 @@
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A357" s="7" t="s">
+      <c r="A357" s="8" t="s">
         <v>857</v>
       </c>
       <c r="B357" t="s">
@@ -11496,7 +11502,7 @@
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A358" s="7" t="s">
+      <c r="A358" s="8" t="s">
         <v>857</v>
       </c>
       <c r="B358" t="s">
@@ -11516,7 +11522,7 @@
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A359" s="7" t="s">
+      <c r="A359" s="8" t="s">
         <v>857</v>
       </c>
       <c r="B359" t="s">
@@ -11536,7 +11542,7 @@
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A360" s="7" t="s">
+      <c r="A360" s="8" t="s">
         <v>857</v>
       </c>
       <c r="B360" t="s">
@@ -11556,7 +11562,7 @@
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A361" s="7" t="s">
+      <c r="A361" s="8" t="s">
         <v>857</v>
       </c>
       <c r="B361" t="s">
@@ -11576,7 +11582,7 @@
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A362" s="7" t="s">
+      <c r="A362" s="8" t="s">
         <v>857</v>
       </c>
       <c r="B362" t="s">
@@ -11596,7 +11602,7 @@
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A363" s="7" t="s">
+      <c r="A363" s="8" t="s">
         <v>857</v>
       </c>
       <c r="B363" t="s">
@@ -11616,7 +11622,7 @@
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A364" s="7" t="s">
+      <c r="A364" s="8" t="s">
         <v>857</v>
       </c>
       <c r="B364" t="s">
@@ -11636,7 +11642,7 @@
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A365" s="7" t="s">
+      <c r="A365" s="8" t="s">
         <v>857</v>
       </c>
       <c r="B365" t="s">
@@ -11656,7 +11662,7 @@
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A366" s="7" t="s">
+      <c r="A366" s="8" t="s">
         <v>857</v>
       </c>
       <c r="B366" t="s">
@@ -11676,7 +11682,7 @@
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A367" s="7" t="s">
+      <c r="A367" s="8" t="s">
         <v>857</v>
       </c>
       <c r="B367" t="s">
@@ -11696,7 +11702,7 @@
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A368" s="7" t="s">
+      <c r="A368" s="8" t="s">
         <v>857</v>
       </c>
       <c r="B368" t="s">
@@ -11716,7 +11722,7 @@
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A369" s="7" t="s">
+      <c r="A369" s="8" t="s">
         <v>857</v>
       </c>
       <c r="B369" t="s">
@@ -11736,7 +11742,7 @@
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A370" s="7" t="s">
+      <c r="A370" s="8" t="s">
         <v>857</v>
       </c>
       <c r="B370" t="s">
@@ -11756,7 +11762,7 @@
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A371" s="7" t="s">
+      <c r="A371" s="8" t="s">
         <v>945</v>
       </c>
       <c r="B371" t="s">
@@ -11776,7 +11782,7 @@
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A372" s="7" t="s">
+      <c r="A372" s="8" t="s">
         <v>945</v>
       </c>
       <c r="B372" t="s">
@@ -11796,7 +11802,7 @@
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A373" s="7" t="s">
+      <c r="A373" s="8" t="s">
         <v>945</v>
       </c>
       <c r="B373" t="s">
@@ -11816,7 +11822,7 @@
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A374" s="7" t="s">
+      <c r="A374" s="8" t="s">
         <v>945</v>
       </c>
       <c r="B374" t="s">
@@ -11836,7 +11842,7 @@
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A375" s="7" t="s">
+      <c r="A375" s="8" t="s">
         <v>945</v>
       </c>
       <c r="B375" t="s">
@@ -11856,7 +11862,7 @@
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A376" s="7" t="s">
+      <c r="A376" s="8" t="s">
         <v>945</v>
       </c>
       <c r="B376" t="s">
@@ -11876,7 +11882,7 @@
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A377" s="7" t="s">
+      <c r="A377" s="8" t="s">
         <v>945</v>
       </c>
       <c r="B377" t="s">
@@ -11896,7 +11902,7 @@
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A378" s="7" t="s">
+      <c r="A378" s="8" t="s">
         <v>945</v>
       </c>
       <c r="B378" t="s">
@@ -11916,7 +11922,7 @@
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A379" s="7" t="s">
+      <c r="A379" s="8" t="s">
         <v>945</v>
       </c>
       <c r="B379" t="s">
@@ -11936,7 +11942,7 @@
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A380" s="7" t="s">
+      <c r="A380" s="8" t="s">
         <v>945</v>
       </c>
       <c r="B380" t="s">
@@ -11956,7 +11962,7 @@
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A381" s="7" t="s">
+      <c r="A381" s="8" t="s">
         <v>945</v>
       </c>
       <c r="B381" t="s">
@@ -11976,7 +11982,7 @@
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A382" s="7" t="s">
+      <c r="A382" s="8" t="s">
         <v>945</v>
       </c>
       <c r="B382" t="s">
@@ -11996,7 +12002,7 @@
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A383" s="7" t="s">
+      <c r="A383" s="8" t="s">
         <v>945</v>
       </c>
       <c r="B383" t="s">
@@ -12016,7 +12022,7 @@
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A384" s="7" t="s">
+      <c r="A384" s="8" t="s">
         <v>945</v>
       </c>
       <c r="B384" t="s">
@@ -12036,7 +12042,7 @@
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A385" s="7" t="s">
+      <c r="A385" s="8" t="s">
         <v>945</v>
       </c>
       <c r="B385" t="s">
@@ -12056,7 +12062,7 @@
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A386" s="7" t="s">
+      <c r="A386" s="8" t="s">
         <v>945</v>
       </c>
       <c r="B386" t="s">
@@ -12076,7 +12082,7 @@
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A387" s="7" t="s">
+      <c r="A387" s="8" t="s">
         <v>945</v>
       </c>
       <c r="B387" t="s">
@@ -12096,7 +12102,7 @@
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A388" s="7" t="s">
+      <c r="A388" s="8" t="s">
         <v>945</v>
       </c>
       <c r="B388" t="s">
@@ -12116,7 +12122,7 @@
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A389" s="7" t="s">
+      <c r="A389" s="8" t="s">
         <v>945</v>
       </c>
       <c r="B389" t="s">
@@ -12136,7 +12142,7 @@
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A390" s="7" t="s">
+      <c r="A390" s="8" t="s">
         <v>945</v>
       </c>
       <c r="B390" t="s">
@@ -12156,7 +12162,7 @@
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A391" s="7" t="s">
+      <c r="A391" s="8" t="s">
         <v>945</v>
       </c>
       <c r="B391" t="s">
@@ -12176,7 +12182,7 @@
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A392" s="7" t="s">
+      <c r="A392" s="8" t="s">
         <v>945</v>
       </c>
       <c r="B392" t="s">
@@ -12196,7 +12202,7 @@
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A393" s="7" t="s">
+      <c r="A393" s="8" t="s">
         <v>945</v>
       </c>
       <c r="B393" t="s">
@@ -12216,7 +12222,7 @@
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A394" s="7" t="s">
+      <c r="A394" s="8" t="s">
         <v>945</v>
       </c>
       <c r="B394" t="s">
@@ -12236,7 +12242,7 @@
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A395" s="7" t="s">
+      <c r="A395" s="8" t="s">
         <v>945</v>
       </c>
       <c r="B395" t="s">
@@ -12256,7 +12262,7 @@
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A396" s="7" t="s">
+      <c r="A396" s="8" t="s">
         <v>945</v>
       </c>
       <c r="B396" t="s">
@@ -12276,7 +12282,7 @@
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A397" s="7" t="s">
+      <c r="A397" s="8" t="s">
         <v>945</v>
       </c>
       <c r="B397" t="s">
@@ -12296,7 +12302,7 @@
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A398" s="7" t="s">
+      <c r="A398" s="8" t="s">
         <v>945</v>
       </c>
       <c r="B398" t="s">
@@ -12316,7 +12322,7 @@
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A399" s="7" t="s">
+      <c r="A399" s="8" t="s">
         <v>1005</v>
       </c>
       <c r="B399" t="s">
@@ -12336,7 +12342,7 @@
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A400" s="7" t="s">
+      <c r="A400" s="8" t="s">
         <v>1005</v>
       </c>
       <c r="B400" t="s">
@@ -12353,7 +12359,7 @@
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A401" s="7" t="s">
+      <c r="A401" s="8" t="s">
         <v>1005</v>
       </c>
       <c r="B401" t="s">
@@ -12370,7 +12376,7 @@
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A402" s="7" t="s">
+      <c r="A402" s="8" t="s">
         <v>1005</v>
       </c>
       <c r="B402" t="s">
@@ -12387,7 +12393,7 @@
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A403" s="7" t="s">
+      <c r="A403" s="8" t="s">
         <v>1005</v>
       </c>
       <c r="B403" t="s">
@@ -12407,7 +12413,7 @@
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A404" s="7" t="s">
+      <c r="A404" s="8" t="s">
         <v>1014</v>
       </c>
       <c r="B404" t="s">
@@ -12427,7 +12433,7 @@
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A405" s="7" t="s">
+      <c r="A405" s="8" t="s">
         <v>1014</v>
       </c>
       <c r="B405" t="s">
@@ -12447,7 +12453,7 @@
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A406" s="7" t="s">
+      <c r="A406" s="8" t="s">
         <v>1014</v>
       </c>
       <c r="B406" t="s">
@@ -12467,7 +12473,7 @@
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A407" s="7" t="s">
+      <c r="A407" s="8" t="s">
         <v>1014</v>
       </c>
       <c r="B407" t="s">
@@ -12487,7 +12493,7 @@
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A408" s="7" t="s">
+      <c r="A408" s="8" t="s">
         <v>1014</v>
       </c>
       <c r="B408" t="s">
@@ -12507,7 +12513,7 @@
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A409" s="7" t="s">
+      <c r="A409" s="8" t="s">
         <v>1030</v>
       </c>
       <c r="B409" t="s">
@@ -12527,7 +12533,7 @@
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A410" s="7" t="s">
+      <c r="A410" s="8" t="s">
         <v>1030</v>
       </c>
       <c r="B410" t="s">
@@ -12547,7 +12553,7 @@
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A411" s="7" t="s">
+      <c r="A411" s="8" t="s">
         <v>1030</v>
       </c>
       <c r="B411" t="s">
@@ -12567,7 +12573,7 @@
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A412" s="7" t="s">
+      <c r="A412" s="8" t="s">
         <v>1030</v>
       </c>
       <c r="B412" t="s">
@@ -12587,7 +12593,7 @@
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A413" s="7" t="s">
+      <c r="A413" s="8" t="s">
         <v>1030</v>
       </c>
       <c r="B413" t="s">
@@ -12607,7 +12613,7 @@
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A414" s="7" t="s">
+      <c r="A414" s="8" t="s">
         <v>1030</v>
       </c>
       <c r="B414" t="s">
@@ -12627,7 +12633,7 @@
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A415" s="7" t="s">
+      <c r="A415" s="8" t="s">
         <v>1030</v>
       </c>
       <c r="B415" t="s">
@@ -12647,7 +12653,7 @@
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A416" s="7" t="s">
+      <c r="A416" s="8" t="s">
         <v>1030</v>
       </c>
       <c r="B416" t="s">
@@ -12667,7 +12673,7 @@
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A417" s="7" t="s">
+      <c r="A417" s="8" t="s">
         <v>1030</v>
       </c>
       <c r="B417" t="s">
@@ -12687,7 +12693,7 @@
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A418" s="7" t="s">
+      <c r="A418" s="8" t="s">
         <v>1030</v>
       </c>
       <c r="B418" t="s">
@@ -12707,7 +12713,7 @@
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A419" s="7" t="s">
+      <c r="A419" s="8" t="s">
         <v>1030</v>
       </c>
       <c r="B419" t="s">
@@ -12727,7 +12733,7 @@
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A420" s="7" t="s">
+      <c r="A420" s="8" t="s">
         <v>1030</v>
       </c>
       <c r="B420" t="s">
@@ -12747,7 +12753,7 @@
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A421" s="7" t="s">
+      <c r="A421" s="8" t="s">
         <v>1030</v>
       </c>
       <c r="B421" t="s">
@@ -12767,7 +12773,7 @@
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A422" s="7" t="s">
+      <c r="A422" s="8" t="s">
         <v>1030</v>
       </c>
       <c r="B422" t="s">
@@ -12787,7 +12793,7 @@
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A423" s="7" t="s">
+      <c r="A423" s="8" t="s">
         <v>1030</v>
       </c>
       <c r="B423" t="s">
@@ -12807,7 +12813,7 @@
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A424" s="7" t="s">
+      <c r="A424" s="8" t="s">
         <v>1030</v>
       </c>
       <c r="B424" t="s">
@@ -12827,7 +12833,7 @@
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A425" s="7" t="s">
+      <c r="A425" s="8" t="s">
         <v>1030</v>
       </c>
       <c r="B425" t="s">
@@ -12847,7 +12853,7 @@
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A426" s="7" t="s">
+      <c r="A426" s="8" t="s">
         <v>1030</v>
       </c>
       <c r="B426" t="s">
@@ -12867,7 +12873,7 @@
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A427" s="7" t="s">
+      <c r="A427" s="8" t="s">
         <v>1078</v>
       </c>
       <c r="B427" t="s">
@@ -12887,7 +12893,7 @@
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A428" s="7" t="s">
+      <c r="A428" s="8" t="s">
         <v>1078</v>
       </c>
       <c r="B428" t="s">
@@ -12907,7 +12913,7 @@
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A429" s="7" t="s">
+      <c r="A429" s="8" t="s">
         <v>1078</v>
       </c>
       <c r="B429" t="s">
@@ -12927,7 +12933,7 @@
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A430" s="7" t="s">
+      <c r="A430" s="8" t="s">
         <v>1078</v>
       </c>
       <c r="B430" t="s">
@@ -12947,7 +12953,7 @@
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A431" s="7" t="s">
+      <c r="A431" s="8" t="s">
         <v>1078</v>
       </c>
       <c r="B431" t="s">
@@ -12967,7 +12973,7 @@
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A432" s="7" t="s">
+      <c r="A432" s="8" t="s">
         <v>1078</v>
       </c>
       <c r="B432" t="s">
@@ -12987,7 +12993,7 @@
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A433" s="7" t="s">
+      <c r="A433" s="8" t="s">
         <v>1078</v>
       </c>
       <c r="B433" t="s">
@@ -13007,7 +13013,7 @@
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A434" s="7" t="s">
+      <c r="A434" s="8" t="s">
         <v>1078</v>
       </c>
       <c r="B434" t="s">
@@ -13027,7 +13033,7 @@
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A435" s="7" t="s">
+      <c r="A435" s="8" t="s">
         <v>1078</v>
       </c>
       <c r="B435" t="s">
@@ -13047,7 +13053,7 @@
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A436" s="7" t="s">
+      <c r="A436" s="8" t="s">
         <v>1078</v>
       </c>
       <c r="B436" t="s">
@@ -13067,7 +13073,7 @@
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A437" s="7" t="s">
+      <c r="A437" s="8" t="s">
         <v>1078</v>
       </c>
       <c r="B437" t="s">
@@ -13087,7 +13093,7 @@
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A438" s="7" t="s">
+      <c r="A438" s="8" t="s">
         <v>1078</v>
       </c>
       <c r="B438" t="s">
@@ -13107,7 +13113,7 @@
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A439" s="7" t="s">
+      <c r="A439" s="8" t="s">
         <v>1078</v>
       </c>
       <c r="B439" t="s">
@@ -13127,7 +13133,7 @@
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A440" s="7" t="s">
+      <c r="A440" s="8" t="s">
         <v>1078</v>
       </c>
       <c r="B440" t="s">
@@ -13147,7 +13153,7 @@
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A441" s="7" t="s">
+      <c r="A441" s="8" t="s">
         <v>1078</v>
       </c>
       <c r="B441" t="s">
@@ -13167,7 +13173,7 @@
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A442" s="7" t="s">
+      <c r="A442" s="8" t="s">
         <v>1078</v>
       </c>
       <c r="B442" t="s">
@@ -13187,7 +13193,7 @@
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A443" s="7" t="s">
+      <c r="A443" s="8" t="s">
         <v>1078</v>
       </c>
       <c r="B443" t="s">
@@ -13207,7 +13213,7 @@
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A444" s="7" t="s">
+      <c r="A444" s="8" t="s">
         <v>1078</v>
       </c>
       <c r="B444" t="s">
@@ -13227,7 +13233,7 @@
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A445" s="7" t="s">
+      <c r="A445" s="8" t="s">
         <v>1078</v>
       </c>
       <c r="B445" t="s">
@@ -13247,7 +13253,7 @@
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A446" s="7" t="s">
+      <c r="A446" s="8" t="s">
         <v>1078</v>
       </c>
       <c r="B446" t="s">
@@ -13267,7 +13273,7 @@
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A447" s="7" t="s">
+      <c r="A447" s="8" t="s">
         <v>1078</v>
       </c>
       <c r="B447" t="s">
@@ -13287,7 +13293,7 @@
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A448" s="7" t="s">
+      <c r="A448" s="8" t="s">
         <v>1078</v>
       </c>
       <c r="B448" t="s">
@@ -13307,7 +13313,7 @@
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A449" s="7" t="s">
+      <c r="A449" s="8" t="s">
         <v>1078</v>
       </c>
       <c r="B449" t="s">
@@ -13327,7 +13333,7 @@
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A450" s="7" t="s">
+      <c r="A450" s="8" t="s">
         <v>1078</v>
       </c>
       <c r="B450" t="s">
@@ -13347,7 +13353,7 @@
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A451" s="7" t="s">
+      <c r="A451" s="8" t="s">
         <v>1078</v>
       </c>
       <c r="B451" t="s">
@@ -13367,7 +13373,7 @@
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A452" s="7" t="s">
+      <c r="A452" s="8" t="s">
         <v>1144</v>
       </c>
       <c r="B452" t="s">
@@ -13387,7 +13393,7 @@
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A453" s="7" t="s">
+      <c r="A453" s="8" t="s">
         <v>1144</v>
       </c>
       <c r="B453" t="s">
@@ -13407,7 +13413,7 @@
       </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A454" s="7" t="s">
+      <c r="A454" s="8" t="s">
         <v>1144</v>
       </c>
       <c r="B454" t="s">
@@ -13427,7 +13433,7 @@
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A455" s="7" t="s">
+      <c r="A455" s="8" t="s">
         <v>1144</v>
       </c>
       <c r="B455" t="s">
@@ -13447,7 +13453,7 @@
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A456" s="7" t="s">
+      <c r="A456" s="8" t="s">
         <v>1144</v>
       </c>
       <c r="B456" t="s">
@@ -13467,7 +13473,7 @@
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A457" s="7" t="s">
+      <c r="A457" s="8" t="s">
         <v>1144</v>
       </c>
       <c r="B457" t="s">
@@ -13487,7 +13493,7 @@
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A458" s="7" t="s">
+      <c r="A458" s="8" t="s">
         <v>1144</v>
       </c>
       <c r="B458" t="s">
@@ -13507,7 +13513,7 @@
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A459" s="7" t="s">
+      <c r="A459" s="8" t="s">
         <v>1144</v>
       </c>
       <c r="B459" t="s">
@@ -13527,7 +13533,7 @@
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A460" s="7" t="s">
+      <c r="A460" s="8" t="s">
         <v>1144</v>
       </c>
       <c r="B460" t="s">
@@ -13547,7 +13553,7 @@
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A461" s="7" t="s">
+      <c r="A461" s="8" t="s">
         <v>1144</v>
       </c>
       <c r="B461" t="s">
@@ -13567,7 +13573,7 @@
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A462" s="7" t="s">
+      <c r="A462" s="8" t="s">
         <v>1144</v>
       </c>
       <c r="B462" t="s">
@@ -13587,7 +13593,7 @@
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A463" s="7" t="s">
+      <c r="A463" s="8" t="s">
         <v>1144</v>
       </c>
       <c r="B463" t="s">
@@ -13607,7 +13613,7 @@
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A464" s="7" t="s">
+      <c r="A464" s="8" t="s">
         <v>1144</v>
       </c>
       <c r="B464" t="s">
@@ -13627,7 +13633,7 @@
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A465" s="7" t="s">
+      <c r="A465" s="8" t="s">
         <v>1144</v>
       </c>
       <c r="B465" t="s">
@@ -13647,7 +13653,7 @@
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A466" s="7" t="s">
+      <c r="A466" s="8" t="s">
         <v>1144</v>
       </c>
       <c r="B466" t="s">
@@ -13667,7 +13673,7 @@
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A467" s="7" t="s">
+      <c r="A467" s="8" t="s">
         <v>1144</v>
       </c>
       <c r="B467" t="s">
@@ -13687,7 +13693,7 @@
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A468" s="7" t="s">
+      <c r="A468" s="8" t="s">
         <v>1144</v>
       </c>
       <c r="B468" t="s">
@@ -13707,7 +13713,7 @@
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A469" s="7" t="s">
+      <c r="A469" s="8" t="s">
         <v>1144</v>
       </c>
       <c r="B469" t="s">
@@ -13727,7 +13733,7 @@
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A470" s="7" t="s">
+      <c r="A470" s="8" t="s">
         <v>1144</v>
       </c>
       <c r="B470" t="s">
@@ -13747,7 +13753,7 @@
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A471" s="7" t="s">
+      <c r="A471" s="8" t="s">
         <v>1144</v>
       </c>
       <c r="B471" t="s">
@@ -13767,7 +13773,7 @@
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A472" s="7" t="s">
+      <c r="A472" s="8" t="s">
         <v>1281</v>
       </c>
       <c r="B472" t="s">
@@ -13787,7 +13793,7 @@
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A473" s="7" t="s">
+      <c r="A473" s="8" t="s">
         <v>1144</v>
       </c>
       <c r="B473" t="s">
@@ -13807,7 +13813,7 @@
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A474" s="7" t="s">
+      <c r="A474" s="8" t="s">
         <v>1144</v>
       </c>
       <c r="B474" t="s">
@@ -13827,7 +13833,7 @@
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A475" s="7" t="s">
+      <c r="A475" s="8" t="s">
         <v>1144</v>
       </c>
       <c r="B475" t="s">
@@ -13847,7 +13853,7 @@
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A476" s="7" t="s">
+      <c r="A476" s="8" t="s">
         <v>1144</v>
       </c>
       <c r="B476" t="s">
@@ -13867,7 +13873,7 @@
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A477" s="7" t="s">
+      <c r="A477" s="8" t="s">
         <v>1144</v>
       </c>
       <c r="B477" t="s">
@@ -13887,7 +13893,7 @@
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A478" s="7" t="s">
+      <c r="A478" s="8" t="s">
         <v>1144</v>
       </c>
       <c r="B478" t="s">
@@ -13907,7 +13913,7 @@
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A479" s="7" t="s">
+      <c r="A479" s="8" t="s">
         <v>1144</v>
       </c>
       <c r="B479" t="s">
@@ -13927,7 +13933,7 @@
       </c>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A480" s="7" t="s">
+      <c r="A480" s="8" t="s">
         <v>1283</v>
       </c>
       <c r="B480" t="s">
@@ -13942,12 +13948,12 @@
       <c r="E480" t="s">
         <v>1223</v>
       </c>
-      <c r="F480" s="7">
+      <c r="F480" s="6">
         <v>300677</v>
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A481" s="7" t="s">
+      <c r="A481" s="8" t="s">
         <v>1283</v>
       </c>
       <c r="B481" t="s">
@@ -13962,12 +13968,12 @@
       <c r="E481" t="s">
         <v>1224</v>
       </c>
-      <c r="F481" s="7">
+      <c r="F481" s="6">
         <v>688621</v>
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A482" s="7" t="s">
+      <c r="A482" s="8" t="s">
         <v>1282</v>
       </c>
       <c r="B482" t="s">
@@ -13982,12 +13988,12 @@
       <c r="E482" t="s">
         <v>1225</v>
       </c>
-      <c r="F482" s="7" t="s">
+      <c r="F482" s="6" t="s">
         <v>1284</v>
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A483" s="7" t="s">
+      <c r="A483" s="8" t="s">
         <v>1282</v>
       </c>
       <c r="B483" t="s">
@@ -14002,12 +14008,12 @@
       <c r="E483" t="s">
         <v>1226</v>
       </c>
-      <c r="F483" s="7">
+      <c r="F483" s="6">
         <v>605358</v>
       </c>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A484" s="7" t="s">
+      <c r="A484" s="8" t="s">
         <v>1282</v>
       </c>
       <c r="B484" t="s">
@@ -14022,12 +14028,12 @@
       <c r="E484" t="s">
         <v>1227</v>
       </c>
-      <c r="F484" s="7">
+      <c r="F484" s="6">
         <v>300007</v>
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A485" s="7" t="s">
+      <c r="A485" s="8" t="s">
         <v>1282</v>
       </c>
       <c r="B485" t="s">
@@ -14042,12 +14048,12 @@
       <c r="E485" t="s">
         <v>1228</v>
       </c>
-      <c r="F485" s="7">
+      <c r="F485" s="6">
         <v>301213</v>
       </c>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A486" s="7" t="s">
+      <c r="A486" s="8" t="s">
         <v>1282</v>
       </c>
       <c r="B486" t="s">
@@ -14062,12 +14068,12 @@
       <c r="E486" t="s">
         <v>1229</v>
       </c>
-      <c r="F486" s="7" t="s">
+      <c r="F486" s="6" t="s">
         <v>1285</v>
       </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A487" s="7" t="s">
+      <c r="A487" s="8" t="s">
         <v>1282</v>
       </c>
       <c r="B487" t="s">
@@ -14082,12 +14088,12 @@
       <c r="E487" t="s">
         <v>1230</v>
       </c>
-      <c r="F487" s="7" t="s">
+      <c r="F487" s="6" t="s">
         <v>1286</v>
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A488" s="7" t="s">
+      <c r="A488" s="8" t="s">
         <v>1282</v>
       </c>
       <c r="B488" t="s">
@@ -14102,12 +14108,12 @@
       <c r="E488" t="s">
         <v>1231</v>
       </c>
-      <c r="F488" s="7" t="s">
+      <c r="F488" s="6" t="s">
         <v>1287</v>
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A489" s="7" t="s">
+      <c r="A489" s="8" t="s">
         <v>1282</v>
       </c>
       <c r="B489" t="s">
@@ -14122,12 +14128,12 @@
       <c r="E489" t="s">
         <v>1232</v>
       </c>
-      <c r="F489" s="7" t="s">
+      <c r="F489" s="6" t="s">
         <v>1288</v>
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A490" s="7" t="s">
+      <c r="A490" s="8" t="s">
         <v>1282</v>
       </c>
       <c r="B490" t="s">
@@ -14142,12 +14148,12 @@
       <c r="E490" t="s">
         <v>1233</v>
       </c>
-      <c r="F490" s="7">
+      <c r="F490" s="6">
         <v>601919</v>
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A491" s="7" t="s">
+      <c r="A491" s="8" t="s">
         <v>1282</v>
       </c>
       <c r="B491" t="s">
@@ -14162,12 +14168,12 @@
       <c r="E491" t="s">
         <v>1234</v>
       </c>
-      <c r="F491" s="7">
+      <c r="F491" s="6">
         <v>300077</v>
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A492" s="7" t="s">
+      <c r="A492" s="8" t="s">
         <v>1282</v>
       </c>
       <c r="B492" t="s">
@@ -14182,12 +14188,12 @@
       <c r="E492" t="s">
         <v>1235</v>
       </c>
-      <c r="F492" s="7">
+      <c r="F492" s="6">
         <v>603728</v>
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A493" s="7" t="s">
+      <c r="A493" s="8" t="s">
         <v>1282</v>
       </c>
       <c r="B493" t="s">
@@ -14202,12 +14208,12 @@
       <c r="E493" t="s">
         <v>1236</v>
       </c>
-      <c r="F493" s="7">
+      <c r="F493" s="6">
         <v>836961</v>
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A494" s="7" t="s">
+      <c r="A494" s="8" t="s">
         <v>1282</v>
       </c>
       <c r="B494" t="s">
@@ -14222,12 +14228,12 @@
       <c r="E494" t="s">
         <v>1237</v>
       </c>
-      <c r="F494" s="7">
+      <c r="F494" s="6">
         <v>300377</v>
       </c>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A495" s="7" t="s">
+      <c r="A495" s="8" t="s">
         <v>1282</v>
       </c>
       <c r="B495" t="s">
@@ -14242,12 +14248,12 @@
       <c r="E495" t="s">
         <v>1238</v>
       </c>
-      <c r="F495" s="7">
+      <c r="F495" s="6">
         <v>300085</v>
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A496" s="7" t="s">
+      <c r="A496" s="8" t="s">
         <v>1282</v>
       </c>
       <c r="B496" t="s">
@@ -14262,12 +14268,12 @@
       <c r="E496" t="s">
         <v>1239</v>
       </c>
-      <c r="F496" s="7">
+      <c r="F496" s="6">
         <v>300748</v>
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A497" s="7" t="s">
+      <c r="A497" s="8" t="s">
         <v>1282</v>
       </c>
       <c r="B497" t="s">
@@ -14282,12 +14288,12 @@
       <c r="E497" t="s">
         <v>1240</v>
       </c>
-      <c r="F497" s="7" t="s">
+      <c r="F497" s="6" t="s">
         <v>1289</v>
       </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A498" s="7" t="s">
+      <c r="A498" s="8" t="s">
         <v>1282</v>
       </c>
       <c r="B498" t="s">
@@ -14302,12 +14308,12 @@
       <c r="E498" t="s">
         <v>1241</v>
       </c>
-      <c r="F498" s="7">
+      <c r="F498" s="6">
         <v>603099</v>
       </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A499" s="7" t="s">
+      <c r="A499" s="8" t="s">
         <v>1282</v>
       </c>
       <c r="B499" t="s">
@@ -14322,12 +14328,12 @@
       <c r="E499" t="s">
         <v>1242</v>
       </c>
-      <c r="F499" s="7">
+      <c r="F499" s="6">
         <v>600418</v>
       </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A500" s="7" t="s">
+      <c r="A500" s="8" t="s">
         <v>1282</v>
       </c>
       <c r="B500" t="s">
@@ -14342,12 +14348,12 @@
       <c r="E500" t="s">
         <v>1243</v>
       </c>
-      <c r="F500" s="7" t="s">
+      <c r="F500" s="6" t="s">
         <v>1291</v>
       </c>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A501" s="7" t="s">
+      <c r="A501" s="8" t="s">
         <v>1282</v>
       </c>
       <c r="B501" t="s">
@@ -14362,12 +14368,12 @@
       <c r="E501" t="s">
         <v>1244</v>
       </c>
-      <c r="F501" s="7" t="s">
+      <c r="F501" s="6" t="s">
         <v>1290</v>
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A502" s="7" t="s">
+      <c r="A502" s="8" t="s">
         <v>1282</v>
       </c>
       <c r="B502" t="s">
@@ -14382,12 +14388,12 @@
       <c r="E502" t="s">
         <v>1245</v>
       </c>
-      <c r="F502" s="7">
+      <c r="F502" s="6">
         <v>605358</v>
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A503" s="7" t="s">
+      <c r="A503" s="8" t="s">
         <v>1282</v>
       </c>
       <c r="B503" t="s">
@@ -14402,12 +14408,12 @@
       <c r="E503" t="s">
         <v>1246</v>
       </c>
-      <c r="F503" s="7">
+      <c r="F503" s="6">
         <v>600750</v>
       </c>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A504" s="7" t="s">
+      <c r="A504" s="8" t="s">
         <v>1282</v>
       </c>
       <c r="B504" t="s">
@@ -14422,12 +14428,12 @@
       <c r="E504" t="s">
         <v>1247</v>
       </c>
-      <c r="F504" s="7" t="s">
+      <c r="F504" s="6" t="s">
         <v>1292</v>
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A505" s="7" t="s">
+      <c r="A505" s="8" t="s">
         <v>1282</v>
       </c>
       <c r="B505" t="s">
@@ -14442,12 +14448,12 @@
       <c r="E505" t="s">
         <v>1248</v>
       </c>
-      <c r="F505" s="7">
+      <c r="F505" s="6">
         <v>688205</v>
       </c>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A506" s="7" t="s">
+      <c r="A506" s="8" t="s">
         <v>1282</v>
       </c>
       <c r="B506" t="s">
@@ -14462,12 +14468,12 @@
       <c r="E506" t="s">
         <v>1249</v>
       </c>
-      <c r="F506" s="7">
+      <c r="F506" s="6">
         <v>300059</v>
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A507" s="7" t="s">
+      <c r="A507" s="8" t="s">
         <v>1282</v>
       </c>
       <c r="B507" t="s">
@@ -14482,12 +14488,12 @@
       <c r="E507" t="s">
         <v>1250</v>
       </c>
-      <c r="F507" s="7">
+      <c r="F507" s="6">
         <v>603063</v>
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A508" s="7" t="s">
+      <c r="A508" s="8" t="s">
         <v>1282</v>
       </c>
       <c r="B508" t="s">
@@ -14502,7 +14508,7 @@
       <c r="E508" t="s">
         <v>1251</v>
       </c>
-      <c r="F508" s="7">
+      <c r="F508" s="6">
         <v>600460</v>
       </c>
     </row>

--- a/modified_chat_records.xlsx
+++ b/modified_chat_records.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AAA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFF42D5-691A-41A6-AA0B-9423E858B6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB668D36-273C-4718-BED0-F57385554CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="230" windowWidth="22210" windowHeight="15310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1990" yWindow="6080" windowWidth="22210" windowHeight="15310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3986,7 +3986,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -4073,10 +4073,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -4383,8 +4383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F508"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A475" workbookViewId="0">
-      <selection activeCell="A507" sqref="A507"/>
+    <sheetView tabSelected="1" topLeftCell="A456" workbookViewId="0">
+      <selection activeCell="A475" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -14513,6 +14513,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F508">
+    <sortCondition ref="A2:A508"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/modified_chat_records.xlsx
+++ b/modified_chat_records.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AAA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A93B19BD-538C-4C64-BA6E-34614C1F965D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD2664E-42EB-40C0-8E9A-B3182048BCFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1990" yWindow="230" windowWidth="22210" windowHeight="15310" xr2:uid="{3D93A96B-F74E-4C9F-A6D3-CEDA03917917}"/>
   </bookViews>
@@ -2502,9 +2502,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A62826-7090-4101-9589-01B7D59D0D13}">
   <dimension ref="A1:F508"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">

--- a/modified_chat_records.xlsx
+++ b/modified_chat_records.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AAA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD2664E-42EB-40C0-8E9A-B3182048BCFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B64D04-33A1-45CB-97AF-A5C68120E3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1990" yWindow="230" windowWidth="22210" windowHeight="15310" xr2:uid="{3D93A96B-F74E-4C9F-A6D3-CEDA03917917}"/>
+    <workbookView xWindow="810" yWindow="1450" windowWidth="22210" windowHeight="15310" xr2:uid="{3D93A96B-F74E-4C9F-A6D3-CEDA03917917}"/>
   </bookViews>
   <sheets>
     <sheet name="modified_chat_records" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="519">
   <si>
     <t>Date</t>
   </si>
@@ -1540,6 +1551,75 @@
   </si>
   <si>
     <t>28.9-29.15 29.3-29.45 27.5</t>
+  </si>
+  <si>
+    <t>2024-08-14</t>
+  </si>
+  <si>
+    <t>2024-08-15</t>
+  </si>
+  <si>
+    <t>2024-08-16</t>
+  </si>
+  <si>
+    <t>2024-08-19</t>
+  </si>
+  <si>
+    <t>2024-08-20</t>
+  </si>
+  <si>
+    <t>2024-08-21</t>
+  </si>
+  <si>
+    <t>2024-08-22</t>
+  </si>
+  <si>
+    <t>2024-08-23</t>
+  </si>
+  <si>
+    <t>2024-08-26</t>
+  </si>
+  <si>
+    <t>2024-08-28</t>
+  </si>
+  <si>
+    <t>2024-08-29</t>
+  </si>
+  <si>
+    <t>2024-08-30</t>
+  </si>
+  <si>
+    <t>2024-09-02</t>
+  </si>
+  <si>
+    <t>2024-09-03</t>
+  </si>
+  <si>
+    <t>2024-09-04</t>
+  </si>
+  <si>
+    <t>2024-09-05</t>
+  </si>
+  <si>
+    <t>2024-09-06</t>
+  </si>
+  <si>
+    <t>2024-09-08</t>
+  </si>
+  <si>
+    <t>2024-09-09</t>
+  </si>
+  <si>
+    <t>2024-09-10</t>
+  </si>
+  <si>
+    <t>2024-09-11</t>
+  </si>
+  <si>
+    <t>2024-09-12</t>
+  </si>
+  <si>
+    <t>2024-11-04</t>
   </si>
 </sst>
 </file>
@@ -2136,14 +2216,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2500,19 +2580,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A62826-7090-4101-9589-01B7D59D0D13}">
-  <dimension ref="A1:F508"/>
+  <dimension ref="A1:N508"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="1" max="1" width="14" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -2530,12 +2610,13 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>45518</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B2" s="1">
         <v>0.42268518518518516</v>
       </c>
       <c r="C2" t="s">
@@ -2548,11 +2629,11 @@
         <v>712</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>45518</v>
-      </c>
-      <c r="B3" s="2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B3" s="1">
         <v>0.42307870370370371</v>
       </c>
       <c r="C3" t="s">
@@ -2568,11 +2649,11 @@
         <v>603324</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>45518</v>
-      </c>
-      <c r="B4" s="2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B4" s="1">
         <v>0.42324074074074075</v>
       </c>
       <c r="C4" t="s">
@@ -2588,11 +2669,11 @@
         <v>603324</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>45518</v>
-      </c>
-      <c r="B5" s="2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B5" s="1">
         <v>0.43369212962962961</v>
       </c>
       <c r="C5" t="s">
@@ -2608,11 +2689,11 @@
         <v>603324</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>45518</v>
-      </c>
-      <c r="B6" s="2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B6" s="1">
         <v>0.43461805555555555</v>
       </c>
       <c r="C6" t="s">
@@ -2628,11 +2709,11 @@
         <v>2713</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>45518</v>
-      </c>
-      <c r="B7" s="2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B7" s="1">
         <v>0.43577546296296299</v>
       </c>
       <c r="C7" t="s">
@@ -2648,11 +2729,11 @@
         <v>2713</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>45518</v>
-      </c>
-      <c r="B8" s="2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B8" s="1">
         <v>0.4365046296296296</v>
       </c>
       <c r="C8" t="s">
@@ -2668,11 +2749,11 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>45518</v>
-      </c>
-      <c r="B9" s="2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B9" s="1">
         <v>0.44686342592592593</v>
       </c>
       <c r="C9" t="s">
@@ -2688,11 +2769,11 @@
         <v>2755</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>45518</v>
-      </c>
-      <c r="B10" s="2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B10" s="1">
         <v>0.45243055555555556</v>
       </c>
       <c r="C10" t="s">
@@ -2708,11 +2789,11 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>45518</v>
-      </c>
-      <c r="B11" s="2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B11" s="1">
         <v>0.45424768518518521</v>
       </c>
       <c r="C11" t="s">
@@ -2728,11 +2809,11 @@
         <v>605218</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>45518</v>
-      </c>
-      <c r="B12" s="2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B12" s="1">
         <v>0.45531250000000001</v>
       </c>
       <c r="C12" t="s">
@@ -2748,11 +2829,11 @@
         <v>605218</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>45518</v>
-      </c>
-      <c r="B13" s="2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B13" s="1">
         <v>0.45731481481481484</v>
       </c>
       <c r="C13" t="s">
@@ -2768,11 +2849,11 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>45518</v>
-      </c>
-      <c r="B14" s="2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B14" s="1">
         <v>0.45802083333333332</v>
       </c>
       <c r="C14" t="s">
@@ -2788,11 +2869,11 @@
         <v>2713</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>45518</v>
-      </c>
-      <c r="B15" s="2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B15" s="1">
         <v>0.45879629629629631</v>
       </c>
       <c r="C15" t="s">
@@ -2808,11 +2889,11 @@
         <v>2713</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>45518</v>
-      </c>
-      <c r="B16" s="2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B16" s="1">
         <v>0.46520833333333333</v>
       </c>
       <c r="C16" t="s">
@@ -2826,10 +2907,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>45518</v>
-      </c>
-      <c r="B17" s="2">
+      <c r="A17" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B17" s="1">
         <v>0.46881944444444446</v>
       </c>
       <c r="C17" t="s">
@@ -2843,10 +2924,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>45518</v>
-      </c>
-      <c r="B18" s="2">
+      <c r="A18" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B18" s="1">
         <v>0.49100694444444443</v>
       </c>
       <c r="C18" t="s">
@@ -2863,10 +2944,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>45518</v>
-      </c>
-      <c r="B19" s="2">
+      <c r="A19" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B19" s="1">
         <v>0.52123842592592595</v>
       </c>
       <c r="C19" t="s">
@@ -2883,10 +2964,10 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>45518</v>
-      </c>
-      <c r="B20" s="2">
+      <c r="A20" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B20" s="1">
         <v>0.52133101851851849</v>
       </c>
       <c r="C20" t="s">
@@ -2900,10 +2981,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>45518</v>
-      </c>
-      <c r="B21" s="2">
+      <c r="A21" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B21" s="1">
         <v>0.57253472222222224</v>
       </c>
       <c r="C21" t="s">
@@ -2920,10 +3001,10 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>45518</v>
-      </c>
-      <c r="B22" s="2">
+      <c r="A22" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B22" s="1">
         <v>0.57424768518518521</v>
       </c>
       <c r="C22" t="s">
@@ -2940,10 +3021,10 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>45518</v>
-      </c>
-      <c r="B23" s="2">
+      <c r="A23" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B23" s="1">
         <v>0.58799768518518514</v>
       </c>
       <c r="C23" t="s">
@@ -2960,10 +3041,10 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>45518</v>
-      </c>
-      <c r="B24" s="2">
+      <c r="A24" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B24" s="1">
         <v>0.59355324074074078</v>
       </c>
       <c r="C24" t="s">
@@ -2980,10 +3061,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>45518</v>
-      </c>
-      <c r="B25" s="2">
+      <c r="A25" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B25" s="1">
         <v>0.59728009259259263</v>
       </c>
       <c r="C25" t="s">
@@ -3000,10 +3081,10 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>45518</v>
-      </c>
-      <c r="B26" s="2">
+      <c r="A26" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B26" s="1">
         <v>0.60682870370370368</v>
       </c>
       <c r="C26" t="s">
@@ -3020,10 +3101,10 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>45518</v>
-      </c>
-      <c r="B27" s="2">
+      <c r="A27" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B27" s="1">
         <v>0.61121527777777773</v>
       </c>
       <c r="C27" t="s">
@@ -3040,10 +3121,10 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>45518</v>
-      </c>
-      <c r="B28" s="2">
+      <c r="A28" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B28" s="1">
         <v>0.61406249999999996</v>
       </c>
       <c r="C28" t="s">
@@ -3060,10 +3141,10 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>45518</v>
-      </c>
-      <c r="B29" s="2">
+      <c r="A29" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B29" s="1">
         <v>0.61722222222222223</v>
       </c>
       <c r="C29" t="s">
@@ -3080,10 +3161,10 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>45518</v>
-      </c>
-      <c r="B30" s="2">
+      <c r="A30" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B30" s="1">
         <v>0.62099537037037034</v>
       </c>
       <c r="C30" t="s">
@@ -3100,10 +3181,10 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>45518</v>
-      </c>
-      <c r="B31" s="2">
+      <c r="A31" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B31" s="1">
         <v>0.62200231481481483</v>
       </c>
       <c r="C31" t="s">
@@ -3120,10 +3201,10 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>45518</v>
-      </c>
-      <c r="B32" s="2">
+      <c r="A32" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B32" s="1">
         <v>0.65557870370370375</v>
       </c>
       <c r="C32" t="s">
@@ -3140,10 +3221,10 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>45518</v>
-      </c>
-      <c r="B33" s="2">
+      <c r="A33" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B33" s="1">
         <v>0.65721064814814811</v>
       </c>
       <c r="C33" t="s">
@@ -3160,10 +3241,10 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>45518</v>
-      </c>
-      <c r="B34" s="2">
+      <c r="A34" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B34" s="1">
         <v>0.66412037037037042</v>
       </c>
       <c r="C34" t="s">
@@ -3180,10 +3261,10 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>45518</v>
-      </c>
-      <c r="B35" s="2">
+      <c r="A35" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B35" s="1">
         <v>0.66508101851851853</v>
       </c>
       <c r="C35" t="s">
@@ -3200,10 +3281,10 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>45519</v>
-      </c>
-      <c r="B36" s="2">
+      <c r="A36" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B36" s="1">
         <v>0.4211111111111111</v>
       </c>
       <c r="C36" t="s">
@@ -3220,10 +3301,10 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>45519</v>
-      </c>
-      <c r="B37" s="2">
+      <c r="A37" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B37" s="1">
         <v>0.42133101851851851</v>
       </c>
       <c r="C37" t="s">
@@ -3240,10 +3321,10 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <v>45519</v>
-      </c>
-      <c r="B38" s="2">
+      <c r="A38" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B38" s="1">
         <v>0.42199074074074072</v>
       </c>
       <c r="C38" t="s">
@@ -3260,13 +3341,13 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="210" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>45519</v>
-      </c>
-      <c r="B39" s="2">
+      <c r="A39" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B39" s="1">
         <v>0.42297453703703702</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D39">
@@ -3280,10 +3361,10 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <v>45519</v>
-      </c>
-      <c r="B40" s="2">
+      <c r="A40" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B40" s="1">
         <v>0.42357638888888888</v>
       </c>
       <c r="C40" t="s">
@@ -3300,10 +3381,10 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
-        <v>45519</v>
-      </c>
-      <c r="B41" s="2">
+      <c r="A41" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B41" s="1">
         <v>0.42400462962962965</v>
       </c>
       <c r="C41" t="s">
@@ -3320,10 +3401,10 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <v>45519</v>
-      </c>
-      <c r="B42" s="2">
+      <c r="A42" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B42" s="1">
         <v>0.42450231481481482</v>
       </c>
       <c r="C42" t="s">
@@ -3340,10 +3421,10 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
-        <v>45519</v>
-      </c>
-      <c r="B43" s="2">
+      <c r="A43" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B43" s="1">
         <v>0.42473379629629632</v>
       </c>
       <c r="C43" t="s">
@@ -3360,10 +3441,10 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
-        <v>45519</v>
-      </c>
-      <c r="B44" s="2">
+      <c r="A44" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B44" s="1">
         <v>0.42501157407407408</v>
       </c>
       <c r="C44" t="s">
@@ -3380,10 +3461,10 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
-        <v>45519</v>
-      </c>
-      <c r="B45" s="2">
+      <c r="A45" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B45" s="1">
         <v>0.42547453703703703</v>
       </c>
       <c r="C45" t="s">
@@ -3400,10 +3481,10 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
-        <v>45519</v>
-      </c>
-      <c r="B46" s="2">
+      <c r="A46" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B46" s="1">
         <v>0.42684027777777778</v>
       </c>
       <c r="C46" t="s">
@@ -3420,10 +3501,10 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
-        <v>45519</v>
-      </c>
-      <c r="B47" s="2">
+      <c r="A47" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B47" s="1">
         <v>0.42821759259259257</v>
       </c>
       <c r="C47" t="s">
@@ -3440,10 +3521,10 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
-        <v>45519</v>
-      </c>
-      <c r="B48" s="2">
+      <c r="A48" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B48" s="1">
         <v>0.42835648148148148</v>
       </c>
       <c r="C48" t="s">
@@ -3460,10 +3541,10 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
-        <v>45519</v>
-      </c>
-      <c r="B49" s="2">
+      <c r="A49" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B49" s="1">
         <v>0.4286921296296296</v>
       </c>
       <c r="C49" t="s">
@@ -3480,10 +3561,10 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
-        <v>45519</v>
-      </c>
-      <c r="B50" s="2">
+      <c r="A50" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B50" s="1">
         <v>0.4294560185185185</v>
       </c>
       <c r="C50" t="s">
@@ -3500,10 +3581,10 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
-        <v>45519</v>
-      </c>
-      <c r="B51" s="2">
+      <c r="A51" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B51" s="1">
         <v>0.42950231481481482</v>
       </c>
       <c r="C51" t="s">
@@ -3520,10 +3601,10 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
-        <v>45519</v>
-      </c>
-      <c r="B52" s="2">
+      <c r="A52" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B52" s="1">
         <v>0.44449074074074074</v>
       </c>
       <c r="C52" t="s">
@@ -3540,10 +3621,10 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
-        <v>45519</v>
-      </c>
-      <c r="B53" s="2">
+      <c r="A53" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B53" s="1">
         <v>0.44497685185185187</v>
       </c>
       <c r="C53" t="s">
@@ -3560,10 +3641,10 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
-        <v>45519</v>
-      </c>
-      <c r="B54" s="2">
+      <c r="A54" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B54" s="1">
         <v>0.44600694444444444</v>
       </c>
       <c r="C54" t="s">
@@ -3580,10 +3661,10 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
-        <v>45519</v>
-      </c>
-      <c r="B55" s="2">
+      <c r="A55" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B55" s="1">
         <v>0.4465972222222222</v>
       </c>
       <c r="C55" t="s">
@@ -3600,10 +3681,10 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
-        <v>45519</v>
-      </c>
-      <c r="B56" s="2">
+      <c r="A56" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B56" s="1">
         <v>0.44949074074074075</v>
       </c>
       <c r="C56" t="s">
@@ -3620,10 +3701,10 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
-        <v>45519</v>
-      </c>
-      <c r="B57" s="2">
+      <c r="A57" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B57" s="1">
         <v>0.45024305555555555</v>
       </c>
       <c r="C57" t="s">
@@ -3640,10 +3721,10 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
-        <v>45519</v>
-      </c>
-      <c r="B58" s="2">
+      <c r="A58" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B58" s="1">
         <v>0.45171296296296298</v>
       </c>
       <c r="C58" t="s">
@@ -3660,10 +3741,10 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
-        <v>45519</v>
-      </c>
-      <c r="B59" s="2">
+      <c r="A59" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B59" s="1">
         <v>0.45218750000000002</v>
       </c>
       <c r="C59" t="s">
@@ -3680,10 +3761,10 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
-        <v>45519</v>
-      </c>
-      <c r="B60" s="2">
+      <c r="A60" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B60" s="1">
         <v>0.46692129629629631</v>
       </c>
       <c r="C60" t="s">
@@ -3700,10 +3781,10 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
-        <v>45520</v>
-      </c>
-      <c r="B61" s="2">
+      <c r="A61" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="B61" s="1">
         <v>0.43983796296296296</v>
       </c>
       <c r="C61" t="s">
@@ -3720,10 +3801,10 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
-        <v>45520</v>
-      </c>
-      <c r="B62" s="2">
+      <c r="A62" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="B62" s="1">
         <v>0.45688657407407407</v>
       </c>
       <c r="C62" t="s">
@@ -3740,10 +3821,10 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="1">
-        <v>45520</v>
-      </c>
-      <c r="B63" s="2">
+      <c r="A63" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="B63" s="1">
         <v>0.46247685185185183</v>
       </c>
       <c r="C63" t="s">
@@ -3760,10 +3841,10 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
-        <v>45520</v>
-      </c>
-      <c r="B64" s="2">
+      <c r="A64" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="B64" s="1">
         <v>0.46490740740740738</v>
       </c>
       <c r="C64" t="s">
@@ -3780,10 +3861,10 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
-        <v>45520</v>
-      </c>
-      <c r="B65" s="2">
+      <c r="A65" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="B65" s="1">
         <v>0.46668981481481481</v>
       </c>
       <c r="C65" t="s">
@@ -3800,10 +3881,10 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
-        <v>45520</v>
-      </c>
-      <c r="B66" s="2">
+      <c r="A66" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="B66" s="1">
         <v>0.47749999999999998</v>
       </c>
       <c r="C66" t="s">
@@ -3820,10 +3901,10 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
-        <v>45520</v>
-      </c>
-      <c r="B67" s="2">
+      <c r="A67" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="B67" s="1">
         <v>0.58005787037037038</v>
       </c>
       <c r="C67" t="s">
@@ -3840,10 +3921,10 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="1">
-        <v>45520</v>
-      </c>
-      <c r="B68" s="2">
+      <c r="A68" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="B68" s="1">
         <v>0.59384259259259264</v>
       </c>
       <c r="C68" t="s">
@@ -3860,10 +3941,10 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="1">
-        <v>45520</v>
-      </c>
-      <c r="B69" s="2">
+      <c r="A69" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="B69" s="1">
         <v>0.60108796296296296</v>
       </c>
       <c r="C69" t="s">
@@ -3880,10 +3961,10 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
-        <v>45520</v>
-      </c>
-      <c r="B70" s="2">
+      <c r="A70" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="B70" s="1">
         <v>0.60146990740740736</v>
       </c>
       <c r="C70" t="s">
@@ -3900,10 +3981,10 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
-        <v>45523</v>
-      </c>
-      <c r="B71" s="2">
+      <c r="A71" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B71" s="1">
         <v>0.43670138888888888</v>
       </c>
       <c r="C71" t="s">
@@ -3920,10 +4001,10 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
-        <v>45523</v>
-      </c>
-      <c r="B72" s="2">
+      <c r="A72" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B72" s="1">
         <v>0.43812499999999999</v>
       </c>
       <c r="C72" t="s">
@@ -3940,10 +4021,10 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
-        <v>45523</v>
-      </c>
-      <c r="B73" s="2">
+      <c r="A73" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B73" s="1">
         <v>0.44089120370370372</v>
       </c>
       <c r="C73" t="s">
@@ -3960,10 +4041,10 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
-        <v>45523</v>
-      </c>
-      <c r="B74" s="2">
+      <c r="A74" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B74" s="1">
         <v>0.4410648148148148</v>
       </c>
       <c r="C74" t="s">
@@ -3980,10 +4061,10 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
-        <v>45523</v>
-      </c>
-      <c r="B75" s="2">
+      <c r="A75" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B75" s="1">
         <v>0.44200231481481483</v>
       </c>
       <c r="C75" t="s">
@@ -4000,10 +4081,10 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
-        <v>45523</v>
-      </c>
-      <c r="B76" s="2">
+      <c r="A76" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B76" s="1">
         <v>0.44238425925925928</v>
       </c>
       <c r="C76" t="s">
@@ -4020,10 +4101,10 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
-        <v>45523</v>
-      </c>
-      <c r="B77" s="2">
+      <c r="A77" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B77" s="1">
         <v>0.44599537037037035</v>
       </c>
       <c r="C77" t="s">
@@ -4040,10 +4121,10 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
-        <v>45523</v>
-      </c>
-      <c r="B78" s="2">
+      <c r="A78" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B78" s="1">
         <v>0.4463078703703704</v>
       </c>
       <c r="C78" t="s">
@@ -4060,10 +4141,10 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
-        <v>45523</v>
-      </c>
-      <c r="B79" s="2">
+      <c r="A79" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B79" s="1">
         <v>0.44731481481481483</v>
       </c>
       <c r="C79" t="s">
@@ -4080,10 +4161,10 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
-        <v>45523</v>
-      </c>
-      <c r="B80" s="2">
+      <c r="A80" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B80" s="1">
         <v>0.44829861111111113</v>
       </c>
       <c r="C80" t="s">
@@ -4100,10 +4181,10 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
-        <v>45523</v>
-      </c>
-      <c r="B81" s="2">
+      <c r="A81" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B81" s="1">
         <v>0.45718750000000002</v>
       </c>
       <c r="C81" t="s">
@@ -4120,10 +4201,10 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
-        <v>45523</v>
-      </c>
-      <c r="B82" s="2">
+      <c r="A82" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B82" s="1">
         <v>0.45734953703703701</v>
       </c>
       <c r="C82" t="s">
@@ -4140,10 +4221,10 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="1">
-        <v>45523</v>
-      </c>
-      <c r="B83" s="2">
+      <c r="A83" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B83" s="1">
         <v>0.47584490740740742</v>
       </c>
       <c r="C83" t="s">
@@ -4160,10 +4241,10 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="1">
-        <v>45523</v>
-      </c>
-      <c r="B84" s="2">
+      <c r="A84" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B84" s="1">
         <v>0.4782986111111111</v>
       </c>
       <c r="C84" t="s">
@@ -4180,10 +4261,10 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="1">
-        <v>45523</v>
-      </c>
-      <c r="B85" s="2">
+      <c r="A85" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B85" s="1">
         <v>0.54181712962962958</v>
       </c>
       <c r="C85" t="s">
@@ -4200,10 +4281,10 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="1">
-        <v>45523</v>
-      </c>
-      <c r="B86" s="2">
+      <c r="A86" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B86" s="1">
         <v>0.56907407407407407</v>
       </c>
       <c r="C86" t="s">
@@ -4220,10 +4301,10 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="1">
-        <v>45523</v>
-      </c>
-      <c r="B87" s="2">
+      <c r="A87" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B87" s="1">
         <v>0.569849537037037</v>
       </c>
       <c r="C87" t="s">
@@ -4240,10 +4321,10 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="1">
-        <v>45523</v>
-      </c>
-      <c r="B88" s="2">
+      <c r="A88" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B88" s="1">
         <v>0.5700115740740741</v>
       </c>
       <c r="C88" t="s">
@@ -4260,10 +4341,10 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="1">
-        <v>45523</v>
-      </c>
-      <c r="B89" s="2">
+      <c r="A89" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B89" s="1">
         <v>0.57047453703703699</v>
       </c>
       <c r="C89" t="s">
@@ -4280,10 +4361,10 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="1">
-        <v>45523</v>
-      </c>
-      <c r="B90" s="2">
+      <c r="A90" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B90" s="1">
         <v>0.57170138888888888</v>
       </c>
       <c r="C90" t="s">
@@ -4300,10 +4381,10 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="1">
-        <v>45523</v>
-      </c>
-      <c r="B91" s="2">
+      <c r="A91" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B91" s="1">
         <v>0.58524305555555556</v>
       </c>
       <c r="C91" t="s">
@@ -4320,10 +4401,10 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="1">
-        <v>45523</v>
-      </c>
-      <c r="B92" s="2">
+      <c r="A92" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B92" s="1">
         <v>0.59113425925925922</v>
       </c>
       <c r="C92" t="s">
@@ -4340,10 +4421,10 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="1">
-        <v>45523</v>
-      </c>
-      <c r="B93" s="2">
+      <c r="A93" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B93" s="1">
         <v>0.59881944444444446</v>
       </c>
       <c r="C93" t="s">
@@ -4360,10 +4441,10 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="1">
-        <v>45523</v>
-      </c>
-      <c r="B94" s="2">
+      <c r="A94" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B94" s="1">
         <v>0.61067129629629635</v>
       </c>
       <c r="C94" t="s">
@@ -4380,10 +4461,10 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="1">
-        <v>45523</v>
-      </c>
-      <c r="B95" s="2">
+      <c r="A95" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B95" s="1">
         <v>0.61137731481481483</v>
       </c>
       <c r="C95" t="s">
@@ -4400,10 +4481,10 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="1">
-        <v>45524</v>
-      </c>
-      <c r="B96" s="2">
+      <c r="A96" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="B96" s="1">
         <v>0.4175462962962963</v>
       </c>
       <c r="C96" t="s">
@@ -4420,10 +4501,10 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="1">
-        <v>45524</v>
-      </c>
-      <c r="B97" s="2">
+      <c r="A97" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="B97" s="1">
         <v>0.41843750000000002</v>
       </c>
       <c r="C97" t="s">
@@ -4440,10 +4521,10 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="1">
-        <v>45524</v>
-      </c>
-      <c r="B98" s="2">
+      <c r="A98" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="B98" s="1">
         <v>0.41866898148148146</v>
       </c>
       <c r="C98" t="s">
@@ -4460,10 +4541,10 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="1">
-        <v>45524</v>
-      </c>
-      <c r="B99" s="2">
+      <c r="A99" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="B99" s="1">
         <v>0.42633101851851851</v>
       </c>
       <c r="C99" t="s">
@@ -4480,10 +4561,10 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="1">
-        <v>45524</v>
-      </c>
-      <c r="B100" s="2">
+      <c r="A100" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="B100" s="1">
         <v>0.54074074074074074</v>
       </c>
       <c r="C100" t="s">
@@ -4500,10 +4581,10 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="1">
-        <v>45524</v>
-      </c>
-      <c r="B101" s="2">
+      <c r="A101" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="B101" s="1">
         <v>0.56192129629629628</v>
       </c>
       <c r="C101" t="s">
@@ -4520,10 +4601,10 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="1">
-        <v>45525</v>
-      </c>
-      <c r="B102" s="2">
+      <c r="A102" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B102" s="1">
         <v>0.41931712962962964</v>
       </c>
       <c r="C102" t="s">
@@ -4540,10 +4621,10 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="1">
-        <v>45525</v>
-      </c>
-      <c r="B103" s="2">
+      <c r="A103" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B103" s="1">
         <v>0.42186342592592591</v>
       </c>
       <c r="C103" t="s">
@@ -4557,10 +4638,10 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="1">
-        <v>45525</v>
-      </c>
-      <c r="B104" s="2">
+      <c r="A104" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B104" s="1">
         <v>0.44177083333333333</v>
       </c>
       <c r="C104" t="s">
@@ -4577,10 +4658,10 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="1">
-        <v>45525</v>
-      </c>
-      <c r="B105" s="2">
+      <c r="A105" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B105" s="1">
         <v>0.47399305555555554</v>
       </c>
       <c r="C105" t="s">
@@ -4597,10 +4678,10 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="1">
-        <v>45525</v>
-      </c>
-      <c r="B106" s="2">
+      <c r="A106" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B106" s="1">
         <v>0.47425925925925927</v>
       </c>
       <c r="C106" t="s">
@@ -4617,10 +4698,10 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="1">
-        <v>45525</v>
-      </c>
-      <c r="B107" s="2">
+      <c r="A107" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B107" s="1">
         <v>0.47489583333333335</v>
       </c>
       <c r="C107" t="s">
@@ -4637,10 +4718,10 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="1">
-        <v>45525</v>
-      </c>
-      <c r="B108" s="2">
+      <c r="A108" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B108" s="1">
         <v>0.47659722222222223</v>
       </c>
       <c r="C108" t="s">
@@ -4657,10 +4738,10 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="1">
-        <v>45525</v>
-      </c>
-      <c r="B109" s="2">
+      <c r="A109" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B109" s="1">
         <v>0.47792824074074075</v>
       </c>
       <c r="C109" t="s">
@@ -4677,10 +4758,10 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="1">
-        <v>45525</v>
-      </c>
-      <c r="B110" s="2">
+      <c r="A110" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B110" s="1">
         <v>0.47818287037037038</v>
       </c>
       <c r="C110" t="s">
@@ -4697,10 +4778,10 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="1">
-        <v>45525</v>
-      </c>
-      <c r="B111" s="2">
+      <c r="A111" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B111" s="1">
         <v>0.54351851851851851</v>
       </c>
       <c r="C111" t="s">
@@ -4717,10 +4798,10 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="1">
-        <v>45525</v>
-      </c>
-      <c r="B112" s="2">
+      <c r="A112" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B112" s="1">
         <v>0.96223379629629635</v>
       </c>
       <c r="C112" t="s">
@@ -4737,10 +4818,10 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="1">
-        <v>45526</v>
-      </c>
-      <c r="B113" s="2">
+      <c r="A113" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B113" s="1">
         <v>0.42552083333333335</v>
       </c>
       <c r="C113" t="s">
@@ -4757,10 +4838,10 @@
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="1">
-        <v>45526</v>
-      </c>
-      <c r="B114" s="2">
+      <c r="A114" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B114" s="1">
         <v>0.42577546296296298</v>
       </c>
       <c r="C114" t="s">
@@ -4777,10 +4858,10 @@
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="1">
-        <v>45526</v>
-      </c>
-      <c r="B115" s="2">
+      <c r="A115" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B115" s="1">
         <v>0.42907407407407405</v>
       </c>
       <c r="C115" t="s">
@@ -4797,10 +4878,10 @@
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="1">
-        <v>45526</v>
-      </c>
-      <c r="B116" s="2">
+      <c r="A116" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B116" s="1">
         <v>0.44883101851851853</v>
       </c>
       <c r="C116" t="s">
@@ -4817,10 +4898,10 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="1">
-        <v>45526</v>
-      </c>
-      <c r="B117" s="2">
+      <c r="A117" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B117" s="1">
         <v>0.44918981481481479</v>
       </c>
       <c r="C117" t="s">
@@ -4837,10 +4918,10 @@
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="1">
-        <v>45526</v>
-      </c>
-      <c r="B118" s="2">
+      <c r="A118" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B118" s="1">
         <v>0.45785879629629628</v>
       </c>
       <c r="C118" t="s">
@@ -4857,10 +4938,10 @@
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="1">
-        <v>45526</v>
-      </c>
-      <c r="B119" s="2">
+      <c r="A119" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B119" s="1">
         <v>0.57041666666666668</v>
       </c>
       <c r="C119" t="s">
@@ -4877,10 +4958,10 @@
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="1">
-        <v>45526</v>
-      </c>
-      <c r="B120" s="2">
+      <c r="A120" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B120" s="1">
         <v>0.57251157407407405</v>
       </c>
       <c r="C120" t="s">
@@ -4897,10 +4978,10 @@
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="1">
-        <v>45526</v>
-      </c>
-      <c r="B121" s="2">
+      <c r="A121" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B121" s="1">
         <v>0.90744212962962967</v>
       </c>
       <c r="C121" t="s">
@@ -4917,13 +4998,13 @@
       </c>
     </row>
     <row r="122" spans="1:6" ht="210" x14ac:dyDescent="0.3">
-      <c r="A122" s="1">
-        <v>45527</v>
-      </c>
-      <c r="B122" s="2">
+      <c r="A122" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="B122" s="1">
         <v>0.42432870370370368</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" s="2" t="s">
         <v>124</v>
       </c>
       <c r="D122">
@@ -4937,10 +5018,10 @@
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="1">
-        <v>45527</v>
-      </c>
-      <c r="B123" s="2">
+      <c r="A123" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="B123" s="1">
         <v>0.42478009259259258</v>
       </c>
       <c r="C123" t="s">
@@ -4957,10 +5038,10 @@
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="1">
-        <v>45527</v>
-      </c>
-      <c r="B124" s="2">
+      <c r="A124" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="B124" s="1">
         <v>0.42563657407407407</v>
       </c>
       <c r="C124" t="s">
@@ -4977,10 +5058,10 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="1">
-        <v>45527</v>
-      </c>
-      <c r="B125" s="2">
+      <c r="A125" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="B125" s="1">
         <v>0.44616898148148149</v>
       </c>
       <c r="C125" t="s">
@@ -4997,10 +5078,10 @@
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="1">
-        <v>45527</v>
-      </c>
-      <c r="B126" s="2">
+      <c r="A126" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="B126" s="1">
         <v>0.45006944444444447</v>
       </c>
       <c r="C126" t="s">
@@ -5017,10 +5098,10 @@
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="1">
-        <v>45527</v>
-      </c>
-      <c r="B127" s="2">
+      <c r="A127" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="B127" s="1">
         <v>0.56137731481481479</v>
       </c>
       <c r="C127" t="s">
@@ -5037,10 +5118,10 @@
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="1">
-        <v>45527</v>
-      </c>
-      <c r="B128" s="2">
+      <c r="A128" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="B128" s="1">
         <v>0.56192129629629628</v>
       </c>
       <c r="C128" t="s">
@@ -5057,10 +5138,10 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="1">
-        <v>45527</v>
-      </c>
-      <c r="B129" s="2">
+      <c r="A129" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="B129" s="1">
         <v>0.5809375</v>
       </c>
       <c r="C129" t="s">
@@ -5077,10 +5158,10 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="1">
-        <v>45527</v>
-      </c>
-      <c r="B130" s="2">
+      <c r="A130" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="B130" s="1">
         <v>0.58466435185185184</v>
       </c>
       <c r="C130" t="s">
@@ -5097,10 +5178,10 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="1">
-        <v>45527</v>
-      </c>
-      <c r="B131" s="2">
+      <c r="A131" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="B131" s="1">
         <v>0.59106481481481477</v>
       </c>
       <c r="C131" t="s">
@@ -5117,10 +5198,10 @@
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="1">
-        <v>45530</v>
-      </c>
-      <c r="B132" s="2">
+      <c r="A132" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B132" s="1">
         <v>0.41825231481481484</v>
       </c>
       <c r="C132" t="s">
@@ -5137,10 +5218,10 @@
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="1">
-        <v>45530</v>
-      </c>
-      <c r="B133" s="2">
+      <c r="A133" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B133" s="1">
         <v>0.41920138888888892</v>
       </c>
       <c r="C133" t="s">
@@ -5157,10 +5238,10 @@
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="1">
-        <v>45530</v>
-      </c>
-      <c r="B134" s="2">
+      <c r="A134" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B134" s="1">
         <v>0.42045138888888889</v>
       </c>
       <c r="C134" t="s">
@@ -5177,10 +5258,10 @@
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="1">
-        <v>45530</v>
-      </c>
-      <c r="B135" s="2">
+      <c r="A135" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B135" s="1">
         <v>0.45059027777777777</v>
       </c>
       <c r="C135" t="s">
@@ -5197,10 +5278,10 @@
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="1">
-        <v>45530</v>
-      </c>
-      <c r="B136" s="2">
+      <c r="A136" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B136" s="1">
         <v>0.45126157407407408</v>
       </c>
       <c r="C136" t="s">
@@ -5217,10 +5298,10 @@
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="1">
-        <v>45530</v>
-      </c>
-      <c r="B137" s="2">
+      <c r="A137" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B137" s="1">
         <v>0.45315972222222223</v>
       </c>
       <c r="C137" t="s">
@@ -5237,10 +5318,10 @@
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" s="1">
-        <v>45530</v>
-      </c>
-      <c r="B138" s="2">
+      <c r="A138" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B138" s="1">
         <v>0.45378472222222221</v>
       </c>
       <c r="C138" t="s">
@@ -5257,10 +5338,10 @@
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" s="1">
-        <v>45530</v>
-      </c>
-      <c r="B139" s="2">
+      <c r="A139" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B139" s="1">
         <v>0.45396990740740739</v>
       </c>
       <c r="C139" t="s">
@@ -5274,10 +5355,10 @@
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" s="1">
-        <v>45530</v>
-      </c>
-      <c r="B140" s="2">
+      <c r="A140" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B140" s="1">
         <v>0.4550925925925926</v>
       </c>
       <c r="C140" t="s">
@@ -5294,10 +5375,10 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" s="1">
-        <v>45530</v>
-      </c>
-      <c r="B141" s="2">
+      <c r="A141" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B141" s="1">
         <v>0.45670138888888889</v>
       </c>
       <c r="C141" t="s">
@@ -5314,10 +5395,10 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="1">
-        <v>45530</v>
-      </c>
-      <c r="B142" s="2">
+      <c r="A142" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B142" s="1">
         <v>0.45703703703703702</v>
       </c>
       <c r="C142" t="s">
@@ -5334,10 +5415,10 @@
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143" s="1">
-        <v>45530</v>
-      </c>
-      <c r="B143" s="2">
+      <c r="A143" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B143" s="1">
         <v>0.45758101851851851</v>
       </c>
       <c r="C143" t="s">
@@ -5354,10 +5435,10 @@
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="1">
-        <v>45530</v>
-      </c>
-      <c r="B144" s="2">
+      <c r="A144" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B144" s="1">
         <v>0.45847222222222223</v>
       </c>
       <c r="C144" t="s">
@@ -5374,10 +5455,10 @@
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145" s="1">
-        <v>45530</v>
-      </c>
-      <c r="B145" s="2">
+      <c r="A145" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B145" s="1">
         <v>0.46032407407407405</v>
       </c>
       <c r="C145" t="s">
@@ -5394,10 +5475,10 @@
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" s="1">
-        <v>45532</v>
-      </c>
-      <c r="B146" s="2">
+      <c r="A146" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="B146" s="1">
         <v>0.93325231481481485</v>
       </c>
       <c r="C146" t="s">
@@ -5414,13 +5495,13 @@
       </c>
     </row>
     <row r="147" spans="1:6" ht="126" x14ac:dyDescent="0.3">
-      <c r="A147" s="1">
-        <v>45533</v>
-      </c>
-      <c r="B147" s="2">
+      <c r="A147" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B147" s="1">
         <v>0.41787037037037039</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C147" s="2" t="s">
         <v>148</v>
       </c>
       <c r="D147">
@@ -5434,10 +5515,10 @@
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="1">
-        <v>45533</v>
-      </c>
-      <c r="B148" s="2">
+      <c r="A148" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B148" s="1">
         <v>0.41865740740740742</v>
       </c>
       <c r="C148" t="s">
@@ -5454,10 +5535,10 @@
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="1">
-        <v>45533</v>
-      </c>
-      <c r="B149" s="2">
+      <c r="A149" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B149" s="1">
         <v>0.42739583333333331</v>
       </c>
       <c r="C149" t="s">
@@ -5474,10 +5555,10 @@
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="1">
-        <v>45533</v>
-      </c>
-      <c r="B150" s="2">
+      <c r="A150" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B150" s="1">
         <v>0.43265046296296295</v>
       </c>
       <c r="C150" t="s">
@@ -5494,10 +5575,10 @@
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" s="1">
-        <v>45533</v>
-      </c>
-      <c r="B151" s="2">
+      <c r="A151" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B151" s="1">
         <v>0.43392361111111111</v>
       </c>
       <c r="C151" t="s">
@@ -5514,10 +5595,10 @@
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" s="1">
-        <v>45533</v>
-      </c>
-      <c r="B152" s="2">
+      <c r="A152" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B152" s="1">
         <v>0.43398148148148147</v>
       </c>
       <c r="C152" t="s">
@@ -5534,10 +5615,10 @@
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="1">
-        <v>45533</v>
-      </c>
-      <c r="B153" s="2">
+      <c r="A153" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B153" s="1">
         <v>0.4344675925925926</v>
       </c>
       <c r="C153" t="s">
@@ -5554,10 +5635,10 @@
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" s="1">
-        <v>45533</v>
-      </c>
-      <c r="B154" s="2">
+      <c r="A154" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B154" s="1">
         <v>0.43815972222222221</v>
       </c>
       <c r="C154" t="s">
@@ -5574,10 +5655,10 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="1">
-        <v>45533</v>
-      </c>
-      <c r="B155" s="2">
+      <c r="A155" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B155" s="1">
         <v>0.43837962962962962</v>
       </c>
       <c r="C155" t="s">
@@ -5594,10 +5675,10 @@
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" s="1">
-        <v>45533</v>
-      </c>
-      <c r="B156" s="2">
+      <c r="A156" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B156" s="1">
         <v>0.43865740740740738</v>
       </c>
       <c r="C156" t="s">
@@ -5614,10 +5695,10 @@
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157" s="1">
-        <v>45533</v>
-      </c>
-      <c r="B157" s="2">
+      <c r="A157" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B157" s="1">
         <v>0.44047453703703704</v>
       </c>
       <c r="C157" t="s">
@@ -5634,10 +5715,10 @@
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158" s="1">
-        <v>45533</v>
-      </c>
-      <c r="B158" s="2">
+      <c r="A158" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B158" s="1">
         <v>0.45552083333333332</v>
       </c>
       <c r="C158" t="s">
@@ -5654,10 +5735,10 @@
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159" s="1">
-        <v>45533</v>
-      </c>
-      <c r="B159" s="2">
+      <c r="A159" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B159" s="1">
         <v>0.45657407407407408</v>
       </c>
       <c r="C159" t="s">
@@ -5674,10 +5755,10 @@
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160" s="1">
-        <v>45533</v>
-      </c>
-      <c r="B160" s="2">
+      <c r="A160" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B160" s="1">
         <v>0.45685185185185184</v>
       </c>
       <c r="C160" t="s">
@@ -5694,10 +5775,10 @@
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A161" s="1">
-        <v>45533</v>
-      </c>
-      <c r="B161" s="2">
+      <c r="A161" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B161" s="1">
         <v>0.45716435185185184</v>
       </c>
       <c r="C161" t="s">
@@ -5714,10 +5795,10 @@
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A162" s="1">
-        <v>45533</v>
-      </c>
-      <c r="B162" s="2">
+      <c r="A162" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B162" s="1">
         <v>0.45759259259259261</v>
       </c>
       <c r="C162" t="s">
@@ -5734,10 +5815,10 @@
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163" s="1">
-        <v>45533</v>
-      </c>
-      <c r="B163" s="2">
+      <c r="A163" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B163" s="1">
         <v>0.46418981481481481</v>
       </c>
       <c r="C163" t="s">
@@ -5754,10 +5835,10 @@
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A164" s="1">
-        <v>45533</v>
-      </c>
-      <c r="B164" s="2">
+      <c r="A164" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B164" s="1">
         <v>0.4712615740740741</v>
       </c>
       <c r="C164" t="s">
@@ -5774,10 +5855,10 @@
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A165" s="1">
-        <v>45533</v>
-      </c>
-      <c r="B165" s="2">
+      <c r="A165" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B165" s="1">
         <v>0.47208333333333335</v>
       </c>
       <c r="C165" t="s">
@@ -5794,10 +5875,10 @@
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A166" s="1">
-        <v>45533</v>
-      </c>
-      <c r="B166" s="2">
+      <c r="A166" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B166" s="1">
         <v>0.47371527777777778</v>
       </c>
       <c r="C166" t="s">
@@ -5814,10 +5895,10 @@
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A167" s="1">
-        <v>45533</v>
-      </c>
-      <c r="B167" s="2">
+      <c r="A167" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B167" s="1">
         <v>0.47664351851851849</v>
       </c>
       <c r="C167" t="s">
@@ -5834,10 +5915,10 @@
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A168" s="1">
-        <v>45533</v>
-      </c>
-      <c r="B168" s="2">
+      <c r="A168" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B168" s="1">
         <v>0.47675925925925927</v>
       </c>
       <c r="C168" t="s">
@@ -5854,10 +5935,10 @@
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A169" s="1">
-        <v>45533</v>
-      </c>
-      <c r="B169" s="2">
+      <c r="A169" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B169" s="1">
         <v>0.53355324074074073</v>
       </c>
       <c r="C169" t="s">
@@ -5874,10 +5955,10 @@
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A170" s="1">
-        <v>45533</v>
-      </c>
-      <c r="B170" s="2">
+      <c r="A170" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B170" s="1">
         <v>0.54842592592592587</v>
       </c>
       <c r="C170" t="s">
@@ -5894,10 +5975,10 @@
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A171" s="1">
-        <v>45533</v>
-      </c>
-      <c r="B171" s="2">
+      <c r="A171" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B171" s="1">
         <v>0.57556712962962964</v>
       </c>
       <c r="C171" t="s">
@@ -5914,10 +5995,10 @@
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A172" s="1">
-        <v>45533</v>
-      </c>
-      <c r="B172" s="2">
+      <c r="A172" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B172" s="1">
         <v>0.57608796296296294</v>
       </c>
       <c r="C172" t="s">
@@ -5934,10 +6015,10 @@
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A173" s="1">
-        <v>45533</v>
-      </c>
-      <c r="B173" s="2">
+      <c r="A173" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B173" s="1">
         <v>0.57659722222222221</v>
       </c>
       <c r="C173" t="s">
@@ -5954,10 +6035,10 @@
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A174" s="1">
-        <v>45533</v>
-      </c>
-      <c r="B174" s="2">
+      <c r="A174" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B174" s="1">
         <v>0.57773148148148146</v>
       </c>
       <c r="C174" t="s">
@@ -5974,13 +6055,13 @@
       </c>
     </row>
     <row r="175" spans="1:6" ht="224" x14ac:dyDescent="0.3">
-      <c r="A175" s="1">
-        <v>45533</v>
-      </c>
-      <c r="B175" s="2">
+      <c r="A175" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B175" s="1">
         <v>0.57969907407407406</v>
       </c>
-      <c r="C175" s="3" t="s">
+      <c r="C175" s="2" t="s">
         <v>176</v>
       </c>
       <c r="D175">
@@ -5994,10 +6075,10 @@
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176" s="1">
-        <v>45533</v>
-      </c>
-      <c r="B176" s="2">
+      <c r="A176" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B176" s="1">
         <v>0.58011574074074079</v>
       </c>
       <c r="C176" t="s">
@@ -6014,10 +6095,10 @@
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A177" s="1">
-        <v>45533</v>
-      </c>
-      <c r="B177" s="2">
+      <c r="A177" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B177" s="1">
         <v>0.58027777777777778</v>
       </c>
       <c r="C177" t="s">
@@ -6034,10 +6115,10 @@
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A178" s="1">
-        <v>45533</v>
-      </c>
-      <c r="B178" s="2">
+      <c r="A178" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B178" s="1">
         <v>0.5805555555555556</v>
       </c>
       <c r="C178" t="s">
@@ -6054,10 +6135,10 @@
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A179" s="1">
-        <v>45533</v>
-      </c>
-      <c r="B179" s="2">
+      <c r="A179" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B179" s="1">
         <v>0.58094907407407403</v>
       </c>
       <c r="C179" t="s">
@@ -6074,10 +6155,10 @@
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A180" s="1">
-        <v>45533</v>
-      </c>
-      <c r="B180" s="2">
+      <c r="A180" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B180" s="1">
         <v>0.58125000000000004</v>
       </c>
       <c r="C180" t="s">
@@ -6094,10 +6175,10 @@
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A181" s="1">
-        <v>45533</v>
-      </c>
-      <c r="B181" s="2">
+      <c r="A181" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B181" s="1">
         <v>0.59589120370370374</v>
       </c>
       <c r="C181" t="s">
@@ -6114,10 +6195,10 @@
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A182" s="1">
-        <v>45533</v>
-      </c>
-      <c r="B182" s="2">
+      <c r="A182" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B182" s="1">
         <v>0.87993055555555555</v>
       </c>
       <c r="C182" t="s">
@@ -6134,10 +6215,10 @@
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A183" s="1">
-        <v>45534</v>
-      </c>
-      <c r="B183" s="2">
+      <c r="A183" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B183" s="1">
         <v>0.41695601851851855</v>
       </c>
       <c r="C183" t="s">
@@ -6154,10 +6235,10 @@
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A184" s="1">
-        <v>45534</v>
-      </c>
-      <c r="B184" s="2">
+      <c r="A184" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B184" s="1">
         <v>0.41743055555555558</v>
       </c>
       <c r="C184" t="s">
@@ -6174,10 +6255,10 @@
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A185" s="1">
-        <v>45534</v>
-      </c>
-      <c r="B185" s="2">
+      <c r="A185" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B185" s="1">
         <v>0.4178587962962963</v>
       </c>
       <c r="C185" t="s">
@@ -6194,10 +6275,10 @@
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A186" s="1">
-        <v>45534</v>
-      </c>
-      <c r="B186" s="2">
+      <c r="A186" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B186" s="1">
         <v>0.42993055555555554</v>
       </c>
       <c r="C186" t="s">
@@ -6214,10 +6295,10 @@
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A187" s="1">
-        <v>45534</v>
-      </c>
-      <c r="B187" s="2">
+      <c r="A187" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B187" s="1">
         <v>0.43053240740740739</v>
       </c>
       <c r="C187" t="s">
@@ -6234,10 +6315,10 @@
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A188" s="1">
-        <v>45534</v>
-      </c>
-      <c r="B188" s="2">
+      <c r="A188" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B188" s="1">
         <v>0.43054398148148149</v>
       </c>
       <c r="C188" t="s">
@@ -6254,10 +6335,10 @@
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A189" s="1">
-        <v>45534</v>
-      </c>
-      <c r="B189" s="2">
+      <c r="A189" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B189" s="1">
         <v>0.43238425925925927</v>
       </c>
       <c r="C189" t="s">
@@ -6274,10 +6355,10 @@
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A190" s="1">
-        <v>45534</v>
-      </c>
-      <c r="B190" s="2">
+      <c r="A190" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B190" s="1">
         <v>0.44063657407407408</v>
       </c>
       <c r="C190" t="s">
@@ -6294,10 +6375,10 @@
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A191" s="1">
-        <v>45534</v>
-      </c>
-      <c r="B191" s="2">
+      <c r="A191" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B191" s="1">
         <v>0.44114583333333335</v>
       </c>
       <c r="C191" t="s">
@@ -6314,10 +6395,10 @@
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A192" s="1">
-        <v>45534</v>
-      </c>
-      <c r="B192" s="2">
+      <c r="A192" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B192" s="1">
         <v>0.44270833333333331</v>
       </c>
       <c r="C192" t="s">
@@ -6334,10 +6415,10 @@
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A193" s="1">
-        <v>45534</v>
-      </c>
-      <c r="B193" s="2">
+      <c r="A193" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B193" s="1">
         <v>0.44365740740740739</v>
       </c>
       <c r="C193" t="s">
@@ -6354,10 +6435,10 @@
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A194" s="1">
-        <v>45534</v>
-      </c>
-      <c r="B194" s="2">
+      <c r="A194" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B194" s="1">
         <v>0.448125</v>
       </c>
       <c r="C194" t="s">
@@ -6374,10 +6455,10 @@
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A195" s="1">
-        <v>45534</v>
-      </c>
-      <c r="B195" s="2">
+      <c r="A195" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B195" s="1">
         <v>0.44962962962962966</v>
       </c>
       <c r="C195" t="s">
@@ -6394,10 +6475,10 @@
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A196" s="1">
-        <v>45534</v>
-      </c>
-      <c r="B196" s="2">
+      <c r="A196" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B196" s="1">
         <v>0.45021990740740742</v>
       </c>
       <c r="C196" t="s">
@@ -6414,10 +6495,10 @@
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A197" s="1">
-        <v>45534</v>
-      </c>
-      <c r="B197" s="2">
+      <c r="A197" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B197" s="1">
         <v>0.45613425925925927</v>
       </c>
       <c r="C197" t="s">
@@ -6434,10 +6515,10 @@
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A198" s="1">
-        <v>45534</v>
-      </c>
-      <c r="B198" s="2">
+      <c r="A198" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B198" s="1">
         <v>0.45863425925925927</v>
       </c>
       <c r="C198" t="s">
@@ -6454,10 +6535,10 @@
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A199" s="1">
-        <v>45534</v>
-      </c>
-      <c r="B199" s="2">
+      <c r="A199" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B199" s="1">
         <v>0.45901620370370372</v>
       </c>
       <c r="C199" t="s">
@@ -6474,10 +6555,10 @@
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A200" s="1">
-        <v>45534</v>
-      </c>
-      <c r="B200" s="2">
+      <c r="A200" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B200" s="1">
         <v>0.45954861111111112</v>
       </c>
       <c r="C200" t="s">
@@ -6494,10 +6575,10 @@
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A201" s="1">
-        <v>45534</v>
-      </c>
-      <c r="B201" s="2">
+      <c r="A201" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B201" s="1">
         <v>0.46489583333333334</v>
       </c>
       <c r="C201" t="s">
@@ -6514,10 +6595,10 @@
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A202" s="1">
-        <v>45534</v>
-      </c>
-      <c r="B202" s="2">
+      <c r="A202" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B202" s="1">
         <v>0.46512731481481484</v>
       </c>
       <c r="C202" t="s">
@@ -6531,10 +6612,10 @@
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A203" s="1">
-        <v>45534</v>
-      </c>
-      <c r="B203" s="2">
+      <c r="A203" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B203" s="1">
         <v>0.47158564814814813</v>
       </c>
       <c r="C203" t="s">
@@ -6551,10 +6632,10 @@
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A204" s="1">
-        <v>45534</v>
-      </c>
-      <c r="B204" s="2">
+      <c r="A204" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B204" s="1">
         <v>0.47511574074074076</v>
       </c>
       <c r="C204" t="s">
@@ -6571,10 +6652,10 @@
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A205" s="1">
-        <v>45534</v>
-      </c>
-      <c r="B205" s="2">
+      <c r="A205" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B205" s="1">
         <v>0.47875000000000001</v>
       </c>
       <c r="C205" t="s">
@@ -6591,10 +6672,10 @@
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A206" s="1">
-        <v>45534</v>
-      </c>
-      <c r="B206" s="2">
+      <c r="A206" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B206" s="1">
         <v>0.5446643518518518</v>
       </c>
       <c r="C206" t="s">
@@ -6611,10 +6692,10 @@
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A207" s="1">
-        <v>45534</v>
-      </c>
-      <c r="B207" s="2">
+      <c r="A207" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B207" s="1">
         <v>0.55344907407407407</v>
       </c>
       <c r="C207" t="s">
@@ -6631,10 +6712,10 @@
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A208" s="1">
-        <v>45534</v>
-      </c>
-      <c r="B208" s="2">
+      <c r="A208" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B208" s="1">
         <v>0.55380787037037038</v>
       </c>
       <c r="C208" t="s">
@@ -6651,10 +6732,10 @@
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A209" s="1">
-        <v>45534</v>
-      </c>
-      <c r="B209" s="2">
+      <c r="A209" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B209" s="1">
         <v>0.56964120370370375</v>
       </c>
       <c r="C209" t="s">
@@ -6671,10 +6752,10 @@
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A210" s="1">
-        <v>45534</v>
-      </c>
-      <c r="B210" s="2">
+      <c r="A210" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B210" s="1">
         <v>0.56980324074074074</v>
       </c>
       <c r="C210" t="s">
@@ -6691,10 +6772,10 @@
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A211" s="1">
-        <v>45534</v>
-      </c>
-      <c r="B211" s="2">
+      <c r="A211" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B211" s="1">
         <v>0.56981481481481477</v>
       </c>
       <c r="C211" t="s">
@@ -6711,10 +6792,10 @@
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A212" s="1">
-        <v>45534</v>
-      </c>
-      <c r="B212" s="2">
+      <c r="A212" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B212" s="1">
         <v>0.57429398148148147</v>
       </c>
       <c r="C212" t="s">
@@ -6731,10 +6812,10 @@
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A213" s="1">
-        <v>45534</v>
-      </c>
-      <c r="B213" s="2">
+      <c r="A213" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B213" s="1">
         <v>0.57871527777777776</v>
       </c>
       <c r="C213" t="s">
@@ -6751,13 +6832,13 @@
       </c>
     </row>
     <row r="214" spans="1:6" ht="196" x14ac:dyDescent="0.3">
-      <c r="A214" s="1">
-        <v>45534</v>
-      </c>
-      <c r="B214" s="2">
+      <c r="A214" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B214" s="1">
         <v>0.62244212962962964</v>
       </c>
-      <c r="C214" s="3" t="s">
+      <c r="C214" s="2" t="s">
         <v>214</v>
       </c>
       <c r="D214">
@@ -6771,10 +6852,10 @@
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A215" s="1">
-        <v>45534</v>
-      </c>
-      <c r="B215" s="2">
+      <c r="A215" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B215" s="1">
         <v>0.6232523148148148</v>
       </c>
       <c r="C215" t="s">
@@ -6791,10 +6872,10 @@
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A216" s="1">
-        <v>45537</v>
-      </c>
-      <c r="B216" s="2">
+      <c r="A216" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B216" s="1">
         <v>0.41726851851851854</v>
       </c>
       <c r="C216" t="s">
@@ -6811,10 +6892,10 @@
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A217" s="1">
-        <v>45537</v>
-      </c>
-      <c r="B217" s="2">
+      <c r="A217" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B217" s="1">
         <v>0.41887731481481483</v>
       </c>
       <c r="C217" t="s">
@@ -6831,10 +6912,10 @@
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A218" s="1">
-        <v>45537</v>
-      </c>
-      <c r="B218" s="2">
+      <c r="A218" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B218" s="1">
         <v>0.41891203703703705</v>
       </c>
       <c r="C218" t="s">
@@ -6851,10 +6932,10 @@
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A219" s="1">
-        <v>45537</v>
-      </c>
-      <c r="B219" s="2">
+      <c r="A219" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B219" s="1">
         <v>0.41934027777777777</v>
       </c>
       <c r="C219" t="s">
@@ -6871,10 +6952,10 @@
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A220" s="1">
-        <v>45537</v>
-      </c>
-      <c r="B220" s="2">
+      <c r="A220" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B220" s="1">
         <v>0.41978009259259258</v>
       </c>
       <c r="C220" t="s">
@@ -6891,10 +6972,10 @@
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A221" s="1">
-        <v>45537</v>
-      </c>
-      <c r="B221" s="2">
+      <c r="A221" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B221" s="1">
         <v>0.42150462962962965</v>
       </c>
       <c r="C221" t="s">
@@ -6911,10 +6992,10 @@
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A222" s="1">
-        <v>45537</v>
-      </c>
-      <c r="B222" s="2">
+      <c r="A222" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B222" s="1">
         <v>0.42184027777777777</v>
       </c>
       <c r="C222" t="s">
@@ -6931,10 +7012,10 @@
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A223" s="1">
-        <v>45537</v>
-      </c>
-      <c r="B223" s="2">
+      <c r="A223" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B223" s="1">
         <v>0.42821759259259257</v>
       </c>
       <c r="C223" t="s">
@@ -6951,10 +7032,10 @@
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A224" s="1">
-        <v>45537</v>
-      </c>
-      <c r="B224" s="2">
+      <c r="A224" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B224" s="1">
         <v>0.42905092592592592</v>
       </c>
       <c r="C224" t="s">
@@ -6971,10 +7052,10 @@
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A225" s="1">
-        <v>45537</v>
-      </c>
-      <c r="B225" s="2">
+      <c r="A225" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B225" s="1">
         <v>0.42958333333333332</v>
       </c>
       <c r="C225" t="s">
@@ -6991,10 +7072,10 @@
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A226" s="1">
-        <v>45537</v>
-      </c>
-      <c r="B226" s="2">
+      <c r="A226" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B226" s="1">
         <v>0.4324189814814815</v>
       </c>
       <c r="C226" t="s">
@@ -7011,10 +7092,10 @@
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A227" s="1">
-        <v>45537</v>
-      </c>
-      <c r="B227" s="2">
+      <c r="A227" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B227" s="1">
         <v>0.43289351851851854</v>
       </c>
       <c r="C227" t="s">
@@ -7031,10 +7112,10 @@
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A228" s="1">
-        <v>45537</v>
-      </c>
-      <c r="B228" s="2">
+      <c r="A228" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B228" s="1">
         <v>0.435</v>
       </c>
       <c r="C228" t="s">
@@ -7051,10 +7132,10 @@
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A229" s="1">
-        <v>45537</v>
-      </c>
-      <c r="B229" s="2">
+      <c r="A229" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B229" s="1">
         <v>0.43616898148148148</v>
       </c>
       <c r="C229" t="s">
@@ -7071,10 +7152,10 @@
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A230" s="1">
-        <v>45537</v>
-      </c>
-      <c r="B230" s="2">
+      <c r="A230" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B230" s="1">
         <v>0.4370486111111111</v>
       </c>
       <c r="C230" t="s">
@@ -7091,10 +7172,10 @@
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A231" s="1">
-        <v>45537</v>
-      </c>
-      <c r="B231" s="2">
+      <c r="A231" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B231" s="1">
         <v>0.44396990740740738</v>
       </c>
       <c r="C231" t="s">
@@ -7111,10 +7192,10 @@
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A232" s="1">
-        <v>45537</v>
-      </c>
-      <c r="B232" s="2">
+      <c r="A232" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B232" s="1">
         <v>0.44587962962962963</v>
       </c>
       <c r="C232" t="s">
@@ -7131,10 +7212,10 @@
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A233" s="1">
-        <v>45537</v>
-      </c>
-      <c r="B233" s="2">
+      <c r="A233" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B233" s="1">
         <v>0.45189814814814816</v>
       </c>
       <c r="C233" t="s">
@@ -7151,10 +7232,10 @@
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A234" s="1">
-        <v>45537</v>
-      </c>
-      <c r="B234" s="2">
+      <c r="A234" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B234" s="1">
         <v>0.46483796296296298</v>
       </c>
       <c r="C234" t="s">
@@ -7171,10 +7252,10 @@
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A235" s="1">
-        <v>45537</v>
-      </c>
-      <c r="B235" s="2">
+      <c r="A235" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B235" s="1">
         <v>0.4672337962962963</v>
       </c>
       <c r="C235" t="s">
@@ -7191,10 +7272,10 @@
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A236" s="1">
-        <v>45537</v>
-      </c>
-      <c r="B236" s="2">
+      <c r="A236" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B236" s="1">
         <v>0.46901620370370373</v>
       </c>
       <c r="C236" t="s">
@@ -7211,10 +7292,10 @@
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A237" s="1">
-        <v>45537</v>
-      </c>
-      <c r="B237" s="2">
+      <c r="A237" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B237" s="1">
         <v>0.46972222222222221</v>
       </c>
       <c r="C237" t="s">
@@ -7231,10 +7312,10 @@
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A238" s="1">
-        <v>45537</v>
-      </c>
-      <c r="B238" s="2">
+      <c r="A238" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B238" s="1">
         <v>0.54281250000000003</v>
       </c>
       <c r="C238" t="s">
@@ -7251,10 +7332,10 @@
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A239" s="1">
-        <v>45537</v>
-      </c>
-      <c r="B239" s="2">
+      <c r="A239" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B239" s="1">
         <v>0.54309027777777774</v>
       </c>
       <c r="C239" t="s">
@@ -7271,10 +7352,10 @@
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A240" s="1">
-        <v>45537</v>
-      </c>
-      <c r="B240" s="2">
+      <c r="A240" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B240" s="1">
         <v>0.54347222222222225</v>
       </c>
       <c r="C240" t="s">
@@ -7291,10 +7372,10 @@
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A241" s="1">
-        <v>45537</v>
-      </c>
-      <c r="B241" s="2">
+      <c r="A241" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B241" s="1">
         <v>0.54395833333333332</v>
       </c>
       <c r="C241" t="s">
@@ -7311,10 +7392,10 @@
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A242" s="1">
-        <v>45537</v>
-      </c>
-      <c r="B242" s="2">
+      <c r="A242" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B242" s="1">
         <v>0.56410879629629629</v>
       </c>
       <c r="C242" t="s">
@@ -7331,13 +7412,13 @@
       </c>
     </row>
     <row r="243" spans="1:6" ht="196" x14ac:dyDescent="0.3">
-      <c r="A243" s="1">
-        <v>45537</v>
-      </c>
-      <c r="B243" s="2">
+      <c r="A243" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B243" s="1">
         <v>0.61201388888888886</v>
       </c>
-      <c r="C243" s="3" t="s">
+      <c r="C243" s="2" t="s">
         <v>243</v>
       </c>
       <c r="D243">
@@ -7351,10 +7432,10 @@
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A244" s="1">
-        <v>45537</v>
-      </c>
-      <c r="B244" s="2">
+      <c r="A244" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B244" s="1">
         <v>0.61243055555555559</v>
       </c>
       <c r="C244" t="s">
@@ -7371,10 +7452,10 @@
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A245" s="1">
-        <v>45537</v>
-      </c>
-      <c r="B245" s="2">
+      <c r="A245" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B245" s="1">
         <v>0.62001157407407403</v>
       </c>
       <c r="C245" t="s">
@@ -7391,10 +7472,10 @@
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A246" s="1">
-        <v>45537</v>
-      </c>
-      <c r="B246" s="2">
+      <c r="A246" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B246" s="1">
         <v>0.65031249999999996</v>
       </c>
       <c r="C246" t="s">
@@ -7411,10 +7492,10 @@
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A247" s="1">
-        <v>45537</v>
-      </c>
-      <c r="B247" s="2">
+      <c r="A247" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B247" s="1">
         <v>0.65326388888888887</v>
       </c>
       <c r="C247" t="s">
@@ -7431,10 +7512,10 @@
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A248" s="1">
-        <v>45537</v>
-      </c>
-      <c r="B248" s="2">
+      <c r="A248" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B248" s="1">
         <v>0.65592592592592591</v>
       </c>
       <c r="C248" t="s">
@@ -7451,10 +7532,10 @@
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A249" s="1">
-        <v>45537</v>
-      </c>
-      <c r="B249" s="2">
+      <c r="A249" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B249" s="1">
         <v>0.68738425925925928</v>
       </c>
       <c r="C249" t="s">
@@ -7471,10 +7552,10 @@
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A250" s="1">
-        <v>45537</v>
-      </c>
-      <c r="B250" s="2">
+      <c r="A250" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B250" s="1">
         <v>0.8817476851851852</v>
       </c>
       <c r="C250" t="s">
@@ -7491,10 +7572,10 @@
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A251" s="1">
-        <v>45538</v>
-      </c>
-      <c r="B251" s="2">
+      <c r="A251" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B251" s="1">
         <v>0.41922453703703705</v>
       </c>
       <c r="C251" t="s">
@@ -7511,10 +7592,10 @@
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A252" s="1">
-        <v>45538</v>
-      </c>
-      <c r="B252" s="2">
+      <c r="A252" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B252" s="1">
         <v>0.41996527777777776</v>
       </c>
       <c r="C252" t="s">
@@ -7531,10 +7612,10 @@
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A253" s="1">
-        <v>45538</v>
-      </c>
-      <c r="B253" s="2">
+      <c r="A253" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B253" s="1">
         <v>0.42280092592592594</v>
       </c>
       <c r="C253" t="s">
@@ -7551,10 +7632,10 @@
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A254" s="1">
-        <v>45538</v>
-      </c>
-      <c r="B254" s="2">
+      <c r="A254" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B254" s="1">
         <v>0.42344907407407406</v>
       </c>
       <c r="C254" t="s">
@@ -7571,10 +7652,10 @@
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A255" s="1">
-        <v>45538</v>
-      </c>
-      <c r="B255" s="2">
+      <c r="A255" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B255" s="1">
         <v>0.42380787037037038</v>
       </c>
       <c r="C255" t="s">
@@ -7591,10 +7672,10 @@
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A256" s="1">
-        <v>45538</v>
-      </c>
-      <c r="B256" s="2">
+      <c r="A256" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B256" s="1">
         <v>0.42449074074074072</v>
       </c>
       <c r="C256" t="s">
@@ -7611,10 +7692,10 @@
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A257" s="1">
-        <v>45538</v>
-      </c>
-      <c r="B257" s="2">
+      <c r="A257" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B257" s="1">
         <v>0.42480324074074072</v>
       </c>
       <c r="C257" t="s">
@@ -7631,10 +7712,10 @@
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A258" s="1">
-        <v>45538</v>
-      </c>
-      <c r="B258" s="2">
+      <c r="A258" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B258" s="1">
         <v>0.42547453703703703</v>
       </c>
       <c r="C258" t="s">
@@ -7651,10 +7732,10 @@
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A259" s="1">
-        <v>45538</v>
-      </c>
-      <c r="B259" s="2">
+      <c r="A259" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B259" s="1">
         <v>0.42854166666666665</v>
       </c>
       <c r="C259" t="s">
@@ -7671,13 +7752,13 @@
       </c>
     </row>
     <row r="260" spans="1:6" ht="140" x14ac:dyDescent="0.3">
-      <c r="A260" s="1">
-        <v>45538</v>
-      </c>
-      <c r="B260" s="2">
+      <c r="A260" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B260" s="1">
         <v>0.43818287037037035</v>
       </c>
-      <c r="C260" s="3" t="s">
+      <c r="C260" s="2" t="s">
         <v>260</v>
       </c>
       <c r="D260">
@@ -7691,10 +7772,10 @@
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A261" s="1">
-        <v>45538</v>
-      </c>
-      <c r="B261" s="2">
+      <c r="A261" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B261" s="1">
         <v>0.43850694444444444</v>
       </c>
       <c r="C261" t="s">
@@ -7711,10 +7792,10 @@
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A262" s="1">
-        <v>45538</v>
-      </c>
-      <c r="B262" s="2">
+      <c r="A262" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B262" s="1">
         <v>0.43908564814814816</v>
       </c>
       <c r="C262" t="s">
@@ -7731,10 +7812,10 @@
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A263" s="1">
-        <v>45538</v>
-      </c>
-      <c r="B263" s="2">
+      <c r="A263" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B263" s="1">
         <v>0.43972222222222224</v>
       </c>
       <c r="C263" t="s">
@@ -7751,10 +7832,10 @@
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A264" s="1">
-        <v>45538</v>
-      </c>
-      <c r="B264" s="2">
+      <c r="A264" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B264" s="1">
         <v>0.4402314814814815</v>
       </c>
       <c r="C264" t="s">
@@ -7771,10 +7852,10 @@
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A265" s="1">
-        <v>45538</v>
-      </c>
-      <c r="B265" s="2">
+      <c r="A265" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B265" s="1">
         <v>0.44059027777777776</v>
       </c>
       <c r="C265" t="s">
@@ -7791,10 +7872,10 @@
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A266" s="1">
-        <v>45538</v>
-      </c>
-      <c r="B266" s="2">
+      <c r="A266" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B266" s="1">
         <v>0.44084490740740739</v>
       </c>
       <c r="C266" t="s">
@@ -7811,10 +7892,10 @@
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A267" s="1">
-        <v>45538</v>
-      </c>
-      <c r="B267" s="2">
+      <c r="A267" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B267" s="1">
         <v>0.44261574074074073</v>
       </c>
       <c r="C267" t="s">
@@ -7831,10 +7912,10 @@
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A268" s="1">
-        <v>45538</v>
-      </c>
-      <c r="B268" s="2">
+      <c r="A268" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B268" s="1">
         <v>0.44920138888888889</v>
       </c>
       <c r="C268" t="s">
@@ -7851,10 +7932,10 @@
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A269" s="1">
-        <v>45538</v>
-      </c>
-      <c r="B269" s="2">
+      <c r="A269" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B269" s="1">
         <v>0.45232638888888888</v>
       </c>
       <c r="C269" t="s">
@@ -7871,10 +7952,10 @@
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A270" s="1">
-        <v>45538</v>
-      </c>
-      <c r="B270" s="2">
+      <c r="A270" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B270" s="1">
         <v>0.45427083333333335</v>
       </c>
       <c r="C270" t="s">
@@ -7891,10 +7972,10 @@
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A271" s="1">
-        <v>45538</v>
-      </c>
-      <c r="B271" s="2">
+      <c r="A271" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B271" s="1">
         <v>0.45756944444444442</v>
       </c>
       <c r="C271" t="s">
@@ -7911,10 +7992,10 @@
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A272" s="1">
-        <v>45538</v>
-      </c>
-      <c r="B272" s="2">
+      <c r="A272" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B272" s="1">
         <v>0.4589699074074074</v>
       </c>
       <c r="C272" t="s">
@@ -7931,10 +8012,10 @@
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A273" s="1">
-        <v>45538</v>
-      </c>
-      <c r="B273" s="2">
+      <c r="A273" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B273" s="1">
         <v>0.45912037037037035</v>
       </c>
       <c r="C273" t="s">
@@ -7951,10 +8032,10 @@
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A274" s="1">
-        <v>45538</v>
-      </c>
-      <c r="B274" s="2">
+      <c r="A274" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B274" s="1">
         <v>0.4599421296296296</v>
       </c>
       <c r="C274" t="s">
@@ -7971,10 +8052,10 @@
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A275" s="1">
-        <v>45538</v>
-      </c>
-      <c r="B275" s="2">
+      <c r="A275" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B275" s="1">
         <v>0.46231481481481479</v>
       </c>
       <c r="C275" t="s">
@@ -7991,13 +8072,13 @@
       </c>
     </row>
     <row r="276" spans="1:6" ht="154" x14ac:dyDescent="0.3">
-      <c r="A276" s="1">
-        <v>45538</v>
-      </c>
-      <c r="B276" s="2">
+      <c r="A276" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B276" s="1">
         <v>0.47708333333333336</v>
       </c>
-      <c r="C276" s="3" t="s">
+      <c r="C276" s="2" t="s">
         <v>276</v>
       </c>
       <c r="D276">
@@ -8011,10 +8092,10 @@
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A277" s="1">
-        <v>45538</v>
-      </c>
-      <c r="B277" s="2">
+      <c r="A277" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B277" s="1">
         <v>0.47729166666666667</v>
       </c>
       <c r="C277" t="s">
@@ -8031,10 +8112,10 @@
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A278" s="1">
-        <v>45538</v>
-      </c>
-      <c r="B278" s="2">
+      <c r="A278" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B278" s="1">
         <v>0.47886574074074073</v>
       </c>
       <c r="C278" t="s">
@@ -8051,10 +8132,10 @@
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A279" s="1">
-        <v>45538</v>
-      </c>
-      <c r="B279" s="2">
+      <c r="A279" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B279" s="1">
         <v>0.54563657407407407</v>
       </c>
       <c r="C279" t="s">
@@ -8071,10 +8152,10 @@
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A280" s="1">
-        <v>45538</v>
-      </c>
-      <c r="B280" s="2">
+      <c r="A280" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B280" s="1">
         <v>0.55326388888888889</v>
       </c>
       <c r="C280" t="s">
@@ -8091,10 +8172,10 @@
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A281" s="1">
-        <v>45538</v>
-      </c>
-      <c r="B281" s="2">
+      <c r="A281" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B281" s="1">
         <v>0.5552893518518518</v>
       </c>
       <c r="C281" t="s">
@@ -8111,10 +8192,10 @@
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A282" s="1">
-        <v>45538</v>
-      </c>
-      <c r="B282" s="2">
+      <c r="A282" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B282" s="1">
         <v>0.55828703703703708</v>
       </c>
       <c r="C282" t="s">
@@ -8131,10 +8212,10 @@
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A283" s="1">
-        <v>45538</v>
-      </c>
-      <c r="B283" s="2">
+      <c r="A283" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B283" s="1">
         <v>0.56098379629629624</v>
       </c>
       <c r="C283" t="s">
@@ -8151,10 +8232,10 @@
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A284" s="1">
-        <v>45538</v>
-      </c>
-      <c r="B284" s="2">
+      <c r="A284" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B284" s="1">
         <v>0.56144675925925924</v>
       </c>
       <c r="C284" t="s">
@@ -8171,10 +8252,10 @@
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A285" s="1">
-        <v>45538</v>
-      </c>
-      <c r="B285" s="2">
+      <c r="A285" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B285" s="1">
         <v>0.56289351851851854</v>
       </c>
       <c r="C285" t="s">
@@ -8191,10 +8272,10 @@
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A286" s="1">
-        <v>45538</v>
-      </c>
-      <c r="B286" s="2">
+      <c r="A286" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B286" s="1">
         <v>0.56741898148148151</v>
       </c>
       <c r="C286" t="s">
@@ -8211,10 +8292,10 @@
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A287" s="1">
-        <v>45538</v>
-      </c>
-      <c r="B287" s="2">
+      <c r="A287" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B287" s="1">
         <v>0.59827546296296297</v>
       </c>
       <c r="C287" t="s">
@@ -8231,10 +8312,10 @@
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A288" s="1">
-        <v>45538</v>
-      </c>
-      <c r="B288" s="2">
+      <c r="A288" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B288" s="1">
         <v>0.60016203703703708</v>
       </c>
       <c r="C288" t="s">
@@ -8251,10 +8332,10 @@
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A289" s="1">
-        <v>45538</v>
-      </c>
-      <c r="B289" s="2">
+      <c r="A289" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B289" s="1">
         <v>0.60162037037037042</v>
       </c>
       <c r="C289" t="s">
@@ -8271,13 +8352,13 @@
       </c>
     </row>
     <row r="290" spans="1:6" ht="196" x14ac:dyDescent="0.3">
-      <c r="A290" s="1">
-        <v>45538</v>
-      </c>
-      <c r="B290" s="2">
+      <c r="A290" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B290" s="1">
         <v>0.60363425925925929</v>
       </c>
-      <c r="C290" s="3" t="s">
+      <c r="C290" s="2" t="s">
         <v>290</v>
       </c>
       <c r="D290">
@@ -8291,10 +8372,10 @@
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A291" s="1">
-        <v>45538</v>
-      </c>
-      <c r="B291" s="2">
+      <c r="A291" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B291" s="1">
         <v>0.60453703703703698</v>
       </c>
       <c r="C291" t="s">
@@ -8311,10 +8392,10 @@
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A292" s="1">
-        <v>45538</v>
-      </c>
-      <c r="B292" s="2">
+      <c r="A292" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B292" s="1">
         <v>0.61123842592592592</v>
       </c>
       <c r="C292" t="s">
@@ -8331,10 +8412,10 @@
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A293" s="1">
-        <v>45538</v>
-      </c>
-      <c r="B293" s="2">
+      <c r="A293" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B293" s="1">
         <v>0.6149768518518518</v>
       </c>
       <c r="C293" t="s">
@@ -8351,10 +8432,10 @@
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A294" s="1">
-        <v>45538</v>
-      </c>
-      <c r="B294" s="2">
+      <c r="A294" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B294" s="1">
         <v>0.61807870370370366</v>
       </c>
       <c r="C294" t="s">
@@ -8371,10 +8452,10 @@
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A295" s="1">
-        <v>45538</v>
-      </c>
-      <c r="B295" s="2">
+      <c r="A295" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B295" s="1">
         <v>0.69687500000000002</v>
       </c>
       <c r="C295" t="s">
@@ -8391,10 +8472,10 @@
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A296" s="1">
-        <v>45538</v>
-      </c>
-      <c r="B296" s="2">
+      <c r="A296" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B296" s="1">
         <v>0.69710648148148147</v>
       </c>
       <c r="C296" t="s">
@@ -8411,10 +8492,10 @@
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A297" s="1">
-        <v>45538</v>
-      </c>
-      <c r="B297" s="2">
+      <c r="A297" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B297" s="1">
         <v>0.87579861111111112</v>
       </c>
       <c r="C297" t="s">
@@ -8431,10 +8512,10 @@
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A298" s="1">
-        <v>45539</v>
-      </c>
-      <c r="B298" s="2">
+      <c r="A298" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B298" s="1">
         <v>0.41822916666666665</v>
       </c>
       <c r="C298" t="s">
@@ -8451,10 +8532,10 @@
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A299" s="1">
-        <v>45539</v>
-      </c>
-      <c r="B299" s="2">
+      <c r="A299" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B299" s="1">
         <v>0.42023148148148148</v>
       </c>
       <c r="C299" t="s">
@@ -8471,10 +8552,10 @@
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A300" s="1">
-        <v>45539</v>
-      </c>
-      <c r="B300" s="2">
+      <c r="A300" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B300" s="1">
         <v>0.42046296296296298</v>
       </c>
       <c r="C300" t="s">
@@ -8491,10 +8572,10 @@
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A301" s="1">
-        <v>45539</v>
-      </c>
-      <c r="B301" s="2">
+      <c r="A301" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B301" s="1">
         <v>0.42270833333333335</v>
       </c>
       <c r="C301" t="s">
@@ -8511,10 +8592,10 @@
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A302" s="1">
-        <v>45539</v>
-      </c>
-      <c r="B302" s="2">
+      <c r="A302" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B302" s="1">
         <v>0.42310185185185184</v>
       </c>
       <c r="C302" t="s">
@@ -8531,10 +8612,10 @@
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A303" s="1">
-        <v>45539</v>
-      </c>
-      <c r="B303" s="2">
+      <c r="A303" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B303" s="1">
         <v>0.42342592592592593</v>
       </c>
       <c r="C303" t="s">
@@ -8551,10 +8632,10 @@
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A304" s="1">
-        <v>45539</v>
-      </c>
-      <c r="B304" s="2">
+      <c r="A304" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B304" s="1">
         <v>0.42408564814814814</v>
       </c>
       <c r="C304" t="s">
@@ -8571,10 +8652,10 @@
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A305" s="1">
-        <v>45539</v>
-      </c>
-      <c r="B305" s="2">
+      <c r="A305" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B305" s="1">
         <v>0.42417824074074073</v>
       </c>
       <c r="C305" t="s">
@@ -8591,10 +8672,10 @@
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A306" s="1">
-        <v>45539</v>
-      </c>
-      <c r="B306" s="2">
+      <c r="A306" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B306" s="1">
         <v>0.42616898148148147</v>
       </c>
       <c r="C306" t="s">
@@ -8611,10 +8692,10 @@
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A307" s="1">
-        <v>45539</v>
-      </c>
-      <c r="B307" s="2">
+      <c r="A307" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B307" s="1">
         <v>0.42708333333333331</v>
       </c>
       <c r="C307" t="s">
@@ -8631,10 +8712,10 @@
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A308" s="1">
-        <v>45539</v>
-      </c>
-      <c r="B308" s="2">
+      <c r="A308" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B308" s="1">
         <v>0.43214120370370368</v>
       </c>
       <c r="C308" t="s">
@@ -8651,10 +8732,10 @@
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A309" s="1">
-        <v>45539</v>
-      </c>
-      <c r="B309" s="2">
+      <c r="A309" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B309" s="1">
         <v>0.44396990740740738</v>
       </c>
       <c r="C309" t="s">
@@ -8671,10 +8752,10 @@
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A310" s="1">
-        <v>45539</v>
-      </c>
-      <c r="B310" s="2">
+      <c r="A310" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B310" s="1">
         <v>0.44517361111111109</v>
       </c>
       <c r="C310" t="s">
@@ -8691,10 +8772,10 @@
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A311" s="1">
-        <v>45539</v>
-      </c>
-      <c r="B311" s="2">
+      <c r="A311" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B311" s="1">
         <v>0.44753472222222224</v>
       </c>
       <c r="C311" t="s">
@@ -8711,10 +8792,10 @@
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A312" s="1">
-        <v>45539</v>
-      </c>
-      <c r="B312" s="2">
+      <c r="A312" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B312" s="1">
         <v>0.45824074074074073</v>
       </c>
       <c r="C312" t="s">
@@ -8731,10 +8812,10 @@
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A313" s="1">
-        <v>45539</v>
-      </c>
-      <c r="B313" s="2">
+      <c r="A313" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B313" s="1">
         <v>0.46201388888888889</v>
       </c>
       <c r="C313" t="s">
@@ -8751,10 +8832,10 @@
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A314" s="1">
-        <v>45539</v>
-      </c>
-      <c r="B314" s="2">
+      <c r="A314" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B314" s="1">
         <v>0.46270833333333333</v>
       </c>
       <c r="C314" t="s">
@@ -8771,10 +8852,10 @@
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A315" s="1">
-        <v>45539</v>
-      </c>
-      <c r="B315" s="2">
+      <c r="A315" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B315" s="1">
         <v>0.46605324074074073</v>
       </c>
       <c r="C315" t="s">
@@ -8791,10 +8872,10 @@
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A316" s="1">
-        <v>45539</v>
-      </c>
-      <c r="B316" s="2">
+      <c r="A316" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B316" s="1">
         <v>0.46777777777777779</v>
       </c>
       <c r="C316" t="s">
@@ -8811,10 +8892,10 @@
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A317" s="1">
-        <v>45539</v>
-      </c>
-      <c r="B317" s="2">
+      <c r="A317" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B317" s="1">
         <v>0.47241898148148148</v>
       </c>
       <c r="C317" t="s">
@@ -8831,10 +8912,10 @@
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A318" s="1">
-        <v>45539</v>
-      </c>
-      <c r="B318" s="2">
+      <c r="A318" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B318" s="1">
         <v>0.48395833333333332</v>
       </c>
       <c r="C318" t="s">
@@ -8851,10 +8932,10 @@
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A319" s="1">
-        <v>45539</v>
-      </c>
-      <c r="B319" s="2">
+      <c r="A319" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B319" s="1">
         <v>0.48439814814814813</v>
       </c>
       <c r="C319" t="s">
@@ -8871,10 +8952,10 @@
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A320" s="1">
-        <v>45539</v>
-      </c>
-      <c r="B320" s="2">
+      <c r="A320" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B320" s="1">
         <v>0.48726851851851855</v>
       </c>
       <c r="C320" t="s">
@@ -8891,10 +8972,10 @@
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A321" s="1">
-        <v>45539</v>
-      </c>
-      <c r="B321" s="2">
+      <c r="A321" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B321" s="1">
         <v>0.48781249999999998</v>
       </c>
       <c r="C321" t="s">
@@ -8911,10 +8992,10 @@
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A322" s="1">
-        <v>45539</v>
-      </c>
-      <c r="B322" s="2">
+      <c r="A322" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B322" s="1">
         <v>0.48842592592592593</v>
       </c>
       <c r="C322" t="s">
@@ -8931,10 +9012,10 @@
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A323" s="1">
-        <v>45539</v>
-      </c>
-      <c r="B323" s="2">
+      <c r="A323" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B323" s="1">
         <v>0.49010416666666667</v>
       </c>
       <c r="C323" t="s">
@@ -8951,10 +9032,10 @@
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A324" s="1">
-        <v>45539</v>
-      </c>
-      <c r="B324" s="2">
+      <c r="A324" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B324" s="1">
         <v>0.54142361111111115</v>
       </c>
       <c r="C324" t="s">
@@ -8971,10 +9052,10 @@
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A325" s="1">
-        <v>45539</v>
-      </c>
-      <c r="B325" s="2">
+      <c r="A325" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B325" s="1">
         <v>0.54866898148148147</v>
       </c>
       <c r="C325" t="s">
@@ -8991,10 +9072,10 @@
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A326" s="1">
-        <v>45539</v>
-      </c>
-      <c r="B326" s="2">
+      <c r="A326" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B326" s="1">
         <v>0.57828703703703699</v>
       </c>
       <c r="C326" t="s">
@@ -9011,10 +9092,10 @@
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A327" s="1">
-        <v>45539</v>
-      </c>
-      <c r="B327" s="2">
+      <c r="A327" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B327" s="1">
         <v>0.58084490740740746</v>
       </c>
       <c r="C327" t="s">
@@ -9031,10 +9112,10 @@
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A328" s="1">
-        <v>45539</v>
-      </c>
-      <c r="B328" s="2">
+      <c r="A328" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B328" s="1">
         <v>0.58237268518518515</v>
       </c>
       <c r="C328" t="s">
@@ -9051,10 +9132,10 @@
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A329" s="1">
-        <v>45539</v>
-      </c>
-      <c r="B329" s="2">
+      <c r="A329" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B329" s="1">
         <v>0.58277777777777773</v>
       </c>
       <c r="C329" t="s">
@@ -9071,10 +9152,10 @@
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A330" s="1">
-        <v>45539</v>
-      </c>
-      <c r="B330" s="2">
+      <c r="A330" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B330" s="1">
         <v>0.58283564814814814</v>
       </c>
       <c r="C330" t="s">
@@ -9088,13 +9169,13 @@
       </c>
     </row>
     <row r="331" spans="1:6" ht="196" x14ac:dyDescent="0.3">
-      <c r="A331" s="1">
-        <v>45539</v>
-      </c>
-      <c r="B331" s="2">
+      <c r="A331" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B331" s="1">
         <v>0.5939699074074074</v>
       </c>
-      <c r="C331" s="3" t="s">
+      <c r="C331" s="2" t="s">
         <v>330</v>
       </c>
       <c r="D331">
@@ -9105,10 +9186,10 @@
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A332" s="1">
-        <v>45539</v>
-      </c>
-      <c r="B332" s="2">
+      <c r="A332" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B332" s="1">
         <v>0.87825231481481481</v>
       </c>
       <c r="C332" t="s">
@@ -9125,10 +9206,10 @@
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A333" s="1">
-        <v>45540</v>
-      </c>
-      <c r="B333" s="2">
+      <c r="A333" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B333" s="1">
         <v>0.41707175925925927</v>
       </c>
       <c r="C333" t="s">
@@ -9145,10 +9226,10 @@
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A334" s="1">
-        <v>45540</v>
-      </c>
-      <c r="B334" s="2">
+      <c r="A334" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B334" s="1">
         <v>0.41756944444444444</v>
       </c>
       <c r="C334" t="s">
@@ -9165,10 +9246,10 @@
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A335" s="1">
-        <v>45540</v>
-      </c>
-      <c r="B335" s="2">
+      <c r="A335" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B335" s="1">
         <v>0.42243055555555553</v>
       </c>
       <c r="C335" t="s">
@@ -9185,10 +9266,10 @@
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A336" s="1">
-        <v>45540</v>
-      </c>
-      <c r="B336" s="2">
+      <c r="A336" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B336" s="1">
         <v>0.42328703703703702</v>
       </c>
       <c r="C336" t="s">
@@ -9205,10 +9286,10 @@
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A337" s="1">
-        <v>45540</v>
-      </c>
-      <c r="B337" s="2">
+      <c r="A337" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B337" s="1">
         <v>0.42497685185185186</v>
       </c>
       <c r="C337" t="s">
@@ -9225,10 +9306,10 @@
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A338" s="1">
-        <v>45540</v>
-      </c>
-      <c r="B338" s="2">
+      <c r="A338" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B338" s="1">
         <v>0.42834490740740738</v>
       </c>
       <c r="C338" t="s">
@@ -9245,10 +9326,10 @@
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A339" s="1">
-        <v>45540</v>
-      </c>
-      <c r="B339" s="2">
+      <c r="A339" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B339" s="1">
         <v>0.42894675925925924</v>
       </c>
       <c r="C339" t="s">
@@ -9262,10 +9343,10 @@
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A340" s="1">
-        <v>45540</v>
-      </c>
-      <c r="B340" s="2">
+      <c r="A340" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B340" s="1">
         <v>0.42900462962962965</v>
       </c>
       <c r="C340" t="s">
@@ -9279,10 +9360,10 @@
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A341" s="1">
-        <v>45540</v>
-      </c>
-      <c r="B341" s="2">
+      <c r="A341" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B341" s="1">
         <v>0.42931712962962965</v>
       </c>
       <c r="C341" t="s">
@@ -9299,10 +9380,10 @@
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A342" s="1">
-        <v>45540</v>
-      </c>
-      <c r="B342" s="2">
+      <c r="A342" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B342" s="1">
         <v>0.43089120370370371</v>
       </c>
       <c r="C342" t="s">
@@ -9319,13 +9400,13 @@
       </c>
     </row>
     <row r="343" spans="1:6" ht="196" x14ac:dyDescent="0.3">
-      <c r="A343" s="1">
-        <v>45540</v>
-      </c>
-      <c r="B343" s="2">
+      <c r="A343" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B343" s="1">
         <v>0.4397685185185185</v>
       </c>
-      <c r="C343" s="3" t="s">
+      <c r="C343" s="2" t="s">
         <v>340</v>
       </c>
       <c r="D343">
@@ -9339,10 +9420,10 @@
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A344" s="1">
-        <v>45540</v>
-      </c>
-      <c r="B344" s="2">
+      <c r="A344" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B344" s="1">
         <v>0.44009259259259259</v>
       </c>
       <c r="C344" t="s">
@@ -9359,10 +9440,10 @@
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A345" s="1">
-        <v>45540</v>
-      </c>
-      <c r="B345" s="2">
+      <c r="A345" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B345" s="1">
         <v>0.44025462962962963</v>
       </c>
       <c r="C345" t="s">
@@ -9379,10 +9460,10 @@
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A346" s="1">
-        <v>45540</v>
-      </c>
-      <c r="B346" s="2">
+      <c r="A346" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B346" s="1">
         <v>0.44047453703703704</v>
       </c>
       <c r="C346" t="s">
@@ -9399,10 +9480,10 @@
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A347" s="1">
-        <v>45540</v>
-      </c>
-      <c r="B347" s="2">
+      <c r="A347" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B347" s="1">
         <v>0.44265046296296295</v>
       </c>
       <c r="C347" t="s">
@@ -9419,10 +9500,10 @@
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A348" s="1">
-        <v>45540</v>
-      </c>
-      <c r="B348" s="2">
+      <c r="A348" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B348" s="1">
         <v>0.44489583333333332</v>
       </c>
       <c r="C348" t="s">
@@ -9439,10 +9520,10 @@
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A349" s="1">
-        <v>45540</v>
-      </c>
-      <c r="B349" s="2">
+      <c r="A349" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B349" s="1">
         <v>0.44960648148148147</v>
       </c>
       <c r="C349" t="s">
@@ -9459,10 +9540,10 @@
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A350" s="1">
-        <v>45540</v>
-      </c>
-      <c r="B350" s="2">
+      <c r="A350" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B350" s="1">
         <v>0.45153935185185184</v>
       </c>
       <c r="C350" t="s">
@@ -9479,10 +9560,10 @@
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A351" s="1">
-        <v>45540</v>
-      </c>
-      <c r="B351" s="2">
+      <c r="A351" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B351" s="1">
         <v>0.45168981481481479</v>
       </c>
       <c r="C351" t="s">
@@ -9499,10 +9580,10 @@
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A352" s="1">
-        <v>45540</v>
-      </c>
-      <c r="B352" s="2">
+      <c r="A352" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B352" s="1">
         <v>0.45484953703703701</v>
       </c>
       <c r="C352" t="s">
@@ -9519,10 +9600,10 @@
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A353" s="1">
-        <v>45540</v>
-      </c>
-      <c r="B353" s="2">
+      <c r="A353" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B353" s="1">
         <v>0.45506944444444447</v>
       </c>
       <c r="C353" t="s">
@@ -9539,10 +9620,10 @@
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A354" s="1">
-        <v>45540</v>
-      </c>
-      <c r="B354" s="2">
+      <c r="A354" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B354" s="1">
         <v>0.45687499999999998</v>
       </c>
       <c r="C354" t="s">
@@ -9559,10 +9640,10 @@
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A355" s="1">
-        <v>45540</v>
-      </c>
-      <c r="B355" s="2">
+      <c r="A355" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B355" s="1">
         <v>0.48493055555555553</v>
       </c>
       <c r="C355" t="s">
@@ -9576,10 +9657,10 @@
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A356" s="1">
-        <v>45540</v>
-      </c>
-      <c r="B356" s="2">
+      <c r="A356" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B356" s="1">
         <v>0.54245370370370372</v>
       </c>
       <c r="C356" t="s">
@@ -9596,10 +9677,10 @@
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A357" s="1">
-        <v>45540</v>
-      </c>
-      <c r="B357" s="2">
+      <c r="A357" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B357" s="1">
         <v>0.5451273148148148</v>
       </c>
       <c r="C357" t="s">
@@ -9616,10 +9697,10 @@
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A358" s="1">
-        <v>45540</v>
-      </c>
-      <c r="B358" s="2">
+      <c r="A358" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B358" s="1">
         <v>0.554224537037037</v>
       </c>
       <c r="C358" t="s">
@@ -9636,10 +9717,10 @@
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A359" s="1">
-        <v>45540</v>
-      </c>
-      <c r="B359" s="2">
+      <c r="A359" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B359" s="1">
         <v>0.55806712962962968</v>
       </c>
       <c r="C359" t="s">
@@ -9656,10 +9737,10 @@
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A360" s="1">
-        <v>45540</v>
-      </c>
-      <c r="B360" s="2">
+      <c r="A360" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B360" s="1">
         <v>0.57756944444444447</v>
       </c>
       <c r="C360" t="s">
@@ -9676,10 +9757,10 @@
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A361" s="1">
-        <v>45540</v>
-      </c>
-      <c r="B361" s="2">
+      <c r="A361" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B361" s="1">
         <v>0.57783564814814814</v>
       </c>
       <c r="C361" t="s">
@@ -9696,10 +9777,10 @@
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A362" s="1">
-        <v>45540</v>
-      </c>
-      <c r="B362" s="2">
+      <c r="A362" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B362" s="1">
         <v>0.59166666666666667</v>
       </c>
       <c r="C362" t="s">
@@ -9716,10 +9797,10 @@
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A363" s="1">
-        <v>45540</v>
-      </c>
-      <c r="B363" s="2">
+      <c r="A363" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B363" s="1">
         <v>0.59616898148148145</v>
       </c>
       <c r="C363" t="s">
@@ -9736,10 +9817,10 @@
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A364" s="1">
-        <v>45540</v>
-      </c>
-      <c r="B364" s="2">
+      <c r="A364" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B364" s="1">
         <v>0.60908564814814814</v>
       </c>
       <c r="C364" t="s">
@@ -9756,10 +9837,10 @@
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A365" s="1">
-        <v>45540</v>
-      </c>
-      <c r="B365" s="2">
+      <c r="A365" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B365" s="1">
         <v>0.60968750000000005</v>
       </c>
       <c r="C365" t="s">
@@ -9776,10 +9857,10 @@
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A366" s="1">
-        <v>45540</v>
-      </c>
-      <c r="B366" s="2">
+      <c r="A366" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B366" s="1">
         <v>0.61187499999999995</v>
       </c>
       <c r="C366" t="s">
@@ -9796,10 +9877,10 @@
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A367" s="1">
-        <v>45540</v>
-      </c>
-      <c r="B367" s="2">
+      <c r="A367" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B367" s="1">
         <v>0.61869212962962961</v>
       </c>
       <c r="C367" t="s">
@@ -9816,13 +9897,13 @@
       </c>
     </row>
     <row r="368" spans="1:6" ht="196" x14ac:dyDescent="0.3">
-      <c r="A368" s="1">
-        <v>45540</v>
-      </c>
-      <c r="B368" s="2">
+      <c r="A368" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B368" s="1">
         <v>0.61972222222222217</v>
       </c>
-      <c r="C368" s="3" t="s">
+      <c r="C368" s="2" t="s">
         <v>361</v>
       </c>
       <c r="D368">
@@ -9836,10 +9917,10 @@
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A369" s="1">
-        <v>45540</v>
-      </c>
-      <c r="B369" s="2">
+      <c r="A369" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B369" s="1">
         <v>0.62078703703703708</v>
       </c>
       <c r="C369" t="s">
@@ -9856,10 +9937,10 @@
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A370" s="1">
-        <v>45540</v>
-      </c>
-      <c r="B370" s="2">
+      <c r="A370" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B370" s="1">
         <v>0.62432870370370375</v>
       </c>
       <c r="C370" t="s">
@@ -9876,10 +9957,10 @@
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A371" s="1">
-        <v>45541</v>
-      </c>
-      <c r="B371" s="2">
+      <c r="A371" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B371" s="1">
         <v>0.41692129629629632</v>
       </c>
       <c r="C371" t="s">
@@ -9896,10 +9977,10 @@
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A372" s="1">
-        <v>45541</v>
-      </c>
-      <c r="B372" s="2">
+      <c r="A372" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B372" s="1">
         <v>0.41746527777777775</v>
       </c>
       <c r="C372" t="s">
@@ -9916,10 +9997,10 @@
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A373" s="1">
-        <v>45541</v>
-      </c>
-      <c r="B373" s="2">
+      <c r="A373" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B373" s="1">
         <v>0.41765046296296299</v>
       </c>
       <c r="C373" t="s">
@@ -9936,10 +10017,10 @@
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A374" s="1">
-        <v>45541</v>
-      </c>
-      <c r="B374" s="2">
+      <c r="A374" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B374" s="1">
         <v>0.41781249999999998</v>
       </c>
       <c r="C374" t="s">
@@ -9956,10 +10037,10 @@
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A375" s="1">
-        <v>45541</v>
-      </c>
-      <c r="B375" s="2">
+      <c r="A375" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B375" s="1">
         <v>0.41854166666666665</v>
       </c>
       <c r="C375" t="s">
@@ -9976,10 +10057,10 @@
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A376" s="1">
-        <v>45541</v>
-      </c>
-      <c r="B376" s="2">
+      <c r="A376" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B376" s="1">
         <v>0.41854166666666665</v>
       </c>
       <c r="C376" t="s">
@@ -9996,10 +10077,10 @@
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A377" s="1">
-        <v>45541</v>
-      </c>
-      <c r="B377" s="2">
+      <c r="A377" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B377" s="1">
         <v>0.41918981481481482</v>
       </c>
       <c r="C377" t="s">
@@ -10016,10 +10097,10 @@
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A378" s="1">
-        <v>45541</v>
-      </c>
-      <c r="B378" s="2">
+      <c r="A378" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B378" s="1">
         <v>0.41994212962962962</v>
       </c>
       <c r="C378" t="s">
@@ -10036,10 +10117,10 @@
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A379" s="1">
-        <v>45541</v>
-      </c>
-      <c r="B379" s="2">
+      <c r="A379" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B379" s="1">
         <v>0.42225694444444445</v>
       </c>
       <c r="C379" t="s">
@@ -10056,10 +10137,10 @@
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A380" s="1">
-        <v>45541</v>
-      </c>
-      <c r="B380" s="2">
+      <c r="A380" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B380" s="1">
         <v>0.42341435185185183</v>
       </c>
       <c r="C380" t="s">
@@ -10076,13 +10157,13 @@
       </c>
     </row>
     <row r="381" spans="1:6" ht="182" x14ac:dyDescent="0.3">
-      <c r="A381" s="1">
-        <v>45541</v>
-      </c>
-      <c r="B381" s="2">
+      <c r="A381" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B381" s="1">
         <v>0.42403935185185188</v>
       </c>
-      <c r="C381" s="3" t="s">
+      <c r="C381" s="2" t="s">
         <v>372</v>
       </c>
       <c r="D381">
@@ -10096,10 +10177,10 @@
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A382" s="1">
-        <v>45541</v>
-      </c>
-      <c r="B382" s="2">
+      <c r="A382" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B382" s="1">
         <v>0.42416666666666669</v>
       </c>
       <c r="C382" t="s">
@@ -10116,10 +10197,10 @@
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A383" s="1">
-        <v>45541</v>
-      </c>
-      <c r="B383" s="2">
+      <c r="A383" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B383" s="1">
         <v>0.42471064814814813</v>
       </c>
       <c r="C383" t="s">
@@ -10136,10 +10217,10 @@
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A384" s="1">
-        <v>45541</v>
-      </c>
-      <c r="B384" s="2">
+      <c r="A384" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B384" s="1">
         <v>0.43228009259259259</v>
       </c>
       <c r="C384" t="s">
@@ -10156,10 +10237,10 @@
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A385" s="1">
-        <v>45541</v>
-      </c>
-      <c r="B385" s="2">
+      <c r="A385" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B385" s="1">
         <v>0.43915509259259261</v>
       </c>
       <c r="C385" t="s">
@@ -10176,10 +10257,10 @@
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A386" s="1">
-        <v>45541</v>
-      </c>
-      <c r="B386" s="2">
+      <c r="A386" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B386" s="1">
         <v>0.45587962962962963</v>
       </c>
       <c r="C386" t="s">
@@ -10196,10 +10277,10 @@
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A387" s="1">
-        <v>45541</v>
-      </c>
-      <c r="B387" s="2">
+      <c r="A387" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B387" s="1">
         <v>0.45689814814814816</v>
       </c>
       <c r="C387" t="s">
@@ -10216,10 +10297,10 @@
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A388" s="1">
-        <v>45541</v>
-      </c>
-      <c r="B388" s="2">
+      <c r="A388" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B388" s="1">
         <v>0.4576736111111111</v>
       </c>
       <c r="C388" t="s">
@@ -10236,10 +10317,10 @@
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A389" s="1">
-        <v>45541</v>
-      </c>
-      <c r="B389" s="2">
+      <c r="A389" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B389" s="1">
         <v>0.46148148148148149</v>
       </c>
       <c r="C389" t="s">
@@ -10256,10 +10337,10 @@
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A390" s="1">
-        <v>45541</v>
-      </c>
-      <c r="B390" s="2">
+      <c r="A390" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B390" s="1">
         <v>0.46247685185185183</v>
       </c>
       <c r="C390" t="s">
@@ -10276,10 +10357,10 @@
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A391" s="1">
-        <v>45541</v>
-      </c>
-      <c r="B391" s="2">
+      <c r="A391" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B391" s="1">
         <v>0.47688657407407409</v>
       </c>
       <c r="C391" t="s">
@@ -10296,10 +10377,10 @@
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A392" s="1">
-        <v>45541</v>
-      </c>
-      <c r="B392" s="2">
+      <c r="A392" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B392" s="1">
         <v>0.47782407407407407</v>
       </c>
       <c r="C392" t="s">
@@ -10316,10 +10397,10 @@
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A393" s="1">
-        <v>45541</v>
-      </c>
-      <c r="B393" s="2">
+      <c r="A393" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B393" s="1">
         <v>0.47821759259259261</v>
       </c>
       <c r="C393" t="s">
@@ -10336,10 +10417,10 @@
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A394" s="1">
-        <v>45541</v>
-      </c>
-      <c r="B394" s="2">
+      <c r="A394" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B394" s="1">
         <v>0.54171296296296301</v>
       </c>
       <c r="C394" t="s">
@@ -10356,10 +10437,10 @@
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A395" s="1">
-        <v>45541</v>
-      </c>
-      <c r="B395" s="2">
+      <c r="A395" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B395" s="1">
         <v>0.55997685185185186</v>
       </c>
       <c r="C395" t="s">
@@ -10376,10 +10457,10 @@
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A396" s="1">
-        <v>45541</v>
-      </c>
-      <c r="B396" s="2">
+      <c r="A396" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B396" s="1">
         <v>0.58399305555555558</v>
       </c>
       <c r="C396" t="s">
@@ -10396,13 +10477,13 @@
       </c>
     </row>
     <row r="397" spans="1:6" ht="196" x14ac:dyDescent="0.3">
-      <c r="A397" s="1">
-        <v>45541</v>
-      </c>
-      <c r="B397" s="2">
+      <c r="A397" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B397" s="1">
         <v>0.58729166666666666</v>
       </c>
-      <c r="C397" s="3" t="s">
+      <c r="C397" s="2" t="s">
         <v>388</v>
       </c>
       <c r="D397">
@@ -10416,10 +10497,10 @@
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A398" s="1">
-        <v>45541</v>
-      </c>
-      <c r="B398" s="2">
+      <c r="A398" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B398" s="1">
         <v>0.58797453703703706</v>
       </c>
       <c r="C398" t="s">
@@ -10436,10 +10517,10 @@
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A399" s="1">
-        <v>45543</v>
-      </c>
-      <c r="B399" s="2">
+      <c r="A399" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="B399" s="1">
         <v>0.89643518518518517</v>
       </c>
       <c r="C399" t="s">
@@ -10456,10 +10537,10 @@
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A400" s="1">
-        <v>45543</v>
-      </c>
-      <c r="B400" s="2">
+      <c r="A400" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="B400" s="1">
         <v>0.92866898148148147</v>
       </c>
       <c r="C400" t="s">
@@ -10473,10 +10554,10 @@
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A401" s="1">
-        <v>45543</v>
-      </c>
-      <c r="B401" s="2">
+      <c r="A401" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="B401" s="1">
         <v>0.9299884259259259</v>
       </c>
       <c r="C401" t="s">
@@ -10490,10 +10571,10 @@
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A402" s="1">
-        <v>45543</v>
-      </c>
-      <c r="B402" s="2">
+      <c r="A402" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="B402" s="1">
         <v>0.93099537037037039</v>
       </c>
       <c r="C402" t="s">
@@ -10507,10 +10588,10 @@
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A403" s="1">
-        <v>45543</v>
-      </c>
-      <c r="B403" s="2">
+      <c r="A403" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="B403" s="1">
         <v>0.93855324074074076</v>
       </c>
       <c r="C403" t="s">
@@ -10527,10 +10608,10 @@
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A404" s="1">
-        <v>45544</v>
-      </c>
-      <c r="B404" s="2">
+      <c r="A404" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="B404" s="1">
         <v>0.54336805555555556</v>
       </c>
       <c r="C404" t="s">
@@ -10547,10 +10628,10 @@
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A405" s="1">
-        <v>45544</v>
-      </c>
-      <c r="B405" s="2">
+      <c r="A405" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="B405" s="1">
         <v>0.56068287037037035</v>
       </c>
       <c r="C405" t="s">
@@ -10567,10 +10648,10 @@
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A406" s="1">
-        <v>45544</v>
-      </c>
-      <c r="B406" s="2">
+      <c r="A406" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="B406" s="1">
         <v>0.62320601851851853</v>
       </c>
       <c r="C406" t="s">
@@ -10587,10 +10668,10 @@
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A407" s="1">
-        <v>45544</v>
-      </c>
-      <c r="B407" s="2">
+      <c r="A407" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="B407" s="1">
         <v>0.62378472222222225</v>
       </c>
       <c r="C407" t="s">
@@ -10607,10 +10688,10 @@
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A408" s="1">
-        <v>45544</v>
-      </c>
-      <c r="B408" s="2">
+      <c r="A408" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="B408" s="1">
         <v>0.98902777777777773</v>
       </c>
       <c r="C408" t="s">
@@ -10627,10 +10708,10 @@
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A409" s="1">
-        <v>45545</v>
-      </c>
-      <c r="B409" s="2">
+      <c r="A409" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="B409" s="1">
         <v>0.41851851851851851</v>
       </c>
       <c r="C409" t="s">
@@ -10647,10 +10728,10 @@
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A410" s="1">
-        <v>45545</v>
-      </c>
-      <c r="B410" s="2">
+      <c r="A410" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="B410" s="1">
         <v>0.42237268518518517</v>
       </c>
       <c r="C410" t="s">
@@ -10667,10 +10748,10 @@
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A411" s="1">
-        <v>45545</v>
-      </c>
-      <c r="B411" s="2">
+      <c r="A411" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="B411" s="1">
         <v>0.42983796296296295</v>
       </c>
       <c r="C411" t="s">
@@ -10687,10 +10768,10 @@
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A412" s="1">
-        <v>45545</v>
-      </c>
-      <c r="B412" s="2">
+      <c r="A412" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="B412" s="1">
         <v>0.4321875</v>
       </c>
       <c r="C412" t="s">
@@ -10707,10 +10788,10 @@
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A413" s="1">
-        <v>45545</v>
-      </c>
-      <c r="B413" s="2">
+      <c r="A413" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="B413" s="1">
         <v>0.43790509259259258</v>
       </c>
       <c r="C413" t="s">
@@ -10727,10 +10808,10 @@
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A414" s="1">
-        <v>45545</v>
-      </c>
-      <c r="B414" s="2">
+      <c r="A414" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="B414" s="1">
         <v>0.4392361111111111</v>
       </c>
       <c r="C414" t="s">
@@ -10747,10 +10828,10 @@
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A415" s="1">
-        <v>45545</v>
-      </c>
-      <c r="B415" s="2">
+      <c r="A415" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="B415" s="1">
         <v>0.46230324074074075</v>
       </c>
       <c r="C415" t="s">
@@ -10767,10 +10848,10 @@
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A416" s="1">
-        <v>45545</v>
-      </c>
-      <c r="B416" s="2">
+      <c r="A416" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="B416" s="1">
         <v>0.46380787037037036</v>
       </c>
       <c r="C416" t="s">
@@ -10787,10 +10868,10 @@
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A417" s="1">
-        <v>45545</v>
-      </c>
-      <c r="B417" s="2">
+      <c r="A417" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="B417" s="1">
         <v>0.46818287037037037</v>
       </c>
       <c r="C417" t="s">
@@ -10807,10 +10888,10 @@
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A418" s="1">
-        <v>45545</v>
-      </c>
-      <c r="B418" s="2">
+      <c r="A418" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="B418" s="1">
         <v>0.55267361111111113</v>
       </c>
       <c r="C418" t="s">
@@ -10827,10 +10908,10 @@
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A419" s="1">
-        <v>45545</v>
-      </c>
-      <c r="B419" s="2">
+      <c r="A419" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="B419" s="1">
         <v>0.55437499999999995</v>
       </c>
       <c r="C419" t="s">
@@ -10847,10 +10928,10 @@
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A420" s="1">
-        <v>45545</v>
-      </c>
-      <c r="B420" s="2">
+      <c r="A420" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="B420" s="1">
         <v>0.55716435185185187</v>
       </c>
       <c r="C420" t="s">
@@ -10867,10 +10948,10 @@
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A421" s="1">
-        <v>45545</v>
-      </c>
-      <c r="B421" s="2">
+      <c r="A421" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="B421" s="1">
         <v>0.56305555555555553</v>
       </c>
       <c r="C421" t="s">
@@ -10887,10 +10968,10 @@
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A422" s="1">
-        <v>45545</v>
-      </c>
-      <c r="B422" s="2">
+      <c r="A422" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="B422" s="1">
         <v>0.56328703703703709</v>
       </c>
       <c r="C422" t="s">
@@ -10907,10 +10988,10 @@
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A423" s="1">
-        <v>45545</v>
-      </c>
-      <c r="B423" s="2">
+      <c r="A423" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="B423" s="1">
         <v>0.61972222222222217</v>
       </c>
       <c r="C423" t="s">
@@ -10927,10 +11008,10 @@
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A424" s="1">
-        <v>45545</v>
-      </c>
-      <c r="B424" s="2">
+      <c r="A424" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="B424" s="1">
         <v>0.62071759259259263</v>
       </c>
       <c r="C424" t="s">
@@ -10947,10 +11028,10 @@
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A425" s="1">
-        <v>45545</v>
-      </c>
-      <c r="B425" s="2">
+      <c r="A425" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="B425" s="1">
         <v>0.62124999999999997</v>
       </c>
       <c r="C425" t="s">
@@ -10967,10 +11048,10 @@
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A426" s="1">
-        <v>45545</v>
-      </c>
-      <c r="B426" s="2">
+      <c r="A426" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="B426" s="1">
         <v>0.92447916666666663</v>
       </c>
       <c r="C426" t="s">
@@ -10987,10 +11068,10 @@
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A427" s="1">
-        <v>45546</v>
-      </c>
-      <c r="B427" s="2">
+      <c r="A427" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B427" s="1">
         <v>0.4216550925925926</v>
       </c>
       <c r="C427" t="s">
@@ -11007,10 +11088,10 @@
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A428" s="1">
-        <v>45546</v>
-      </c>
-      <c r="B428" s="2">
+      <c r="A428" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B428" s="1">
         <v>0.43466435185185187</v>
       </c>
       <c r="C428" t="s">
@@ -11027,10 +11108,10 @@
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A429" s="1">
-        <v>45546</v>
-      </c>
-      <c r="B429" s="2">
+      <c r="A429" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B429" s="1">
         <v>0.4346990740740741</v>
       </c>
       <c r="C429" t="s">
@@ -11047,10 +11128,10 @@
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A430" s="1">
-        <v>45546</v>
-      </c>
-      <c r="B430" s="2">
+      <c r="A430" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B430" s="1">
         <v>0.43818287037037035</v>
       </c>
       <c r="C430" t="s">
@@ -11067,10 +11148,10 @@
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A431" s="1">
-        <v>45546</v>
-      </c>
-      <c r="B431" s="2">
+      <c r="A431" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B431" s="1">
         <v>0.44300925925925927</v>
       </c>
       <c r="C431" t="s">
@@ -11087,10 +11168,10 @@
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A432" s="1">
-        <v>45546</v>
-      </c>
-      <c r="B432" s="2">
+      <c r="A432" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B432" s="1">
         <v>0.44358796296296299</v>
       </c>
       <c r="C432" t="s">
@@ -11107,10 +11188,10 @@
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A433" s="1">
-        <v>45546</v>
-      </c>
-      <c r="B433" s="2">
+      <c r="A433" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B433" s="1">
         <v>0.44527777777777777</v>
       </c>
       <c r="C433" t="s">
@@ -11127,10 +11208,10 @@
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A434" s="1">
-        <v>45546</v>
-      </c>
-      <c r="B434" s="2">
+      <c r="A434" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B434" s="1">
         <v>0.44701388888888888</v>
       </c>
       <c r="C434" t="s">
@@ -11147,10 +11228,10 @@
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A435" s="1">
-        <v>45546</v>
-      </c>
-      <c r="B435" s="2">
+      <c r="A435" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B435" s="1">
         <v>0.46491898148148147</v>
       </c>
       <c r="C435" t="s">
@@ -11167,10 +11248,10 @@
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A436" s="1">
-        <v>45546</v>
-      </c>
-      <c r="B436" s="2">
+      <c r="A436" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B436" s="1">
         <v>0.46734953703703702</v>
       </c>
       <c r="C436" t="s">
@@ -11187,10 +11268,10 @@
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A437" s="1">
-        <v>45546</v>
-      </c>
-      <c r="B437" s="2">
+      <c r="A437" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B437" s="1">
         <v>0.46793981481481484</v>
       </c>
       <c r="C437" t="s">
@@ -11207,10 +11288,10 @@
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A438" s="1">
-        <v>45546</v>
-      </c>
-      <c r="B438" s="2">
+      <c r="A438" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B438" s="1">
         <v>0.46847222222222223</v>
       </c>
       <c r="C438" t="s">
@@ -11227,10 +11308,10 @@
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A439" s="1">
-        <v>45546</v>
-      </c>
-      <c r="B439" s="2">
+      <c r="A439" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B439" s="1">
         <v>0.46879629629629632</v>
       </c>
       <c r="C439" t="s">
@@ -11247,10 +11328,10 @@
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A440" s="1">
-        <v>45546</v>
-      </c>
-      <c r="B440" s="2">
+      <c r="A440" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B440" s="1">
         <v>0.47918981481481482</v>
       </c>
       <c r="C440" t="s">
@@ -11267,10 +11348,10 @@
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A441" s="1">
-        <v>45546</v>
-      </c>
-      <c r="B441" s="2">
+      <c r="A441" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B441" s="1">
         <v>0.541412037037037</v>
       </c>
       <c r="C441" t="s">
@@ -11287,10 +11368,10 @@
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A442" s="1">
-        <v>45546</v>
-      </c>
-      <c r="B442" s="2">
+      <c r="A442" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B442" s="1">
         <v>0.55391203703703706</v>
       </c>
       <c r="C442" t="s">
@@ -11307,10 +11388,10 @@
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A443" s="1">
-        <v>45546</v>
-      </c>
-      <c r="B443" s="2">
+      <c r="A443" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B443" s="1">
         <v>0.55694444444444446</v>
       </c>
       <c r="C443" t="s">
@@ -11327,10 +11408,10 @@
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A444" s="1">
-        <v>45546</v>
-      </c>
-      <c r="B444" s="2">
+      <c r="A444" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B444" s="1">
         <v>0.60050925925925924</v>
       </c>
       <c r="C444" t="s">
@@ -11347,10 +11428,10 @@
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A445" s="1">
-        <v>45546</v>
-      </c>
-      <c r="B445" s="2">
+      <c r="A445" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B445" s="1">
         <v>0.60968750000000005</v>
       </c>
       <c r="C445" t="s">
@@ -11367,10 +11448,10 @@
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A446" s="1">
-        <v>45546</v>
-      </c>
-      <c r="B446" s="2">
+      <c r="A446" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B446" s="1">
         <v>0.61438657407407404</v>
       </c>
       <c r="C446" t="s">
@@ -11387,10 +11468,10 @@
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A447" s="1">
-        <v>45546</v>
-      </c>
-      <c r="B447" s="2">
+      <c r="A447" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B447" s="1">
         <v>0.61460648148148145</v>
       </c>
       <c r="C447" t="s">
@@ -11407,10 +11488,10 @@
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A448" s="1">
-        <v>45546</v>
-      </c>
-      <c r="B448" s="2">
+      <c r="A448" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B448" s="1">
         <v>0.61509259259259264</v>
       </c>
       <c r="C448" t="s">
@@ -11427,10 +11508,10 @@
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A449" s="1">
-        <v>45546</v>
-      </c>
-      <c r="B449" s="2">
+      <c r="A449" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B449" s="1">
         <v>0.61569444444444443</v>
       </c>
       <c r="C449" t="s">
@@ -11447,10 +11528,10 @@
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A450" s="1">
-        <v>45546</v>
-      </c>
-      <c r="B450" s="2">
+      <c r="A450" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B450" s="1">
         <v>0.6255208333333333</v>
       </c>
       <c r="C450" t="s">
@@ -11467,10 +11548,10 @@
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A451" s="1">
-        <v>45546</v>
-      </c>
-      <c r="B451" s="2">
+      <c r="A451" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B451" s="1">
         <v>0.91766203703703708</v>
       </c>
       <c r="C451" t="s">
@@ -11487,10 +11568,10 @@
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A452" s="1">
-        <v>45547</v>
-      </c>
-      <c r="B452" s="2">
+      <c r="A452" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B452" s="1">
         <v>0.41680555555555554</v>
       </c>
       <c r="C452" t="s">
@@ -11507,10 +11588,10 @@
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A453" s="1">
-        <v>45547</v>
-      </c>
-      <c r="B453" s="2">
+      <c r="A453" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B453" s="1">
         <v>0.41795138888888889</v>
       </c>
       <c r="C453" t="s">
@@ -11527,10 +11608,10 @@
       </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A454" s="1">
-        <v>45547</v>
-      </c>
-      <c r="B454" s="2">
+      <c r="A454" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B454" s="1">
         <v>0.4181597222222222</v>
       </c>
       <c r="C454" t="s">
@@ -11547,10 +11628,10 @@
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A455" s="1">
-        <v>45547</v>
-      </c>
-      <c r="B455" s="2">
+      <c r="A455" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B455" s="1">
         <v>0.42021990740740739</v>
       </c>
       <c r="C455" t="s">
@@ -11567,10 +11648,10 @@
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A456" s="1">
-        <v>45547</v>
-      </c>
-      <c r="B456" s="2">
+      <c r="A456" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B456" s="1">
         <v>0.42716435185185186</v>
       </c>
       <c r="C456" t="s">
@@ -11587,10 +11668,10 @@
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A457" s="1">
-        <v>45547</v>
-      </c>
-      <c r="B457" s="2">
+      <c r="A457" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B457" s="1">
         <v>0.43284722222222222</v>
       </c>
       <c r="C457" t="s">
@@ -11607,10 +11688,10 @@
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A458" s="1">
-        <v>45547</v>
-      </c>
-      <c r="B458" s="2">
+      <c r="A458" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B458" s="1">
         <v>0.43760416666666668</v>
       </c>
       <c r="C458" t="s">
@@ -11627,10 +11708,10 @@
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A459" s="1">
-        <v>45547</v>
-      </c>
-      <c r="B459" s="2">
+      <c r="A459" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B459" s="1">
         <v>0.43811342592592595</v>
       </c>
       <c r="C459" t="s">
@@ -11647,10 +11728,10 @@
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A460" s="1">
-        <v>45547</v>
-      </c>
-      <c r="B460" s="2">
+      <c r="A460" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B460" s="1">
         <v>0.44819444444444445</v>
       </c>
       <c r="C460" t="s">
@@ -11667,10 +11748,10 @@
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A461" s="1">
-        <v>45547</v>
-      </c>
-      <c r="B461" s="2">
+      <c r="A461" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B461" s="1">
         <v>0.44837962962962963</v>
       </c>
       <c r="C461" t="s">
@@ -11687,10 +11768,10 @@
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A462" s="1">
-        <v>45547</v>
-      </c>
-      <c r="B462" s="2">
+      <c r="A462" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B462" s="1">
         <v>0.44959490740740743</v>
       </c>
       <c r="C462" t="s">
@@ -11707,10 +11788,10 @@
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A463" s="1">
-        <v>45547</v>
-      </c>
-      <c r="B463" s="2">
+      <c r="A463" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B463" s="1">
         <v>0.45128472222222221</v>
       </c>
       <c r="C463" t="s">
@@ -11727,10 +11808,10 @@
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A464" s="1">
-        <v>45547</v>
-      </c>
-      <c r="B464" s="2">
+      <c r="A464" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B464" s="1">
         <v>0.45732638888888888</v>
       </c>
       <c r="C464" t="s">
@@ -11747,10 +11828,10 @@
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A465" s="1">
-        <v>45547</v>
-      </c>
-      <c r="B465" s="2">
+      <c r="A465" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B465" s="1">
         <v>0.46758101851851852</v>
       </c>
       <c r="C465" t="s">
@@ -11767,10 +11848,10 @@
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A466" s="1">
-        <v>45547</v>
-      </c>
-      <c r="B466" s="2">
+      <c r="A466" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B466" s="1">
         <v>0.4704861111111111</v>
       </c>
       <c r="C466" t="s">
@@ -11787,13 +11868,13 @@
       </c>
     </row>
     <row r="467" spans="1:6" ht="182" x14ac:dyDescent="0.3">
-      <c r="A467" s="1">
-        <v>45547</v>
-      </c>
-      <c r="B467" s="2">
+      <c r="A467" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B467" s="1">
         <v>0.48653935185185188</v>
       </c>
-      <c r="C467" s="3" t="s">
+      <c r="C467" s="2" t="s">
         <v>454</v>
       </c>
       <c r="D467">
@@ -11807,10 +11888,10 @@
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A468" s="1">
-        <v>45547</v>
-      </c>
-      <c r="B468" s="2">
+      <c r="A468" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B468" s="1">
         <v>0.54253472222222221</v>
       </c>
       <c r="C468" t="s">
@@ -11827,10 +11908,10 @@
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A469" s="1">
-        <v>45547</v>
-      </c>
-      <c r="B469" s="2">
+      <c r="A469" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B469" s="1">
         <v>0.57896990740740739</v>
       </c>
       <c r="C469" t="s">
@@ -11847,13 +11928,13 @@
       </c>
     </row>
     <row r="470" spans="1:6" ht="210" x14ac:dyDescent="0.3">
-      <c r="A470" s="1">
-        <v>45547</v>
-      </c>
-      <c r="B470" s="2">
+      <c r="A470" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B470" s="1">
         <v>0.5845717592592593</v>
       </c>
-      <c r="C470" s="3" t="s">
+      <c r="C470" s="2" t="s">
         <v>457</v>
       </c>
       <c r="D470">
@@ -11867,10 +11948,10 @@
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A471" s="1">
-        <v>45547</v>
-      </c>
-      <c r="B471" s="2">
+      <c r="A471" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B471" s="1">
         <v>0.58499999999999996</v>
       </c>
       <c r="C471" t="s">
@@ -11887,10 +11968,10 @@
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A472" s="1">
-        <v>45547</v>
-      </c>
-      <c r="B472" s="2">
+      <c r="A472" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B472" s="1">
         <v>0.58807870370370374</v>
       </c>
       <c r="C472" t="s">
@@ -11907,10 +11988,10 @@
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A473" s="1">
-        <v>45547</v>
-      </c>
-      <c r="B473" s="2">
+      <c r="A473" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B473" s="1">
         <v>0.60083333333333333</v>
       </c>
       <c r="C473" t="s">
@@ -11927,10 +12008,10 @@
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A474" s="1">
-        <v>45547</v>
-      </c>
-      <c r="B474" s="2">
+      <c r="A474" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B474" s="1">
         <v>0.60439814814814818</v>
       </c>
       <c r="C474" t="s">
@@ -11947,10 +12028,10 @@
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A475" s="1">
-        <v>45547</v>
-      </c>
-      <c r="B475" s="2">
+      <c r="A475" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B475" s="1">
         <v>0.60832175925925924</v>
       </c>
       <c r="C475" t="s">
@@ -11967,10 +12048,10 @@
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A476" s="1">
-        <v>45547</v>
-      </c>
-      <c r="B476" s="2">
+      <c r="A476" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B476" s="1">
         <v>0.61952546296296296</v>
       </c>
       <c r="C476" t="s">
@@ -11987,10 +12068,10 @@
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A477" s="1">
-        <v>45547</v>
-      </c>
-      <c r="B477" s="2">
+      <c r="A477" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B477" s="1">
         <v>0.6216666666666667</v>
       </c>
       <c r="C477" t="s">
@@ -12007,10 +12088,10 @@
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A478" s="1">
-        <v>45547</v>
-      </c>
-      <c r="B478" s="2">
+      <c r="A478" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B478" s="1">
         <v>0.62832175925925926</v>
       </c>
       <c r="C478" t="s">
@@ -12027,10 +12108,10 @@
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A479" s="1">
-        <v>45547</v>
-      </c>
-      <c r="B479" s="2">
+      <c r="A479" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B479" s="1">
         <v>0.89076388888888891</v>
       </c>
       <c r="C479" t="s">
@@ -12047,10 +12128,10 @@
       </c>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A480" s="1">
-        <v>45600</v>
-      </c>
-      <c r="B480" s="2">
+      <c r="A480" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B480" s="1">
         <v>0.89077546296296295</v>
       </c>
       <c r="C480" t="s">
@@ -12067,10 +12148,10 @@
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A481" s="1">
-        <v>45600</v>
-      </c>
-      <c r="B481" s="2">
+      <c r="A481" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B481" s="1">
         <v>0.89078703703703699</v>
       </c>
       <c r="C481" t="s">
@@ -12087,10 +12168,10 @@
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A482" s="1">
-        <v>45600</v>
-      </c>
-      <c r="B482" s="2">
+      <c r="A482" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B482" s="1">
         <v>0.89079861111111114</v>
       </c>
       <c r="C482" t="s">
@@ -12107,10 +12188,10 @@
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A483" s="1">
-        <v>45600</v>
-      </c>
-      <c r="B483" s="2">
+      <c r="A483" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B483" s="1">
         <v>0.89081018518518518</v>
       </c>
       <c r="C483" t="s">
@@ -12127,10 +12208,10 @@
       </c>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A484" s="1">
-        <v>45600</v>
-      </c>
-      <c r="B484" s="2">
+      <c r="A484" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B484" s="1">
         <v>0.89082175925925922</v>
       </c>
       <c r="C484" t="s">
@@ -12147,10 +12228,10 @@
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A485" s="1">
-        <v>45600</v>
-      </c>
-      <c r="B485" s="2">
+      <c r="A485" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B485" s="1">
         <v>0.89083333333333337</v>
       </c>
       <c r="C485" t="s">
@@ -12167,10 +12248,10 @@
       </c>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A486" s="1">
-        <v>45600</v>
-      </c>
-      <c r="B486" s="2">
+      <c r="A486" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B486" s="1">
         <v>0.8908449074074074</v>
       </c>
       <c r="C486" t="s">
@@ -12187,10 +12268,10 @@
       </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A487" s="1">
-        <v>45600</v>
-      </c>
-      <c r="B487" s="2">
+      <c r="A487" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B487" s="1">
         <v>0.89085648148148144</v>
       </c>
       <c r="C487" t="s">
@@ -12207,10 +12288,10 @@
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A488" s="1">
-        <v>45600</v>
-      </c>
-      <c r="B488" s="2">
+      <c r="A488" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B488" s="1">
         <v>0.89086805555555559</v>
       </c>
       <c r="C488" t="s">
@@ -12227,10 +12308,10 @@
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A489" s="1">
-        <v>45600</v>
-      </c>
-      <c r="B489" s="2">
+      <c r="A489" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B489" s="1">
         <v>0.89087962962962963</v>
       </c>
       <c r="C489" t="s">
@@ -12247,10 +12328,10 @@
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A490" s="1">
-        <v>45600</v>
-      </c>
-      <c r="B490" s="2">
+      <c r="A490" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B490" s="1">
         <v>0.89089120370370367</v>
       </c>
       <c r="C490" t="s">
@@ -12267,10 +12348,10 @@
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A491" s="1">
-        <v>45600</v>
-      </c>
-      <c r="B491" s="2">
+      <c r="A491" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B491" s="1">
         <v>0.89090277777777782</v>
       </c>
       <c r="C491" t="s">
@@ -12287,10 +12368,10 @@
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A492" s="1">
-        <v>45600</v>
-      </c>
-      <c r="B492" s="2">
+      <c r="A492" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B492" s="1">
         <v>0.89091435185185186</v>
       </c>
       <c r="C492" t="s">
@@ -12307,10 +12388,10 @@
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A493" s="1">
-        <v>45600</v>
-      </c>
-      <c r="B493" s="2">
+      <c r="A493" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B493" s="1">
         <v>0.8909259259259259</v>
       </c>
       <c r="C493" t="s">
@@ -12327,10 +12408,10 @@
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A494" s="1">
-        <v>45600</v>
-      </c>
-      <c r="B494" s="2">
+      <c r="A494" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B494" s="1">
         <v>0.89093750000000005</v>
       </c>
       <c r="C494" t="s">
@@ -12347,10 +12428,10 @@
       </c>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A495" s="1">
-        <v>45600</v>
-      </c>
-      <c r="B495" s="2">
+      <c r="A495" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B495" s="1">
         <v>0.89094907407407409</v>
       </c>
       <c r="C495" t="s">
@@ -12367,10 +12448,10 @@
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A496" s="1">
-        <v>45600</v>
-      </c>
-      <c r="B496" s="2">
+      <c r="A496" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B496" s="1">
         <v>0.89096064814814813</v>
       </c>
       <c r="C496" t="s">
@@ -12387,8 +12468,8 @@
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A497" s="1">
-        <v>45600</v>
+      <c r="A497" s="3" t="s">
+        <v>518</v>
       </c>
       <c r="B497">
         <v>0.89097222222222228</v>
@@ -12407,8 +12488,8 @@
       </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A498" s="1">
-        <v>45600</v>
+      <c r="A498" s="3" t="s">
+        <v>518</v>
       </c>
       <c r="B498">
         <v>0.89098379629629632</v>
@@ -12427,8 +12508,8 @@
       </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A499" s="1">
-        <v>45600</v>
+      <c r="A499" s="3" t="s">
+        <v>518</v>
       </c>
       <c r="B499">
         <v>0.89099537037037035</v>
@@ -12447,8 +12528,8 @@
       </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A500" s="1">
-        <v>45600</v>
+      <c r="A500" s="3" t="s">
+        <v>518</v>
       </c>
       <c r="B500">
         <v>0.89100694444444439</v>
@@ -12467,8 +12548,8 @@
       </c>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A501" s="1">
-        <v>45600</v>
+      <c r="A501" s="3" t="s">
+        <v>518</v>
       </c>
       <c r="B501">
         <v>0.89101851851851854</v>
@@ -12487,8 +12568,8 @@
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A502" s="1">
-        <v>45600</v>
+      <c r="A502" s="3" t="s">
+        <v>518</v>
       </c>
       <c r="B502">
         <v>0.89103009259259258</v>
@@ -12507,8 +12588,8 @@
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A503" s="1">
-        <v>45600</v>
+      <c r="A503" s="3" t="s">
+        <v>518</v>
       </c>
       <c r="B503">
         <v>0.89104166666666662</v>
@@ -12527,8 +12608,8 @@
       </c>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A504" s="1">
-        <v>45600</v>
+      <c r="A504" s="3" t="s">
+        <v>518</v>
       </c>
       <c r="B504">
         <v>0.89105324074074077</v>
@@ -12547,8 +12628,8 @@
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A505" s="1">
-        <v>45600</v>
+      <c r="A505" s="3" t="s">
+        <v>518</v>
       </c>
       <c r="B505">
         <v>0.89106481481481481</v>
@@ -12567,8 +12648,8 @@
       </c>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A506" s="1">
-        <v>45600</v>
+      <c r="A506" s="3" t="s">
+        <v>518</v>
       </c>
       <c r="B506">
         <v>0.89107638888888885</v>
@@ -12587,8 +12668,8 @@
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A507" s="1">
-        <v>45600</v>
+      <c r="A507" s="3" t="s">
+        <v>518</v>
       </c>
       <c r="B507">
         <v>0.891087962962963</v>
@@ -12607,8 +12688,8 @@
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A508" s="1">
-        <v>45600</v>
+      <c r="A508" s="3" t="s">
+        <v>518</v>
       </c>
       <c r="B508">
         <v>0.89109953703703704</v>

--- a/modified_chat_records.xlsx
+++ b/modified_chat_records.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AAA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B64D04-33A1-45CB-97AF-A5C68120E3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D3BE30-A921-4669-8CFA-1F779C544E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="1450" windowWidth="22210" windowHeight="15310" xr2:uid="{3D93A96B-F74E-4C9F-A6D3-CEDA03917917}"/>
   </bookViews>
